--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -42,7 +42,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 攻击技能
+2 召唤技能
+3 被动技能</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 攻击技能
+2 召唤技能
+3 被动技能</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
   <si>
     <t>_ID</t>
   </si>
@@ -198,7 +246,10 @@
     <t>技能名字</t>
   </si>
   <si>
-    <t>#说明</t>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>优先度</t>
   </si>
   <si>
     <t>技能描述</t>
@@ -249,6 +300,12 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
     <t>Des</t>
   </si>
   <si>
@@ -312,6 +369,9 @@
     <t>武力精通</t>
   </si>
   <si>
+    <t>FullBox</t>
+  </si>
+  <si>
     <t>野蛮撞击</t>
   </si>
   <si>
@@ -364,9 +424,6 @@
   </si>
   <si>
     <t>普攻</t>
-  </si>
-  <si>
-    <t>怪物普攻</t>
   </si>
   <si>
     <t>远程普通</t>
@@ -1339,32 +1396,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:X28"/>
+  <dimension ref="C3:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="14.625" style="2" customWidth="1"/>
-    <col min="11" max="13" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13" style="2" customWidth="1"/>
-    <col min="16" max="17" width="7.875" style="2" customWidth="1"/>
-    <col min="18" max="23" width="9" style="2"/>
-    <col min="24" max="24" width="19.25" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="14.625" style="2" customWidth="1"/>
+    <col min="12" max="14" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.875" style="2" customWidth="1"/>
+    <col min="19" max="24" width="9" style="2"/>
+    <col min="25" max="25" width="19.25" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:24">
+    <row r="3" spans="3:25">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1413,118 +1470,131 @@
       <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="3:18">
+    <row r="4" spans="3:19">
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="3:18">
+    <row r="5" spans="3:19">
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:17">
+    <row r="6" s="1" customFormat="1" spans="3:18">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1532,14 +1602,17 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="1">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
@@ -1549,23 +1622,26 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>34</v>
+      <c r="M6" s="1">
+        <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
         <v>110</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:17">
+    <row r="7" s="1" customFormat="1" spans="3:18">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1573,14 +1649,17 @@
         <v>1002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
@@ -1588,25 +1667,28 @@
         <v>1</v>
       </c>
       <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="1">
+        <v>37</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="1">
         <v>2</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>150</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:17">
+    <row r="8" s="1" customFormat="1" spans="3:18">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1614,40 +1696,46 @@
         <v>1003</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="1">
+      <c r="O8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="1">
-        <v>5</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>120</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:17">
+    <row r="9" s="1" customFormat="1" spans="3:18">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1655,31 +1743,34 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1">
         <v>30</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -1687,8 +1778,11 @@
       <c r="Q9" s="1">
         <v>0</v>
       </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:17">
+    <row r="10" s="1" customFormat="1" spans="3:18">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1696,28 +1790,34 @@
         <v>1005</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
       </c>
       <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -1725,8 +1825,11 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:17">
+    <row r="11" s="1" customFormat="1" spans="3:18">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -1734,14 +1837,17 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
         <v>15</v>
       </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
@@ -1749,25 +1855,28 @@
         <v>1</v>
       </c>
       <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="N11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
         <v>200</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:17">
+    <row r="12" s="1" customFormat="1" spans="3:18">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -1775,14 +1884,17 @@
         <v>1007</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="1">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
         <v>15</v>
       </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
@@ -1792,23 +1904,26 @@
       <c r="L12" s="1">
         <v>1</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>34</v>
+      <c r="M12" s="1">
+        <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
         <v>300</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:17">
+    <row r="13" s="1" customFormat="1" spans="3:18">
       <c r="C13" s="1">
         <v>2001</v>
       </c>
@@ -1816,40 +1931,46 @@
         <v>2001</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="1">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
         <v>4</v>
       </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
       <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
         <v>2</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
       <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
         <v>2</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="1">
+        <v>46</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="1">
         <v>2</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>110</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:17">
+    <row r="14" s="1" customFormat="1" spans="3:18">
       <c r="C14" s="1">
         <v>2002</v>
       </c>
@@ -1857,40 +1978,46 @@
         <v>2002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="1">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
         <v>5</v>
       </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
       <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
       <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
         <v>3</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="N14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
         <v>150</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:17">
+    <row r="15" s="1" customFormat="1" spans="3:18">
       <c r="C15" s="1">
         <v>2003</v>
       </c>
@@ -1898,40 +2025,46 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="1">
+      <c r="O15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="1">
         <v>5</v>
       </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O15" s="1">
-        <v>5</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>120</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:17">
+    <row r="16" s="1" customFormat="1" spans="3:18">
       <c r="C16" s="1">
         <v>2004</v>
       </c>
@@ -1939,31 +2072,34 @@
         <v>2004</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="1">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1">
         <v>30</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
@@ -1971,8 +2107,11 @@
       <c r="Q16" s="1">
         <v>0</v>
       </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:17">
+    <row r="17" s="1" customFormat="1" spans="3:18">
       <c r="C17" s="1">
         <v>2005</v>
       </c>
@@ -1980,28 +2119,34 @@
         <v>2005</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>2</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
@@ -2009,8 +2154,11 @@
       <c r="Q17" s="1">
         <v>0</v>
       </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:17">
+    <row r="18" s="1" customFormat="1" spans="3:18">
       <c r="C18" s="1">
         <v>2006</v>
       </c>
@@ -2018,40 +2166,46 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="1">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
         <v>15</v>
       </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
       <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
         <v>2</v>
       </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
       <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
         <v>3</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
       </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:17">
+    <row r="19" s="1" customFormat="1" spans="3:18">
       <c r="C19" s="1">
         <v>2007</v>
       </c>
@@ -2059,40 +2213,46 @@
         <v>2007</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="1">
+        <v>54</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
         <v>2</v>
       </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
       <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
         <v>3</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="N19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" s="1">
+        <v>46</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="1">
         <v>5</v>
       </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
       <c r="Q19" s="1">
         <v>0</v>
       </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:17">
+    <row r="20" s="1" customFormat="1" spans="3:18">
       <c r="C20" s="1">
         <v>3001</v>
       </c>
@@ -2100,40 +2260,46 @@
         <v>3001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="1">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
       <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
         <v>3</v>
       </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
       <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
         <v>3</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
         <v>110</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:17">
+    <row r="21" s="1" customFormat="1" spans="3:18">
       <c r="C21" s="1">
         <v>3002</v>
       </c>
@@ -2141,37 +2307,46 @@
         <v>3002</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="1">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>100</v>
+      </c>
+      <c r="I21" s="1">
         <v>15</v>
       </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
       <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
         <v>3</v>
       </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
       <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="P21" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="1">
         <v>150</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:17">
+    <row r="22" s="1" customFormat="1" spans="3:18">
       <c r="C22" s="1">
         <v>3003</v>
       </c>
@@ -2179,40 +2354,46 @@
         <v>3003</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="1">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
         <v>5</v>
       </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
       <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
         <v>3</v>
       </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
       <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O22" s="1">
+        <v>46</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="1">
         <v>5</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>120</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:17">
+    <row r="23" s="1" customFormat="1" spans="3:18">
       <c r="C23" s="1">
         <v>3004</v>
       </c>
@@ -2220,31 +2401,34 @@
         <v>3004</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="1">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>50</v>
+      </c>
+      <c r="I23" s="1">
         <v>30</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>3</v>
       </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
       <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P23" s="1">
         <v>0</v>
@@ -2252,8 +2436,11 @@
       <c r="Q23" s="1">
         <v>0</v>
       </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:17">
+    <row r="24" s="1" customFormat="1" spans="3:18">
       <c r="C24" s="1">
         <v>3005</v>
       </c>
@@ -2261,28 +2448,34 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
       </c>
       <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
         <v>2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>3</v>
       </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
       <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
         <v>3</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
+      <c r="N24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
@@ -2290,8 +2483,11 @@
       <c r="Q24" s="1">
         <v>0</v>
       </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:17">
+    <row r="25" s="1" customFormat="1" spans="3:18">
       <c r="C25" s="1">
         <v>3006</v>
       </c>
@@ -2299,40 +2495,46 @@
         <v>3006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="1">
+        <v>60</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
         <v>15</v>
       </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
       <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
         <v>3</v>
       </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
       <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25" s="1">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
         <v>200</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:17">
+    <row r="26" s="1" customFormat="1" spans="3:18">
       <c r="C26" s="1">
         <v>3007</v>
       </c>
@@ -2340,28 +2542,34 @@
         <v>3007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="1">
+        <v>61</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>90</v>
+      </c>
+      <c r="I26" s="1">
         <v>30</v>
       </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
       <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
         <v>3</v>
       </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
       <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
@@ -2369,8 +2577,11 @@
       <c r="Q26" s="1">
         <v>0</v>
       </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:17">
+    <row r="27" s="1" customFormat="1" spans="3:18">
       <c r="C27" s="1">
         <v>9001</v>
       </c>
@@ -2378,16 +2589,16 @@
         <v>9001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="1">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -2396,25 +2607,28 @@
         <v>1</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
         <v>100</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="3:17">
+    <row r="28" s="1" customFormat="1" spans="3:18">
       <c r="C28" s="1">
         <v>9002</v>
       </c>
@@ -2422,16 +2636,16 @@
         <v>9002</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="1">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -2440,27 +2654,30 @@
         <v>1</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
         <v>100</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="H3:H5 C3:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G3:G5 H3:H5 I3:I5 C3:F5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <t>_ID</t>
   </si>
@@ -285,7 +285,10 @@
     <t>固定伤害</t>
   </si>
   <si>
-    <t>#附带效果</t>
+    <t>附带效果</t>
+  </si>
+  <si>
+    <t>升级经验</t>
   </si>
   <si>
     <t>#</t>
@@ -318,7 +321,7 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Level</t>
+    <t>MaxLevel</t>
   </si>
   <si>
     <t>Dis</t>
@@ -339,10 +342,19 @@
     <t>Damage</t>
   </si>
   <si>
+    <t>EffectIdList</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>基本剑术</t>
@@ -1401,7 +1413,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1411,12 +1423,13 @@
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="14.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
     <col min="12" max="14" width="7.50833333333333" style="2" customWidth="1"/>
     <col min="15" max="15" width="8.25" style="2" customWidth="1"/>
     <col min="16" max="16" width="13" style="2" customWidth="1"/>
     <col min="17" max="18" width="7.875" style="2" customWidth="1"/>
-    <col min="19" max="24" width="9" style="2"/>
+    <col min="19" max="19" width="11.75" style="2" customWidth="1"/>
+    <col min="20" max="24" width="9" style="2"/>
     <col min="25" max="25" width="19.25" style="2" customWidth="1"/>
     <col min="26" max="16384" width="9" style="2"/>
   </cols>
@@ -1473,128 +1486,138 @@
       <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:19">
+    <row r="4" spans="3:20">
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="3:19">
+    <row r="5" spans="3:20">
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:18">
+    <row r="6" s="1" customFormat="1" spans="3:20">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1602,7 +1625,7 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1620,16 +1643,16 @@
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -1640,8 +1663,14 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
+      <c r="S6" s="1">
+        <v>101</v>
+      </c>
+      <c r="T6" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:18">
+    <row r="7" s="1" customFormat="1" spans="3:20">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1649,7 +1678,7 @@
         <v>1002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1667,16 +1696,16 @@
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P7" s="1">
         <v>2</v>
@@ -1687,8 +1716,11 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
+      <c r="T7" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:18">
+    <row r="8" s="1" customFormat="1" spans="3:20">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1696,7 +1728,7 @@
         <v>1003</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1714,16 +1746,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P8" s="1">
         <v>5</v>
@@ -1734,8 +1766,11 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
+      <c r="T8" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:18">
+    <row r="9" s="1" customFormat="1" spans="3:20">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1743,7 +1778,7 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1761,16 +1796,16 @@
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -1781,8 +1816,14 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
+      <c r="S9" s="1">
+        <v>204</v>
+      </c>
+      <c r="T9" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:18">
+    <row r="10" s="1" customFormat="1" spans="3:20">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1790,7 +1831,7 @@
         <v>1005</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1808,16 +1849,16 @@
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -1828,8 +1869,11 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
+      <c r="T10" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:18">
+    <row r="11" s="1" customFormat="1" spans="3:20">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -1837,7 +1881,7 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1855,16 +1899,16 @@
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M11" s="1">
         <v>2</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
@@ -1875,8 +1919,11 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
+      <c r="T11" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:18">
+    <row r="12" s="1" customFormat="1" spans="3:20">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -1884,7 +1931,7 @@
         <v>1007</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1902,16 +1949,16 @@
         <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
@@ -1922,8 +1969,11 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
+      <c r="T12" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:18">
+    <row r="13" s="1" customFormat="1" spans="3:20">
       <c r="C13" s="1">
         <v>2001</v>
       </c>
@@ -1931,7 +1981,7 @@
         <v>2001</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1949,16 +1999,16 @@
         <v>2</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M13" s="1">
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P13" s="1">
         <v>2</v>
@@ -1969,8 +2019,14 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
+      <c r="S13" s="1">
+        <v>103</v>
+      </c>
+      <c r="T13" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:18">
+    <row r="14" s="1" customFormat="1" spans="3:20">
       <c r="C14" s="1">
         <v>2002</v>
       </c>
@@ -1978,7 +2034,7 @@
         <v>2002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1996,16 +2052,16 @@
         <v>2</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M14" s="1">
         <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
@@ -2016,8 +2072,11 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
+      <c r="T14" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:18">
+    <row r="15" s="1" customFormat="1" spans="3:20">
       <c r="C15" s="1">
         <v>2003</v>
       </c>
@@ -2025,7 +2084,7 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2043,16 +2102,16 @@
         <v>2</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P15" s="1">
         <v>5</v>
@@ -2063,8 +2122,11 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
+      <c r="T15" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:18">
+    <row r="16" s="1" customFormat="1" spans="3:20">
       <c r="C16" s="1">
         <v>2004</v>
       </c>
@@ -2072,7 +2134,7 @@
         <v>2004</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -2090,16 +2152,16 @@
         <v>2</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
@@ -2110,8 +2172,14 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
+      <c r="S16" s="1">
+        <v>204</v>
+      </c>
+      <c r="T16" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:18">
+    <row r="17" s="1" customFormat="1" spans="3:20">
       <c r="C17" s="1">
         <v>2005</v>
       </c>
@@ -2119,7 +2187,7 @@
         <v>2005</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2137,16 +2205,16 @@
         <v>2</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
@@ -2157,8 +2225,11 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
+      <c r="T17" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:18">
+    <row r="18" s="1" customFormat="1" spans="3:20">
       <c r="C18" s="1">
         <v>2006</v>
       </c>
@@ -2166,7 +2237,7 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2184,16 +2255,16 @@
         <v>2</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M18" s="1">
         <v>3</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P18" s="1">
         <v>1</v>
@@ -2204,8 +2275,11 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
+      <c r="T18" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:18">
+    <row r="19" s="1" customFormat="1" spans="3:20">
       <c r="C19" s="1">
         <v>2007</v>
       </c>
@@ -2213,7 +2287,7 @@
         <v>2007</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2231,16 +2305,16 @@
         <v>2</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M19" s="1">
         <v>3</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P19" s="1">
         <v>5</v>
@@ -2251,8 +2325,11 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
+      <c r="T19" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:18">
+    <row r="20" s="1" customFormat="1" spans="3:20">
       <c r="C20" s="1">
         <v>3001</v>
       </c>
@@ -2260,7 +2337,7 @@
         <v>3001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2278,16 +2355,16 @@
         <v>3</v>
       </c>
       <c r="L20" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M20" s="1">
         <v>3</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -2298,8 +2375,14 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
+      <c r="S20" s="1">
+        <v>102</v>
+      </c>
+      <c r="T20" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:18">
+    <row r="21" s="1" customFormat="1" spans="3:20">
       <c r="C21" s="1">
         <v>3002</v>
       </c>
@@ -2307,7 +2390,7 @@
         <v>3002</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -2325,16 +2408,16 @@
         <v>3</v>
       </c>
       <c r="L21" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P21" s="1">
         <v>2</v>
@@ -2345,8 +2428,11 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
+      <c r="T21" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:18">
+    <row r="22" s="1" customFormat="1" spans="3:20">
       <c r="C22" s="1">
         <v>3003</v>
       </c>
@@ -2354,7 +2440,7 @@
         <v>3003</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2372,16 +2458,16 @@
         <v>3</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P22" s="1">
         <v>5</v>
@@ -2392,8 +2478,14 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
+      <c r="S22" s="1">
+        <v>104</v>
+      </c>
+      <c r="T22" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:18">
+    <row r="23" s="1" customFormat="1" spans="3:20">
       <c r="C23" s="1">
         <v>3004</v>
       </c>
@@ -2401,7 +2493,7 @@
         <v>3004</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2419,16 +2511,16 @@
         <v>3</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P23" s="1">
         <v>0</v>
@@ -2439,8 +2531,14 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
+      <c r="S23" s="1">
+        <v>204</v>
+      </c>
+      <c r="T23" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:18">
+    <row r="24" s="1" customFormat="1" spans="3:20">
       <c r="C24" s="1">
         <v>3005</v>
       </c>
@@ -2448,7 +2546,7 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2466,16 +2564,16 @@
         <v>3</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M24" s="1">
         <v>3</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
@@ -2486,8 +2584,11 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
+      <c r="T24" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:18">
+    <row r="25" s="1" customFormat="1" spans="3:20">
       <c r="C25" s="1">
         <v>3006</v>
       </c>
@@ -2495,7 +2596,7 @@
         <v>3006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -2513,16 +2614,16 @@
         <v>3</v>
       </c>
       <c r="L25" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P25" s="1">
         <v>1</v>
@@ -2533,8 +2634,11 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
+      <c r="T25" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:18">
+    <row r="26" s="1" customFormat="1" spans="3:20">
       <c r="C26" s="1">
         <v>3007</v>
       </c>
@@ -2542,7 +2646,7 @@
         <v>3007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2560,16 +2664,16 @@
         <v>3</v>
       </c>
       <c r="L26" s="1">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
@@ -2580,8 +2684,11 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
+      <c r="T26" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:18">
+    <row r="27" s="1" customFormat="1" spans="3:20">
       <c r="C27" s="1">
         <v>9001</v>
       </c>
@@ -2589,7 +2696,7 @@
         <v>9001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -2613,10 +2720,10 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P27" s="1">
         <v>1</v>
@@ -2627,8 +2734,11 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="3:18">
+    <row r="28" s="1" customFormat="1" spans="3:20">
       <c r="C28" s="1">
         <v>9002</v>
       </c>
@@ -2636,7 +2746,7 @@
         <v>9002</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -2660,10 +2770,10 @@
         <v>2</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P28" s="1">
         <v>1</v>
@@ -2672,6 +2782,9 @@
         <v>100</v>
       </c>
       <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1413,7 +1413,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2461,7 +2461,7 @@
         <v>9999</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>50</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -62,7 +62,7 @@
           <t xml:space="preserve">
 1 攻击技能
 2 召唤技能
-3 被动技能</t>
+3 场景技能</t>
         </r>
       </text>
     </comment>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
   <si>
     <t>_ID</t>
   </si>
@@ -276,6 +276,9 @@
     <t>攻击区域</t>
   </si>
   <si>
+    <t>持续时间</t>
+  </si>
+  <si>
     <t>最大敌人数量</t>
   </si>
   <si>
@@ -331,6 +334,9 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>Duration</t>
   </si>
   <si>
     <t>EnemyMax</t>
@@ -1408,33 +1414,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Y28"/>
+  <dimension ref="C3:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="5" width="9" style="2"/>
     <col min="6" max="7" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
     <col min="12" max="14" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.75" style="2" customWidth="1"/>
-    <col min="20" max="24" width="9" style="2"/>
-    <col min="25" max="25" width="19.25" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="2"/>
+    <col min="15" max="16" width="8.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13" style="2" customWidth="1"/>
+    <col min="18" max="19" width="7.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.75" style="2" customWidth="1"/>
+    <col min="21" max="25" width="9" style="2"/>
+    <col min="26" max="26" width="19.25" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:25">
+    <row r="3" spans="3:26">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1489,135 +1495,144 @@
       <c r="T3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="3:20">
+    <row r="4" spans="3:21">
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="3:20">
+    <row r="5" spans="3:21">
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:20">
+    <row r="6" s="1" customFormat="1" spans="3:21">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1625,7 +1640,7 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1649,28 +1664,31 @@
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
         <v>110</v>
       </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
       <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <v>101</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:20">
+    <row r="7" s="1" customFormat="1" spans="3:21">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1678,7 +1696,7 @@
         <v>1002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1702,25 +1720,28 @@
         <v>2</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
         <v>2</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>150</v>
       </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:20">
+    <row r="8" s="1" customFormat="1" spans="3:21">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1728,7 +1749,7 @@
         <v>1003</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1752,25 +1773,28 @@
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>5</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>120</v>
       </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:20">
+    <row r="9" s="1" customFormat="1" spans="3:21">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1778,7 +1802,7 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1802,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -1817,13 +1841,16 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <v>204</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:20">
+    <row r="10" s="1" customFormat="1" spans="3:21">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1831,7 +1858,7 @@
         <v>1005</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1855,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -1869,11 +1896,14 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="T10" s="1">
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:20">
+    <row r="11" s="1" customFormat="1" spans="3:21">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -1881,7 +1911,7 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1905,25 +1935,28 @@
         <v>2</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
         <v>200</v>
       </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:20">
+    <row r="12" s="1" customFormat="1" spans="3:21">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -1931,7 +1964,7 @@
         <v>1007</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1955,25 +1988,28 @@
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
         <v>300</v>
       </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:20">
+    <row r="13" s="1" customFormat="1" spans="3:21">
       <c r="C13" s="1">
         <v>2001</v>
       </c>
@@ -1981,7 +2017,7 @@
         <v>2001</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -2005,28 +2041,31 @@
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <v>2</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>110</v>
       </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
       <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
         <v>103</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:20">
+    <row r="14" s="1" customFormat="1" spans="3:21">
       <c r="C14" s="1">
         <v>2002</v>
       </c>
@@ -2034,7 +2073,7 @@
         <v>2002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2058,25 +2097,28 @@
         <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
         <v>150</v>
       </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:20">
+    <row r="15" s="1" customFormat="1" spans="3:21">
       <c r="C15" s="1">
         <v>2003</v>
       </c>
@@ -2084,10 +2126,10 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
         <v>10</v>
@@ -2108,25 +2150,28 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P15" s="1">
         <v>5</v>
       </c>
       <c r="Q15" s="1">
+        <v>5</v>
+      </c>
+      <c r="R15" s="1">
         <v>120</v>
       </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:20">
+    <row r="16" s="1" customFormat="1" spans="3:21">
       <c r="C16" s="1">
         <v>2004</v>
       </c>
@@ -2134,7 +2179,7 @@
         <v>2004</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -2158,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
@@ -2173,13 +2218,16 @@
         <v>0</v>
       </c>
       <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
         <v>204</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:20">
+    <row r="17" s="1" customFormat="1" spans="3:21">
       <c r="C17" s="1">
         <v>2005</v>
       </c>
@@ -2187,7 +2235,7 @@
         <v>2005</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2211,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
@@ -2225,11 +2273,14 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="T17" s="1">
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:20">
+    <row r="18" s="1" customFormat="1" spans="3:21">
       <c r="C18" s="1">
         <v>2006</v>
       </c>
@@ -2237,7 +2288,7 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2261,25 +2312,28 @@
         <v>3</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="T18" s="1">
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:20">
+    <row r="19" s="1" customFormat="1" spans="3:21">
       <c r="C19" s="1">
         <v>2007</v>
       </c>
@@ -2287,7 +2341,7 @@
         <v>2007</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2311,25 +2365,28 @@
         <v>3</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
         <v>5</v>
       </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="T19" s="1">
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:20">
+    <row r="20" s="1" customFormat="1" spans="3:21">
       <c r="C20" s="1">
         <v>3001</v>
       </c>
@@ -2337,7 +2394,7 @@
         <v>3001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2361,28 +2418,31 @@
         <v>3</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
         <v>110</v>
       </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
       <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
         <v>102</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:20">
+    <row r="21" s="1" customFormat="1" spans="3:21">
       <c r="C21" s="1">
         <v>3002</v>
       </c>
@@ -2390,7 +2450,7 @@
         <v>3002</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -2414,25 +2474,28 @@
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
         <v>2</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>150</v>
       </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:20">
+    <row r="22" s="1" customFormat="1" spans="3:21">
       <c r="C22" s="1">
         <v>3003</v>
       </c>
@@ -2440,7 +2503,7 @@
         <v>3003</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2464,28 +2527,31 @@
         <v>2</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
         <v>5</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>120</v>
       </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
       <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
         <v>104</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:20">
+    <row r="23" s="1" customFormat="1" spans="3:21">
       <c r="C23" s="1">
         <v>3004</v>
       </c>
@@ -2493,7 +2559,7 @@
         <v>3004</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2517,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P23" s="1">
         <v>0</v>
@@ -2532,13 +2598,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
         <v>204</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:20">
+    <row r="24" s="1" customFormat="1" spans="3:21">
       <c r="C24" s="1">
         <v>3005</v>
       </c>
@@ -2546,7 +2615,7 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2570,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
@@ -2584,11 +2653,14 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="T24" s="1">
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:20">
+    <row r="25" s="1" customFormat="1" spans="3:21">
       <c r="C25" s="1">
         <v>3006</v>
       </c>
@@ -2596,7 +2668,7 @@
         <v>3006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -2620,25 +2692,28 @@
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1">
         <v>200</v>
       </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:20">
+    <row r="26" s="1" customFormat="1" spans="3:21">
       <c r="C26" s="1">
         <v>3007</v>
       </c>
@@ -2646,7 +2721,7 @@
         <v>3007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2670,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
@@ -2684,11 +2759,14 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="T26" s="1">
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:20">
+    <row r="27" s="1" customFormat="1" spans="3:21">
       <c r="C27" s="1">
         <v>9001</v>
       </c>
@@ -2696,7 +2774,7 @@
         <v>9001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -2720,25 +2798,28 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1">
         <v>100</v>
       </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1">
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="3:20">
+    <row r="28" s="1" customFormat="1" spans="3:21">
       <c r="C28" s="1">
         <v>9002</v>
       </c>
@@ -2746,7 +2827,7 @@
         <v>9002</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -2770,21 +2851,24 @@
         <v>2</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1">
         <v>100</v>
       </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1">
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -623,12 +623,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1419,7 +1419,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2147,7 +2147,7 @@
         <v>9999</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>52</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
   <si>
     <t>_ID</t>
   </si>
@@ -366,6 +366,9 @@
     <t>基本剑术</t>
   </si>
   <si>
+    <t>对{0}格内的{1}个敌人造成{2}%攻击+{3}点伤害</t>
+  </si>
+  <si>
     <t>Self</t>
   </si>
   <si>
@@ -378,15 +381,24 @@
     <t>半月弯刀</t>
   </si>
   <si>
+    <t>对周围的{1}个敌人造成{2}%攻击+{3}点伤害</t>
+  </si>
+  <si>
     <t>Square</t>
   </si>
   <si>
     <t>武力盾</t>
   </si>
   <si>
+    <t>增加{2}%攻击+{3}点防御,持续30秒</t>
+  </si>
+  <si>
     <t>武力精通</t>
   </si>
   <si>
+    <t>增加{2}%攻击+{3}点物理攻击,持续30秒</t>
+  </si>
+  <si>
     <t>FullBox</t>
   </si>
   <si>
@@ -402,37 +414,67 @@
     <t>小火球</t>
   </si>
   <si>
+    <t>对敌人造成{2}%魔法+{3}点伤害</t>
+  </si>
+  <si>
     <t>雷电术</t>
   </si>
   <si>
     <t>火墙</t>
   </si>
   <si>
+    <t>施展一片持续5s的火墙，会踏入的敌人造成每秒{2}%魔法+{3}点伤害</t>
+  </si>
+  <si>
     <t>魔法盾</t>
   </si>
   <si>
+    <t>增加{2}%魔法+{3}点防御,持续30秒</t>
+  </si>
+  <si>
     <t>法术精通</t>
   </si>
   <si>
+    <t>增加{2}%魔法+{3}点魔法,持续30秒</t>
+  </si>
+  <si>
     <t>抗拒光环</t>
   </si>
   <si>
     <t>冰咆哮</t>
   </si>
   <si>
+    <t>对范围内敌人造成{2}%魔法+{3}点伤害</t>
+  </si>
+  <si>
     <t>灵魂火符</t>
   </si>
   <si>
+    <t>对敌人造成{2}%道术+{3}点伤害</t>
+  </si>
+  <si>
     <t>召唤骷髅</t>
   </si>
   <si>
+    <t>召唤{1}只骷髅仆人</t>
+  </si>
+  <si>
     <t>群体施毒术</t>
   </si>
   <si>
+    <t>对范围内{1}个敌人造成每秒{2}%道术+{3}点持续伤害</t>
+  </si>
+  <si>
     <t>道力盾</t>
   </si>
   <si>
+    <t>增加{2}%道术+{3}点防御,持续30秒</t>
+  </si>
+  <si>
     <t>道力精通</t>
+  </si>
+  <si>
+    <t>增加{2}%道术+{3}点物理攻击,持续30秒</t>
   </si>
   <si>
     <t>禁锢术</t>
@@ -623,12 +665,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1419,14 +1461,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="5" width="9" style="2"/>
     <col min="6" max="7" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
@@ -1648,6 +1690,9 @@
       <c r="G6" s="1">
         <v>10</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
@@ -1664,10 +1709,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -1696,7 +1741,7 @@
         <v>1002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1704,6 +1749,9 @@
       <c r="G7" s="1">
         <v>10</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
@@ -1720,10 +1768,10 @@
         <v>2</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1749,7 +1797,7 @@
         <v>1003</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1757,6 +1805,9 @@
       <c r="G8" s="1">
         <v>10</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
@@ -1773,10 +1824,10 @@
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -1802,7 +1853,7 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1810,6 +1861,9 @@
       <c r="G9" s="1">
         <v>50</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="I9" s="1">
         <v>30</v>
       </c>
@@ -1826,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -1844,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>204</v>
+        <v>501</v>
       </c>
       <c r="U9" s="1">
         <v>100</v>
@@ -1858,7 +1912,7 @@
         <v>1005</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1866,6 +1920,9 @@
       <c r="G10" s="1">
         <v>10</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
@@ -1882,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -1911,7 +1968,7 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1919,6 +1976,9 @@
       <c r="G11" s="1">
         <v>10</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="I11" s="1">
         <v>15</v>
       </c>
@@ -1935,10 +1995,10 @@
         <v>2</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -1964,7 +2024,7 @@
         <v>1007</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1972,6 +2032,9 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="I12" s="1">
         <v>15</v>
       </c>
@@ -1988,10 +2051,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -2017,7 +2080,7 @@
         <v>2001</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -2025,6 +2088,9 @@
       <c r="G13" s="1">
         <v>10</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I13" s="1">
         <v>4</v>
       </c>
@@ -2041,10 +2107,10 @@
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
@@ -2073,7 +2139,7 @@
         <v>2002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2081,6 +2147,9 @@
       <c r="G14" s="1">
         <v>10</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I14" s="1">
         <v>5</v>
       </c>
@@ -2097,10 +2166,10 @@
         <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
@@ -2126,7 +2195,7 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
@@ -2134,6 +2203,9 @@
       <c r="G15" s="1">
         <v>10</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I15" s="1">
         <v>5</v>
       </c>
@@ -2150,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P15" s="1">
         <v>5</v>
@@ -2179,7 +2251,7 @@
         <v>2004</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -2187,6 +2259,9 @@
       <c r="G16" s="1">
         <v>50</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I16" s="1">
         <v>30</v>
       </c>
@@ -2203,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
@@ -2235,7 +2310,7 @@
         <v>2005</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2243,6 +2318,9 @@
       <c r="G17" s="1">
         <v>10</v>
       </c>
+      <c r="H17" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -2259,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
@@ -2288,7 +2366,7 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2296,6 +2374,9 @@
       <c r="G18" s="1">
         <v>10</v>
       </c>
+      <c r="H18" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I18" s="1">
         <v>15</v>
       </c>
@@ -2312,10 +2393,10 @@
         <v>3</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
@@ -2341,7 +2422,7 @@
         <v>2007</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2349,6 +2430,9 @@
       <c r="G19" s="1">
         <v>10</v>
       </c>
+      <c r="H19" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
@@ -2365,10 +2449,10 @@
         <v>3</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P19" s="1">
         <v>0</v>
@@ -2394,7 +2478,7 @@
         <v>3001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2402,6 +2486,9 @@
       <c r="G20" s="1">
         <v>10</v>
       </c>
+      <c r="H20" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="I20" s="1">
         <v>4</v>
       </c>
@@ -2418,10 +2505,10 @@
         <v>3</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P20" s="1">
         <v>0</v>
@@ -2450,7 +2537,7 @@
         <v>3002</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -2458,6 +2545,9 @@
       <c r="G21" s="1">
         <v>100</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I21" s="1">
         <v>15</v>
       </c>
@@ -2474,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P21" s="1">
         <v>0</v>
@@ -2503,7 +2593,7 @@
         <v>3003</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2511,6 +2601,9 @@
       <c r="G22" s="1">
         <v>10</v>
       </c>
+      <c r="H22" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="I22" s="1">
         <v>5</v>
       </c>
@@ -2527,10 +2620,10 @@
         <v>2</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P22" s="1">
         <v>0</v>
@@ -2559,7 +2652,7 @@
         <v>3004</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2567,6 +2660,9 @@
       <c r="G23" s="1">
         <v>50</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="I23" s="1">
         <v>30</v>
       </c>
@@ -2583,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P23" s="1">
         <v>0</v>
@@ -2615,7 +2711,7 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2623,6 +2719,9 @@
       <c r="G24" s="1">
         <v>10</v>
       </c>
+      <c r="H24" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -2639,10 +2738,10 @@
         <v>3</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
@@ -2668,7 +2767,7 @@
         <v>3006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -2676,6 +2775,9 @@
       <c r="G25" s="1">
         <v>10</v>
       </c>
+      <c r="H25" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="I25" s="1">
         <v>15</v>
       </c>
@@ -2692,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P25" s="1">
         <v>0</v>
@@ -2721,7 +2823,7 @@
         <v>3007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2729,6 +2831,9 @@
       <c r="G26" s="1">
         <v>90</v>
       </c>
+      <c r="H26" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="I26" s="1">
         <v>30</v>
       </c>
@@ -2745,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
@@ -2774,7 +2879,7 @@
         <v>9001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -2798,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P27" s="1">
         <v>0</v>
@@ -2827,7 +2932,7 @@
         <v>9002</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -2851,10 +2956,10 @@
         <v>2</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P28" s="1">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -363,7 +363,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>基本剑术</t>
+    <t>基础剑术</t>
   </si>
   <si>
     <t>对{0}格内的{1}个敌人造成{2}%攻击+{3}点伤害</t>
@@ -665,12 +665,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1461,7 +1461,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2092,7 +2092,7 @@
         <v>59</v>
       </c>
       <c r="I13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>110</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>_ID</t>
   </si>
@@ -288,6 +288,15 @@
     <t>固定伤害</t>
   </si>
   <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>暴击倍率</t>
+  </si>
+  <si>
+    <t>伤害加成</t>
+  </si>
+  <si>
     <t>附带效果</t>
   </si>
   <si>
@@ -346,6 +355,15 @@
   </si>
   <si>
     <t>Damage</t>
+  </si>
+  <si>
+    <t>CritRate</t>
+  </si>
+  <si>
+    <t>CritDamage</t>
+  </si>
+  <si>
+    <t>DamageIncrea</t>
   </si>
   <si>
     <t>EffectIdList</t>
@@ -1456,33 +1474,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Z28"/>
+  <dimension ref="C3:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="7" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="2" customWidth="1"/>
+    <col min="3" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="5.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.875" style="2" customWidth="1"/>
     <col min="12" max="14" width="7.50833333333333" style="2" customWidth="1"/>
     <col min="15" max="16" width="8.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13" style="2" customWidth="1"/>
-    <col min="18" max="19" width="7.875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.75" style="2" customWidth="1"/>
-    <col min="21" max="25" width="9" style="2"/>
-    <col min="26" max="26" width="19.25" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="2"/>
+    <col min="17" max="17" width="7.625" style="2" customWidth="1"/>
+    <col min="18" max="22" width="7.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="11.75" style="2" customWidth="1"/>
+    <col min="24" max="28" width="9" style="2"/>
+    <col min="29" max="29" width="19.25" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:26">
+    <row r="3" spans="3:29">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1540,141 +1561,168 @@
       <c r="U3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>19</v>
+      <c r="W3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:21">
+    <row r="4" spans="3:24">
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="3:21">
+    <row r="5" spans="3:24">
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:21">
+    <row r="6" s="1" customFormat="1" spans="3:24">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1682,7 +1730,7 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1691,7 +1739,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -1709,10 +1757,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -1727,13 +1775,22 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
         <v>101</v>
       </c>
-      <c r="U6" s="1">
+      <c r="X6" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:21">
+    <row r="7" s="1" customFormat="1" spans="3:24">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1741,7 +1798,7 @@
         <v>1002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1750,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
@@ -1768,10 +1825,10 @@
         <v>2</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1785,11 +1842,20 @@
       <c r="S7" s="1">
         <v>0</v>
       </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
       <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:21">
+    <row r="8" s="1" customFormat="1" spans="3:24">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1797,7 +1863,7 @@
         <v>1003</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1806,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
@@ -1824,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -1841,11 +1907,20 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
       <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:21">
+    <row r="9" s="1" customFormat="1" spans="3:24">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1853,7 +1928,7 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1862,7 +1937,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1">
         <v>30</v>
@@ -1880,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -1898,13 +1973,22 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
         <v>501</v>
       </c>
-      <c r="U9" s="1">
+      <c r="X9" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:21">
+    <row r="10" s="1" customFormat="1" spans="3:24">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1912,7 +1996,7 @@
         <v>1005</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1921,7 +2005,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1939,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -1956,11 +2040,20 @@
       <c r="S10" s="1">
         <v>0</v>
       </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
       <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:21">
+    <row r="11" s="1" customFormat="1" spans="3:24">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -1968,7 +2061,7 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1977,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1">
         <v>15</v>
@@ -1995,10 +2088,10 @@
         <v>2</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -2012,11 +2105,20 @@
       <c r="S11" s="1">
         <v>0</v>
       </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
       <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:21">
+    <row r="12" s="1" customFormat="1" spans="3:24">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -2024,7 +2126,7 @@
         <v>1007</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2033,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1">
         <v>15</v>
@@ -2051,10 +2153,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -2068,11 +2170,20 @@
       <c r="S12" s="1">
         <v>0</v>
       </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
       <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:21">
+    <row r="13" s="1" customFormat="1" spans="3:24">
       <c r="C13" s="1">
         <v>2001</v>
       </c>
@@ -2080,7 +2191,7 @@
         <v>2001</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -2089,7 +2200,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
@@ -2107,10 +2218,10 @@
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
@@ -2125,13 +2236,22 @@
         <v>0</v>
       </c>
       <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
         <v>103</v>
       </c>
-      <c r="U13" s="1">
+      <c r="X13" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:21">
+    <row r="14" s="1" customFormat="1" spans="3:24">
       <c r="C14" s="1">
         <v>2002</v>
       </c>
@@ -2139,7 +2259,7 @@
         <v>2002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2148,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I14" s="1">
         <v>5</v>
@@ -2166,10 +2286,10 @@
         <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
@@ -2183,11 +2303,20 @@
       <c r="S14" s="1">
         <v>0</v>
       </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
       <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:21">
+    <row r="15" s="1" customFormat="1" spans="3:24">
       <c r="C15" s="1">
         <v>2003</v>
       </c>
@@ -2195,7 +2324,7 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
@@ -2204,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I15" s="1">
         <v>5</v>
@@ -2222,10 +2351,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P15" s="1">
         <v>5</v>
@@ -2239,11 +2368,20 @@
       <c r="S15" s="1">
         <v>0</v>
       </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
       <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:21">
+    <row r="16" s="1" customFormat="1" spans="3:24">
       <c r="C16" s="1">
         <v>2004</v>
       </c>
@@ -2251,7 +2389,7 @@
         <v>2004</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -2260,7 +2398,7 @@
         <v>50</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I16" s="1">
         <v>30</v>
@@ -2278,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
@@ -2296,13 +2434,22 @@
         <v>0</v>
       </c>
       <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
         <v>204</v>
       </c>
-      <c r="U16" s="1">
+      <c r="X16" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:21">
+    <row r="17" s="1" customFormat="1" spans="3:24">
       <c r="C17" s="1">
         <v>2005</v>
       </c>
@@ -2310,7 +2457,7 @@
         <v>2005</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2319,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -2337,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
@@ -2354,11 +2501,20 @@
       <c r="S17" s="1">
         <v>0</v>
       </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
       <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:21">
+    <row r="18" s="1" customFormat="1" spans="3:24">
       <c r="C18" s="1">
         <v>2006</v>
       </c>
@@ -2366,7 +2522,7 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2375,7 +2531,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I18" s="1">
         <v>15</v>
@@ -2393,10 +2549,10 @@
         <v>3</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
@@ -2410,11 +2566,20 @@
       <c r="S18" s="1">
         <v>0</v>
       </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
       <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:21">
+    <row r="19" s="1" customFormat="1" spans="3:24">
       <c r="C19" s="1">
         <v>2007</v>
       </c>
@@ -2422,7 +2587,7 @@
         <v>2007</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2431,7 +2596,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
@@ -2449,10 +2614,10 @@
         <v>3</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P19" s="1">
         <v>0</v>
@@ -2466,11 +2631,20 @@
       <c r="S19" s="1">
         <v>0</v>
       </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
       <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:21">
+    <row r="20" s="1" customFormat="1" spans="3:24">
       <c r="C20" s="1">
         <v>3001</v>
       </c>
@@ -2478,7 +2652,7 @@
         <v>3001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2487,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I20" s="1">
         <v>4</v>
@@ -2505,10 +2679,10 @@
         <v>3</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P20" s="1">
         <v>0</v>
@@ -2523,13 +2697,22 @@
         <v>0</v>
       </c>
       <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
         <v>102</v>
       </c>
-      <c r="U20" s="1">
+      <c r="X20" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:21">
+    <row r="21" s="1" customFormat="1" spans="3:24">
       <c r="C21" s="1">
         <v>3002</v>
       </c>
@@ -2537,7 +2720,7 @@
         <v>3002</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -2546,7 +2729,7 @@
         <v>100</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I21" s="1">
         <v>15</v>
@@ -2564,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P21" s="1">
         <v>0</v>
@@ -2581,11 +2764,20 @@
       <c r="S21" s="1">
         <v>0</v>
       </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
       <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:21">
+    <row r="22" s="1" customFormat="1" spans="3:24">
       <c r="C22" s="1">
         <v>3003</v>
       </c>
@@ -2593,7 +2785,7 @@
         <v>3003</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2602,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I22" s="1">
         <v>5</v>
@@ -2620,10 +2812,10 @@
         <v>2</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P22" s="1">
         <v>0</v>
@@ -2638,13 +2830,22 @@
         <v>0</v>
       </c>
       <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
         <v>104</v>
       </c>
-      <c r="U22" s="1">
+      <c r="X22" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:21">
+    <row r="23" s="1" customFormat="1" spans="3:24">
       <c r="C23" s="1">
         <v>3004</v>
       </c>
@@ -2652,7 +2853,7 @@
         <v>3004</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2661,7 +2862,7 @@
         <v>50</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I23" s="1">
         <v>30</v>
@@ -2679,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P23" s="1">
         <v>0</v>
@@ -2697,13 +2898,22 @@
         <v>0</v>
       </c>
       <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
         <v>204</v>
       </c>
-      <c r="U23" s="1">
+      <c r="X23" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:21">
+    <row r="24" s="1" customFormat="1" spans="3:24">
       <c r="C24" s="1">
         <v>3005</v>
       </c>
@@ -2711,7 +2921,7 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2720,7 +2930,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -2738,10 +2948,10 @@
         <v>3</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
@@ -2755,11 +2965,20 @@
       <c r="S24" s="1">
         <v>0</v>
       </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
       <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:21">
+    <row r="25" s="1" customFormat="1" spans="3:24">
       <c r="C25" s="1">
         <v>3006</v>
       </c>
@@ -2767,7 +2986,7 @@
         <v>3006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -2776,7 +2995,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I25" s="1">
         <v>15</v>
@@ -2794,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P25" s="1">
         <v>0</v>
@@ -2811,11 +3030,20 @@
       <c r="S25" s="1">
         <v>0</v>
       </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
       <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:21">
+    <row r="26" s="1" customFormat="1" spans="3:24">
       <c r="C26" s="1">
         <v>3007</v>
       </c>
@@ -2823,7 +3051,7 @@
         <v>3007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2832,7 +3060,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I26" s="1">
         <v>30</v>
@@ -2850,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
@@ -2867,11 +3095,20 @@
       <c r="S26" s="1">
         <v>0</v>
       </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
       <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:21">
+    <row r="27" s="1" customFormat="1" spans="3:24">
       <c r="C27" s="1">
         <v>9001</v>
       </c>
@@ -2879,7 +3116,7 @@
         <v>9001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -2903,10 +3140,10 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P27" s="1">
         <v>0</v>
@@ -2920,11 +3157,20 @@
       <c r="S27" s="1">
         <v>0</v>
       </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
       <c r="U27" s="1">
         <v>0</v>
       </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="3:21">
+    <row r="28" s="1" customFormat="1" spans="3:24">
       <c r="C28" s="1">
         <v>9002</v>
       </c>
@@ -2932,7 +3178,7 @@
         <v>9002</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -2956,10 +3202,10 @@
         <v>2</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P28" s="1">
         <v>0</v>
@@ -2973,7 +3219,16 @@
       <c r="S28" s="1">
         <v>0</v>
       </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
       <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,12 +683,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1479,7 +1479,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3119,7 +3119,7 @@
         <v>88</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>89</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,11 +62,12 @@
           <t xml:space="preserve">
 1 攻击技能
 2 召唤技能
-3 场景技能</t>
+3 场景技能
+4 回复技能</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,11 +179,12 @@
           </rPr>
           <t xml:space="preserve">
 Self 自身
-Enemy 敌人</t>
+Enemy 敌人
+Team 队友</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
   <si>
     <t>_ID</t>
   </si>
@@ -246,6 +248,9 @@
     <t>技能名字</t>
   </si>
   <si>
+    <t>模型类型</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -315,6 +320,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>ModelName</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -505,6 +513,27 @@
   </si>
   <si>
     <t>远程普通</t>
+  </si>
+  <si>
+    <t>怪物远程攻击</t>
+  </si>
+  <si>
+    <t>怪物雷电</t>
+  </si>
+  <si>
+    <t>怪物治疗术</t>
+  </si>
+  <si>
+    <t>怪物治疗</t>
+  </si>
+  <si>
+    <t>群体地刺</t>
+  </si>
+  <si>
+    <t>怪物群疗</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -1474,36 +1503,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AC28"/>
+  <dimension ref="C3:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="5.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.875" style="2" customWidth="1"/>
-    <col min="12" max="14" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="15" max="16" width="8.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="2" customWidth="1"/>
-    <col min="18" max="22" width="7.875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="11.75" style="2" customWidth="1"/>
-    <col min="24" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="19.25" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.875" style="2" customWidth="1"/>
+    <col min="13" max="15" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="16" max="17" width="8.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="2" customWidth="1"/>
+    <col min="19" max="23" width="7.875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.75" style="2" customWidth="1"/>
+    <col min="25" max="29" width="9" style="2"/>
+    <col min="30" max="30" width="19.25" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:29">
+    <row r="3" spans="3:30">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1570,159 +1601,168 @@
       <c r="X3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:24">
+    <row r="4" spans="3:25">
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="3:24">
+    <row r="5" spans="3:25">
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:24">
+    <row r="6" s="1" customFormat="1" spans="3:25">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1730,50 +1770,50 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
         <v>9999</v>
       </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>50</v>
+      <c r="N6" s="1">
+        <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
         <v>110</v>
       </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
       <c r="T6" s="1">
         <v>0</v>
       </c>
@@ -1784,13 +1824,16 @@
         <v>0</v>
       </c>
       <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
         <v>101</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:24">
+    <row r="7" s="1" customFormat="1" spans="3:25">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1798,50 +1841,50 @@
         <v>1002</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>9999</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="P7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>9999</v>
-      </c>
-      <c r="M7" s="1">
-        <v>2</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>2</v>
-      </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>150</v>
       </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
       <c r="T7" s="1">
         <v>0</v>
       </c>
@@ -1851,11 +1894,14 @@
       <c r="V7" s="1">
         <v>0</v>
       </c>
-      <c r="X7" s="1">
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:24">
+    <row r="8" s="1" customFormat="1" spans="3:25">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1863,50 +1909,50 @@
         <v>1003</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="I8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
         <v>9999</v>
       </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>50</v>
+      <c r="N8" s="1">
+        <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
         <v>5</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>120</v>
       </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
       <c r="T8" s="1">
         <v>0</v>
       </c>
@@ -1916,11 +1962,14 @@
       <c r="V8" s="1">
         <v>0</v>
       </c>
-      <c r="X8" s="1">
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:24">
+    <row r="9" s="1" customFormat="1" spans="3:25">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1928,41 +1977,41 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>50</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="1">
+        <v>30</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>9999</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="1">
-        <v>30</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>9999</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
       <c r="Q9" s="1">
         <v>0</v>
       </c>
@@ -1982,13 +2031,16 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
         <v>501</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:24">
+    <row r="10" s="1" customFormat="1" spans="3:25">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1996,40 +2048,40 @@
         <v>1005</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
       <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>9999</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>50</v>
+      <c r="N10" s="1">
+        <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -2049,11 +2101,14 @@
       <c r="V10" s="1">
         <v>0</v>
       </c>
-      <c r="X10" s="1">
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:24">
+    <row r="11" s="1" customFormat="1" spans="3:25">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -2061,50 +2116,50 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="1">
         <v>15</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
         <v>9999</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>2</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="O11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
         <v>200</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
       <c r="T11" s="1">
         <v>0</v>
       </c>
@@ -2114,11 +2169,14 @@
       <c r="V11" s="1">
         <v>0</v>
       </c>
-      <c r="X11" s="1">
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:24">
+    <row r="12" s="1" customFormat="1" spans="3:25">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -2126,50 +2184,50 @@
         <v>1007</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="I12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="1">
         <v>15</v>
       </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
         <v>9999</v>
       </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>50</v>
+      <c r="N12" s="1">
+        <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
         <v>300</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
       <c r="T12" s="1">
         <v>0</v>
       </c>
@@ -2179,11 +2237,14 @@
       <c r="V12" s="1">
         <v>0</v>
       </c>
-      <c r="X12" s="1">
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:24">
+    <row r="13" s="1" customFormat="1" spans="3:25">
       <c r="C13" s="1">
         <v>2001</v>
       </c>
@@ -2191,50 +2252,50 @@
         <v>2001</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>9999</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>9999</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
+      <c r="P13" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
         <v>110</v>
       </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
       <c r="T13" s="1">
         <v>0</v>
       </c>
@@ -2245,13 +2306,16 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
         <v>103</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:24">
+    <row r="14" s="1" customFormat="1" spans="3:25">
       <c r="C14" s="1">
         <v>2002</v>
       </c>
@@ -2259,50 +2323,50 @@
         <v>2002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <v>10</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="I14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="1">
         <v>5</v>
       </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
       <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>9999</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>3</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
         <v>150</v>
       </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
       <c r="T14" s="1">
         <v>0</v>
       </c>
@@ -2312,11 +2376,14 @@
       <c r="V14" s="1">
         <v>0</v>
       </c>
-      <c r="X14" s="1">
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:24">
+    <row r="15" s="1" customFormat="1" spans="3:25">
       <c r="C15" s="1">
         <v>2003</v>
       </c>
@@ -2324,50 +2391,50 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1">
+        <v>69</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>10</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="I15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
       <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
         <v>2</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>9999</v>
       </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>62</v>
+      <c r="N15" s="1">
+        <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P15" s="1">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q15" s="1">
         <v>5</v>
       </c>
       <c r="R15" s="1">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1">
         <v>120</v>
       </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
       <c r="T15" s="1">
         <v>0</v>
       </c>
@@ -2377,11 +2444,14 @@
       <c r="V15" s="1">
         <v>0</v>
       </c>
-      <c r="X15" s="1">
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:24">
+    <row r="16" s="1" customFormat="1" spans="3:25">
       <c r="C16" s="1">
         <v>2004</v>
       </c>
@@ -2389,40 +2459,40 @@
         <v>2004</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <v>50</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="I16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="1">
         <v>30</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2</v>
       </c>
       <c r="K16" s="1">
         <v>2</v>
       </c>
       <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
         <v>9999</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>50</v>
+      <c r="N16" s="1">
+        <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -2443,13 +2513,16 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
         <v>204</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:24">
+    <row r="17" s="1" customFormat="1" spans="3:25">
       <c r="C17" s="1">
         <v>2005</v>
       </c>
@@ -2457,40 +2530,40 @@
         <v>2005</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
         <v>10</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
+      <c r="I17" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="J17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
       </c>
       <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
         <v>9999</v>
       </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>50</v>
+      <c r="N17" s="1">
+        <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
@@ -2510,11 +2583,14 @@
       <c r="V17" s="1">
         <v>0</v>
       </c>
-      <c r="X17" s="1">
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:24">
+    <row r="18" s="1" customFormat="1" spans="3:25">
       <c r="C18" s="1">
         <v>2006</v>
       </c>
@@ -2522,46 +2598,46 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
         <v>10</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="I18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="1">
         <v>15</v>
       </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
       <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
         <v>2</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>9999</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>3</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="O18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
@@ -2575,11 +2651,14 @@
       <c r="V18" s="1">
         <v>0</v>
       </c>
-      <c r="X18" s="1">
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:24">
+    <row r="19" s="1" customFormat="1" spans="3:25">
       <c r="C19" s="1">
         <v>2007</v>
       </c>
@@ -2587,47 +2666,47 @@
         <v>2007</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
         <v>10</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="I19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="1">
         <v>10</v>
       </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
       <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
         <v>2</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>9999</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>3</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="O19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
         <v>5</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
       <c r="S19" s="1">
         <v>0</v>
       </c>
@@ -2640,11 +2719,14 @@
       <c r="V19" s="1">
         <v>0</v>
       </c>
-      <c r="X19" s="1">
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:24">
+    <row r="20" s="1" customFormat="1" spans="3:25">
       <c r="C20" s="1">
         <v>3001</v>
       </c>
@@ -2652,50 +2734,50 @@
         <v>3001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
         <v>10</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="I20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
       <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
         <v>3</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>9999</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>3</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="O20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
         <v>110</v>
       </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
       <c r="T20" s="1">
         <v>0</v>
       </c>
@@ -2706,13 +2788,16 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
         <v>102</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:24">
+    <row r="21" s="1" customFormat="1" spans="3:25">
       <c r="C21" s="1">
         <v>3002</v>
       </c>
@@ -2720,50 +2805,50 @@
         <v>3002</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="1">
+        <v>80</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>100</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="I21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="1">
         <v>15</v>
       </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
       <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
         <v>3</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>9999</v>
       </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>50</v>
+      <c r="N21" s="1">
+        <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
         <v>2</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <v>150</v>
       </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
       <c r="T21" s="1">
         <v>0</v>
       </c>
@@ -2773,11 +2858,14 @@
       <c r="V21" s="1">
         <v>0</v>
       </c>
-      <c r="X21" s="1">
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:24">
+    <row r="22" s="1" customFormat="1" spans="3:25">
       <c r="C22" s="1">
         <v>3003</v>
       </c>
@@ -2785,50 +2873,50 @@
         <v>3003</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
         <v>10</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="I22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="1">
         <v>5</v>
       </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
       <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
         <v>3</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>9999</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>2</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="O22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
         <v>5</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <v>120</v>
       </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
       <c r="T22" s="1">
         <v>0</v>
       </c>
@@ -2839,13 +2927,16 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
         <v>104</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:24">
+    <row r="23" s="1" customFormat="1" spans="3:25">
       <c r="C23" s="1">
         <v>3004</v>
       </c>
@@ -2853,40 +2944,40 @@
         <v>3004</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
         <v>50</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="I23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="1">
         <v>30</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>2</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>3</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>9999</v>
       </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>50</v>
+      <c r="N23" s="1">
+        <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q23" s="1">
         <v>0</v>
@@ -2907,13 +2998,16 @@
         <v>0</v>
       </c>
       <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
         <v>204</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:24">
+    <row r="24" s="1" customFormat="1" spans="3:25">
       <c r="C24" s="1">
         <v>3005</v>
       </c>
@@ -2921,40 +3015,40 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
         <v>10</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
+      <c r="I24" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
         <v>2</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>3</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>9999</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>3</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="O24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
@@ -2974,11 +3068,14 @@
       <c r="V24" s="1">
         <v>0</v>
       </c>
-      <c r="X24" s="1">
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:24">
+    <row r="25" s="1" customFormat="1" spans="3:25">
       <c r="C25" s="1">
         <v>3006</v>
       </c>
@@ -2986,50 +3083,50 @@
         <v>3006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
         <v>10</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="I25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="1">
         <v>15</v>
       </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
       <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
         <v>3</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>9999</v>
       </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>62</v>
+      <c r="N25" s="1">
+        <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
         <v>200</v>
       </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
       <c r="T25" s="1">
         <v>0</v>
       </c>
@@ -3039,11 +3136,14 @@
       <c r="V25" s="1">
         <v>0</v>
       </c>
-      <c r="X25" s="1">
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:24">
+    <row r="26" s="1" customFormat="1" spans="3:25">
       <c r="C26" s="1">
         <v>3007</v>
       </c>
@@ -3051,40 +3151,40 @@
         <v>3007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
         <v>90</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="I26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="1">
         <v>30</v>
       </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
       <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
         <v>3</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>9999</v>
       </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>50</v>
+      <c r="N26" s="1">
+        <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
@@ -3104,11 +3204,14 @@
       <c r="V26" s="1">
         <v>0</v>
       </c>
-      <c r="X26" s="1">
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:24">
+    <row r="27" s="1" customFormat="1" spans="3:25">
       <c r="C27" s="1">
         <v>9001</v>
       </c>
@@ -3116,19 +3219,19 @@
         <v>9001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="1">
+        <v>90</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="1">
         <v>9</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -3139,24 +3242,24 @@
       <c r="M27" s="1">
         <v>1</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>50</v>
+      <c r="N27" s="1">
+        <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
         <v>100</v>
       </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
       <c r="T27" s="1">
         <v>0</v>
       </c>
@@ -3166,11 +3269,14 @@
       <c r="V27" s="1">
         <v>0</v>
       </c>
-      <c r="X27" s="1">
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="3:24">
+    <row r="28" s="1" customFormat="1" spans="3:25">
       <c r="C28" s="1">
         <v>9002</v>
       </c>
@@ -3178,19 +3284,19 @@
         <v>9002</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="1">
+        <v>91</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="1">
         <v>9</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="H28" s="1">
         <v>0</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -3199,42 +3305,319 @@
         <v>1</v>
       </c>
       <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
         <v>2</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1">
+        <v>100</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="3:25">
+      <c r="C29" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10001</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1">
+        <v>100</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25">
+      <c r="C30" s="2">
+        <v>10002</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10002</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2">
+        <v>100</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25">
+      <c r="C31" s="2">
+        <v>10003</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10003</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>10</v>
+      </c>
+      <c r="S31" s="1">
+        <v>100</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25">
+      <c r="C32" s="2">
+        <v>10004</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10004</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>4</v>
+      </c>
+      <c r="S32" s="2">
         <v>50</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>1</v>
-      </c>
-      <c r="R28" s="1">
-        <v>100</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1">
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G3:G5 H3:H5 I3:I5 C3:F5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 H3:H5 I3:I5 J3:J5 C3:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1508,7 +1508,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1508,7 +1508,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1520,7 +1520,7 @@
     <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" customWidth="1"/>
     <col min="12" max="12" width="5.875" style="2" customWidth="1"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -63,7 +63,8 @@
 1 攻击技能
 2 召唤技能
 3 场景技能
-4 回复技能</t>
+4 回复技能
+5 状态技能</t>
         </r>
       </text>
     </comment>
@@ -237,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
   <si>
     <t>_ID</t>
   </si>
@@ -473,40 +474,46 @@
     <t>对范围内敌人造成{2}%魔法+{3}点伤害</t>
   </si>
   <si>
-    <t>灵魂火符</t>
+    <t>治疗术</t>
+  </si>
+  <si>
+    <t>回复自己{2}%道术+{3}点生命</t>
+  </si>
+  <si>
+    <t>群体施毒术</t>
+  </si>
+  <si>
+    <t>对范围内{1}个敌人造成每秒{2}%道术+{3}点持续伤害</t>
+  </si>
+  <si>
+    <t>召唤骷髅</t>
+  </si>
+  <si>
+    <t>召唤{1}只骷髅战斗</t>
+  </si>
+  <si>
+    <t>道力盾</t>
+  </si>
+  <si>
+    <t>增加{2}%道术+{3}点防御,持续30秒</t>
+  </si>
+  <si>
+    <t>道力精通</t>
+  </si>
+  <si>
+    <t>增加{2}%道术+{3}点物理攻击,持续30秒</t>
+  </si>
+  <si>
+    <t>禁锢术</t>
   </si>
   <si>
     <t>对敌人造成{2}%道术+{3}点伤害</t>
   </si>
   <si>
-    <t>召唤骷髅</t>
-  </si>
-  <si>
-    <t>召唤{1}只骷髅仆人</t>
-  </si>
-  <si>
-    <t>群体施毒术</t>
-  </si>
-  <si>
-    <t>对范围内{1}个敌人造成每秒{2}%道术+{3}点持续伤害</t>
-  </si>
-  <si>
-    <t>道力盾</t>
-  </si>
-  <si>
-    <t>增加{2}%道术+{3}点防御,持续30秒</t>
-  </si>
-  <si>
-    <t>道力精通</t>
-  </si>
-  <si>
-    <t>增加{2}%道术+{3}点物理攻击,持续30秒</t>
-  </si>
-  <si>
-    <t>禁锢术</t>
-  </si>
-  <si>
-    <t>无极真气</t>
+    <t>召唤神兽</t>
+  </si>
+  <si>
+    <t>召唤{1}只神兽战斗</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1508,7 +1515,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1830,7 +1837,7 @@
         <v>101</v>
       </c>
       <c r="Y6" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:25">
@@ -1898,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:25">
@@ -1966,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="3:25">
@@ -1983,7 +1990,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
         <v>50</v>
@@ -2037,7 +2044,7 @@
         <v>501</v>
       </c>
       <c r="Y9" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="3:25">
@@ -2054,7 +2061,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -2105,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="3:25">
@@ -2173,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="3:25">
@@ -2241,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="3:25">
@@ -2312,7 +2319,7 @@
         <v>103</v>
       </c>
       <c r="Y13" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="3:25">
@@ -2380,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="3:25">
@@ -2448,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="3:25">
@@ -2465,7 +2472,7 @@
         <v>71</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1">
         <v>50</v>
@@ -2519,7 +2526,7 @@
         <v>204</v>
       </c>
       <c r="Y16" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="3:25">
@@ -2536,7 +2543,7 @@
         <v>73</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1">
         <v>10</v>
@@ -2587,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="3:25">
@@ -2655,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="3:25">
@@ -2723,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="3:25">
@@ -2733,17 +2740,17 @@
       <c r="D20" s="1">
         <v>3001</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>79</v>
@@ -2761,7 +2768,7 @@
         <v>9999</v>
       </c>
       <c r="N20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>52</v>
@@ -2773,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -2791,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="3:25">
@@ -2802,7 +2809,7 @@
         <v>3002</v>
       </c>
       <c r="D21" s="1">
-        <v>3002</v>
+        <v>3007</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>80</v>
@@ -2811,16 +2818,16 @@
         <v>80</v>
       </c>
       <c r="G21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="J21" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2832,22 +2839,22 @@
         <v>9999</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S21" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -2861,8 +2868,11 @@
       <c r="W21" s="1">
         <v>0</v>
       </c>
+      <c r="X21" s="1">
+        <v>104</v>
+      </c>
       <c r="Y21" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="3:25">
@@ -2870,7 +2880,7 @@
         <v>3003</v>
       </c>
       <c r="D22" s="1">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>82</v>
@@ -2879,16 +2889,16 @@
         <v>82</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J22" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2900,22 +2910,22 @@
         <v>9999</v>
       </c>
       <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
         <v>2</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>5</v>
-      </c>
       <c r="S22" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -2929,11 +2939,8 @@
       <c r="W22" s="1">
         <v>0</v>
       </c>
-      <c r="X22" s="1">
-        <v>104</v>
-      </c>
       <c r="Y22" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="3:25">
@@ -2950,7 +2957,7 @@
         <v>84</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1">
         <v>50</v>
@@ -3004,7 +3011,7 @@
         <v>204</v>
       </c>
       <c r="Y23" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="3:25">
@@ -3021,7 +3028,7 @@
         <v>86</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1">
         <v>10</v>
@@ -3072,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="3:25">
@@ -3095,7 +3102,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J25" s="1">
         <v>15</v>
@@ -3140,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="3:25">
@@ -3151,22 +3158,22 @@
         <v>3007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J26" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -3178,22 +3185,22 @@
         <v>9999</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S26" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -3207,8 +3214,11 @@
       <c r="W26" s="1">
         <v>0</v>
       </c>
+      <c r="X26" s="1">
+        <v>104</v>
+      </c>
       <c r="Y26" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="3:25">
@@ -3219,10 +3229,10 @@
         <v>9001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G27" s="1">
         <v>9</v>
@@ -3284,10 +3294,10 @@
         <v>9002</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G28" s="1">
         <v>9</v>
@@ -3349,7 +3359,7 @@
         <v>10001</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>68</v>
@@ -3361,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -3417,7 +3427,7 @@
         <v>10002</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>69</v>
@@ -3429,7 +3439,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -3486,7 +3496,7 @@
         <v>10003</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>68</v>
@@ -3498,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -3555,7 +3565,7 @@
         <v>10004</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>69</v>
@@ -3567,7 +3577,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3585,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>57</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,8 @@
 2 召唤技能
 3 场景技能
 4 回复技能
-5 状态技能</t>
+5 状态技能
+6 专精技能</t>
         </r>
       </text>
     </comment>
@@ -238,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="101">
   <si>
     <t>_ID</t>
   </si>
@@ -423,7 +424,7 @@
     <t>武力精通</t>
   </si>
   <si>
-    <t>增加{2}%攻击+{3}点物理攻击,持续30秒</t>
+    <t>战士技能增加{2}%技能系数+{3}技能基础值</t>
   </si>
   <si>
     <t>FullBox</t>
@@ -462,7 +463,7 @@
     <t>法术精通</t>
   </si>
   <si>
-    <t>增加{2}%魔法+{3}点魔法,持续30秒</t>
+    <t>法师技能增加{2}%技能系数+{3}技能基础值</t>
   </si>
   <si>
     <t>抗拒光环</t>
@@ -501,7 +502,7 @@
     <t>道力精通</t>
   </si>
   <si>
-    <t>增加{2}%道术+{3}点物理攻击,持续30秒</t>
+    <t>道士技能增加{2}%技能系数+{3}技能基础值</t>
   </si>
   <si>
     <t>禁锢术</t>
@@ -1510,12 +1511,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AD32"/>
+  <dimension ref="C3:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1527,21 +1528,22 @@
     <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" customWidth="1"/>
     <col min="12" max="12" width="5.875" style="2" customWidth="1"/>
     <col min="13" max="15" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="16" max="17" width="8.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.5" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.625" style="2" customWidth="1"/>
     <col min="19" max="23" width="7.875" style="2" customWidth="1"/>
     <col min="24" max="24" width="11.75" style="2" customWidth="1"/>
-    <col min="25" max="29" width="9" style="2"/>
-    <col min="30" max="30" width="19.25" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="2"/>
+    <col min="25" max="27" width="9" style="2"/>
+    <col min="28" max="28" width="19.25" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:30">
+    <row r="3" spans="3:28">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1618,12 +1620,6 @@
         <v>23</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2061,7 +2057,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -2543,7 +2539,7 @@
         <v>73</v>
       </c>
       <c r="G17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1">
         <v>10</v>
@@ -3028,7 +3024,7 @@
         <v>86</v>
       </c>
       <c r="G24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" s="1">
         <v>10</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
   <si>
     <t>_ID</t>
   </si>
@@ -394,6 +394,9 @@
     <t>基础剑术</t>
   </si>
   <si>
+    <t>刺杀</t>
+  </si>
+  <si>
     <t>对{0}格内的{1}个敌人造成{2}%攻击+{3}点伤害</t>
   </si>
   <si>
@@ -409,6 +412,9 @@
     <t>半月弯刀</t>
   </si>
   <si>
+    <t>龙影剑法</t>
+  </si>
+  <si>
     <t>对周围的{1}个敌人造成{2}%攻击+{3}点伤害</t>
   </si>
   <si>
@@ -439,6 +445,9 @@
     <t>烈火剑法</t>
   </si>
   <si>
+    <t>烈火</t>
+  </si>
+  <si>
     <t>小火球</t>
   </si>
   <si>
@@ -482,6 +491,9 @@
   </si>
   <si>
     <t>群体施毒术</t>
+  </si>
+  <si>
+    <t>施毒术</t>
   </si>
   <si>
     <t>对范围内{1}个敌人造成每秒{2}%道术+{3}点持续伤害</t>
@@ -1516,7 +1528,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1775,8 +1787,8 @@
       <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1785,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
@@ -1803,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -1844,10 +1856,10 @@
         <v>1002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1856,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
@@ -1874,10 +1886,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -1912,10 +1924,10 @@
         <v>1003</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1924,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1">
         <v>5</v>
@@ -1942,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -1980,10 +1992,10 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1">
         <v>5</v>
@@ -1992,7 +2004,7 @@
         <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1">
         <v>30</v>
@@ -2010,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -2051,10 +2063,10 @@
         <v>1005</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1">
         <v>6</v>
@@ -2063,7 +2075,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2081,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -2119,10 +2131,10 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2131,7 +2143,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1">
         <v>15</v>
@@ -2149,10 +2161,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -2187,10 +2199,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2199,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1">
         <v>15</v>
@@ -2217,10 +2229,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -2255,10 +2267,10 @@
         <v>2001</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2267,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -2285,10 +2297,10 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -2326,10 +2338,10 @@
         <v>2002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2338,7 +2350,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1">
         <v>5</v>
@@ -2356,10 +2368,10 @@
         <v>3</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -2394,10 +2406,10 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -2406,7 +2418,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
@@ -2424,10 +2436,10 @@
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="1">
         <v>5</v>
@@ -2462,10 +2474,10 @@
         <v>2004</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -2474,7 +2486,7 @@
         <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J16" s="1">
         <v>30</v>
@@ -2492,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -2533,10 +2545,10 @@
         <v>2005</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1">
         <v>6</v>
@@ -2545,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2563,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
@@ -2601,10 +2613,10 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -2613,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J18" s="1">
         <v>15</v>
@@ -2631,10 +2643,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
@@ -2669,10 +2681,10 @@
         <v>2007</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -2681,7 +2693,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J19" s="1">
         <v>10</v>
@@ -2699,10 +2711,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
@@ -2737,10 +2749,10 @@
         <v>3001</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G20" s="1">
         <v>4</v>
@@ -2749,7 +2761,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J20" s="1">
         <v>4</v>
@@ -2767,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
@@ -2808,10 +2820,10 @@
         <v>3007</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2820,7 +2832,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J21" s="1">
         <v>5</v>
@@ -2838,10 +2850,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
@@ -2879,10 +2891,10 @@
         <v>3002</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -2891,7 +2903,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J22" s="1">
         <v>15</v>
@@ -2909,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1">
         <v>150</v>
@@ -2947,10 +2959,10 @@
         <v>3004</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G23" s="1">
         <v>5</v>
@@ -2959,7 +2971,7 @@
         <v>50</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J23" s="1">
         <v>30</v>
@@ -2977,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="1">
         <v>0</v>
@@ -3018,10 +3030,10 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G24" s="1">
         <v>6</v>
@@ -3030,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -3048,10 +3060,10 @@
         <v>3</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
@@ -3086,10 +3098,10 @@
         <v>3006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -3098,7 +3110,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J25" s="1">
         <v>15</v>
@@ -3116,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
@@ -3154,10 +3166,10 @@
         <v>3007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -3166,7 +3178,7 @@
         <v>100</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J26" s="1">
         <v>5</v>
@@ -3184,16 +3196,16 @@
         <v>2</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S26" s="1">
         <v>120</v>
@@ -3225,10 +3237,10 @@
         <v>9001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G27" s="1">
         <v>9</v>
@@ -3252,10 +3264,10 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
@@ -3290,10 +3302,10 @@
         <v>9002</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G28" s="1">
         <v>9</v>
@@ -3317,10 +3329,10 @@
         <v>2</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
@@ -3355,10 +3367,10 @@
         <v>10001</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3367,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -3385,10 +3397,10 @@
         <v>3</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
@@ -3423,10 +3435,10 @@
         <v>10002</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G30" s="2">
         <v>4</v>
@@ -3435,7 +3447,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -3453,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -3492,10 +3504,10 @@
         <v>10003</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -3504,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -3522,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
@@ -3561,10 +3573,10 @@
         <v>10004</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -3573,7 +3585,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3591,10 +3603,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
   <si>
     <t>_ID</t>
   </si>
@@ -295,6 +295,9 @@
     <t>固定伤害</t>
   </si>
   <si>
+    <t>无视防御</t>
+  </si>
+  <si>
     <t>暴击率</t>
   </si>
   <si>
@@ -365,6 +368,9 @@
   </si>
   <si>
     <t>Damage</t>
+  </si>
+  <si>
+    <t>IgnoreDef</t>
   </si>
   <si>
     <t>CritRate</t>
@@ -1523,12 +1529,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AB32"/>
+  <dimension ref="C3:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1540,7 +1546,7 @@
     <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" customWidth="1"/>
     <col min="12" max="12" width="5.875" style="2" customWidth="1"/>
@@ -1548,14 +1554,16 @@
     <col min="16" max="16" width="8.25" style="2" customWidth="1"/>
     <col min="17" max="17" width="6.5" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.625" style="2" customWidth="1"/>
-    <col min="19" max="23" width="7.875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="11.75" style="2" customWidth="1"/>
-    <col min="25" max="27" width="9" style="2"/>
-    <col min="28" max="28" width="19.25" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="19" max="20" width="7.875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="9.625" style="2" customWidth="1"/>
+    <col min="22" max="24" width="7.875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="11.75" style="2" customWidth="1"/>
+    <col min="26" max="28" width="9" style="2"/>
+    <col min="29" max="29" width="19.25" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:28">
+    <row r="3" spans="3:29">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1625,159 +1633,168 @@
       <c r="Y3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="3:25">
+    <row r="4" spans="3:26">
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="3:25">
+    <row r="5" spans="3:26">
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:25">
+    <row r="6" s="1" customFormat="1" spans="3:26">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1785,10 +1802,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1797,7 +1814,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
@@ -1815,10 +1832,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -1842,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>101</v>
-      </c>
-      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:25">
+    <row r="7" s="1" customFormat="1" spans="3:26">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1856,10 +1873,10 @@
         <v>1002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1868,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
@@ -1886,10 +1903,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -1904,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
@@ -1912,11 +1929,14 @@
       <c r="W7" s="1">
         <v>0</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:25">
+    <row r="8" s="1" customFormat="1" spans="3:26">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1924,10 +1944,10 @@
         <v>1003</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1936,7 +1956,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1">
         <v>5</v>
@@ -1954,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -1980,11 +2000,14 @@
       <c r="W8" s="1">
         <v>0</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:25">
+    <row r="9" s="1" customFormat="1" spans="3:26">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1992,10 +2015,10 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1">
         <v>5</v>
@@ -2004,10 +2027,10 @@
         <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
@@ -2022,19 +2045,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -2049,13 +2072,16 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
         <v>501</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:25">
+    <row r="10" s="1" customFormat="1" spans="3:26">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -2063,10 +2089,10 @@
         <v>1005</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1">
         <v>6</v>
@@ -2075,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2093,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -2119,11 +2145,14 @@
       <c r="W10" s="1">
         <v>0</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:25">
+    <row r="11" s="1" customFormat="1" spans="3:26">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -2131,10 +2160,10 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2143,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1">
         <v>15</v>
@@ -2161,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -2187,11 +2216,14 @@
       <c r="W11" s="1">
         <v>0</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:25">
+    <row r="12" s="1" customFormat="1" spans="3:26">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -2199,10 +2231,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2211,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1">
         <v>15</v>
@@ -2229,10 +2261,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -2255,11 +2287,14 @@
       <c r="W12" s="1">
         <v>0</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:25">
+    <row r="13" s="1" customFormat="1" spans="3:26">
       <c r="C13" s="1">
         <v>2001</v>
       </c>
@@ -2267,10 +2302,10 @@
         <v>2001</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2279,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -2297,10 +2332,10 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -2324,13 +2359,16 @@
         <v>0</v>
       </c>
       <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
         <v>103</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:25">
+    <row r="14" s="1" customFormat="1" spans="3:26">
       <c r="C14" s="1">
         <v>2002</v>
       </c>
@@ -2338,10 +2376,10 @@
         <v>2002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2350,7 +2388,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J14" s="1">
         <v>5</v>
@@ -2368,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -2394,11 +2432,14 @@
       <c r="W14" s="1">
         <v>0</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:25">
+    <row r="15" s="1" customFormat="1" spans="3:26">
       <c r="C15" s="1">
         <v>2003</v>
       </c>
@@ -2406,10 +2447,10 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -2418,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
@@ -2436,10 +2477,10 @@
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q15" s="1">
         <v>5</v>
@@ -2462,11 +2503,14 @@
       <c r="W15" s="1">
         <v>0</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:25">
+    <row r="16" s="1" customFormat="1" spans="3:26">
       <c r="C16" s="1">
         <v>2004</v>
       </c>
@@ -2474,10 +2518,10 @@
         <v>2004</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -2486,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K16" s="1">
         <v>2</v>
@@ -2504,19 +2548,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2531,13 +2575,16 @@
         <v>0</v>
       </c>
       <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
         <v>204</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:25">
+    <row r="17" s="1" customFormat="1" spans="3:26">
       <c r="C17" s="1">
         <v>2005</v>
       </c>
@@ -2545,10 +2592,10 @@
         <v>2005</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1">
         <v>6</v>
@@ -2557,7 +2604,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2575,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
@@ -2601,11 +2648,14 @@
       <c r="W17" s="1">
         <v>0</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:25">
+    <row r="18" s="1" customFormat="1" spans="3:26">
       <c r="C18" s="1">
         <v>2006</v>
       </c>
@@ -2613,10 +2663,10 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -2625,7 +2675,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J18" s="1">
         <v>15</v>
@@ -2643,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
@@ -2669,11 +2719,14 @@
       <c r="W18" s="1">
         <v>0</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:25">
+    <row r="19" s="1" customFormat="1" spans="3:26">
       <c r="C19" s="1">
         <v>2007</v>
       </c>
@@ -2681,10 +2734,10 @@
         <v>2007</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -2693,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J19" s="1">
         <v>10</v>
@@ -2711,10 +2764,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
@@ -2737,11 +2790,14 @@
       <c r="W19" s="1">
         <v>0</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:25">
+    <row r="20" s="1" customFormat="1" spans="3:26">
       <c r="C20" s="1">
         <v>3001</v>
       </c>
@@ -2749,10 +2805,10 @@
         <v>3001</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G20" s="1">
         <v>4</v>
@@ -2761,7 +2817,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J20" s="1">
         <v>4</v>
@@ -2779,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
@@ -2808,11 +2864,11 @@
       <c r="X20" s="1">
         <v>0</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:25">
+    <row r="21" s="1" customFormat="1" spans="3:26">
       <c r="C21" s="1">
         <v>3002</v>
       </c>
@@ -2820,10 +2876,10 @@
         <v>3007</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2832,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J21" s="1">
         <v>5</v>
@@ -2850,10 +2906,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
@@ -2862,7 +2918,7 @@
         <v>5</v>
       </c>
       <c r="S21" s="1">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -2877,13 +2933,16 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
         <v>104</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:25">
+    <row r="22" s="1" customFormat="1" spans="3:26">
       <c r="C22" s="1">
         <v>3003</v>
       </c>
@@ -2891,10 +2950,10 @@
         <v>3002</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -2903,7 +2962,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J22" s="1">
         <v>15</v>
@@ -2921,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
@@ -2947,11 +3006,14 @@
       <c r="W22" s="1">
         <v>0</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:25">
+    <row r="23" s="1" customFormat="1" spans="3:26">
       <c r="C23" s="1">
         <v>3004</v>
       </c>
@@ -2959,10 +3021,10 @@
         <v>3004</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1">
         <v>5</v>
@@ -2971,10 +3033,10 @@
         <v>50</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J23" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K23" s="1">
         <v>2</v>
@@ -2989,19 +3051,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
@@ -3016,13 +3078,16 @@
         <v>0</v>
       </c>
       <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
         <v>204</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:25">
+    <row r="24" s="1" customFormat="1" spans="3:26">
       <c r="C24" s="1">
         <v>3005</v>
       </c>
@@ -3030,10 +3095,10 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1">
         <v>6</v>
@@ -3042,7 +3107,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -3060,10 +3125,10 @@
         <v>3</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
@@ -3086,11 +3151,14 @@
       <c r="W24" s="1">
         <v>0</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:25">
+    <row r="25" s="1" customFormat="1" spans="3:26">
       <c r="C25" s="1">
         <v>3006</v>
       </c>
@@ -3098,10 +3166,10 @@
         <v>3006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -3110,7 +3178,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J25" s="1">
         <v>15</v>
@@ -3128,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
@@ -3154,11 +3222,14 @@
       <c r="W25" s="1">
         <v>0</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:25">
+    <row r="26" s="1" customFormat="1" spans="3:26">
       <c r="C26" s="1">
         <v>3007</v>
       </c>
@@ -3166,10 +3237,10 @@
         <v>3007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -3178,7 +3249,7 @@
         <v>100</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J26" s="1">
         <v>5</v>
@@ -3196,10 +3267,10 @@
         <v>2</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
@@ -3223,13 +3294,13 @@
         <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>104</v>
-      </c>
-      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:25">
+    <row r="27" s="1" customFormat="1" spans="3:26">
       <c r="C27" s="1">
         <v>9001</v>
       </c>
@@ -3237,10 +3308,10 @@
         <v>9001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G27" s="1">
         <v>9</v>
@@ -3264,10 +3335,10 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
@@ -3290,11 +3361,14 @@
       <c r="W27" s="1">
         <v>0</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="3:25">
+    <row r="28" s="1" customFormat="1" spans="3:26">
       <c r="C28" s="1">
         <v>9002</v>
       </c>
@@ -3302,10 +3376,10 @@
         <v>9002</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G28" s="1">
         <v>9</v>
@@ -3329,10 +3403,10 @@
         <v>2</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
@@ -3355,11 +3429,14 @@
       <c r="W28" s="1">
         <v>0</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="3:25">
+    <row r="29" s="1" customFormat="1" spans="3:26">
       <c r="C29" s="1">
         <v>10001</v>
       </c>
@@ -3367,10 +3444,10 @@
         <v>10001</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3379,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -3397,10 +3474,10 @@
         <v>3</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
@@ -3423,11 +3500,14 @@
       <c r="W29" s="1">
         <v>0</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:25">
+    <row r="30" spans="3:26">
       <c r="C30" s="2">
         <v>10002</v>
       </c>
@@ -3435,10 +3515,10 @@
         <v>10002</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G30" s="2">
         <v>4</v>
@@ -3447,7 +3527,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -3465,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -3491,12 +3571,15 @@
       <c r="W30" s="1">
         <v>0</v>
       </c>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1">
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:25">
+    <row r="31" spans="3:26">
       <c r="C31" s="2">
         <v>10003</v>
       </c>
@@ -3504,10 +3587,10 @@
         <v>10003</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -3516,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -3534,10 +3617,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
@@ -3560,12 +3643,15 @@
       <c r="W31" s="1">
         <v>0</v>
       </c>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1">
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:25">
+    <row r="32" spans="3:26">
       <c r="C32" s="2">
         <v>10004</v>
       </c>
@@ -3573,10 +3659,10 @@
         <v>10004</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -3585,7 +3671,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3603,10 +3689,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -3620,7 +3706,7 @@
       <c r="T32" s="2">
         <v>0</v>
       </c>
-      <c r="U32" s="2">
+      <c r="U32" s="1">
         <v>0</v>
       </c>
       <c r="V32" s="2">
@@ -3629,7 +3715,10 @@
       <c r="W32" s="2">
         <v>0</v>
       </c>
-      <c r="Y32" s="2">
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -430,7 +430,7 @@
     <t>武力盾</t>
   </si>
   <si>
-    <t>增加{2}%攻击+{3}点防御,持续30秒</t>
+    <t>增加攻击*{2}%+{3}点攻击和防御,持续30秒</t>
   </si>
   <si>
     <t>武力精通</t>
@@ -472,7 +472,7 @@
     <t>魔法盾</t>
   </si>
   <si>
-    <t>增加{2}%魔法+{3}点防御,持续30秒</t>
+    <t>增加魔法*{2}%+{3}点魔法和防御,持续30秒</t>
   </si>
   <si>
     <t>法术精通</t>
@@ -514,7 +514,7 @@
     <t>道力盾</t>
   </si>
   <si>
-    <t>增加{2}%道术+{3}点防御,持续30秒</t>
+    <t>增加道术*{2}%+{3}点道术和防御,持续30秒</t>
   </si>
   <si>
     <t>道力精通</t>
@@ -738,12 +738,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1203,13 +1203,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1534,7 +1535,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1546,7 +1547,7 @@
     <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" customWidth="1"/>
     <col min="12" max="12" width="5.875" style="2" customWidth="1"/>
@@ -1557,8 +1558,9 @@
     <col min="19" max="20" width="7.875" style="2" customWidth="1"/>
     <col min="21" max="21" width="9.625" style="2" customWidth="1"/>
     <col min="22" max="24" width="7.875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="11.75" style="2" customWidth="1"/>
-    <col min="26" max="28" width="9" style="2"/>
+    <col min="25" max="25" width="8.75" style="2" customWidth="1"/>
+    <col min="26" max="26" width="11.625" style="2" customWidth="1"/>
+    <col min="27" max="28" width="9" style="2"/>
     <col min="29" max="29" width="19.25" style="2" customWidth="1"/>
     <col min="30" max="16384" width="9" style="2"/>
   </cols>
@@ -2074,8 +2076,8 @@
       <c r="X9" s="1">
         <v>0</v>
       </c>
-      <c r="Y9" s="1">
-        <v>501</v>
+      <c r="Y9" s="4">
+        <v>201501</v>
       </c>
       <c r="Z9" s="1">
         <v>50</v>
@@ -2131,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -2361,9 +2363,7 @@
       <c r="X13" s="1">
         <v>0</v>
       </c>
-      <c r="Y13" s="1">
-        <v>103</v>
-      </c>
+      <c r="Y13" s="1"/>
       <c r="Z13" s="1">
         <v>50</v>
       </c>
@@ -2577,8 +2577,8 @@
       <c r="X16" s="1">
         <v>0</v>
       </c>
-      <c r="Y16" s="1">
-        <v>204</v>
+      <c r="Y16" s="4">
+        <v>301501</v>
       </c>
       <c r="Z16" s="1">
         <v>50</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>5</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -2935,9 +2935,7 @@
       <c r="X21" s="1">
         <v>0</v>
       </c>
-      <c r="Y21" s="1">
-        <v>104</v>
-      </c>
+      <c r="Y21" s="1"/>
       <c r="Z21" s="1">
         <v>50</v>
       </c>
@@ -3080,8 +3078,8 @@
       <c r="X23" s="1">
         <v>0</v>
       </c>
-      <c r="Y23" s="1">
-        <v>204</v>
+      <c r="Y23" s="4">
+        <v>401501</v>
       </c>
       <c r="Z23" s="1">
         <v>50</v>
@@ -3137,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -234,12 +234,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="Y3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+效果id,持续时间，叠加层数，百分比系数(100使用技能的系数)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
   <si>
     <t>_ID</t>
   </si>
@@ -382,7 +404,7 @@
     <t>DamageIncrea</t>
   </si>
   <si>
-    <t>EffectIdList</t>
+    <t>EffectList</t>
   </si>
   <si>
     <t>Exp</t>
@@ -394,7 +416,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>int[]</t>
+    <t>string[]</t>
   </si>
   <si>
     <t>基础剑术</t>
@@ -427,12 +449,27 @@
     <t>Square</t>
   </si>
   <si>
+    <t>野蛮撞击</t>
+  </si>
+  <si>
+    <t>对敌人造成{2}%攻击+{3}点伤害，并且晕眩2回合</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>"106,-1,-1,100"</t>
+  </si>
+  <si>
     <t>武力盾</t>
   </si>
   <si>
     <t>增加攻击*{2}%+{3}点攻击和防御,持续30秒</t>
   </si>
   <si>
+    <t>"1,-1,-1,100","4,-1,-1,100"</t>
+  </si>
+  <si>
     <t>武力精通</t>
   </si>
   <si>
@@ -442,12 +479,6 @@
     <t>FullBox</t>
   </si>
   <si>
-    <t>野蛮撞击</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
     <t>烈火剑法</t>
   </si>
   <si>
@@ -469,21 +500,27 @@
     <t>施展一片持续5s的火墙，会踏入的敌人造成每秒{2}%魔法+{3}点伤害</t>
   </si>
   <si>
+    <t>爆裂火焰</t>
+  </si>
+  <si>
+    <t>抗拒火环</t>
+  </si>
+  <si>
     <t>魔法盾</t>
   </si>
   <si>
     <t>增加魔法*{2}%+{3}点魔法和防御,持续30秒</t>
   </si>
   <si>
+    <t>"2,-1,-1,100","4,-1,-1,100"</t>
+  </si>
+  <si>
     <t>法术精通</t>
   </si>
   <si>
     <t>法师技能增加{2}%技能系数+{3}技能基础值</t>
   </si>
   <si>
-    <t>抗拒光环</t>
-  </si>
-  <si>
     <t>冰咆哮</t>
   </si>
   <si>
@@ -496,7 +533,10 @@
     <t>回复自己{2}%道术+{3}点生命</t>
   </si>
   <si>
-    <t>群体施毒术</t>
+    <t>火符术</t>
+  </si>
+  <si>
+    <t>对敌人造成{2}%道术+{3}点伤害</t>
   </si>
   <si>
     <t>施毒术</t>
@@ -517,18 +557,15 @@
     <t>增加道术*{2}%+{3}点道术和防御,持续30秒</t>
   </si>
   <si>
+    <t>"3,-1,-1,100","4,-1,-1,100"</t>
+  </si>
+  <si>
     <t>道力精通</t>
   </si>
   <si>
     <t>道士技能增加{2}%技能系数+{3}技能基础值</t>
   </si>
   <si>
-    <t>禁锢术</t>
-  </si>
-  <si>
-    <t>对敌人造成{2}%道术+{3}点伤害</t>
-  </si>
-  <si>
     <t>召唤神兽</t>
   </si>
   <si>
@@ -542,6 +579,9 @@
   </si>
   <si>
     <t>怪物远程攻击</t>
+  </si>
+  <si>
+    <t>默认</t>
   </si>
   <si>
     <t>怪物雷电</t>
@@ -738,12 +778,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1532,10 +1572,10 @@
   <sheetPr/>
   <dimension ref="C3:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomLeft" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1544,22 +1584,25 @@
     <col min="2" max="2" width="3.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="9" style="2"/>
     <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="5.875" style="2" customWidth="1"/>
-    <col min="13" max="15" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.50833333333333" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.25" style="2" customWidth="1"/>
     <col min="17" max="17" width="6.5" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.625" style="2" customWidth="1"/>
     <col min="19" max="20" width="7.875" style="2" customWidth="1"/>
     <col min="21" max="21" width="9.625" style="2" customWidth="1"/>
-    <col min="22" max="24" width="7.875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.75" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.625" style="2" customWidth="1"/>
+    <col min="22" max="23" width="7.875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="19.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="5.25" style="2" customWidth="1"/>
     <col min="27" max="28" width="9" style="2"/>
     <col min="29" max="29" width="19.25" style="2" customWidth="1"/>
     <col min="30" max="16384" width="9" style="2"/>
@@ -1819,7 +1862,7 @@
         <v>54</v>
       </c>
       <c r="J6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -2016,26 +2059,26 @@
       <c r="D9" s="1">
         <v>1004</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J9" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
@@ -2044,22 +2087,22 @@
         <v>9999</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -2076,8 +2119,8 @@
       <c r="X9" s="1">
         <v>0</v>
       </c>
-      <c r="Y9" s="4">
-        <v>201501</v>
+      <c r="Y9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="Z9" s="1">
         <v>50</v>
@@ -2091,22 +2134,22 @@
         <v>1005</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
@@ -2124,10 +2167,10 @@
         <v>55</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -2149,6 +2192,9 @@
       </c>
       <c r="X10" s="1">
         <v>0</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="Z10" s="1">
         <v>50</v>
@@ -2161,26 +2207,26 @@
       <c r="D11" s="1">
         <v>1006</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>67</v>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1">
         <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -2189,22 +2235,22 @@
         <v>9999</v>
       </c>
       <c r="N11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -2233,10 +2279,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2304,10 +2350,10 @@
         <v>2001</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2316,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -2334,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>61</v>
@@ -2363,7 +2409,6 @@
       <c r="X13" s="1">
         <v>0</v>
       </c>
-      <c r="Y13" s="1"/>
       <c r="Z13" s="1">
         <v>50</v>
       </c>
@@ -2376,10 +2421,10 @@
         <v>2002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2388,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J14" s="1">
         <v>5</v>
@@ -2406,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>61</v>
@@ -2447,10 +2492,10 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -2459,7 +2504,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
@@ -2477,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>61</v>
@@ -2518,25 +2563,25 @@
         <v>2004</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J16" s="1">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="K16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
@@ -2545,7 +2590,7 @@
         <v>9999</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>55</v>
@@ -2554,13 +2599,13 @@
         <v>61</v>
       </c>
       <c r="Q16" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S16" s="1">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2576,9 +2621,6 @@
       </c>
       <c r="X16" s="1">
         <v>0</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>301501</v>
       </c>
       <c r="Z16" s="1">
         <v>50</v>
@@ -2591,23 +2633,23 @@
       <c r="D17" s="1">
         <v>2005</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>78</v>
+      <c r="E17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="G17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
@@ -2625,10 +2667,10 @@
         <v>55</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2650,6 +2692,9 @@
       </c>
       <c r="X17" s="1">
         <v>0</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="Z17" s="1">
         <v>50</v>
@@ -2662,26 +2707,26 @@
       <c r="D18" s="1">
         <v>2006</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>80</v>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H18" s="1">
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="J18" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="1">
         <v>2</v>
@@ -2690,22 +2735,22 @@
         <v>9999</v>
       </c>
       <c r="N18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -2734,10 +2779,10 @@
         <v>2007</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -2746,7 +2791,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J19" s="1">
         <v>10</v>
@@ -2764,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>61</v>
@@ -2805,10 +2850,10 @@
         <v>3001</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G20" s="1">
         <v>4</v>
@@ -2817,7 +2862,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J20" s="1">
         <v>4</v>
@@ -2873,13 +2918,13 @@
         <v>3002</v>
       </c>
       <c r="D21" s="1">
-        <v>3007</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>86</v>
+        <v>3002</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2888,10 +2933,10 @@
         <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J21" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2903,10 +2948,10 @@
         <v>9999</v>
       </c>
       <c r="N21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>61</v>
@@ -2915,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S21" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -2935,7 +2980,6 @@
       <c r="X21" s="1">
         <v>0</v>
       </c>
-      <c r="Y21" s="1"/>
       <c r="Z21" s="1">
         <v>50</v>
       </c>
@@ -2945,25 +2989,25 @@
         <v>3003</v>
       </c>
       <c r="D22" s="1">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J22" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2975,22 +3019,22 @@
         <v>9999</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S22" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -3019,25 +3063,25 @@
         <v>3004</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J23" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1">
         <v>3</v>
@@ -3052,16 +3096,16 @@
         <v>55</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
@@ -3077,9 +3121,6 @@
       </c>
       <c r="X23" s="1">
         <v>0</v>
-      </c>
-      <c r="Y23" s="4">
-        <v>401501</v>
       </c>
       <c r="Z23" s="1">
         <v>50</v>
@@ -3092,23 +3133,23 @@
       <c r="D24" s="1">
         <v>3005</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>92</v>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
@@ -3120,16 +3161,16 @@
         <v>9999</v>
       </c>
       <c r="N24" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -3151,6 +3192,9 @@
       </c>
       <c r="X24" s="1">
         <v>0</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="Z24" s="1">
         <v>50</v>
@@ -3164,25 +3208,25 @@
         <v>3006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H25" s="1">
         <v>10</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1">
         <v>3</v>
@@ -3191,22 +3235,22 @@
         <v>9999</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -3235,10 +3279,10 @@
         <v>3007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -3247,10 +3291,10 @@
         <v>100</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J26" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -3265,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>61</v>
@@ -3306,10 +3350,10 @@
         <v>9001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G27" s="1">
         <v>9</v>
@@ -3374,10 +3418,10 @@
         <v>9002</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G28" s="1">
         <v>9</v>
@@ -3442,10 +3486,10 @@
         <v>10001</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3454,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -3472,7 +3516,7 @@
         <v>3</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>61</v>
@@ -3513,10 +3557,10 @@
         <v>10002</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="G30" s="2">
         <v>4</v>
@@ -3525,7 +3569,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -3585,10 +3629,10 @@
         <v>10003</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -3597,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -3615,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
@@ -3657,10 +3701,10 @@
         <v>10004</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -3669,7 +3713,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3687,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>61</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -111,8 +111,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 主动
-2 被动
+1 单体
+2 范围
 </t>
         </r>
       </text>
@@ -212,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0">
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="0">
+    <comment ref="AA3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="118">
   <si>
     <t>_ID</t>
   </si>
@@ -311,6 +311,12 @@
     <t>最大敌人数量</t>
   </si>
   <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
     <t>伤害比例</t>
   </si>
   <si>
@@ -386,6 +392,12 @@
     <t>EnemyMax</t>
   </si>
   <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
     <t>Percent</t>
   </si>
   <si>
@@ -437,34 +449,37 @@
     <t>刺杀剑术</t>
   </si>
   <si>
+    <t>龙影剑法</t>
+  </si>
+  <si>
     <t>半月弯刀</t>
   </si>
   <si>
-    <t>龙影剑法</t>
-  </si>
-  <si>
     <t>对周围的{1}个敌人造成{2}%攻击+{3}点伤害</t>
   </si>
   <si>
+    <t>Arc</t>
+  </si>
+  <si>
+    <t>野蛮撞击</t>
+  </si>
+  <si>
+    <t>对敌人造成{2}%攻击+{3}点伤害，并且晕眩2回合</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>"106,-1,-1,100"</t>
+  </si>
+  <si>
+    <t>武力盾</t>
+  </si>
+  <si>
+    <t>增加攻击*{2}%+{3}点攻击和防御,持续30秒</t>
+  </si>
+  <si>
     <t>Square</t>
-  </si>
-  <si>
-    <t>野蛮撞击</t>
-  </si>
-  <si>
-    <t>对敌人造成{2}%攻击+{3}点伤害，并且晕眩2回合</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>"106,-1,-1,100"</t>
-  </si>
-  <si>
-    <t>武力盾</t>
-  </si>
-  <si>
-    <t>增加攻击*{2}%+{3}点攻击和防御,持续30秒</t>
   </si>
   <si>
     <t>"1,-1,-1,100","4,-1,-1,100"</t>
@@ -778,12 +793,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1570,12 +1585,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AC32"/>
+  <dimension ref="C3:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y21" sqref="Y21"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1585,7 +1600,7 @@
     <col min="3" max="4" width="9" style="2"/>
     <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="5.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="2" customWidth="1"/>
@@ -1596,19 +1611,19 @@
     <col min="15" max="15" width="7.50833333333333" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.25" style="2" customWidth="1"/>
     <col min="17" max="17" width="6.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="2" customWidth="1"/>
-    <col min="19" max="20" width="7.875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9.625" style="2" customWidth="1"/>
-    <col min="22" max="23" width="7.875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="19.625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="5.25" style="2" customWidth="1"/>
-    <col min="27" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="19.25" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="2"/>
+    <col min="18" max="20" width="7.625" style="2" customWidth="1"/>
+    <col min="21" max="22" width="7.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="9.625" style="2" customWidth="1"/>
+    <col min="24" max="25" width="7.875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="19.625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.25" style="2" customWidth="1"/>
+    <col min="29" max="30" width="9" style="2"/>
+    <col min="31" max="31" width="19.25" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:29">
+    <row r="3" spans="3:31">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1681,165 +1696,183 @@
       <c r="Z3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>24</v>
+      <c r="AB3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="3:26">
+    <row r="4" spans="3:28">
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="3:26">
+    <row r="5" spans="3:28">
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:26">
+    <row r="6" s="1" customFormat="1" spans="3:28">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1847,10 +1880,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1859,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -1877,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -1889,14 +1922,14 @@
         <v>1</v>
       </c>
       <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
         <v>110</v>
       </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
       <c r="V6" s="1">
         <v>0</v>
       </c>
@@ -1906,11 +1939,17 @@
       <c r="X6" s="1">
         <v>0</v>
       </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
       <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:26">
+    <row r="7" s="1" customFormat="1" spans="3:28">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1918,10 +1957,10 @@
         <v>1002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1930,13 +1969,13 @@
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -1948,10 +1987,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -1960,28 +1999,34 @@
         <v>2</v>
       </c>
       <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
         <v>150</v>
       </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
         <v>20</v>
       </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
       <c r="X7" s="1">
         <v>0</v>
       </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
       <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:26">
+    <row r="8" s="1" customFormat="1" spans="3:28">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1989,10 +2034,10 @@
         <v>1003</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -2001,13 +2046,13 @@
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1">
         <v>5</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -2019,10 +2064,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -2031,14 +2076,14 @@
         <v>5</v>
       </c>
       <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
         <v>120</v>
       </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
       <c r="V8" s="1">
         <v>0</v>
       </c>
@@ -2048,11 +2093,17 @@
       <c r="X8" s="1">
         <v>0</v>
       </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
       <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:26">
+    <row r="9" s="1" customFormat="1" spans="3:28">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -2060,19 +2111,19 @@
         <v>1004</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1">
         <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1">
         <v>10</v>
@@ -2090,10 +2141,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="1">
         <v>2</v>
@@ -2102,14 +2153,14 @@
         <v>1</v>
       </c>
       <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
         <v>200</v>
       </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
       <c r="V9" s="1">
         <v>0</v>
       </c>
@@ -2119,14 +2170,20 @@
       <c r="X9" s="1">
         <v>0</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>65</v>
+      <c r="Y9" s="1">
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB9" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:26">
+    <row r="10" s="1" customFormat="1" spans="3:28">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -2134,10 +2191,10 @@
         <v>1005</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -2146,13 +2203,13 @@
         <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1">
         <v>60</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -2164,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="1">
         <v>30</v>
@@ -2176,14 +2233,14 @@
         <v>0</v>
       </c>
       <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
         <v>50</v>
       </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
       <c r="V10" s="1">
         <v>0</v>
       </c>
@@ -2193,14 +2250,20 @@
       <c r="X10" s="1">
         <v>0</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>68</v>
+      <c r="Y10" s="1">
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB10" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:26">
+    <row r="11" s="1" customFormat="1" spans="3:28">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -2208,10 +2271,10 @@
         <v>1006</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1">
         <v>6</v>
@@ -2220,13 +2283,13 @@
         <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -2238,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -2250,14 +2313,14 @@
         <v>0</v>
       </c>
       <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
         <v>50</v>
       </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
       <c r="V11" s="1">
         <v>0</v>
       </c>
@@ -2267,11 +2330,17 @@
       <c r="X11" s="1">
         <v>0</v>
       </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
       <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:26">
+    <row r="12" s="1" customFormat="1" spans="3:28">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -2279,10 +2348,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2291,7 +2360,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1">
         <v>15</v>
@@ -2309,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -2321,14 +2390,14 @@
         <v>1</v>
       </c>
       <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
         <v>300</v>
       </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
       <c r="V12" s="1">
         <v>0</v>
       </c>
@@ -2338,11 +2407,17 @@
       <c r="X12" s="1">
         <v>0</v>
       </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
       <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:26">
+    <row r="13" s="1" customFormat="1" spans="3:28">
       <c r="C13" s="1">
         <v>2001</v>
       </c>
@@ -2350,10 +2425,10 @@
         <v>2001</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2362,7 +2437,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -2380,10 +2455,10 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -2392,14 +2467,14 @@
         <v>1</v>
       </c>
       <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
         <v>110</v>
       </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
       <c r="V13" s="1">
         <v>0</v>
       </c>
@@ -2409,11 +2484,17 @@
       <c r="X13" s="1">
         <v>0</v>
       </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
       <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:26">
+    <row r="14" s="1" customFormat="1" spans="3:28">
       <c r="C14" s="1">
         <v>2002</v>
       </c>
@@ -2421,10 +2502,10 @@
         <v>2002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2433,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J14" s="1">
         <v>5</v>
@@ -2451,10 +2532,10 @@
         <v>3</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -2463,14 +2544,14 @@
         <v>1</v>
       </c>
       <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
         <v>150</v>
       </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
       <c r="V14" s="1">
         <v>0</v>
       </c>
@@ -2480,11 +2561,17 @@
       <c r="X14" s="1">
         <v>0</v>
       </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
       <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:26">
+    <row r="15" s="1" customFormat="1" spans="3:28">
       <c r="C15" s="1">
         <v>2003</v>
       </c>
@@ -2492,10 +2579,10 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -2504,13 +2591,13 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="1">
         <v>2</v>
@@ -2522,10 +2609,10 @@
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="1">
         <v>5</v>
@@ -2534,14 +2621,14 @@
         <v>5</v>
       </c>
       <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
         <v>120</v>
       </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0</v>
-      </c>
       <c r="V15" s="1">
         <v>0</v>
       </c>
@@ -2551,11 +2638,17 @@
       <c r="X15" s="1">
         <v>0</v>
       </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
       <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:26">
+    <row r="16" s="1" customFormat="1" spans="3:28">
       <c r="C16" s="1">
         <v>2004</v>
       </c>
@@ -2563,10 +2656,10 @@
         <v>2004</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2575,13 +2668,13 @@
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
@@ -2593,10 +2686,10 @@
         <v>3</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -2605,14 +2698,14 @@
         <v>4</v>
       </c>
       <c r="S16" s="1">
+        <v>2</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2</v>
+      </c>
+      <c r="U16" s="1">
         <v>120</v>
       </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
       <c r="V16" s="1">
         <v>0</v>
       </c>
@@ -2622,11 +2715,17 @@
       <c r="X16" s="1">
         <v>0</v>
       </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
       <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:26">
+    <row r="17" s="1" customFormat="1" spans="3:28">
       <c r="C17" s="1">
         <v>2005</v>
       </c>
@@ -2634,10 +2733,10 @@
         <v>2005</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>
@@ -2646,13 +2745,13 @@
         <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J17" s="1">
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>2</v>
@@ -2664,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="1">
         <v>30</v>
@@ -2676,14 +2775,14 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
         <v>50</v>
       </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
       <c r="V17" s="1">
         <v>0</v>
       </c>
@@ -2693,14 +2792,20 @@
       <c r="X17" s="1">
         <v>0</v>
       </c>
-      <c r="Y17" s="4" t="s">
-        <v>83</v>
+      <c r="Y17" s="1">
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB17" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:26">
+    <row r="18" s="1" customFormat="1" spans="3:28">
       <c r="C18" s="1">
         <v>2006</v>
       </c>
@@ -2708,10 +2813,10 @@
         <v>2006</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G18" s="1">
         <v>6</v>
@@ -2720,13 +2825,13 @@
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
         <v>2</v>
@@ -2738,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
@@ -2750,14 +2855,14 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
         <v>50</v>
       </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
       <c r="V18" s="1">
         <v>0</v>
       </c>
@@ -2767,11 +2872,17 @@
       <c r="X18" s="1">
         <v>0</v>
       </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
       <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:26">
+    <row r="19" s="1" customFormat="1" spans="3:28">
       <c r="C19" s="1">
         <v>2007</v>
       </c>
@@ -2779,10 +2890,10 @@
         <v>2007</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -2791,13 +2902,13 @@
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J19" s="1">
         <v>10</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="1">
         <v>2</v>
@@ -2809,10 +2920,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
@@ -2821,14 +2932,14 @@
         <v>5</v>
       </c>
       <c r="S19" s="1">
+        <v>3</v>
+      </c>
+      <c r="T19" s="1">
+        <v>3</v>
+      </c>
+      <c r="U19" s="1">
         <v>150</v>
       </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0</v>
-      </c>
       <c r="V19" s="1">
         <v>0</v>
       </c>
@@ -2838,11 +2949,17 @@
       <c r="X19" s="1">
         <v>0</v>
       </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
       <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:26">
+    <row r="20" s="1" customFormat="1" spans="3:28">
       <c r="C20" s="1">
         <v>3001</v>
       </c>
@@ -2850,10 +2967,10 @@
         <v>3001</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G20" s="1">
         <v>4</v>
@@ -2862,7 +2979,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J20" s="1">
         <v>4</v>
@@ -2880,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
@@ -2892,14 +3009,14 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
         <v>50</v>
       </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
       <c r="V20" s="1">
         <v>0</v>
       </c>
@@ -2909,11 +3026,17 @@
       <c r="X20" s="1">
         <v>0</v>
       </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
       <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:26">
+    <row r="21" s="1" customFormat="1" spans="3:28">
       <c r="C21" s="1">
         <v>3002</v>
       </c>
@@ -2921,10 +3044,10 @@
         <v>3002</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2933,7 +3056,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J21" s="1">
         <v>15</v>
@@ -2951,10 +3074,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
@@ -2963,14 +3086,14 @@
         <v>1</v>
       </c>
       <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
         <v>150</v>
       </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
       <c r="V21" s="1">
         <v>0</v>
       </c>
@@ -2980,11 +3103,17 @@
       <c r="X21" s="1">
         <v>0</v>
       </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
       <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:26">
+    <row r="22" s="1" customFormat="1" spans="3:28">
       <c r="C22" s="1">
         <v>3003</v>
       </c>
@@ -2992,10 +3121,10 @@
         <v>3003</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -3004,7 +3133,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J22" s="1">
         <v>60</v>
@@ -3022,10 +3151,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
@@ -3034,14 +3163,14 @@
         <v>5</v>
       </c>
       <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
         <v>50</v>
       </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
       <c r="V22" s="1">
         <v>0</v>
       </c>
@@ -3051,11 +3180,17 @@
       <c r="X22" s="1">
         <v>0</v>
       </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
       <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:26">
+    <row r="23" s="1" customFormat="1" spans="3:28">
       <c r="C23" s="1">
         <v>3004</v>
       </c>
@@ -3063,10 +3198,10 @@
         <v>3004</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -3075,7 +3210,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J23" s="1">
         <v>15</v>
@@ -3093,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="1">
         <v>0</v>
@@ -3105,14 +3240,14 @@
         <v>1</v>
       </c>
       <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
         <v>150</v>
       </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
       <c r="V23" s="1">
         <v>0</v>
       </c>
@@ -3122,11 +3257,17 @@
       <c r="X23" s="1">
         <v>0</v>
       </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
       <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:26">
+    <row r="24" s="1" customFormat="1" spans="3:28">
       <c r="C24" s="1">
         <v>3005</v>
       </c>
@@ -3134,10 +3275,10 @@
         <v>3005</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G24" s="1">
         <v>5</v>
@@ -3146,13 +3287,13 @@
         <v>50</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J24" s="1">
         <v>60</v>
       </c>
       <c r="K24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
@@ -3164,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="1">
         <v>30</v>
@@ -3176,14 +3317,14 @@
         <v>0</v>
       </c>
       <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
         <v>50</v>
       </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
       <c r="V24" s="1">
         <v>0</v>
       </c>
@@ -3193,14 +3334,20 @@
       <c r="X24" s="1">
         <v>0</v>
       </c>
-      <c r="Y24" s="4" t="s">
-        <v>98</v>
+      <c r="Y24" s="1">
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB24" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:26">
+    <row r="25" s="1" customFormat="1" spans="3:28">
       <c r="C25" s="1">
         <v>3006</v>
       </c>
@@ -3208,10 +3355,10 @@
         <v>3006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G25" s="1">
         <v>6</v>
@@ -3220,13 +3367,13 @@
         <v>10</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1">
         <v>3</v>
@@ -3238,10 +3385,10 @@
         <v>3</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
@@ -3250,14 +3397,14 @@
         <v>0</v>
       </c>
       <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
         <v>50</v>
       </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
       <c r="V25" s="1">
         <v>0</v>
       </c>
@@ -3267,11 +3414,17 @@
       <c r="X25" s="1">
         <v>0</v>
       </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
       <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:26">
+    <row r="26" s="1" customFormat="1" spans="3:28">
       <c r="C26" s="1">
         <v>3007</v>
       </c>
@@ -3279,10 +3432,10 @@
         <v>3007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -3291,7 +3444,7 @@
         <v>100</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J26" s="1">
         <v>60</v>
@@ -3309,10 +3462,10 @@
         <v>2</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
@@ -3321,14 +3474,14 @@
         <v>2</v>
       </c>
       <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
         <v>120</v>
       </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
-        <v>0</v>
-      </c>
       <c r="V26" s="1">
         <v>0</v>
       </c>
@@ -3338,11 +3491,17 @@
       <c r="X26" s="1">
         <v>0</v>
       </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
       <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:26">
+    <row r="27" s="1" customFormat="1" spans="3:28">
       <c r="C27" s="1">
         <v>9001</v>
       </c>
@@ -3350,10 +3509,10 @@
         <v>9001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G27" s="1">
         <v>9</v>
@@ -3377,10 +3536,10 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
@@ -3389,14 +3548,14 @@
         <v>1</v>
       </c>
       <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
         <v>100</v>
       </c>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0</v>
-      </c>
       <c r="V27" s="1">
         <v>0</v>
       </c>
@@ -3406,11 +3565,17 @@
       <c r="X27" s="1">
         <v>0</v>
       </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
       <c r="Z27" s="1">
         <v>0</v>
       </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="3:26">
+    <row r="28" s="1" customFormat="1" spans="3:28">
       <c r="C28" s="1">
         <v>9002</v>
       </c>
@@ -3418,10 +3583,10 @@
         <v>9002</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G28" s="1">
         <v>9</v>
@@ -3445,10 +3610,10 @@
         <v>2</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
@@ -3457,14 +3622,14 @@
         <v>1</v>
       </c>
       <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
         <v>100</v>
       </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
-        <v>0</v>
-      </c>
       <c r="V28" s="1">
         <v>0</v>
       </c>
@@ -3474,11 +3639,17 @@
       <c r="X28" s="1">
         <v>0</v>
       </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
       <c r="Z28" s="1">
         <v>0</v>
       </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="3:26">
+    <row r="29" s="1" customFormat="1" spans="3:28">
       <c r="C29" s="1">
         <v>10001</v>
       </c>
@@ -3486,10 +3657,10 @@
         <v>10001</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3498,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -3516,10 +3687,10 @@
         <v>3</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
@@ -3528,14 +3699,14 @@
         <v>1</v>
       </c>
       <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
         <v>100</v>
       </c>
-      <c r="T29" s="1">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1">
-        <v>0</v>
-      </c>
       <c r="V29" s="1">
         <v>0</v>
       </c>
@@ -3545,11 +3716,17 @@
       <c r="X29" s="1">
         <v>0</v>
       </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
       <c r="Z29" s="1">
         <v>0</v>
       </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="3:26">
+    <row r="30" spans="3:28">
       <c r="C30" s="2">
         <v>10002</v>
       </c>
@@ -3557,10 +3734,10 @@
         <v>10002</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G30" s="2">
         <v>4</v>
@@ -3569,7 +3746,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -3587,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -3598,15 +3775,15 @@
       <c r="R30" s="2">
         <v>1</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
         <v>100</v>
       </c>
-      <c r="T30" s="1">
-        <v>0</v>
-      </c>
-      <c r="U30" s="1">
-        <v>0</v>
-      </c>
       <c r="V30" s="1">
         <v>0</v>
       </c>
@@ -3616,12 +3793,18 @@
       <c r="X30" s="1">
         <v>0</v>
       </c>
-      <c r="Y30" s="1"/>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
       <c r="Z30" s="1">
         <v>0</v>
       </c>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="3:26">
+    <row r="31" spans="3:28">
       <c r="C31" s="2">
         <v>10003</v>
       </c>
@@ -3629,10 +3812,10 @@
         <v>10003</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -3641,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -3659,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
@@ -3671,14 +3854,14 @@
         <v>10</v>
       </c>
       <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
         <v>100</v>
       </c>
-      <c r="T31" s="1">
-        <v>0</v>
-      </c>
-      <c r="U31" s="1">
-        <v>0</v>
-      </c>
       <c r="V31" s="1">
         <v>0</v>
       </c>
@@ -3688,12 +3871,18 @@
       <c r="X31" s="1">
         <v>0</v>
       </c>
-      <c r="Y31" s="1"/>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
       <c r="Z31" s="1">
         <v>0</v>
       </c>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="3:26">
+    <row r="32" spans="3:28">
       <c r="C32" s="2">
         <v>10004</v>
       </c>
@@ -3701,10 +3890,10 @@
         <v>10004</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -3713,12 +3902,12 @@
         <v>10</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>1</v>
       </c>
       <c r="L32" s="2">
@@ -3731,10 +3920,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -3742,25 +3931,31 @@
       <c r="R32" s="2">
         <v>4</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
         <v>50</v>
       </c>
-      <c r="T32" s="2">
-        <v>0</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0</v>
-      </c>
       <c r="V32" s="2">
         <v>0</v>
       </c>
-      <c r="W32" s="2">
+      <c r="W32" s="1">
         <v>0</v>
       </c>
       <c r="X32" s="2">
         <v>0</v>
       </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
       <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -793,12 +793,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1590,7 +1590,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2606,7 +2606,7 @@
         <v>9999</v>
       </c>
       <c r="N15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>68</v>
@@ -2621,10 +2621,10 @@
         <v>5</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" s="1">
         <v>120</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="119">
   <si>
     <t>_ID</t>
   </si>
@@ -693,12 +693,12 @@
     <t>刺杀剑术</t>
   </si>
   <si>
+    <t>半月弯刀</t>
+  </si>
+  <si>
     <t>龙影剑法</t>
   </si>
   <si>
-    <t>半月弯刀</t>
-  </si>
-  <si>
     <t>对周围的{1}个敌人造成{2}%攻击+{3}点伤害</t>
   </si>
   <si>
@@ -840,15 +840,12 @@
     <t>远程普通</t>
   </si>
   <si>
-    <t>怪物远程攻击</t>
+    <t>怪物雷电</t>
   </si>
   <si>
     <t>默认</t>
   </si>
   <si>
-    <t>怪物雷电</t>
-  </si>
-  <si>
     <t>怪物治疗术</t>
   </si>
   <si>
@@ -862,6 +859,9 @@
   </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>怪物刺杀</t>
   </si>
 </sst>
 </file>
@@ -1832,12 +1832,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AE32"/>
+  <dimension ref="C3:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2207,7 +2207,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -2281,10 +2281,10 @@
         <v>1003</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -3777,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
         <v>1</v>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
         <v>2</v>
@@ -3903,7 +3903,7 @@
       <c r="D29" s="2">
         <v>10001</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -3916,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>68</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
@@ -3981,7 +3981,7 @@
         <v>10002</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>112</v>
@@ -3993,7 +3993,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>10003</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>112</v>
@@ -4071,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>10004</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>112</v>
@@ -4149,7 +4149,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>72</v>
@@ -4204,6 +4204,149 @@
       </c>
       <c r="AB32" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="3:28">
+      <c r="C33" s="2">
+        <v>10005</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10005</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>2</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>150</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <v>20</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="1">
+        <v>20102</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20102</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="1">
+        <v>20103</v>
+      </c>
+      <c r="D36" s="1">
+        <v>20103</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="1">
+        <v>20104</v>
+      </c>
+      <c r="D37" s="1">
+        <v>20104</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="1">
+        <v>20111</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20111</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="1">
+        <v>20112</v>
+      </c>
+      <c r="D39" s="1">
+        <v>20112</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="1">
+        <v>20113</v>
+      </c>
+      <c r="D40" s="1">
+        <v>20113</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4225,7 +4368,7 @@
   <dimension ref="C3:AE32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD32"/>
+      <selection activeCell="AB1" sqref="AB$1:AB$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1835,9 +1835,9 @@
   <dimension ref="C3:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1849,7 +1849,7 @@
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="4.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.875" style="1" customWidth="1"/>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="2">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="V8" s="2">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="V13" s="2">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>2</v>
       </c>
       <c r="U15" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="V15" s="2">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="U16" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="V16" s="2">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="V21" s="2">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="V22" s="2">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="V23" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -896,34 +896,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -937,14 +909,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -984,6 +948,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1034,7 +1013,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,55 +1066,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,31 +1090,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,6 +1126,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1192,7 +1150,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,7 +1198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,6 +1234,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1257,21 +1257,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1304,6 +1289,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,148 +1360,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1516,52 +1516,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1837,7 +1837,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3786,7 +3786,7 @@
         <v>59</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1835,9 +1835,9 @@
   <dimension ref="C3:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3401,7 +3401,7 @@
         <v>68</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -3416,13 +3416,13 @@
         <v>0</v>
       </c>
       <c r="U22" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="V22" s="2">
         <v>0</v>
       </c>
       <c r="W22" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="120">
   <si>
     <t>_ID</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t>对范围内{1}个敌人造成每秒{2}%道术+{3}点持续伤害</t>
+  </si>
+  <si>
+    <t>"104,5,1,100"</t>
   </si>
   <si>
     <t>召唤骷髅</t>
@@ -1834,10 +1837,10 @@
   <sheetPr/>
   <dimension ref="C3:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomLeft" activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3416,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="2">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="V22" s="2">
         <v>0</v>
@@ -3432,6 +3435,9 @@
       </c>
       <c r="Z22" s="2">
         <v>0</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="AB22" s="2">
         <v>50</v>
@@ -3445,10 +3451,10 @@
         <v>3004</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
@@ -3457,7 +3463,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J23" s="2">
         <v>30</v>
@@ -3522,10 +3528,10 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G24" s="2">
         <v>5</v>
@@ -3534,7 +3540,7 @@
         <v>50</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J24" s="2">
         <v>60</v>
@@ -3588,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB24" s="2">
         <v>50</v>
@@ -3602,10 +3608,10 @@
         <v>3006</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
@@ -3614,7 +3620,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -3679,10 +3685,10 @@
         <v>3007</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
@@ -3691,7 +3697,7 @@
         <v>100</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J26" s="2">
         <v>60</v>
@@ -3756,10 +3762,10 @@
         <v>9001</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G27" s="2">
         <v>9</v>
@@ -3830,10 +3836,10 @@
         <v>9002</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G28" s="2">
         <v>9</v>
@@ -3904,19 +3910,19 @@
         <v>10001</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -3981,10 +3987,10 @@
         <v>10002</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G30" s="1">
         <v>4</v>
@@ -3993,7 +3999,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -4059,10 +4065,10 @@
         <v>10003</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -4071,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -4137,10 +4143,10 @@
         <v>10004</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G32" s="1">
         <v>4</v>
@@ -4149,7 +4155,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -4167,7 +4173,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>72</v>
@@ -4214,7 +4220,7 @@
         <v>10005</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>57</v>
@@ -4226,7 +4232,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1043,12 +1043,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1837,10 +1837,10 @@
   <sheetPr/>
   <dimension ref="C3:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U23" sqref="U23"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2299,7 +2299,7 @@
         <v>64</v>
       </c>
       <c r="J8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K8" s="2">
         <v>2</v>
@@ -2376,7 +2376,7 @@
         <v>67</v>
       </c>
       <c r="J9" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2613,7 +2613,7 @@
         <v>58</v>
       </c>
       <c r="J12" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1043,12 +1043,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1838,9 +1838,9 @@
   <dimension ref="C3:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V17" s="2">
         <v>0</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V24" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="120">
   <si>
     <t>_ID</t>
   </si>
@@ -1835,12 +1835,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AE40"/>
+  <dimension ref="C3:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4289,71 +4289,1602 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
-      <c r="C35" s="1">
-        <v>20102</v>
-      </c>
-      <c r="D35" s="1">
-        <v>20102</v>
+    <row r="35" s="2" customFormat="1" spans="3:28">
+      <c r="C35" s="2">
+        <v>11001</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="1">
-        <v>20103</v>
-      </c>
-      <c r="D36" s="1">
-        <v>20103</v>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>10</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>120</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="3:28">
+      <c r="C36" s="2">
+        <v>11002</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1002</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="3:6">
-      <c r="C37" s="1">
-        <v>20104</v>
-      </c>
-      <c r="D37" s="1">
-        <v>20104</v>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>2</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>150</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>20</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="3:28">
+      <c r="C37" s="2">
+        <v>11003</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>10</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>2</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>5</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>100</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="3:28">
+      <c r="C38" s="2">
+        <v>11004</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1004</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="2">
+        <v>9</v>
+      </c>
+      <c r="H38" s="2">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
+        <v>3</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>2</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <v>200</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="3:28">
+      <c r="C39" s="2">
+        <v>11005</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2">
+        <v>50</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2">
+        <v>30</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>30</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <v>20</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="3:28">
+      <c r="C40" s="2">
+        <v>11006</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1006</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="2">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>50</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="3:28">
+      <c r="C41" s="2">
+        <v>11007</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1007</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" s="1">
-        <v>20111</v>
-      </c>
-      <c r="D38" s="1">
-        <v>20111</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>10</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <v>300</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="3:28">
+      <c r="C42" s="2">
+        <v>12001</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2001</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>10</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>2</v>
+      </c>
+      <c r="M42" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N42" s="2">
+        <v>2</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2">
+        <v>120</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="3:28">
+      <c r="C43" s="2">
+        <v>12002</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2002</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="1">
-        <v>20112</v>
-      </c>
-      <c r="D39" s="1">
-        <v>20112</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>10</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>2</v>
+      </c>
+      <c r="M43" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N43" s="2">
+        <v>3</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2">
+        <v>150</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="3:28">
+      <c r="C44" s="2">
+        <v>12003</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3</v>
+      </c>
+      <c r="H44" s="2">
+        <v>10</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2">
+        <v>5</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2</v>
+      </c>
+      <c r="M44" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N44" s="2">
+        <v>3</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>5</v>
+      </c>
+      <c r="R44" s="2">
+        <v>5</v>
+      </c>
+      <c r="S44" s="2">
+        <v>2</v>
+      </c>
+      <c r="T44" s="2">
+        <v>2</v>
+      </c>
+      <c r="U44" s="2">
+        <v>80</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="3:28">
+      <c r="C45" s="2">
+        <v>12004</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2004</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="3:6">
-      <c r="C40" s="1">
-        <v>20113</v>
-      </c>
-      <c r="D40" s="1">
-        <v>20113</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>10</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>2</v>
+      </c>
+      <c r="L45" s="2">
+        <v>2</v>
+      </c>
+      <c r="M45" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N45" s="2">
+        <v>3</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2">
+        <v>4</v>
+      </c>
+      <c r="S45" s="2">
+        <v>2</v>
+      </c>
+      <c r="T45" s="2">
+        <v>2</v>
+      </c>
+      <c r="U45" s="2">
+        <v>100</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="3:28">
+      <c r="C46" s="2">
+        <v>12005</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2005</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="2">
+        <v>5</v>
+      </c>
+      <c r="H46" s="2">
+        <v>50</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2">
+        <v>30</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>2</v>
+      </c>
+      <c r="M46" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>30</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <v>20</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="3:28">
+      <c r="C47" s="2">
+        <v>12006</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2006</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="2">
+        <v>6</v>
+      </c>
+      <c r="H47" s="2">
+        <v>10</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>2</v>
+      </c>
+      <c r="M47" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>50</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="3:28">
+      <c r="C48" s="2">
+        <v>12007</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="F48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>10</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>2</v>
+      </c>
+      <c r="L48" s="2">
+        <v>2</v>
+      </c>
+      <c r="M48" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N48" s="2">
+        <v>3</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2">
+        <v>5</v>
+      </c>
+      <c r="S48" s="2">
+        <v>3</v>
+      </c>
+      <c r="T48" s="2">
+        <v>3</v>
+      </c>
+      <c r="U48" s="2">
+        <v>150</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="3:28">
+      <c r="C49" s="2">
+        <v>13001</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3001</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="2">
+        <v>4</v>
+      </c>
+      <c r="H49" s="2">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>3</v>
+      </c>
+      <c r="M49" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>50</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="3:28">
+      <c r="C50" s="2">
+        <v>13002</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3002</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>10</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>3</v>
+      </c>
+      <c r="M50" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N50" s="2">
+        <v>3</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>1</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>120</v>
+      </c>
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="3:28">
+      <c r="C51" s="2">
+        <v>13003</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3003</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>10</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2">
+        <v>5</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2">
+        <v>3</v>
+      </c>
+      <c r="M51" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N51" s="2">
+        <v>2</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <v>5</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>35</v>
+      </c>
+      <c r="V51" s="2">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
+        <v>100</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="3:28">
+      <c r="C52" s="2">
+        <v>13004</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3004</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2">
+        <v>100</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2">
+        <v>15</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2">
+        <v>3</v>
+      </c>
+      <c r="M52" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2">
+        <v>1</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>100</v>
+      </c>
+      <c r="V52" s="2">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="3:28">
+      <c r="C53" s="2">
+        <v>13005</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3005</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" s="2">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2">
+        <v>50</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2">
+        <v>30</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
+        <v>3</v>
+      </c>
+      <c r="M53" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>30</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
+        <v>20</v>
+      </c>
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="X53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="3:28">
+      <c r="C54" s="2">
+        <v>13006</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3006</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="2">
+        <v>6</v>
+      </c>
+      <c r="H54" s="2">
+        <v>10</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <v>3</v>
+      </c>
+      <c r="M54" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N54" s="2">
+        <v>3</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>50</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="3:28">
+      <c r="C55" s="2">
+        <v>13007</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3007</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2">
+        <v>100</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
+        <v>15</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>3</v>
+      </c>
+      <c r="M55" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N55" s="2">
+        <v>2</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2">
+        <v>2</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>120</v>
+      </c>
+      <c r="V55" s="2">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="5:13">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1838,9 +1838,9 @@
   <dimension ref="C3:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomLeft" activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4308,7 +4308,6 @@
       <c r="H35" s="2">
         <v>10</v>
       </c>
-      <c r="I35" s="2"/>
       <c r="J35" s="2">
         <v>0</v>
       </c>
@@ -4383,7 +4382,6 @@
       <c r="H36" s="2">
         <v>10</v>
       </c>
-      <c r="I36" s="2"/>
       <c r="J36" s="2">
         <v>0</v>
       </c>
@@ -4458,7 +4456,6 @@
       <c r="H37" s="2">
         <v>10</v>
       </c>
-      <c r="I37" s="2"/>
       <c r="J37" s="2">
         <v>0</v>
       </c>
@@ -4533,7 +4530,6 @@
       <c r="H38" s="2">
         <v>10</v>
       </c>
-      <c r="I38" s="2"/>
       <c r="J38" s="2">
         <v>3</v>
       </c>
@@ -4611,7 +4607,6 @@
       <c r="H39" s="2">
         <v>50</v>
       </c>
-      <c r="I39" s="2"/>
       <c r="J39" s="2">
         <v>30</v>
       </c>
@@ -4687,7 +4682,6 @@
       <c r="H40" s="2">
         <v>10</v>
       </c>
-      <c r="I40" s="2"/>
       <c r="J40" s="2">
         <v>0</v>
       </c>
@@ -4739,7 +4733,6 @@
       <c r="Z40" s="2">
         <v>0</v>
       </c>
-      <c r="AA40" s="2"/>
       <c r="AB40" s="2">
         <v>50</v>
       </c>
@@ -4763,7 +4756,6 @@
       <c r="H41" s="2">
         <v>10</v>
       </c>
-      <c r="I41" s="2"/>
       <c r="J41" s="2">
         <v>0</v>
       </c>
@@ -4838,7 +4830,6 @@
       <c r="H42" s="2">
         <v>10</v>
       </c>
-      <c r="I42" s="2"/>
       <c r="J42" s="2">
         <v>0</v>
       </c>
@@ -4913,7 +4904,6 @@
       <c r="H43" s="2">
         <v>10</v>
       </c>
-      <c r="I43" s="2"/>
       <c r="J43" s="2">
         <v>0</v>
       </c>
@@ -4988,7 +4978,6 @@
       <c r="H44" s="2">
         <v>10</v>
       </c>
-      <c r="I44" s="2"/>
       <c r="J44" s="2">
         <v>5</v>
       </c>
@@ -5063,7 +5052,6 @@
       <c r="H45" s="2">
         <v>10</v>
       </c>
-      <c r="I45" s="2"/>
       <c r="J45" s="2">
         <v>0</v>
       </c>
@@ -5115,7 +5103,6 @@
       <c r="Z45" s="2">
         <v>0</v>
       </c>
-      <c r="AA45" s="2"/>
       <c r="AB45" s="2">
         <v>50</v>
       </c>
@@ -5139,7 +5126,6 @@
       <c r="H46" s="2">
         <v>50</v>
       </c>
-      <c r="I46" s="2"/>
       <c r="J46" s="2">
         <v>30</v>
       </c>
@@ -5215,7 +5201,6 @@
       <c r="H47" s="2">
         <v>10</v>
       </c>
-      <c r="I47" s="2"/>
       <c r="J47" s="2">
         <v>0</v>
       </c>
@@ -5267,7 +5252,6 @@
       <c r="Z47" s="2">
         <v>0</v>
       </c>
-      <c r="AA47" s="2"/>
       <c r="AB47" s="2">
         <v>50</v>
       </c>
@@ -5291,7 +5275,6 @@
       <c r="H48" s="2">
         <v>10</v>
       </c>
-      <c r="I48" s="2"/>
       <c r="J48" s="2">
         <v>0</v>
       </c>
@@ -5366,7 +5349,6 @@
       <c r="H49" s="2">
         <v>20</v>
       </c>
-      <c r="I49" s="2"/>
       <c r="J49" s="2">
         <v>0</v>
       </c>
@@ -5441,7 +5423,6 @@
       <c r="H50" s="2">
         <v>10</v>
       </c>
-      <c r="I50" s="2"/>
       <c r="J50" s="2">
         <v>0</v>
       </c>
@@ -5516,7 +5497,6 @@
       <c r="H51" s="2">
         <v>10</v>
       </c>
-      <c r="I51" s="2"/>
       <c r="J51" s="2">
         <v>5</v>
       </c>
@@ -5568,7 +5548,6 @@
       <c r="Z51" s="2">
         <v>0</v>
       </c>
-      <c r="AA51" s="2"/>
       <c r="AB51" s="2">
         <v>50</v>
       </c>
@@ -5592,7 +5571,6 @@
       <c r="H52" s="2">
         <v>100</v>
       </c>
-      <c r="I52" s="2"/>
       <c r="J52" s="2">
         <v>15</v>
       </c>
@@ -5667,7 +5645,6 @@
       <c r="H53" s="2">
         <v>50</v>
       </c>
-      <c r="I53" s="2"/>
       <c r="J53" s="2">
         <v>30</v>
       </c>
@@ -5743,7 +5720,6 @@
       <c r="H54" s="2">
         <v>10</v>
       </c>
-      <c r="I54" s="2"/>
       <c r="J54" s="2">
         <v>0</v>
       </c>
@@ -5795,7 +5771,6 @@
       <c r="Z54" s="2">
         <v>0</v>
       </c>
-      <c r="AA54" s="2"/>
       <c r="AB54" s="2">
         <v>50</v>
       </c>
@@ -5819,7 +5794,6 @@
       <c r="H55" s="2">
         <v>100</v>
       </c>
-      <c r="I55" s="2"/>
       <c r="J55" s="2">
         <v>15</v>
       </c>
@@ -5878,12 +5852,7 @@
     <row r="56" s="2" customFormat="1" spans="5:13">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
       <c r="M56" s="1"/>
     </row>
   </sheetData>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1043,12 +1043,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1838,9 +1838,9 @@
   <dimension ref="C3:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U42" sqref="U42"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -708,7 +708,7 @@
     <t>野蛮撞击</t>
   </si>
   <si>
-    <t>对敌人造成{2}%攻击+{3}点伤害，并且晕眩2回合</t>
+    <t>对敌人造成{2}%攻击+{3}点伤害，并且晕眩2秒</t>
   </si>
   <si>
     <t>Enemy</t>
@@ -1043,12 +1043,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1838,9 +1838,9 @@
   <dimension ref="C3:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1852,7 +1852,7 @@
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="4.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.875" style="1" customWidth="1"/>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
         <v>2</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1838,9 +1838,9 @@
   <dimension ref="C3:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5350,7 +5350,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K49" s="2">
         <v>1</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1838,9 +1838,9 @@
   <dimension ref="C3:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
         <v>2</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="0">
+    <comment ref="AB3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="122">
   <si>
     <t>_ID</t>
   </si>
@@ -579,6 +579,9 @@
     <t>伤害加成</t>
   </si>
   <si>
+    <t>继承加成</t>
+  </si>
+  <si>
     <t>附带效果</t>
   </si>
   <si>
@@ -658,6 +661,9 @@
   </si>
   <si>
     <t>DamageIncrea</t>
+  </si>
+  <si>
+    <t>InheritIncrea</t>
   </si>
   <si>
     <t>EffectList</t>
@@ -1043,12 +1049,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1835,12 +1841,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AE56"/>
+  <dimension ref="C3:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="AA35" sqref="AA35:AA55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1865,15 +1871,16 @@
     <col min="21" max="22" width="7.875" style="1" customWidth="1"/>
     <col min="23" max="23" width="9.625" style="1" customWidth="1"/>
     <col min="24" max="25" width="7.875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.75" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5" style="1" customWidth="1"/>
-    <col min="29" max="30" width="9" style="1"/>
-    <col min="31" max="31" width="19.25" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="1"/>
+    <col min="26" max="26" width="12.625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.75" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5" style="1" customWidth="1"/>
+    <col min="30" max="31" width="9" style="1"/>
+    <col min="32" max="32" width="19.25" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:31">
+    <row r="3" spans="3:32">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1952,177 +1959,186 @@
       <c r="AB3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="3:28">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:29">
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="3:28">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29">
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="3:28">
+        <v>57</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="3:29">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
@@ -2130,10 +2146,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -2142,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -2160,10 +2176,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -2195,11 +2211,14 @@
       <c r="Z6" s="2">
         <v>0</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="3:28">
+    <row r="7" s="2" customFormat="1" spans="3:29">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
@@ -2207,10 +2226,10 @@
         <v>1002</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -2219,7 +2238,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -2237,10 +2256,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2272,11 +2291,14 @@
       <c r="Z7" s="2">
         <v>0</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="3:28">
+    <row r="8" s="2" customFormat="1" spans="3:29">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
@@ -2284,10 +2306,10 @@
         <v>1003</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -2296,7 +2318,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
@@ -2314,10 +2336,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2349,11 +2371,14 @@
       <c r="Z8" s="2">
         <v>0</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="3:28">
+    <row r="9" s="2" customFormat="1" spans="3:29">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
@@ -2361,10 +2386,10 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2">
         <v>9</v>
@@ -2373,7 +2398,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J9" s="2">
         <v>10</v>
@@ -2391,10 +2416,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="2">
         <v>2</v>
@@ -2426,14 +2451,17 @@
       <c r="Z9" s="2">
         <v>0</v>
       </c>
-      <c r="AA9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB9" s="2">
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC9" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="3:28">
+    <row r="10" s="2" customFormat="1" spans="3:29">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -2441,10 +2469,10 @@
         <v>1005</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
@@ -2453,7 +2481,7 @@
         <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2">
         <v>60</v>
@@ -2471,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="2">
         <v>30</v>
@@ -2506,14 +2534,17 @@
       <c r="Z10" s="2">
         <v>0</v>
       </c>
-      <c r="AA10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB10" s="2">
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="3:28">
+    <row r="11" s="2" customFormat="1" spans="3:29">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
@@ -2521,10 +2552,10 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
@@ -2533,7 +2564,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -2551,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2586,11 +2617,14 @@
       <c r="Z11" s="2">
         <v>0</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="3:28">
+    <row r="12" s="2" customFormat="1" spans="3:29">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
@@ -2598,10 +2632,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -2610,7 +2644,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2">
         <v>10</v>
@@ -2628,10 +2662,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2663,11 +2697,14 @@
       <c r="Z12" s="2">
         <v>0</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="3:28">
+    <row r="13" s="2" customFormat="1" spans="3:29">
       <c r="C13" s="2">
         <v>2001</v>
       </c>
@@ -2675,10 +2712,10 @@
         <v>2001</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -2687,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -2705,10 +2742,10 @@
         <v>2</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2740,11 +2777,14 @@
       <c r="Z13" s="2">
         <v>0</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="3:28">
+    <row r="14" s="2" customFormat="1" spans="3:29">
       <c r="C14" s="2">
         <v>2002</v>
       </c>
@@ -2752,10 +2792,10 @@
         <v>2002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2764,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -2782,10 +2822,10 @@
         <v>3</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2817,11 +2857,14 @@
       <c r="Z14" s="2">
         <v>0</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="3:28">
+    <row r="15" s="2" customFormat="1" spans="3:29">
       <c r="C15" s="2">
         <v>2003</v>
       </c>
@@ -2829,10 +2872,10 @@
         <v>2003</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
@@ -2841,7 +2884,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J15" s="2">
         <v>10</v>
@@ -2859,10 +2902,10 @@
         <v>3</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="2">
         <v>5</v>
@@ -2894,11 +2937,14 @@
       <c r="Z15" s="2">
         <v>0</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="3:28">
+    <row r="16" s="2" customFormat="1" spans="3:29">
       <c r="C16" s="2">
         <v>2004</v>
       </c>
@@ -2906,10 +2952,10 @@
         <v>2004</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -2918,7 +2964,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -2936,10 +2982,10 @@
         <v>3</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -2971,11 +3017,14 @@
       <c r="Z16" s="2">
         <v>0</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="3:28">
+    <row r="17" s="2" customFormat="1" spans="3:29">
       <c r="C17" s="2">
         <v>2005</v>
       </c>
@@ -2983,10 +3032,10 @@
         <v>2005</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G17" s="2">
         <v>5</v>
@@ -2995,7 +3044,7 @@
         <v>50</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J17" s="2">
         <v>60</v>
@@ -3013,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="2">
         <v>30</v>
@@ -3048,14 +3097,17 @@
       <c r="Z17" s="2">
         <v>0</v>
       </c>
-      <c r="AA17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB17" s="2">
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC17" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="3:28">
+    <row r="18" s="2" customFormat="1" spans="3:29">
       <c r="C18" s="2">
         <v>2006</v>
       </c>
@@ -3063,10 +3115,10 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G18" s="2">
         <v>6</v>
@@ -3075,7 +3127,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -3093,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -3128,11 +3180,14 @@
       <c r="Z18" s="2">
         <v>0</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="3:28">
+    <row r="19" s="2" customFormat="1" spans="3:29">
       <c r="C19" s="2">
         <v>2007</v>
       </c>
@@ -3140,10 +3195,10 @@
         <v>2007</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -3152,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J19" s="2">
         <v>10</v>
@@ -3170,10 +3225,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -3205,11 +3260,14 @@
       <c r="Z19" s="2">
         <v>0</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="3:28">
+    <row r="20" s="2" customFormat="1" spans="3:29">
       <c r="C20" s="2">
         <v>3001</v>
       </c>
@@ -3217,10 +3275,10 @@
         <v>3001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
@@ -3229,7 +3287,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J20" s="2">
         <v>4</v>
@@ -3247,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -3282,11 +3340,14 @@
       <c r="Z20" s="2">
         <v>0</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="3:28">
+    <row r="21" s="2" customFormat="1" spans="3:29">
       <c r="C21" s="2">
         <v>3002</v>
       </c>
@@ -3294,10 +3355,10 @@
         <v>3002</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -3306,7 +3367,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -3324,10 +3385,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -3359,11 +3420,14 @@
       <c r="Z21" s="2">
         <v>0</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="3:28">
+    <row r="22" s="2" customFormat="1" spans="3:29">
       <c r="C22" s="2">
         <v>3003</v>
       </c>
@@ -3371,10 +3435,10 @@
         <v>3003</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -3383,7 +3447,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J22" s="2">
         <v>10</v>
@@ -3401,10 +3465,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -3436,14 +3500,17 @@
       <c r="Z22" s="2">
         <v>0</v>
       </c>
-      <c r="AA22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB22" s="2">
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC22" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="3:28">
+    <row r="23" s="2" customFormat="1" spans="3:29">
       <c r="C23" s="2">
         <v>3004</v>
       </c>
@@ -3451,10 +3518,10 @@
         <v>3004</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
@@ -3463,7 +3530,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J23" s="2">
         <v>30</v>
@@ -3481,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -3516,11 +3583,14 @@
       <c r="Z23" s="2">
         <v>0</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="3:28">
+    <row r="24" s="2" customFormat="1" spans="3:29">
       <c r="C24" s="2">
         <v>3005</v>
       </c>
@@ -3528,10 +3598,10 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G24" s="2">
         <v>5</v>
@@ -3540,7 +3610,7 @@
         <v>50</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J24" s="2">
         <v>60</v>
@@ -3558,10 +3628,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="2">
         <v>30</v>
@@ -3593,14 +3663,17 @@
       <c r="Z24" s="2">
         <v>0</v>
       </c>
-      <c r="AA24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB24" s="2">
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC24" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="3:28">
+    <row r="25" s="2" customFormat="1" spans="3:29">
       <c r="C25" s="2">
         <v>3006</v>
       </c>
@@ -3608,10 +3681,10 @@
         <v>3006</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
@@ -3620,7 +3693,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -3638,10 +3711,10 @@
         <v>3</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -3673,11 +3746,14 @@
       <c r="Z25" s="2">
         <v>0</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="3:28">
+    <row r="26" s="2" customFormat="1" spans="3:29">
       <c r="C26" s="2">
         <v>3007</v>
       </c>
@@ -3685,10 +3761,10 @@
         <v>3007</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
@@ -3697,7 +3773,7 @@
         <v>100</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J26" s="2">
         <v>60</v>
@@ -3715,10 +3791,10 @@
         <v>2</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -3750,11 +3826,14 @@
       <c r="Z26" s="2">
         <v>0</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="3:28">
+    <row r="27" s="2" customFormat="1" spans="3:29">
       <c r="C27" s="2">
         <v>9001</v>
       </c>
@@ -3762,10 +3841,10 @@
         <v>9001</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G27" s="2">
         <v>9</v>
@@ -3789,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -3824,11 +3903,14 @@
       <c r="Z27" s="2">
         <v>0</v>
       </c>
-      <c r="AB27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="3:28">
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="3:29">
       <c r="C28" s="2">
         <v>9002</v>
       </c>
@@ -3836,10 +3918,10 @@
         <v>9002</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G28" s="2">
         <v>9</v>
@@ -3863,10 +3945,10 @@
         <v>2</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -3898,11 +3980,14 @@
       <c r="Z28" s="2">
         <v>0</v>
       </c>
-      <c r="AB28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="3:28">
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="3:29">
       <c r="C29" s="2">
         <v>10001</v>
       </c>
@@ -3910,10 +3995,10 @@
         <v>10001</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -3922,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -3940,10 +4025,10 @@
         <v>3</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -3975,11 +4060,14 @@
       <c r="Z29" s="2">
         <v>0</v>
       </c>
-      <c r="AB29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28">
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29">
       <c r="C30" s="1">
         <v>10002</v>
       </c>
@@ -3987,10 +4075,10 @@
         <v>10002</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G30" s="1">
         <v>4</v>
@@ -3999,7 +4087,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -4017,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
@@ -4052,12 +4140,15 @@
       <c r="Z30" s="2">
         <v>0</v>
       </c>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:28">
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29">
       <c r="C31" s="1">
         <v>10003</v>
       </c>
@@ -4065,10 +4156,10 @@
         <v>10003</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -4077,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -4095,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="2">
         <v>0</v>
@@ -4130,12 +4221,15 @@
       <c r="Z31" s="2">
         <v>0</v>
       </c>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:28">
+      <c r="AA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29">
       <c r="C32" s="1">
         <v>10004</v>
       </c>
@@ -4143,10 +4237,10 @@
         <v>10004</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G32" s="1">
         <v>4</v>
@@ -4155,7 +4249,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -4173,10 +4267,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q32" s="1">
         <v>0</v>
@@ -4208,11 +4302,14 @@
       <c r="Z32" s="1">
         <v>0</v>
       </c>
-      <c r="AB32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="3:28">
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="3:29">
       <c r="C33" s="2">
         <v>10005</v>
       </c>
@@ -4220,10 +4317,10 @@
         <v>10005</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4232,7 +4329,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -4250,10 +4347,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="2">
         <v>0</v>
@@ -4285,11 +4382,14 @@
       <c r="Z33" s="2">
         <v>0</v>
       </c>
-      <c r="AB33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="3:28">
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="3:29">
       <c r="C35" s="2">
         <v>11001</v>
       </c>
@@ -4297,10 +4397,10 @@
         <v>1001</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4324,10 +4424,10 @@
         <v>1</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q35" s="2">
         <v>0</v>
@@ -4359,11 +4459,14 @@
       <c r="Z35" s="2">
         <v>0</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="3:28">
+    <row r="36" s="2" customFormat="1" spans="3:29">
       <c r="C36" s="2">
         <v>11002</v>
       </c>
@@ -4371,10 +4474,10 @@
         <v>1002</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4398,10 +4501,10 @@
         <v>2</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q36" s="2">
         <v>0</v>
@@ -4433,11 +4536,14 @@
       <c r="Z36" s="2">
         <v>0</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="3:28">
+    <row r="37" s="2" customFormat="1" spans="3:29">
       <c r="C37" s="2">
         <v>11003</v>
       </c>
@@ -4445,10 +4551,10 @@
         <v>1003</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4472,10 +4578,10 @@
         <v>1</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q37" s="2">
         <v>0</v>
@@ -4507,11 +4613,14 @@
       <c r="Z37" s="2">
         <v>0</v>
       </c>
-      <c r="AB37" s="2">
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="3:28">
+    <row r="38" s="2" customFormat="1" spans="3:29">
       <c r="C38" s="2">
         <v>11004</v>
       </c>
@@ -4519,10 +4628,10 @@
         <v>1004</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G38" s="2">
         <v>9</v>
@@ -4546,10 +4655,10 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q38" s="2">
         <v>2</v>
@@ -4581,14 +4690,17 @@
       <c r="Z38" s="2">
         <v>0</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB38" s="2">
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC38" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="3:28">
+    <row r="39" s="2" customFormat="1" spans="3:29">
       <c r="C39" s="2">
         <v>11005</v>
       </c>
@@ -4596,10 +4708,10 @@
         <v>1005</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G39" s="2">
         <v>5</v>
@@ -4623,10 +4735,10 @@
         <v>0</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q39" s="2">
         <v>30</v>
@@ -4658,12 +4770,15 @@
       <c r="Z39" s="2">
         <v>0</v>
       </c>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="2">
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="3:28">
+    <row r="40" s="2" customFormat="1" spans="3:29">
       <c r="C40" s="2">
         <v>11006</v>
       </c>
@@ -4671,10 +4786,10 @@
         <v>1006</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
@@ -4698,10 +4813,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q40" s="2">
         <v>0</v>
@@ -4733,11 +4848,14 @@
       <c r="Z40" s="2">
         <v>0</v>
       </c>
-      <c r="AB40" s="2">
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="3:28">
+    <row r="41" s="2" customFormat="1" spans="3:29">
       <c r="C41" s="2">
         <v>11007</v>
       </c>
@@ -4745,10 +4863,10 @@
         <v>1007</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4772,10 +4890,10 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q41" s="2">
         <v>0</v>
@@ -4807,11 +4925,14 @@
       <c r="Z41" s="2">
         <v>0</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="3:28">
+    <row r="42" s="2" customFormat="1" spans="3:29">
       <c r="C42" s="2">
         <v>12001</v>
       </c>
@@ -4819,10 +4940,10 @@
         <v>2001</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -4846,10 +4967,10 @@
         <v>2</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q42" s="2">
         <v>0</v>
@@ -4881,11 +5002,14 @@
       <c r="Z42" s="2">
         <v>0</v>
       </c>
-      <c r="AB42" s="2">
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="3:28">
+    <row r="43" s="2" customFormat="1" spans="3:29">
       <c r="C43" s="2">
         <v>12002</v>
       </c>
@@ -4893,10 +5017,10 @@
         <v>2002</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -4920,10 +5044,10 @@
         <v>3</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q43" s="2">
         <v>0</v>
@@ -4955,11 +5079,14 @@
       <c r="Z43" s="2">
         <v>0</v>
       </c>
-      <c r="AB43" s="2">
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="3:28">
+    <row r="44" s="2" customFormat="1" spans="3:29">
       <c r="C44" s="2">
         <v>12003</v>
       </c>
@@ -4967,10 +5094,10 @@
         <v>2003</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
@@ -4994,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q44" s="2">
         <v>5</v>
@@ -5029,11 +5156,14 @@
       <c r="Z44" s="2">
         <v>0</v>
       </c>
-      <c r="AB44" s="2">
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="3:28">
+    <row r="45" s="2" customFormat="1" spans="3:29">
       <c r="C45" s="2">
         <v>12004</v>
       </c>
@@ -5041,10 +5171,10 @@
         <v>2004</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5068,10 +5198,10 @@
         <v>3</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q45" s="2">
         <v>0</v>
@@ -5103,11 +5233,14 @@
       <c r="Z45" s="2">
         <v>0</v>
       </c>
-      <c r="AB45" s="2">
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="3:28">
+    <row r="46" s="2" customFormat="1" spans="3:29">
       <c r="C46" s="2">
         <v>12005</v>
       </c>
@@ -5115,10 +5248,10 @@
         <v>2005</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G46" s="2">
         <v>5</v>
@@ -5142,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q46" s="2">
         <v>30</v>
@@ -5177,12 +5310,15 @@
       <c r="Z46" s="2">
         <v>0</v>
       </c>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="2">
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="3:28">
+    <row r="47" s="2" customFormat="1" spans="3:29">
       <c r="C47" s="2">
         <v>12006</v>
       </c>
@@ -5190,10 +5326,10 @@
         <v>2006</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G47" s="2">
         <v>6</v>
@@ -5217,10 +5353,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q47" s="2">
         <v>0</v>
@@ -5252,11 +5388,14 @@
       <c r="Z47" s="2">
         <v>0</v>
       </c>
-      <c r="AB47" s="2">
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="3:28">
+    <row r="48" s="2" customFormat="1" spans="3:29">
       <c r="C48" s="2">
         <v>12007</v>
       </c>
@@ -5264,10 +5403,10 @@
         <v>2007</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5291,10 +5430,10 @@
         <v>3</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q48" s="2">
         <v>0</v>
@@ -5326,11 +5465,14 @@
       <c r="Z48" s="2">
         <v>0</v>
       </c>
-      <c r="AB48" s="2">
+      <c r="AA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="3:28">
+    <row r="49" s="2" customFormat="1" spans="3:29">
       <c r="C49" s="2">
         <v>13001</v>
       </c>
@@ -5338,10 +5480,10 @@
         <v>3001</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G49" s="2">
         <v>4</v>
@@ -5365,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q49" s="2">
         <v>0</v>
@@ -5400,11 +5542,14 @@
       <c r="Z49" s="2">
         <v>0</v>
       </c>
-      <c r="AB49" s="2">
+      <c r="AA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="3:28">
+    <row r="50" s="2" customFormat="1" spans="3:29">
       <c r="C50" s="2">
         <v>13002</v>
       </c>
@@ -5412,10 +5557,10 @@
         <v>3002</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5439,10 +5584,10 @@
         <v>3</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q50" s="2">
         <v>0</v>
@@ -5474,11 +5619,14 @@
       <c r="Z50" s="2">
         <v>0</v>
       </c>
-      <c r="AB50" s="2">
+      <c r="AA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="3:28">
+    <row r="51" s="2" customFormat="1" spans="3:29">
       <c r="C51" s="2">
         <v>13003</v>
       </c>
@@ -5486,10 +5634,10 @@
         <v>3003</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5513,10 +5661,10 @@
         <v>2</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q51" s="2">
         <v>0</v>
@@ -5548,11 +5696,14 @@
       <c r="Z51" s="2">
         <v>0</v>
       </c>
-      <c r="AB51" s="2">
+      <c r="AA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="3:28">
+    <row r="52" s="2" customFormat="1" spans="3:29">
       <c r="C52" s="2">
         <v>13004</v>
       </c>
@@ -5560,10 +5711,10 @@
         <v>3004</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
@@ -5587,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q52" s="2">
         <v>0</v>
@@ -5622,11 +5773,14 @@
       <c r="Z52" s="2">
         <v>0</v>
       </c>
-      <c r="AB52" s="2">
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="3:28">
+    <row r="53" s="2" customFormat="1" spans="3:29">
       <c r="C53" s="2">
         <v>13005</v>
       </c>
@@ -5634,10 +5788,10 @@
         <v>3005</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G53" s="2">
         <v>5</v>
@@ -5661,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q53" s="2">
         <v>30</v>
@@ -5696,12 +5850,15 @@
       <c r="Z53" s="2">
         <v>0</v>
       </c>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="2">
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="3:28">
+    <row r="54" s="2" customFormat="1" spans="3:29">
       <c r="C54" s="2">
         <v>13006</v>
       </c>
@@ -5709,10 +5866,10 @@
         <v>3006</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
@@ -5736,10 +5893,10 @@
         <v>3</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q54" s="2">
         <v>0</v>
@@ -5771,11 +5928,14 @@
       <c r="Z54" s="2">
         <v>0</v>
       </c>
-      <c r="AB54" s="2">
+      <c r="AA54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="3:28">
+    <row r="55" s="2" customFormat="1" spans="3:29">
       <c r="C55" s="2">
         <v>13007</v>
       </c>
@@ -5783,10 +5943,10 @@
         <v>3007</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
@@ -5810,10 +5970,10 @@
         <v>2</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q55" s="2">
         <v>0</v>
@@ -5845,7 +6005,10 @@
       <c r="Z55" s="2">
         <v>0</v>
       </c>
-      <c r="AB55" s="2">
+      <c r="AA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="2">
         <v>50</v>
       </c>
     </row>
@@ -5981,179 +6144,179 @@
         <v>23</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:28">
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:28">
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB5" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="6:6">

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="120">
   <si>
     <t>_ID</t>
   </si>
@@ -732,7 +732,7 @@
     <t>Square</t>
   </si>
   <si>
-    <t>"1,-1,-1,100","4,-1,-1,100"</t>
+    <t>"1301,-1,-1,10","4,-1,-1,100"</t>
   </si>
   <si>
     <t>武力精通</t>
@@ -780,9 +780,6 @@
     <t>增加魔法*{2}%+{3}点魔法和防御,持续30秒</t>
   </si>
   <si>
-    <t>"2,-1,-1,100","4,-1,-1,100"</t>
-  </si>
-  <si>
     <t>法术精通</t>
   </si>
   <si>
@@ -826,9 +823,6 @@
   </si>
   <si>
     <t>增加道术*{2}%+{3}点道术和防御,持续30秒</t>
-  </si>
-  <si>
-    <t>"3,-1,-1,100","4,-1,-1,100"</t>
   </si>
   <si>
     <t>道力精通</t>
@@ -1049,12 +1043,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1846,7 +1840,7 @@
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AA35" sqref="AA35:AA55"/>
+      <selection pane="bottomLeft" activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1873,7 +1867,7 @@
     <col min="24" max="25" width="7.875" style="1" customWidth="1"/>
     <col min="26" max="26" width="12.625" style="1" customWidth="1"/>
     <col min="27" max="27" width="9.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.75" style="1" customWidth="1"/>
+    <col min="28" max="28" width="21.5" style="1" customWidth="1"/>
     <col min="29" max="29" width="8.5" style="1" customWidth="1"/>
     <col min="30" max="31" width="9" style="1"/>
     <col min="32" max="32" width="19.25" style="1" customWidth="1"/>
@@ -3101,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AC17" s="2">
         <v>50</v>
@@ -3115,10 +3109,10 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="2">
         <v>6</v>
@@ -3127,7 +3121,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -3195,10 +3189,10 @@
         <v>2007</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -3207,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J19" s="2">
         <v>10</v>
@@ -3275,10 +3269,10 @@
         <v>3001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
@@ -3287,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J20" s="2">
         <v>4</v>
@@ -3355,10 +3349,10 @@
         <v>3002</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -3367,7 +3361,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -3435,10 +3429,10 @@
         <v>3003</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -3447,7 +3441,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J22" s="2">
         <v>10</v>
@@ -3504,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC22" s="2">
         <v>50</v>
@@ -3518,10 +3512,10 @@
         <v>3004</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
@@ -3530,7 +3524,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J23" s="2">
         <v>30</v>
@@ -3598,10 +3592,10 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="2">
         <v>5</v>
@@ -3610,7 +3604,7 @@
         <v>50</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" s="2">
         <v>60</v>
@@ -3667,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AC24" s="2">
         <v>50</v>
@@ -3681,10 +3675,10 @@
         <v>3006</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
@@ -3693,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -3761,10 +3755,10 @@
         <v>3007</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
@@ -3773,7 +3767,7 @@
         <v>100</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J26" s="2">
         <v>60</v>
@@ -3841,10 +3835,10 @@
         <v>9001</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G27" s="2">
         <v>9</v>
@@ -3918,10 +3912,10 @@
         <v>9002</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G28" s="2">
         <v>9</v>
@@ -3995,10 +3989,10 @@
         <v>10001</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4007,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -4075,10 +4069,10 @@
         <v>10002</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G30" s="1">
         <v>4</v>
@@ -4087,7 +4081,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -4156,10 +4150,10 @@
         <v>10003</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -4168,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -4237,10 +4231,10 @@
         <v>10004</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G32" s="1">
         <v>4</v>
@@ -4249,7 +4243,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -4267,7 +4261,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>74</v>
@@ -4317,7 +4311,7 @@
         <v>10005</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>59</v>
@@ -4329,7 +4323,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -5326,10 +5320,10 @@
         <v>2006</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="2">
         <v>6</v>
@@ -5403,10 +5397,10 @@
         <v>2007</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5480,10 +5474,10 @@
         <v>3001</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G49" s="2">
         <v>4</v>
@@ -5557,10 +5551,10 @@
         <v>3002</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5634,10 +5628,10 @@
         <v>3003</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5711,10 +5705,10 @@
         <v>3004</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
@@ -5788,10 +5782,10 @@
         <v>3005</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G53" s="2">
         <v>5</v>
@@ -5866,10 +5860,10 @@
         <v>3006</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
@@ -5943,10 +5937,10 @@
         <v>3007</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0">
@@ -65,12 +66,35 @@
 2 召唤技能
 3 场景技能
 4 回复技能
-5 状态技能
+5 盾类技能
 6 专精技能</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否排斥
+设定大于为0的数值，则排斥同样的数值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="0">
+    <comment ref="AC3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="123">
   <si>
     <t>_ID</t>
   </si>
@@ -522,6 +546,9 @@
     <t>类型</t>
   </si>
   <si>
+    <t>互斥技能</t>
+  </si>
+  <si>
     <t>优先度</t>
   </si>
   <si>
@@ -606,6 +633,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Repet</t>
+  </si>
+  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -687,69 +717,72 @@
     <t>刺杀</t>
   </si>
   <si>
+    <t>对{0}格内的{1}个敌人造成{2}%物攻+{3}点伤害</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>FrontRow</t>
+  </si>
+  <si>
+    <t>刺杀剑术</t>
+  </si>
+  <si>
+    <t>半月弯刀</t>
+  </si>
+  <si>
+    <t>龙影剑法</t>
+  </si>
+  <si>
+    <t>对周围的{1}个敌人造成{2}%物攻+{3}点伤害</t>
+  </si>
+  <si>
+    <t>Arc</t>
+  </si>
+  <si>
+    <t>野蛮撞击</t>
+  </si>
+  <si>
+    <t>对敌人造成{2}%攻击+{3}点伤害，并且晕眩2秒</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>"106,-1,-1,100"</t>
+  </si>
+  <si>
+    <t>武力盾</t>
+  </si>
+  <si>
+    <t>增加物攻*{2}%+{3}点生命和防御,额外10%减伤,持续{4}秒</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>"1301,-1,-1,10","4,-1,-1,100","5,-1,-1,100"</t>
+  </si>
+  <si>
+    <t>武力精通</t>
+  </si>
+  <si>
+    <t>战士技能增加{2}%技能系数+{3}技能基础值</t>
+  </si>
+  <si>
+    <t>FullBox</t>
+  </si>
+  <si>
+    <t>烈火剑法</t>
+  </si>
+  <si>
+    <t>烈火</t>
+  </si>
+  <si>
     <t>对{0}格内的{1}个敌人造成{2}%攻击+{3}点伤害</t>
   </si>
   <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>FrontRow</t>
-  </si>
-  <si>
-    <t>刺杀剑术</t>
-  </si>
-  <si>
-    <t>半月弯刀</t>
-  </si>
-  <si>
-    <t>龙影剑法</t>
-  </si>
-  <si>
-    <t>对周围的{1}个敌人造成{2}%攻击+{3}点伤害</t>
-  </si>
-  <si>
-    <t>Arc</t>
-  </si>
-  <si>
-    <t>野蛮撞击</t>
-  </si>
-  <si>
-    <t>对敌人造成{2}%攻击+{3}点伤害，并且晕眩2秒</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>"106,-1,-1,100"</t>
-  </si>
-  <si>
-    <t>武力盾</t>
-  </si>
-  <si>
-    <t>增加攻击*{2}%+{3}点攻击和防御,持续30秒</t>
-  </si>
-  <si>
-    <t>Square</t>
-  </si>
-  <si>
-    <t>"1301,-1,-1,10","4,-1,-1,100"</t>
-  </si>
-  <si>
-    <t>武力精通</t>
-  </si>
-  <si>
-    <t>战士技能增加{2}%技能系数+{3}技能基础值</t>
-  </si>
-  <si>
-    <t>FullBox</t>
-  </si>
-  <si>
-    <t>烈火剑法</t>
-  </si>
-  <si>
-    <t>烈火</t>
-  </si>
-  <si>
     <t>小火球</t>
   </si>
   <si>
@@ -777,7 +810,7 @@
     <t>魔法盾</t>
   </si>
   <si>
-    <t>增加魔法*{2}%+{3}点魔法和防御,持续30秒</t>
+    <t>增加魔法*{2}%+{3}点生命和防御,额外10%减伤,持续{4}秒</t>
   </si>
   <si>
     <t>法术精通</t>
@@ -822,7 +855,7 @@
     <t>道力盾</t>
   </si>
   <si>
-    <t>增加道术*{2}%+{3}点道术和防御,持续30秒</t>
+    <t>增加道术*{2}%+{3}点生命和防御,额外10%减伤,持续{4}秒</t>
   </si>
   <si>
     <t>道力精通</t>
@@ -870,7 +903,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -899,6 +932,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -912,6 +973,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -951,21 +1020,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1016,28 +1070,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,13 +1102,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,19 +1168,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,18 +1216,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1153,31 +1228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,19 +1252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,12 +1276,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1260,6 +1293,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1292,21 +1340,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1363,148 +1396,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,52 +1552,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1835,12 +1868,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AF56"/>
+  <dimension ref="C3:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AB27" sqref="AB27"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1851,30 +1884,30 @@
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.50833333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.50833333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5" style="1" customWidth="1"/>
-    <col min="18" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="7.875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.625" style="1" customWidth="1"/>
-    <col min="24" max="25" width="7.875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="21.5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5" style="1" customWidth="1"/>
-    <col min="30" max="31" width="9" style="1"/>
-    <col min="32" max="32" width="19.25" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.50833333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.50833333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" style="1" customWidth="1"/>
+    <col min="19" max="21" width="7.625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="7.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="7.875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" style="1" customWidth="1"/>
+    <col min="29" max="30" width="33.75" style="1" customWidth="1"/>
+    <col min="31" max="32" width="9" style="1"/>
+    <col min="33" max="33" width="19.25" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:32">
+    <row r="3" spans="3:33">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1956,183 +1989,192 @@
       <c r="AC3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AD3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="3:29">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="3:30">
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="3:29">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:30">
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="3:29">
+        <v>59</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="3:30">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
@@ -2140,59 +2182,59 @@
         <v>1001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>10</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
+      <c r="J6" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
       </c>
       <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
         <v>9999</v>
       </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>61</v>
+      <c r="O6" s="2">
+        <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="R6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
         <v>120</v>
       </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
       <c r="W6" s="2">
         <v>0</v>
       </c>
@@ -2208,11 +2250,14 @@
       <c r="AA6" s="2">
         <v>0</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="3:29">
+    <row r="7" s="2" customFormat="1" spans="3:30">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
@@ -2220,65 +2265,65 @@
         <v>1002</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <v>2</v>
       </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>2</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
       <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
         <v>150</v>
       </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
       <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
         <v>20</v>
       </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
       <c r="Y7" s="2">
         <v>0</v>
       </c>
@@ -2288,11 +2333,14 @@
       <c r="AA7" s="2">
         <v>0</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="3:29">
+    <row r="8" s="2" customFormat="1" spans="3:30">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
@@ -2300,59 +2348,59 @@
         <v>1003</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="J8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>2</v>
       </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
       <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
         <v>9999</v>
       </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>61</v>
+      <c r="O8" s="2">
+        <v>1</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <v>5</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
       <c r="T8" s="2">
         <v>0</v>
       </c>
       <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
         <v>100</v>
       </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
       <c r="W8" s="2">
         <v>0</v>
       </c>
@@ -2368,11 +2416,14 @@
       <c r="AA8" s="2">
         <v>0</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="3:29">
+    <row r="9" s="2" customFormat="1" spans="3:30">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
@@ -2380,59 +2431,59 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2">
         <v>9</v>
       </c>
       <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>10</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="J9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="2">
         <v>10</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
       <c r="L9" s="2">
         <v>1</v>
       </c>
       <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
         <v>9999</v>
       </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>70</v>
+      <c r="O9" s="2">
+        <v>1</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="2">
         <v>2</v>
       </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
       <c r="S9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
         <v>200</v>
       </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
       <c r="W9" s="2">
         <v>0</v>
       </c>
@@ -2448,14 +2499,17 @@
       <c r="AA9" s="2">
         <v>0</v>
       </c>
-      <c r="AB9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC9" s="2">
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD9" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="3:29">
+    <row r="10" s="2" customFormat="1" spans="3:30">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -2463,47 +2517,47 @@
         <v>1005</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
       </c>
       <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
         <v>50</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="2">
-        <v>60</v>
+      <c r="J10" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
       </c>
       <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
         <v>9999</v>
       </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>61</v>
+      <c r="O10" s="2">
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="2">
         <v>30</v>
       </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
       <c r="S10" s="2">
         <v>0</v>
       </c>
@@ -2511,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
@@ -2531,14 +2585,17 @@
       <c r="AA10" s="2">
         <v>0</v>
       </c>
-      <c r="AB10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC10" s="2">
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD10" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="3:29">
+    <row r="11" s="2" customFormat="1" spans="3:30">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
@@ -2546,43 +2603,43 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
       </c>
       <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>10</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
+      <c r="J11" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
       </c>
       <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
         <v>9999</v>
       </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>61</v>
+      <c r="O11" s="2">
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2594,11 +2651,11 @@
         <v>0</v>
       </c>
       <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
         <v>50</v>
       </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
       <c r="W11" s="2">
         <v>0</v>
       </c>
@@ -2614,11 +2671,14 @@
       <c r="AA11" s="2">
         <v>0</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="3:29">
+    <row r="12" s="2" customFormat="1" spans="3:30">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
@@ -2626,59 +2686,59 @@
         <v>1007</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="J12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="2">
         <v>10</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
       <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
         <v>9999</v>
       </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>61</v>
+      <c r="O12" s="2">
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="R12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
       </c>
       <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
         <v>300</v>
       </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
       <c r="W12" s="2">
         <v>0</v>
       </c>
@@ -2694,11 +2754,14 @@
       <c r="AA12" s="2">
         <v>0</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="3:29">
+    <row r="13" s="2" customFormat="1" spans="3:30">
       <c r="C13" s="2">
         <v>2001</v>
       </c>
@@ -2706,59 +2769,59 @@
         <v>2001</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
         <v>10</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
+      <c r="J13" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>9999</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>2</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="R13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
       <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
         <v>120</v>
       </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
       <c r="W13" s="2">
         <v>0</v>
       </c>
@@ -2774,11 +2837,14 @@
       <c r="AA13" s="2">
         <v>0</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="3:29">
+    <row r="14" s="2" customFormat="1" spans="3:30">
       <c r="C14" s="2">
         <v>2002</v>
       </c>
@@ -2786,59 +2852,59 @@
         <v>2002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
         <v>10</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
+      <c r="J14" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
         <v>2</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>9999</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>3</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="R14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
         <v>150</v>
       </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
       <c r="W14" s="2">
         <v>0</v>
       </c>
@@ -2854,11 +2920,14 @@
       <c r="AA14" s="2">
         <v>0</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="3:29">
+    <row r="15" s="2" customFormat="1" spans="3:30">
       <c r="C15" s="2">
         <v>2003</v>
       </c>
@@ -2866,59 +2935,59 @@
         <v>2003</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
         <v>10</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="J15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="2">
         <v>10</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2</v>
       </c>
       <c r="L15" s="2">
         <v>2</v>
       </c>
       <c r="M15" s="2">
+        <v>2</v>
+      </c>
+      <c r="N15" s="2">
         <v>9999</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>3</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="R15" s="2">
         <v>5</v>
       </c>
       <c r="S15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T15" s="2">
         <v>2</v>
       </c>
       <c r="U15" s="2">
+        <v>2</v>
+      </c>
+      <c r="V15" s="2">
         <v>80</v>
       </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
       <c r="W15" s="2">
         <v>0</v>
       </c>
@@ -2934,11 +3003,14 @@
       <c r="AA15" s="2">
         <v>0</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="3:29">
+    <row r="16" s="2" customFormat="1" spans="3:30">
       <c r="C16" s="2">
         <v>2004</v>
       </c>
@@ -2946,59 +3018,59 @@
         <v>2004</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
         <v>10</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
+      <c r="J16" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="K16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>2</v>
       </c>
       <c r="M16" s="2">
+        <v>2</v>
+      </c>
+      <c r="N16" s="2">
         <v>9999</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>3</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="P16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <v>4</v>
-      </c>
-      <c r="S16" s="2">
-        <v>2</v>
       </c>
       <c r="T16" s="2">
         <v>2</v>
       </c>
       <c r="U16" s="2">
+        <v>2</v>
+      </c>
+      <c r="V16" s="2">
         <v>100</v>
       </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
       <c r="W16" s="2">
         <v>0</v>
       </c>
@@ -3014,11 +3086,14 @@
       <c r="AA16" s="2">
         <v>0</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="3:29">
+    <row r="17" s="2" customFormat="1" spans="3:30">
       <c r="C17" s="2">
         <v>2005</v>
       </c>
@@ -3026,47 +3101,47 @@
         <v>2005</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2">
         <v>5</v>
       </c>
       <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
         <v>50</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="2">
-        <v>60</v>
+      <c r="J17" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
         <v>2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>9999</v>
       </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>61</v>
+      <c r="O17" s="2">
+        <v>0</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="2">
         <v>30</v>
       </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
       <c r="S17" s="2">
         <v>0</v>
       </c>
@@ -3074,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V17" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="2">
         <v>0</v>
@@ -3094,14 +3169,17 @@
       <c r="AA17" s="2">
         <v>0</v>
       </c>
-      <c r="AB17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC17" s="2">
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD17" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="3:29">
+    <row r="18" s="2" customFormat="1" spans="3:30">
       <c r="C18" s="2">
         <v>2006</v>
       </c>
@@ -3109,43 +3187,43 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2">
         <v>6</v>
       </c>
       <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
         <v>10</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
+      <c r="J18" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
         <v>2</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>9999</v>
       </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>61</v>
+      <c r="O18" s="2">
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -3157,11 +3235,11 @@
         <v>0</v>
       </c>
       <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
         <v>50</v>
       </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
       <c r="W18" s="2">
         <v>0</v>
       </c>
@@ -3177,11 +3255,14 @@
       <c r="AA18" s="2">
         <v>0</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="3:29">
+    <row r="19" s="2" customFormat="1" spans="3:30">
       <c r="C19" s="2">
         <v>2007</v>
       </c>
@@ -3189,59 +3270,59 @@
         <v>2007</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="J19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="2">
         <v>10</v>
-      </c>
-      <c r="K19" s="2">
-        <v>2</v>
       </c>
       <c r="L19" s="2">
         <v>2</v>
       </c>
       <c r="M19" s="2">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2">
         <v>9999</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>3</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
         <v>5</v>
-      </c>
-      <c r="S19" s="2">
-        <v>3</v>
       </c>
       <c r="T19" s="2">
         <v>3</v>
       </c>
       <c r="U19" s="2">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2">
         <v>150</v>
       </c>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
       <c r="W19" s="2">
         <v>0</v>
       </c>
@@ -3257,11 +3338,14 @@
       <c r="AA19" s="2">
         <v>0</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="3:29">
+    <row r="20" s="2" customFormat="1" spans="3:30">
       <c r="C20" s="2">
         <v>3001</v>
       </c>
@@ -3269,43 +3353,43 @@
         <v>3001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
       </c>
       <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
         <v>20</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="J20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="2">
         <v>4</v>
       </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
       <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
         <v>3</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>9999</v>
       </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>61</v>
+      <c r="O20" s="2">
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -3317,11 +3401,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
         <v>50</v>
       </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
       <c r="W20" s="2">
         <v>0</v>
       </c>
@@ -3337,11 +3421,14 @@
       <c r="AA20" s="2">
         <v>0</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="3:29">
+    <row r="21" s="2" customFormat="1" spans="3:30">
       <c r="C21" s="2">
         <v>3002</v>
       </c>
@@ -3349,59 +3436,59 @@
         <v>3002</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
       <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
         <v>10</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
+      <c r="J21" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
         <v>3</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>9999</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>3</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="R21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
         <v>120</v>
       </c>
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
       <c r="W21" s="2">
         <v>0</v>
       </c>
@@ -3417,11 +3504,14 @@
       <c r="AA21" s="2">
         <v>0</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="3:29">
+    <row r="22" s="2" customFormat="1" spans="3:30">
       <c r="C22" s="2">
         <v>3003</v>
       </c>
@@ -3429,65 +3519,65 @@
         <v>3003</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
         <v>10</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="2">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>3</v>
+      </c>
+      <c r="N22" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O22" s="2">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>5</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>35</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
         <v>100</v>
       </c>
-      <c r="J22" s="2">
-        <v>10</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>3</v>
-      </c>
-      <c r="M22" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N22" s="2">
-        <v>2</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>5</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>35</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
-        <v>100</v>
-      </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
       <c r="Y22" s="2">
         <v>0</v>
       </c>
@@ -3497,14 +3587,17 @@
       <c r="AA22" s="2">
         <v>0</v>
       </c>
-      <c r="AB22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC22" s="2">
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD22" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="3:29">
+    <row r="23" s="2" customFormat="1" spans="3:30">
       <c r="C23" s="2">
         <v>3004</v>
       </c>
@@ -3512,59 +3605,59 @@
         <v>3004</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
       </c>
       <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
         <v>100</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="2">
-        <v>30</v>
+      <c r="J23" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
         <v>3</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <v>9999</v>
       </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>61</v>
+      <c r="O23" s="2">
+        <v>0</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="R23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
       </c>
       <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
         <v>100</v>
       </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
       <c r="W23" s="2">
         <v>0</v>
       </c>
@@ -3580,11 +3673,14 @@
       <c r="AA23" s="2">
         <v>0</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="3:29">
+    <row r="24" s="2" customFormat="1" spans="3:30">
       <c r="C24" s="2">
         <v>3005</v>
       </c>
@@ -3592,47 +3688,47 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G24" s="2">
         <v>5</v>
       </c>
       <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
         <v>50</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="2">
-        <v>60</v>
+      <c r="J24" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
         <v>3</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <v>9999</v>
       </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>61</v>
+      <c r="O24" s="2">
+        <v>0</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q24" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" s="2">
         <v>30</v>
       </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
       <c r="S24" s="2">
         <v>0</v>
       </c>
@@ -3640,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="U24" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V24" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24" s="2">
         <v>0</v>
@@ -3660,14 +3756,17 @@
       <c r="AA24" s="2">
         <v>0</v>
       </c>
-      <c r="AB24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC24" s="2">
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD24" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="3:29">
+    <row r="25" s="2" customFormat="1" spans="3:30">
       <c r="C25" s="2">
         <v>3006</v>
       </c>
@@ -3675,43 +3774,43 @@
         <v>3006</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
       </c>
       <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
         <v>10</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
+      <c r="J25" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
         <v>3</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <v>9999</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
         <v>3</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="P25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -3723,11 +3822,11 @@
         <v>0</v>
       </c>
       <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
         <v>50</v>
       </c>
-      <c r="V25" s="2">
-        <v>0</v>
-      </c>
       <c r="W25" s="2">
         <v>0</v>
       </c>
@@ -3743,11 +3842,14 @@
       <c r="AA25" s="2">
         <v>0</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="3:29">
+    <row r="26" s="2" customFormat="1" spans="3:30">
       <c r="C26" s="2">
         <v>3007</v>
       </c>
@@ -3755,59 +3857,59 @@
         <v>3007</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
       </c>
       <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
         <v>100</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" s="2">
-        <v>60</v>
+      <c r="J26" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
         <v>3</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <v>9999</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>2</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
         <v>2</v>
       </c>
-      <c r="S26" s="2">
-        <v>0</v>
-      </c>
       <c r="T26" s="2">
         <v>0</v>
       </c>
       <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
         <v>120</v>
       </c>
-      <c r="V26" s="2">
-        <v>0</v>
-      </c>
       <c r="W26" s="2">
         <v>0</v>
       </c>
@@ -3823,11 +3925,14 @@
       <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="3:29">
+    <row r="27" s="2" customFormat="1" spans="3:30">
       <c r="C27" s="2">
         <v>9001</v>
       </c>
@@ -3835,10 +3940,10 @@
         <v>9001</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2">
         <v>9</v>
@@ -3846,45 +3951,45 @@
       <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="2">
+      <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="R27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
       </c>
       <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
         <v>100</v>
       </c>
-      <c r="V27" s="2">
-        <v>0</v>
-      </c>
       <c r="W27" s="2">
         <v>0</v>
       </c>
@@ -3900,11 +4005,14 @@
       <c r="AA27" s="2">
         <v>0</v>
       </c>
-      <c r="AC27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="3:29">
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="3:30">
       <c r="C28" s="2">
         <v>9002</v>
       </c>
@@ -3912,10 +4020,10 @@
         <v>9002</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G28" s="2">
         <v>9</v>
@@ -3923,45 +4031,45 @@
       <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="2">
+      <c r="I28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
         <v>2</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="P28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="R28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
         <v>100</v>
       </c>
-      <c r="V28" s="2">
-        <v>0</v>
-      </c>
       <c r="W28" s="2">
         <v>0</v>
       </c>
@@ -3977,11 +4085,14 @@
       <c r="AA28" s="2">
         <v>0</v>
       </c>
-      <c r="AC28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="3:29">
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="3:30">
       <c r="C29" s="2">
         <v>10001</v>
       </c>
@@ -3989,59 +4100,59 @@
         <v>10001</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="K29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
         <v>3</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="R29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
       </c>
       <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
         <v>150</v>
       </c>
-      <c r="V29" s="2">
-        <v>0</v>
-      </c>
       <c r="W29" s="2">
         <v>0</v>
       </c>
@@ -4057,11 +4168,14 @@
       <c r="AA29" s="2">
         <v>0</v>
       </c>
-      <c r="AC29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29">
+      <c r="AB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30">
       <c r="C30" s="1">
         <v>10002</v>
       </c>
@@ -4069,59 +4183,59 @@
         <v>10002</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G30" s="1">
         <v>4</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
         <v>10</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1</v>
+      <c r="J30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="R30" s="1">
-        <v>1</v>
-      </c>
-      <c r="S30" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
         <v>100</v>
       </c>
-      <c r="V30" s="2">
-        <v>0</v>
-      </c>
       <c r="W30" s="2">
         <v>0</v>
       </c>
@@ -4137,12 +4251,15 @@
       <c r="AA30" s="2">
         <v>0</v>
       </c>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:29">
+      <c r="AB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30">
       <c r="C31" s="1">
         <v>10003</v>
       </c>
@@ -4150,59 +4267,59 @@
         <v>10003</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1</v>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
       </c>
       <c r="M31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>70</v>
+      <c r="O31" s="2">
+        <v>0</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
         <v>10</v>
       </c>
-      <c r="S31" s="2">
-        <v>0</v>
-      </c>
       <c r="T31" s="2">
         <v>0</v>
       </c>
       <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
         <v>100</v>
       </c>
-      <c r="V31" s="2">
-        <v>0</v>
-      </c>
       <c r="W31" s="2">
         <v>0</v>
       </c>
@@ -4218,12 +4335,15 @@
       <c r="AA31" s="2">
         <v>0</v>
       </c>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:29">
+      <c r="AB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30">
       <c r="C32" s="1">
         <v>10004</v>
       </c>
@@ -4231,63 +4351,63 @@
         <v>10004</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G32" s="1">
         <v>4</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
         <v>10</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1">
+      <c r="J32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
         <v>1</v>
       </c>
       <c r="M32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
         <v>3</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="P32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
         <v>4</v>
       </c>
-      <c r="S32" s="2">
-        <v>0</v>
-      </c>
       <c r="T32" s="2">
         <v>0</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
         <v>50</v>
       </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2">
-        <v>0</v>
-      </c>
-      <c r="X32" s="1">
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
         <v>0</v>
       </c>
       <c r="Y32" s="1">
@@ -4296,14 +4416,17 @@
       <c r="Z32" s="1">
         <v>0</v>
       </c>
-      <c r="AA32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="3:29">
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="3:30">
       <c r="C33" s="2">
         <v>10005</v>
       </c>
@@ -4311,65 +4434,65 @@
         <v>10005</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
         <v>10</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
+      <c r="J33" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="K33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
       </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2">
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
         <v>2</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="P33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
         <v>2</v>
       </c>
-      <c r="S33" s="2">
-        <v>0</v>
-      </c>
       <c r="T33" s="2">
         <v>0</v>
       </c>
       <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
         <v>150</v>
       </c>
-      <c r="V33" s="2">
-        <v>0</v>
-      </c>
       <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
         <v>20</v>
       </c>
-      <c r="X33" s="2">
-        <v>0</v>
-      </c>
       <c r="Y33" s="2">
         <v>0</v>
       </c>
@@ -4379,11 +4502,14 @@
       <c r="AA33" s="2">
         <v>0</v>
       </c>
-      <c r="AC33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="3:29">
+      <c r="AB33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="3:30">
       <c r="C35" s="2">
         <v>11001</v>
       </c>
@@ -4391,56 +4517,56 @@
         <v>1001</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
         <v>10</v>
       </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
       <c r="K35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
       </c>
       <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
         <v>9999</v>
       </c>
-      <c r="N35" s="2">
-        <v>1</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>61</v>
+      <c r="O35" s="2">
+        <v>1</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="R35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
       </c>
       <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
         <v>120</v>
       </c>
-      <c r="V35" s="2">
-        <v>0</v>
-      </c>
       <c r="W35" s="2">
         <v>0</v>
       </c>
@@ -4456,11 +4582,14 @@
       <c r="AA35" s="2">
         <v>0</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AB35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="3:29">
+    <row r="36" s="2" customFormat="1" spans="3:30">
       <c r="C36" s="2">
         <v>11002</v>
       </c>
@@ -4468,62 +4597,62 @@
         <v>1002</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>10</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>2</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
-        <v>10</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
+      <c r="Q36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
         <v>2</v>
       </c>
-      <c r="L36" s="2">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N36" s="2">
-        <v>2</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
-      <c r="R36" s="2">
-        <v>2</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
       <c r="T36" s="2">
         <v>0</v>
       </c>
       <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
         <v>150</v>
       </c>
-      <c r="V36" s="2">
-        <v>0</v>
-      </c>
       <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
         <v>20</v>
       </c>
-      <c r="X36" s="2">
-        <v>0</v>
-      </c>
       <c r="Y36" s="2">
         <v>0</v>
       </c>
@@ -4533,11 +4662,14 @@
       <c r="AA36" s="2">
         <v>0</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="3:29">
+    <row r="37" s="2" customFormat="1" spans="3:30">
       <c r="C37" s="2">
         <v>11003</v>
       </c>
@@ -4545,56 +4677,56 @@
         <v>1003</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
       <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
         <v>10</v>
       </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
       <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
         <v>2</v>
       </c>
-      <c r="L37" s="2">
-        <v>1</v>
-      </c>
       <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2">
         <v>9999</v>
       </c>
-      <c r="N37" s="2">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>61</v>
+      <c r="O37" s="2">
+        <v>1</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
         <v>5</v>
       </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
       <c r="T37" s="2">
         <v>0</v>
       </c>
       <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
         <v>100</v>
       </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
       <c r="W37" s="2">
         <v>0</v>
       </c>
@@ -4610,11 +4742,14 @@
       <c r="AA37" s="2">
         <v>0</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="3:29">
+    <row r="38" s="2" customFormat="1" spans="3:30">
       <c r="C38" s="2">
         <v>11004</v>
       </c>
@@ -4622,56 +4757,56 @@
         <v>1004</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G38" s="2">
         <v>9</v>
       </c>
       <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
         <v>10</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>3</v>
       </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
       <c r="L38" s="2">
         <v>1</v>
       </c>
       <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
         <v>9999</v>
       </c>
-      <c r="N38" s="2">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>70</v>
+      <c r="O38" s="2">
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q38" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R38" s="2">
         <v>2</v>
       </c>
-      <c r="R38" s="2">
-        <v>1</v>
-      </c>
       <c r="S38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
         <v>200</v>
       </c>
-      <c r="V38" s="2">
-        <v>0</v>
-      </c>
       <c r="W38" s="2">
         <v>0</v>
       </c>
@@ -4687,14 +4822,17 @@
       <c r="AA38" s="2">
         <v>0</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC38" s="2">
+      <c r="AB38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD38" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="3:29">
+    <row r="39" s="2" customFormat="1" spans="3:30">
       <c r="C39" s="2">
         <v>11005</v>
       </c>
@@ -4702,44 +4840,44 @@
         <v>1005</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G39" s="2">
         <v>5</v>
       </c>
       <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
         <v>50</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>30</v>
       </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
       <c r="L39" s="2">
         <v>1</v>
       </c>
       <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
         <v>9999</v>
       </c>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>61</v>
+      <c r="O39" s="2">
+        <v>0</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q39" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R39" s="2">
         <v>30</v>
       </c>
-      <c r="R39" s="2">
-        <v>0</v>
-      </c>
       <c r="S39" s="2">
         <v>0</v>
       </c>
@@ -4747,11 +4885,11 @@
         <v>0</v>
       </c>
       <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
         <v>20</v>
       </c>
-      <c r="V39" s="2">
-        <v>0</v>
-      </c>
       <c r="W39" s="2">
         <v>0</v>
       </c>
@@ -4767,12 +4905,15 @@
       <c r="AA39" s="2">
         <v>0</v>
       </c>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="2">
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="3:29">
+    <row r="40" s="2" customFormat="1" spans="3:30">
       <c r="C40" s="2">
         <v>11006</v>
       </c>
@@ -4780,40 +4921,40 @@
         <v>1006</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
       <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
         <v>10</v>
       </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
       <c r="K40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="2">
         <v>1</v>
       </c>
       <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
         <v>9999</v>
       </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>61</v>
+      <c r="O40" s="2">
+        <v>0</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
@@ -4825,11 +4966,11 @@
         <v>0</v>
       </c>
       <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
         <v>50</v>
       </c>
-      <c r="V40" s="2">
-        <v>0</v>
-      </c>
       <c r="W40" s="2">
         <v>0</v>
       </c>
@@ -4845,11 +4986,14 @@
       <c r="AA40" s="2">
         <v>0</v>
       </c>
-      <c r="AC40" s="2">
+      <c r="AB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="3:29">
+    <row r="41" s="2" customFormat="1" spans="3:30">
       <c r="C41" s="2">
         <v>11007</v>
       </c>
@@ -4857,56 +5001,56 @@
         <v>1007</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
       </c>
       <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
         <v>10</v>
       </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
       <c r="K41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>
       </c>
       <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
         <v>9999</v>
       </c>
-      <c r="N41" s="2">
-        <v>1</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>61</v>
+      <c r="O41" s="2">
+        <v>1</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="R41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
       </c>
       <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
         <v>300</v>
       </c>
-      <c r="V41" s="2">
-        <v>0</v>
-      </c>
       <c r="W41" s="2">
         <v>0</v>
       </c>
@@ -4922,11 +5066,14 @@
       <c r="AA41" s="2">
         <v>0</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="3:29">
+    <row r="42" s="2" customFormat="1" spans="3:30">
       <c r="C42" s="2">
         <v>12001</v>
       </c>
@@ -4934,56 +5081,56 @@
         <v>2001</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
       </c>
       <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
         <v>10</v>
       </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
       <c r="K42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
         <v>2</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <v>9999</v>
       </c>
-      <c r="N42" s="2">
+      <c r="O42" s="2">
         <v>2</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="R42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
       </c>
       <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
         <v>120</v>
       </c>
-      <c r="V42" s="2">
-        <v>0</v>
-      </c>
       <c r="W42" s="2">
         <v>0</v>
       </c>
@@ -4999,11 +5146,14 @@
       <c r="AA42" s="2">
         <v>0</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AB42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="3:29">
+    <row r="43" s="2" customFormat="1" spans="3:30">
       <c r="C43" s="2">
         <v>12002</v>
       </c>
@@ -5011,56 +5161,56 @@
         <v>2002</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
       </c>
       <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
         <v>10</v>
       </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
       <c r="K43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
         <v>2</v>
       </c>
-      <c r="M43" s="2">
+      <c r="N43" s="2">
         <v>9999</v>
       </c>
-      <c r="N43" s="2">
+      <c r="O43" s="2">
         <v>3</v>
       </c>
-      <c r="O43" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="R43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
       </c>
       <c r="U43" s="2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
         <v>150</v>
       </c>
-      <c r="V43" s="2">
-        <v>0</v>
-      </c>
       <c r="W43" s="2">
         <v>0</v>
       </c>
@@ -5076,11 +5226,14 @@
       <c r="AA43" s="2">
         <v>0</v>
       </c>
-      <c r="AC43" s="2">
+      <c r="AB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="3:29">
+    <row r="44" s="2" customFormat="1" spans="3:30">
       <c r="C44" s="2">
         <v>12003</v>
       </c>
@@ -5088,56 +5241,56 @@
         <v>2003</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
       </c>
       <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
         <v>10</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>5</v>
-      </c>
-      <c r="K44" s="2">
-        <v>2</v>
       </c>
       <c r="L44" s="2">
         <v>2</v>
       </c>
       <c r="M44" s="2">
+        <v>2</v>
+      </c>
+      <c r="N44" s="2">
         <v>9999</v>
       </c>
-      <c r="N44" s="2">
+      <c r="O44" s="2">
         <v>3</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="R44" s="2">
         <v>5</v>
       </c>
       <c r="S44" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T44" s="2">
         <v>2</v>
       </c>
       <c r="U44" s="2">
+        <v>2</v>
+      </c>
+      <c r="V44" s="2">
         <v>80</v>
       </c>
-      <c r="V44" s="2">
-        <v>0</v>
-      </c>
       <c r="W44" s="2">
         <v>0</v>
       </c>
@@ -5153,11 +5306,14 @@
       <c r="AA44" s="2">
         <v>0</v>
       </c>
-      <c r="AC44" s="2">
+      <c r="AB44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="3:29">
+    <row r="45" s="2" customFormat="1" spans="3:30">
       <c r="C45" s="2">
         <v>12004</v>
       </c>
@@ -5165,56 +5321,56 @@
         <v>2004</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
       <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
         <v>10</v>
       </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
       <c r="K45" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45" s="2">
         <v>2</v>
       </c>
       <c r="M45" s="2">
+        <v>2</v>
+      </c>
+      <c r="N45" s="2">
         <v>9999</v>
       </c>
-      <c r="N45" s="2">
+      <c r="O45" s="2">
         <v>3</v>
       </c>
-      <c r="O45" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="P45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
         <v>4</v>
-      </c>
-      <c r="S45" s="2">
-        <v>2</v>
       </c>
       <c r="T45" s="2">
         <v>2</v>
       </c>
       <c r="U45" s="2">
+        <v>2</v>
+      </c>
+      <c r="V45" s="2">
         <v>100</v>
       </c>
-      <c r="V45" s="2">
-        <v>0</v>
-      </c>
       <c r="W45" s="2">
         <v>0</v>
       </c>
@@ -5230,11 +5386,14 @@
       <c r="AA45" s="2">
         <v>0</v>
       </c>
-      <c r="AC45" s="2">
+      <c r="AB45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="3:29">
+    <row r="46" s="2" customFormat="1" spans="3:30">
       <c r="C46" s="2">
         <v>12005</v>
       </c>
@@ -5242,44 +5401,44 @@
         <v>2005</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G46" s="2">
         <v>5</v>
       </c>
       <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
         <v>50</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>30</v>
       </c>
-      <c r="K46" s="2">
-        <v>1</v>
-      </c>
       <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2">
         <v>2</v>
       </c>
-      <c r="M46" s="2">
+      <c r="N46" s="2">
         <v>9999</v>
       </c>
-      <c r="N46" s="2">
-        <v>0</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>61</v>
+      <c r="O46" s="2">
+        <v>0</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q46" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R46" s="2">
         <v>30</v>
       </c>
-      <c r="R46" s="2">
-        <v>0</v>
-      </c>
       <c r="S46" s="2">
         <v>0</v>
       </c>
@@ -5287,11 +5446,11 @@
         <v>0</v>
       </c>
       <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
         <v>20</v>
       </c>
-      <c r="V46" s="2">
-        <v>0</v>
-      </c>
       <c r="W46" s="2">
         <v>0</v>
       </c>
@@ -5307,12 +5466,15 @@
       <c r="AA46" s="2">
         <v>0</v>
       </c>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="2">
+      <c r="AB46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="3:29">
+    <row r="47" s="2" customFormat="1" spans="3:30">
       <c r="C47" s="2">
         <v>12006</v>
       </c>
@@ -5320,40 +5482,40 @@
         <v>2006</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G47" s="2">
         <v>6</v>
       </c>
       <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
         <v>10</v>
       </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
       <c r="K47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2">
         <v>2</v>
       </c>
-      <c r="M47" s="2">
+      <c r="N47" s="2">
         <v>9999</v>
       </c>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>61</v>
+      <c r="O47" s="2">
+        <v>0</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="R47" s="2">
         <v>0</v>
@@ -5365,11 +5527,11 @@
         <v>0</v>
       </c>
       <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
         <v>50</v>
       </c>
-      <c r="V47" s="2">
-        <v>0</v>
-      </c>
       <c r="W47" s="2">
         <v>0</v>
       </c>
@@ -5385,11 +5547,14 @@
       <c r="AA47" s="2">
         <v>0</v>
       </c>
-      <c r="AC47" s="2">
+      <c r="AB47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="3:29">
+    <row r="48" s="2" customFormat="1" spans="3:30">
       <c r="C48" s="2">
         <v>12007</v>
       </c>
@@ -5397,56 +5562,56 @@
         <v>2007</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
       </c>
       <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
         <v>10</v>
       </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
       <c r="K48" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2">
         <v>2</v>
       </c>
       <c r="M48" s="2">
+        <v>2</v>
+      </c>
+      <c r="N48" s="2">
         <v>9999</v>
       </c>
-      <c r="N48" s="2">
+      <c r="O48" s="2">
         <v>3</v>
       </c>
-      <c r="O48" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
         <v>5</v>
-      </c>
-      <c r="S48" s="2">
-        <v>3</v>
       </c>
       <c r="T48" s="2">
         <v>3</v>
       </c>
       <c r="U48" s="2">
+        <v>3</v>
+      </c>
+      <c r="V48" s="2">
         <v>150</v>
       </c>
-      <c r="V48" s="2">
-        <v>0</v>
-      </c>
       <c r="W48" s="2">
         <v>0</v>
       </c>
@@ -5462,11 +5627,14 @@
       <c r="AA48" s="2">
         <v>0</v>
       </c>
-      <c r="AC48" s="2">
+      <c r="AB48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="3:29">
+    <row r="49" s="2" customFormat="1" spans="3:30">
       <c r="C49" s="2">
         <v>13001</v>
       </c>
@@ -5474,40 +5642,40 @@
         <v>3001</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G49" s="2">
         <v>4</v>
       </c>
       <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
         <v>20</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>4</v>
       </c>
-      <c r="K49" s="2">
-        <v>1</v>
-      </c>
       <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
         <v>3</v>
       </c>
-      <c r="M49" s="2">
+      <c r="N49" s="2">
         <v>9999</v>
       </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>61</v>
+      <c r="O49" s="2">
+        <v>0</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -5519,11 +5687,11 @@
         <v>0</v>
       </c>
       <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
         <v>50</v>
       </c>
-      <c r="V49" s="2">
-        <v>0</v>
-      </c>
       <c r="W49" s="2">
         <v>0</v>
       </c>
@@ -5539,11 +5707,14 @@
       <c r="AA49" s="2">
         <v>0</v>
       </c>
-      <c r="AC49" s="2">
+      <c r="AB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="3:29">
+    <row r="50" s="2" customFormat="1" spans="3:30">
       <c r="C50" s="2">
         <v>13002</v>
       </c>
@@ -5551,56 +5722,56 @@
         <v>3002</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
       </c>
       <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
         <v>10</v>
       </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
       <c r="K50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
         <v>3</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="2">
         <v>9999</v>
       </c>
-      <c r="N50" s="2">
+      <c r="O50" s="2">
         <v>3</v>
       </c>
-      <c r="O50" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="R50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="2">
         <v>0</v>
       </c>
       <c r="U50" s="2">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2">
         <v>120</v>
       </c>
-      <c r="V50" s="2">
-        <v>0</v>
-      </c>
       <c r="W50" s="2">
         <v>0</v>
       </c>
@@ -5616,11 +5787,14 @@
       <c r="AA50" s="2">
         <v>0</v>
       </c>
-      <c r="AC50" s="2">
+      <c r="AB50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="3:29">
+    <row r="51" s="2" customFormat="1" spans="3:30">
       <c r="C51" s="2">
         <v>13003</v>
       </c>
@@ -5628,62 +5802,62 @@
         <v>3003</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
       </c>
       <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
         <v>10</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>5</v>
       </c>
-      <c r="K51" s="2">
-        <v>1</v>
-      </c>
       <c r="L51" s="2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2">
         <v>3</v>
       </c>
-      <c r="M51" s="2">
+      <c r="N51" s="2">
         <v>9999</v>
       </c>
-      <c r="N51" s="2">
+      <c r="O51" s="2">
         <v>2</v>
       </c>
-      <c r="O51" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
         <v>5</v>
       </c>
-      <c r="S51" s="2">
-        <v>0</v>
-      </c>
       <c r="T51" s="2">
         <v>0</v>
       </c>
       <c r="U51" s="2">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2">
         <v>35</v>
       </c>
-      <c r="V51" s="2">
-        <v>0</v>
-      </c>
       <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2">
         <v>100</v>
       </c>
-      <c r="X51" s="2">
-        <v>0</v>
-      </c>
       <c r="Y51" s="2">
         <v>0</v>
       </c>
@@ -5693,11 +5867,14 @@
       <c r="AA51" s="2">
         <v>0</v>
       </c>
-      <c r="AC51" s="2">
+      <c r="AB51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="3:29">
+    <row r="52" s="2" customFormat="1" spans="3:30">
       <c r="C52" s="2">
         <v>13004</v>
       </c>
@@ -5705,56 +5882,56 @@
         <v>3004</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
       </c>
       <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
         <v>100</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <v>15</v>
       </c>
-      <c r="K52" s="2">
-        <v>1</v>
-      </c>
       <c r="L52" s="2">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2">
         <v>3</v>
       </c>
-      <c r="M52" s="2">
+      <c r="N52" s="2">
         <v>9999</v>
       </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>61</v>
+      <c r="O52" s="2">
+        <v>0</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="R52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
       </c>
       <c r="U52" s="2">
+        <v>0</v>
+      </c>
+      <c r="V52" s="2">
         <v>100</v>
       </c>
-      <c r="V52" s="2">
-        <v>0</v>
-      </c>
       <c r="W52" s="2">
         <v>0</v>
       </c>
@@ -5770,11 +5947,14 @@
       <c r="AA52" s="2">
         <v>0</v>
       </c>
-      <c r="AC52" s="2">
+      <c r="AB52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="3:29">
+    <row r="53" s="2" customFormat="1" spans="3:30">
       <c r="C53" s="2">
         <v>13005</v>
       </c>
@@ -5782,44 +5962,44 @@
         <v>3005</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G53" s="2">
         <v>5</v>
       </c>
       <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
         <v>50</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <v>30</v>
       </c>
-      <c r="K53" s="2">
-        <v>1</v>
-      </c>
       <c r="L53" s="2">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2">
         <v>3</v>
       </c>
-      <c r="M53" s="2">
+      <c r="N53" s="2">
         <v>9999</v>
       </c>
-      <c r="N53" s="2">
-        <v>0</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>61</v>
+      <c r="O53" s="2">
+        <v>0</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q53" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R53" s="2">
         <v>30</v>
       </c>
-      <c r="R53" s="2">
-        <v>0</v>
-      </c>
       <c r="S53" s="2">
         <v>0</v>
       </c>
@@ -5827,11 +6007,11 @@
         <v>0</v>
       </c>
       <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
         <v>20</v>
       </c>
-      <c r="V53" s="2">
-        <v>0</v>
-      </c>
       <c r="W53" s="2">
         <v>0</v>
       </c>
@@ -5847,12 +6027,15 @@
       <c r="AA53" s="2">
         <v>0</v>
       </c>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="2">
+      <c r="AB53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="3:29">
+    <row r="54" s="2" customFormat="1" spans="3:30">
       <c r="C54" s="2">
         <v>13006</v>
       </c>
@@ -5860,40 +6043,40 @@
         <v>3006</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
       </c>
       <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
         <v>10</v>
       </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
       <c r="K54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2">
         <v>3</v>
       </c>
-      <c r="M54" s="2">
+      <c r="N54" s="2">
         <v>9999</v>
       </c>
-      <c r="N54" s="2">
+      <c r="O54" s="2">
         <v>3</v>
       </c>
-      <c r="O54" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="P54" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
@@ -5905,11 +6088,11 @@
         <v>0</v>
       </c>
       <c r="U54" s="2">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
         <v>50</v>
       </c>
-      <c r="V54" s="2">
-        <v>0</v>
-      </c>
       <c r="W54" s="2">
         <v>0</v>
       </c>
@@ -5925,11 +6108,14 @@
       <c r="AA54" s="2">
         <v>0</v>
       </c>
-      <c r="AC54" s="2">
+      <c r="AB54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="3:29">
+    <row r="55" s="2" customFormat="1" spans="3:30">
       <c r="C55" s="2">
         <v>13007</v>
       </c>
@@ -5937,56 +6123,56 @@
         <v>3007</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
       </c>
       <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
         <v>100</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <v>15</v>
       </c>
-      <c r="K55" s="2">
-        <v>1</v>
-      </c>
       <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
         <v>3</v>
       </c>
-      <c r="M55" s="2">
+      <c r="N55" s="2">
         <v>9999</v>
       </c>
-      <c r="N55" s="2">
+      <c r="O55" s="2">
         <v>2</v>
       </c>
-      <c r="O55" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P55" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
         <v>2</v>
       </c>
-      <c r="S55" s="2">
-        <v>0</v>
-      </c>
       <c r="T55" s="2">
         <v>0</v>
       </c>
       <c r="U55" s="2">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2">
         <v>120</v>
       </c>
-      <c r="V55" s="2">
-        <v>0</v>
-      </c>
       <c r="W55" s="2">
         <v>0</v>
       </c>
@@ -6002,19 +6188,22 @@
       <c r="AA55" s="2">
         <v>0</v>
       </c>
-      <c r="AC55" s="2">
+      <c r="AB55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="5:13">
+    <row r="56" s="2" customFormat="1" spans="5:14">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="N56" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 H3:H5 I3:I5 J3:J5 C3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 H3:H5 I3:I5 J3:J5 K3:K5 C3:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -6081,236 +6270,236 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:28">
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:28">
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AA5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB5" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="6:6">

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="124">
   <si>
     <t>_ID</t>
   </si>
@@ -727,6 +727,9 @@
   </si>
   <si>
     <t>刺杀剑术</t>
+  </si>
+  <si>
+    <t>对{0}格内的{1}个敌人造成{2}%物攻+{3}点伤害,忽视敌方50%防御</t>
   </si>
   <si>
     <t>半月弯刀</t>
@@ -1076,12 +1079,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1873,7 +1876,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2280,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2348,10 +2351,10 @@
         <v>1003</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -2363,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" s="2">
         <v>5</v>
@@ -2384,7 +2387,7 @@
         <v>63</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -2431,10 +2434,10 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2">
         <v>9</v>
@@ -2446,7 +2449,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2">
         <v>10</v>
@@ -2464,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>64</v>
@@ -2503,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" s="2">
         <v>50</v>
@@ -2517,10 +2520,10 @@
         <v>1005</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
@@ -2532,7 +2535,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2">
         <v>55</v>
@@ -2553,7 +2556,7 @@
         <v>63</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" s="2">
         <v>30</v>
@@ -2589,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" s="2">
         <v>50</v>
@@ -2603,10 +2606,10 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
@@ -2618,7 +2621,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2639,7 +2642,7 @@
         <v>63</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2686,10 +2689,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -2701,7 +2704,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" s="2">
         <v>10</v>
@@ -2769,10 +2772,10 @@
         <v>2001</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -2784,7 +2787,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -2802,10 +2805,10 @@
         <v>2</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -2852,10 +2855,10 @@
         <v>2002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2867,7 +2870,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2885,10 +2888,10 @@
         <v>3</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -2935,10 +2938,10 @@
         <v>2003</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
@@ -2950,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" s="2">
         <v>10</v>
@@ -2968,10 +2971,10 @@
         <v>3</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R15" s="2">
         <v>5</v>
@@ -3018,10 +3021,10 @@
         <v>2004</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -3033,7 +3036,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3054,7 +3057,7 @@
         <v>63</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -3101,10 +3104,10 @@
         <v>2005</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G17" s="2">
         <v>5</v>
@@ -3116,7 +3119,7 @@
         <v>50</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" s="2">
         <v>55</v>
@@ -3137,7 +3140,7 @@
         <v>63</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" s="2">
         <v>30</v>
@@ -3173,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" s="2">
         <v>50</v>
@@ -3187,10 +3190,10 @@
         <v>2006</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2">
         <v>6</v>
@@ -3202,7 +3205,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -3223,7 +3226,7 @@
         <v>63</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -3270,10 +3273,10 @@
         <v>2007</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -3285,7 +3288,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19" s="2">
         <v>10</v>
@@ -3303,10 +3306,10 @@
         <v>3</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -3353,10 +3356,10 @@
         <v>3001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
@@ -3368,7 +3371,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20" s="2">
         <v>4</v>
@@ -3389,7 +3392,7 @@
         <v>63</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -3436,10 +3439,10 @@
         <v>3002</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -3451,7 +3454,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -3469,10 +3472,10 @@
         <v>3</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -3519,10 +3522,10 @@
         <v>3003</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -3534,7 +3537,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K22" s="2">
         <v>10</v>
@@ -3552,10 +3555,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -3591,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AD22" s="2">
         <v>50</v>
@@ -3605,10 +3608,10 @@
         <v>3004</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
@@ -3620,7 +3623,7 @@
         <v>100</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K23" s="2">
         <v>15</v>
@@ -3641,7 +3644,7 @@
         <v>63</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -3688,10 +3691,10 @@
         <v>3005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G24" s="2">
         <v>5</v>
@@ -3703,7 +3706,7 @@
         <v>50</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K24" s="2">
         <v>55</v>
@@ -3724,7 +3727,7 @@
         <v>63</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" s="2">
         <v>30</v>
@@ -3760,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" s="2">
         <v>50</v>
@@ -3774,10 +3777,10 @@
         <v>3006</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
@@ -3789,7 +3792,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -3810,7 +3813,7 @@
         <v>63</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -3857,10 +3860,10 @@
         <v>3007</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
@@ -3872,7 +3875,7 @@
         <v>100</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K26" s="2">
         <v>30</v>
@@ -3890,10 +3893,10 @@
         <v>2</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
@@ -3940,10 +3943,10 @@
         <v>9001</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G27" s="2">
         <v>9</v>
@@ -3973,7 +3976,7 @@
         <v>63</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
@@ -4020,10 +4023,10 @@
         <v>9002</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G28" s="2">
         <v>9</v>
@@ -4100,22 +4103,22 @@
         <v>10001</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -4133,10 +4136,10 @@
         <v>3</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
@@ -4183,10 +4186,10 @@
         <v>10002</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="G30" s="1">
         <v>4</v>
@@ -4198,7 +4201,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -4267,10 +4270,10 @@
         <v>10003</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -4282,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -4300,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
@@ -4351,10 +4354,10 @@
         <v>10004</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="1">
         <v>4</v>
@@ -4366,7 +4369,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -4384,10 +4387,10 @@
         <v>3</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
@@ -4434,7 +4437,7 @@
         <v>10005</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>61</v>
@@ -4449,7 +4452,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -4677,10 +4680,10 @@
         <v>1003</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4710,7 +4713,7 @@
         <v>63</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R37" s="2">
         <v>0</v>
@@ -4757,10 +4760,10 @@
         <v>1004</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G38" s="2">
         <v>9</v>
@@ -4787,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>64</v>
@@ -4826,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD38" s="2">
         <v>50</v>
@@ -4840,10 +4843,10 @@
         <v>1005</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" s="2">
         <v>5</v>
@@ -4873,7 +4876,7 @@
         <v>63</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R39" s="2">
         <v>30</v>
@@ -4921,10 +4924,10 @@
         <v>1006</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
@@ -4954,7 +4957,7 @@
         <v>63</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
@@ -5001,10 +5004,10 @@
         <v>1007</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5081,10 +5084,10 @@
         <v>2001</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5111,10 +5114,10 @@
         <v>2</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
@@ -5161,10 +5164,10 @@
         <v>2002</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5191,10 +5194,10 @@
         <v>3</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R43" s="2">
         <v>0</v>
@@ -5241,10 +5244,10 @@
         <v>2003</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
@@ -5271,10 +5274,10 @@
         <v>3</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R44" s="2">
         <v>5</v>
@@ -5321,10 +5324,10 @@
         <v>2004</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5354,7 +5357,7 @@
         <v>63</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R45" s="2">
         <v>0</v>
@@ -5401,10 +5404,10 @@
         <v>2005</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G46" s="2">
         <v>5</v>
@@ -5434,7 +5437,7 @@
         <v>63</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R46" s="2">
         <v>30</v>
@@ -5482,10 +5485,10 @@
         <v>2006</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G47" s="2">
         <v>6</v>
@@ -5515,7 +5518,7 @@
         <v>63</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R47" s="2">
         <v>0</v>
@@ -5562,10 +5565,10 @@
         <v>2007</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5592,10 +5595,10 @@
         <v>3</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R48" s="2">
         <v>0</v>
@@ -5642,10 +5645,10 @@
         <v>3001</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G49" s="2">
         <v>4</v>
@@ -5675,7 +5678,7 @@
         <v>63</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -5722,10 +5725,10 @@
         <v>3002</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5752,10 +5755,10 @@
         <v>3</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R50" s="2">
         <v>0</v>
@@ -5802,10 +5805,10 @@
         <v>3003</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5832,10 +5835,10 @@
         <v>2</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
@@ -5882,10 +5885,10 @@
         <v>3004</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
@@ -5915,7 +5918,7 @@
         <v>63</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
@@ -5962,10 +5965,10 @@
         <v>3005</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G53" s="2">
         <v>5</v>
@@ -5995,7 +5998,7 @@
         <v>63</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R53" s="2">
         <v>30</v>
@@ -6043,10 +6046,10 @@
         <v>3006</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G54" s="2">
         <v>6</v>
@@ -6076,7 +6079,7 @@
         <v>63</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
@@ -6123,10 +6126,10 @@
         <v>3007</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
@@ -6153,10 +6156,10 @@
         <v>2</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="128">
   <si>
     <t>_ID</t>
   </si>
@@ -759,7 +759,7 @@
     <t>武力盾</t>
   </si>
   <si>
-    <t>增加物攻*{2}%+{3}点生命和防御,额外10%减伤,持续{4}秒</t>
+    <t>生命和防御提升{2}%+{3}点,额外10%减伤,持续{4}秒</t>
   </si>
   <si>
     <t>Square</t>
@@ -786,6 +786,12 @@
     <t>对{0}格内的{1}个敌人造成{2}%攻击+{3}点伤害</t>
   </si>
   <si>
+    <t>护体神盾</t>
+  </si>
+  <si>
+    <t>免疫控制,持续{4}秒. 本次战斗增加1%比例回血和10%物理伤害</t>
+  </si>
+  <si>
     <t>小火球</t>
   </si>
   <si>
@@ -813,9 +819,6 @@
     <t>魔法盾</t>
   </si>
   <si>
-    <t>增加魔法*{2}%+{3}点生命和防御,额外10%减伤,持续{4}秒</t>
-  </si>
-  <si>
     <t>法术精通</t>
   </si>
   <si>
@@ -828,6 +831,12 @@
     <t>对范围内敌人造成{2}%魔法+{3}点伤害</t>
   </si>
   <si>
+    <t>瞬息移动</t>
+  </si>
+  <si>
+    <t>随机到一个空位,本次战斗增加魔法伤害30%</t>
+  </si>
+  <si>
     <t>治疗术</t>
   </si>
   <si>
@@ -858,9 +867,6 @@
     <t>道力盾</t>
   </si>
   <si>
-    <t>增加道术*{2}%+{3}点生命和防御,额外10%减伤,持续{4}秒</t>
-  </si>
-  <si>
     <t>道力精通</t>
   </si>
   <si>
@@ -871,6 +877,12 @@
   </si>
   <si>
     <t>召唤{1}只神兽战斗</t>
+  </si>
+  <si>
+    <t>隐身术</t>
+  </si>
+  <si>
+    <t>隐身持续{4}s,本次战斗增加宠物30%攻击</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1871,12 +1883,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AG56"/>
+  <dimension ref="C3:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2764,57 +2776,57 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="3:30">
+    <row r="13" s="2" customFormat="1" spans="3:28">
       <c r="C13" s="2">
-        <v>2001</v>
+        <v>1008</v>
       </c>
       <c r="D13" s="2">
-        <v>2001</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>85</v>
+      <c r="F13" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>1008</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>86</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>9999</v>
       </c>
       <c r="O13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="R13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
@@ -2823,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2">
         <v>0</v>
@@ -2842,23 +2854,20 @@
       </c>
       <c r="AB13" s="2">
         <v>0</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="3:30">
       <c r="C14" s="2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D14" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>88</v>
+        <v>2001</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2870,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2885,13 +2894,13 @@
         <v>9999</v>
       </c>
       <c r="O14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -2906,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W14" s="2">
         <v>0</v>
@@ -2932,19 +2941,19 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="3:30">
       <c r="C15" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D15" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -2953,13 +2962,13 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>2</v>
@@ -2974,22 +2983,22 @@
         <v>73</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="R15" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="W15" s="2">
         <v>0</v>
@@ -3015,19 +3024,19 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="3:30">
       <c r="C16" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D16" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -3036,10 +3045,10 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L16" s="2">
         <v>2</v>
@@ -3054,16 +3063,16 @@
         <v>3</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>77</v>
       </c>
       <c r="R16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" s="2">
         <v>2</v>
@@ -3072,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="V16" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="W16" s="2">
         <v>0</v>
@@ -3098,34 +3107,34 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="3:30">
       <c r="C17" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D17" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K17" s="2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="2">
         <v>2</v>
@@ -3134,7 +3143,7 @@
         <v>9999</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>63</v>
@@ -3143,16 +3152,16 @@
         <v>77</v>
       </c>
       <c r="R17" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" s="2">
         <v>100</v>
@@ -3175,40 +3184,37 @@
       <c r="AB17" s="2">
         <v>0</v>
       </c>
-      <c r="AC17" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="AD17" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="3:30">
       <c r="C18" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D18" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -3226,10 +3232,10 @@
         <v>63</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R18" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
@@ -3241,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W18" s="2">
         <v>0</v>
@@ -3260,6 +3266,9 @@
       </c>
       <c r="AB18" s="2">
         <v>0</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="AD18" s="2">
         <v>50</v>
@@ -3267,19 +3276,19 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="3:30">
       <c r="C19" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D19" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>2006</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -3288,13 +3297,13 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>2</v>
@@ -3303,28 +3312,28 @@
         <v>9999</v>
       </c>
       <c r="O19" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U19" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V19" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="W19" s="2">
         <v>0</v>
@@ -3350,46 +3359,46 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="3:30">
       <c r="C20" s="2">
-        <v>3001</v>
+        <v>2007</v>
       </c>
       <c r="D20" s="2">
-        <v>3001</v>
+        <v>2007</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>20</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="K20" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="2">
         <v>9999</v>
       </c>
       <c r="O20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>77</v>
@@ -3398,16 +3407,16 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V20" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
@@ -3431,57 +3440,57 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="3:30">
+    <row r="21" s="2" customFormat="1" spans="3:28">
       <c r="C21" s="2">
-        <v>3002</v>
+        <v>2008</v>
       </c>
       <c r="D21" s="2">
-        <v>3002</v>
-      </c>
-      <c r="E21" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>200</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" s="2">
         <v>9999</v>
       </c>
       <c r="O21" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="R21" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
@@ -3490,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2">
         <v>0</v>
@@ -3509,38 +3518,35 @@
       </c>
       <c r="AB21" s="2">
         <v>0</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="3:30">
       <c r="C22" s="2">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D22" s="2">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>20</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>10</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="K22" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
@@ -3552,19 +3558,19 @@
         <v>9999</v>
       </c>
       <c r="O22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -3573,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="V22" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W22" s="2">
         <v>0</v>
       </c>
       <c r="X22" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="2">
         <v>0</v>
@@ -3592,9 +3598,6 @@
       </c>
       <c r="AB22" s="2">
         <v>0</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="AD22" s="2">
         <v>50</v>
@@ -3602,31 +3605,31 @@
     </row>
     <row r="23" s="2" customFormat="1" spans="3:30">
       <c r="C23" s="2">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="D23" s="2">
-        <v>3004</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>106</v>
+        <v>3002</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K23" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
@@ -3638,13 +3641,13 @@
         <v>9999</v>
       </c>
       <c r="O23" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -3659,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="W23" s="2">
         <v>0</v>
@@ -3685,31 +3688,31 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="3:30">
       <c r="C24" s="2">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="D24" s="2">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G24" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K24" s="2">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -3721,19 +3724,19 @@
         <v>9999</v>
       </c>
       <c r="O24" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="R24" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
@@ -3742,14 +3745,14 @@
         <v>0</v>
       </c>
       <c r="V24" s="2">
+        <v>35</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
         <v>100</v>
       </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
       <c r="Y24" s="2">
         <v>0</v>
       </c>
@@ -3762,8 +3765,8 @@
       <c r="AB24" s="2">
         <v>0</v>
       </c>
-      <c r="AC24" s="4" t="s">
-        <v>78</v>
+      <c r="AC24" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="AD24" s="2">
         <v>50</v>
@@ -3771,31 +3774,31 @@
     </row>
     <row r="25" s="2" customFormat="1" spans="3:30">
       <c r="C25" s="2">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="D25" s="2">
-        <v>3006</v>
-      </c>
-      <c r="E25" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>100</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="2">
-        <v>6</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>10</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -3807,7 +3810,7 @@
         <v>9999</v>
       </c>
       <c r="O25" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>63</v>
@@ -3819,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
@@ -3828,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W25" s="2">
         <v>0</v>
@@ -3854,31 +3857,31 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="3:30">
       <c r="C26" s="2">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="D26" s="2">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="K26" s="2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -3890,19 +3893,19 @@
         <v>9999</v>
       </c>
       <c r="O26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>77</v>
       </c>
       <c r="R26" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
@@ -3911,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="W26" s="2">
         <v>0</v>
@@ -3930,6 +3933,9 @@
       </c>
       <c r="AB26" s="2">
         <v>0</v>
+      </c>
+      <c r="AC26" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="AD26" s="2">
         <v>50</v>
@@ -3937,25 +3943,28 @@
     </row>
     <row r="27" s="2" customFormat="1" spans="3:30">
       <c r="C27" s="2">
-        <v>9001</v>
+        <v>3006</v>
       </c>
       <c r="D27" s="2">
-        <v>9001</v>
+        <v>3006</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G27" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -3964,25 +3973,25 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="O27" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
@@ -3991,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W27" s="2">
         <v>0</v>
@@ -4012,140 +4021,143 @@
         <v>0</v>
       </c>
       <c r="AD27" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="3:30">
       <c r="C28" s="2">
-        <v>9002</v>
+        <v>3007</v>
       </c>
       <c r="D28" s="2">
-        <v>9002</v>
-      </c>
-      <c r="E28" s="2" t="s">
+        <v>3007</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>100</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="2">
-        <v>9</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="O28" s="2">
         <v>2</v>
       </c>
       <c r="P28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>2</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>120</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="3:28">
+      <c r="C29" s="2">
+        <v>3008</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3008</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3008</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>200</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="2">
+        <v>30</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>3</v>
+      </c>
+      <c r="N29" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R28" s="2">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2">
-        <v>1</v>
-      </c>
-      <c r="T28" s="2">
-        <v>0</v>
-      </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2">
-        <v>100</v>
-      </c>
-      <c r="W28" s="2">
-        <v>0</v>
-      </c>
-      <c r="X28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="3:30">
-      <c r="C29" s="2">
-        <v>10001</v>
-      </c>
-      <c r="D29" s="2">
-        <v>10001</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>3</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="Q29" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="R29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
@@ -4154,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2">
         <v>0</v>
@@ -4174,36 +4186,30 @@
       <c r="AB29" s="2">
         <v>0</v>
       </c>
-      <c r="AD29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:30">
-      <c r="C30" s="1">
-        <v>10002</v>
-      </c>
-      <c r="D30" s="1">
-        <v>10002</v>
-      </c>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="30" s="2" customFormat="1" spans="3:30">
+      <c r="C30" s="2">
+        <v>9001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9001</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="1">
-        <v>4</v>
+      <c r="F30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="2">
+        <v>9</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
-        <v>10</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K30" s="1">
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
         <v>0</v>
       </c>
       <c r="L30" s="2">
@@ -4215,104 +4221,100 @@
       <c r="N30" s="2">
         <v>0</v>
       </c>
-      <c r="O30" s="1">
-        <v>0</v>
+      <c r="O30" s="2">
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>100</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="3:30">
+      <c r="C31" s="2">
+        <v>9002</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9002</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="2">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>2</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>1</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="1">
-        <v>100</v>
-      </c>
-      <c r="W30" s="2">
-        <v>0</v>
-      </c>
-      <c r="X30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:30">
-      <c r="C31" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D31" s="1">
-        <v>10003</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
-        <v>1</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="R31" s="2">
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -4341,120 +4343,119 @@
       <c r="AB31" s="2">
         <v>0</v>
       </c>
-      <c r="AC31" s="2"/>
       <c r="AD31" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:30">
-      <c r="C32" s="1">
-        <v>10004</v>
-      </c>
-      <c r="D32" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E32" s="1" t="s">
+    <row r="32" s="2" customFormat="1" spans="3:30">
+      <c r="C32" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10001</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>3</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>150</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:30">
+      <c r="C33" s="1">
+        <v>10002</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10002</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="1">
         <v>4</v>
       </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1">
-        <v>1</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <v>3</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1">
-        <v>4</v>
-      </c>
-      <c r="T32" s="2">
-        <v>0</v>
-      </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="1">
-        <v>50</v>
-      </c>
-      <c r="W32" s="1">
-        <v>0</v>
-      </c>
-      <c r="X32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="3:30">
-      <c r="C33" s="2">
-        <v>10005</v>
-      </c>
-      <c r="D33" s="2">
-        <v>10005</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>0</v>
       </c>
       <c r="L33" s="2">
@@ -4463,11 +4464,11 @@
       <c r="M33" s="2">
         <v>1</v>
       </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>2</v>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>63</v>
@@ -4475,11 +4476,11 @@
       <c r="Q33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-      <c r="S33" s="2">
-        <v>2</v>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
@@ -4487,14 +4488,14 @@
       <c r="U33" s="2">
         <v>0</v>
       </c>
-      <c r="V33" s="2">
-        <v>150</v>
+      <c r="V33" s="1">
+        <v>100</v>
       </c>
       <c r="W33" s="2">
         <v>0</v>
       </c>
       <c r="X33" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="2">
         <v>0</v>
@@ -4508,58 +4509,146 @@
       <c r="AB33" s="2">
         <v>0</v>
       </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="3:30">
-      <c r="C35" s="2">
-        <v>11001</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>60</v>
+    <row r="34" spans="3:30">
+      <c r="C34" s="1">
+        <v>10003</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10003</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>10</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>100</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:30">
+      <c r="C35" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10004</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>10</v>
       </c>
-      <c r="K35" s="2">
+      <c r="J35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K35" s="1">
         <v>0</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
       </c>
-      <c r="M35" s="2">
-        <v>1</v>
-      </c>
-      <c r="N35" s="2">
-        <v>9999</v>
-      </c>
-      <c r="O35" s="2">
-        <v>1</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
-      </c>
-      <c r="S35" s="2">
-        <v>1</v>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>4</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
@@ -4567,40 +4656,40 @@
       <c r="U35" s="2">
         <v>0</v>
       </c>
-      <c r="V35" s="2">
-        <v>120</v>
-      </c>
-      <c r="W35" s="2">
+      <c r="V35" s="1">
+        <v>50</v>
+      </c>
+      <c r="W35" s="1">
         <v>0</v>
       </c>
       <c r="X35" s="2">
         <v>0</v>
       </c>
-      <c r="Y35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="2">
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
         <v>0</v>
       </c>
       <c r="AB35" s="2">
         <v>0</v>
       </c>
-      <c r="AD35" s="2">
-        <v>50</v>
+      <c r="AD35" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="3:30">
       <c r="C36" s="2">
-        <v>11002</v>
+        <v>10005</v>
       </c>
       <c r="D36" s="2">
-        <v>1002</v>
+        <v>10005</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>61</v>
@@ -4614,17 +4703,20 @@
       <c r="I36" s="2">
         <v>10</v>
       </c>
+      <c r="J36" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="K36" s="2">
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2">
         <v>1</v>
       </c>
-      <c r="N36" s="2">
-        <v>9999</v>
+      <c r="N36" s="1">
+        <v>0</v>
       </c>
       <c r="O36" s="2">
         <v>2</v>
@@ -4669,104 +4761,24 @@
         <v>0</v>
       </c>
       <c r="AD36" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="3:30">
-      <c r="C37" s="2">
-        <v>11003</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1003</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>10</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>2</v>
-      </c>
-      <c r="M37" s="2">
-        <v>1</v>
-      </c>
-      <c r="N37" s="2">
-        <v>9999</v>
-      </c>
-      <c r="O37" s="2">
-        <v>1</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>5</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2">
-        <v>100</v>
-      </c>
-      <c r="W37" s="2">
-        <v>0</v>
-      </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="3:30">
       <c r="C38" s="2">
-        <v>11004</v>
+        <v>11001</v>
       </c>
       <c r="D38" s="2">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G38" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -4775,7 +4787,7 @@
         <v>10</v>
       </c>
       <c r="K38" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
@@ -4790,13 +4802,13 @@
         <v>1</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R38" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S38" s="2">
         <v>1</v>
@@ -4808,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="W38" s="2">
         <v>0</v>
@@ -4827,9 +4839,6 @@
       </c>
       <c r="AB38" s="2">
         <v>0</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="AD38" s="2">
         <v>50</v>
@@ -4837,31 +4846,31 @@
     </row>
     <row r="39" s="2" customFormat="1" spans="3:30">
       <c r="C39" s="2">
-        <v>11005</v>
+        <v>11002</v>
       </c>
       <c r="D39" s="2">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G39" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K39" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="2">
         <v>1</v>
@@ -4870,19 +4879,19 @@
         <v>9999</v>
       </c>
       <c r="O39" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="R39" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
@@ -4891,14 +4900,14 @@
         <v>0</v>
       </c>
       <c r="V39" s="2">
+        <v>150</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
         <v>20</v>
       </c>
-      <c r="W39" s="2">
-        <v>0</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0</v>
-      </c>
       <c r="Y39" s="2">
         <v>0</v>
       </c>
@@ -4911,26 +4920,25 @@
       <c r="AB39" s="2">
         <v>0</v>
       </c>
-      <c r="AC39" s="4"/>
       <c r="AD39" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="3:30">
       <c r="C40" s="2">
-        <v>11006</v>
+        <v>11003</v>
       </c>
       <c r="D40" s="2">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G40" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -4942,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
@@ -4951,19 +4959,19 @@
         <v>9999</v>
       </c>
       <c r="O40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
@@ -4972,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W40" s="2">
         <v>0</v>
@@ -4998,19 +5006,19 @@
     </row>
     <row r="41" s="2" customFormat="1" spans="3:30">
       <c r="C41" s="2">
-        <v>11007</v>
+        <v>11004</v>
       </c>
       <c r="D41" s="2">
-        <v>1007</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>83</v>
+        <v>1004</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G41" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -5019,7 +5027,7 @@
         <v>10</v>
       </c>
       <c r="K41" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>
@@ -5034,13 +5042,13 @@
         <v>1</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R41" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S41" s="2">
         <v>1</v>
@@ -5052,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W41" s="2">
         <v>0</v>
@@ -5071,6 +5079,9 @@
       </c>
       <c r="AB41" s="2">
         <v>0</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="AD41" s="2">
         <v>50</v>
@@ -5078,52 +5089,52 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="3:30">
       <c r="C42" s="2">
-        <v>12001</v>
+        <v>11005</v>
       </c>
       <c r="D42" s="2">
-        <v>2001</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>85</v>
+        <v>1005</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K42" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L42" s="2">
         <v>1</v>
       </c>
       <c r="M42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" s="2">
         <v>9999</v>
       </c>
       <c r="O42" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="R42" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
@@ -5132,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="W42" s="2">
         <v>0</v>
@@ -5152,25 +5163,26 @@
       <c r="AB42" s="2">
         <v>0</v>
       </c>
+      <c r="AC42" s="4"/>
       <c r="AD42" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="3:30">
       <c r="C43" s="2">
-        <v>12002</v>
+        <v>11006</v>
       </c>
       <c r="D43" s="2">
-        <v>2002</v>
+        <v>1006</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -5185,25 +5197,25 @@
         <v>1</v>
       </c>
       <c r="M43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" s="2">
         <v>9999</v>
       </c>
       <c r="O43" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="R43" s="2">
         <v>0</v>
       </c>
       <c r="S43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
@@ -5212,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="W43" s="2">
         <v>0</v>
@@ -5238,19 +5250,19 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="3:30">
       <c r="C44" s="2">
-        <v>12003</v>
+        <v>11007</v>
       </c>
       <c r="D44" s="2">
-        <v>2003</v>
+        <v>1007</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G44" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -5259,40 +5271,40 @@
         <v>10</v>
       </c>
       <c r="K44" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" s="2">
         <v>9999</v>
       </c>
       <c r="O44" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="R44" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T44" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U44" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V44" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="W44" s="2">
         <v>0</v>
@@ -5318,16 +5330,16 @@
     </row>
     <row r="45" s="2" customFormat="1" spans="3:30">
       <c r="C45" s="2">
-        <v>12004</v>
+        <v>12001</v>
       </c>
       <c r="D45" s="2">
-        <v>2004</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>2001</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5342,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" s="2">
         <v>2</v>
@@ -5351,28 +5363,28 @@
         <v>9999</v>
       </c>
       <c r="O45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="R45" s="2">
         <v>0</v>
       </c>
       <c r="S45" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T45" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U45" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V45" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="W45" s="2">
         <v>0</v>
@@ -5398,28 +5410,28 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="3:30">
       <c r="C46" s="2">
-        <v>12005</v>
+        <v>12002</v>
       </c>
       <c r="D46" s="2">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G46" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K46" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L46" s="2">
         <v>1</v>
@@ -5431,19 +5443,19 @@
         <v>9999</v>
       </c>
       <c r="O46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="R46" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
@@ -5452,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="W46" s="2">
         <v>0</v>
@@ -5472,26 +5484,25 @@
       <c r="AB46" s="2">
         <v>0</v>
       </c>
-      <c r="AC46" s="4"/>
       <c r="AD46" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="3:30">
       <c r="C47" s="2">
-        <v>12006</v>
+        <v>12003</v>
       </c>
       <c r="D47" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>95</v>
+        <v>2003</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G47" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -5500,10 +5511,10 @@
         <v>10</v>
       </c>
       <c r="K47" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="2">
         <v>2</v>
@@ -5512,28 +5523,28 @@
         <v>9999</v>
       </c>
       <c r="O47" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R47" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S47" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T47" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U47" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V47" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="W47" s="2">
         <v>0</v>
@@ -5559,16 +5570,16 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="3:30">
       <c r="C48" s="2">
-        <v>12007</v>
+        <v>12004</v>
       </c>
       <c r="D48" s="2">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5595,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>77</v>
@@ -5604,16 +5615,16 @@
         <v>0</v>
       </c>
       <c r="S48" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V48" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="W48" s="2">
         <v>0</v>
@@ -5639,34 +5650,34 @@
     </row>
     <row r="49" s="2" customFormat="1" spans="3:30">
       <c r="C49" s="2">
-        <v>13001</v>
+        <v>12005</v>
       </c>
       <c r="D49" s="2">
-        <v>3001</v>
+        <v>2005</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G49" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K49" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L49" s="2">
         <v>1</v>
       </c>
       <c r="M49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" s="2">
         <v>9999</v>
@@ -5681,7 +5692,7 @@
         <v>77</v>
       </c>
       <c r="R49" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S49" s="2">
         <v>0</v>
@@ -5693,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W49" s="2">
         <v>0</v>
@@ -5713,25 +5724,26 @@
       <c r="AB49" s="2">
         <v>0</v>
       </c>
+      <c r="AC49" s="4"/>
       <c r="AD49" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="3:30">
       <c r="C50" s="2">
-        <v>13002</v>
+        <v>12006</v>
       </c>
       <c r="D50" s="2">
-        <v>3002</v>
+        <v>2006</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G50" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -5746,25 +5758,25 @@
         <v>1</v>
       </c>
       <c r="M50" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" s="2">
         <v>9999</v>
       </c>
       <c r="O50" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="R50" s="2">
         <v>0</v>
       </c>
       <c r="S50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="2">
         <v>0</v>
@@ -5773,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="W50" s="2">
         <v>0</v>
@@ -5799,16 +5811,16 @@
     </row>
     <row r="51" s="2" customFormat="1" spans="3:30">
       <c r="C51" s="2">
-        <v>13003</v>
+        <v>12007</v>
       </c>
       <c r="D51" s="2">
-        <v>3003</v>
+        <v>2007</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5820,25 +5832,25 @@
         <v>10</v>
       </c>
       <c r="K51" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N51" s="2">
         <v>9999</v>
       </c>
       <c r="O51" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
@@ -5847,19 +5859,19 @@
         <v>5</v>
       </c>
       <c r="T51" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U51" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V51" s="2">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="W51" s="2">
         <v>0</v>
       </c>
       <c r="X51" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="2">
         <v>0</v>
@@ -5879,28 +5891,28 @@
     </row>
     <row r="52" s="2" customFormat="1" spans="3:30">
       <c r="C52" s="2">
-        <v>13004</v>
+        <v>13001</v>
       </c>
       <c r="D52" s="2">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G52" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K52" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L52" s="2">
         <v>1</v>
@@ -5918,13 +5930,13 @@
         <v>63</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
       </c>
       <c r="S52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -5933,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W52" s="2">
         <v>0</v>
@@ -5959,28 +5971,28 @@
     </row>
     <row r="53" s="2" customFormat="1" spans="3:30">
       <c r="C53" s="2">
-        <v>13005</v>
+        <v>13002</v>
       </c>
       <c r="D53" s="2">
-        <v>3005</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>108</v>
+        <v>3002</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G53" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K53" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L53" s="2">
         <v>1</v>
@@ -5992,19 +6004,19 @@
         <v>9999</v>
       </c>
       <c r="O53" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="R53" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
@@ -6013,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="W53" s="2">
         <v>0</v>
@@ -6033,26 +6045,25 @@
       <c r="AB53" s="2">
         <v>0</v>
       </c>
-      <c r="AC53" s="4"/>
       <c r="AD53" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="3:30">
       <c r="C54" s="2">
-        <v>13006</v>
+        <v>13003</v>
       </c>
       <c r="D54" s="2">
-        <v>3006</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>110</v>
+        <v>3003</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G54" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -6061,7 +6072,7 @@
         <v>10</v>
       </c>
       <c r="K54" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L54" s="2">
         <v>1</v>
@@ -6073,19 +6084,19 @@
         <v>9999</v>
       </c>
       <c r="O54" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
       </c>
       <c r="S54" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
@@ -6094,13 +6105,13 @@
         <v>0</v>
       </c>
       <c r="V54" s="2">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W54" s="2">
         <v>0</v>
       </c>
       <c r="X54" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="2">
         <v>0</v>
@@ -6120,16 +6131,16 @@
     </row>
     <row r="55" s="2" customFormat="1" spans="3:30">
       <c r="C55" s="2">
-        <v>13007</v>
+        <v>13004</v>
       </c>
       <c r="D55" s="2">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
@@ -6153,19 +6164,19 @@
         <v>9999</v>
       </c>
       <c r="O55" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>
       </c>
       <c r="S55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
@@ -6174,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="W55" s="2">
         <v>0</v>
@@ -6198,11 +6209,252 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="5:14">
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="N56" s="1"/>
+    <row r="56" s="2" customFormat="1" spans="3:30">
+      <c r="C56" s="2">
+        <v>13005</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3005</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>50</v>
+      </c>
+      <c r="K56" s="2">
+        <v>30</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>3</v>
+      </c>
+      <c r="N56" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R56" s="2">
+        <v>30</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>20</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="3:30">
+      <c r="C57" s="2">
+        <v>13006</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3006</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="2">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>10</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>3</v>
+      </c>
+      <c r="N57" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O57" s="2">
+        <v>3</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2">
+        <v>50</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="3:30">
+      <c r="C58" s="2">
+        <v>13007</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3007</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>100</v>
+      </c>
+      <c r="K58" s="2">
+        <v>15</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2">
+        <v>3</v>
+      </c>
+      <c r="N58" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O58" s="2">
+        <v>2</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>2</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2">
+        <v>120</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="5:14">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="N59" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -947,34 +947,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -988,14 +960,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1035,6 +999,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1085,18 +1064,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1117,55 +1117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,31 +1141,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,6 +1177,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1243,7 +1201,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,7 +1249,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,6 +1285,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1308,21 +1308,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1355,6 +1340,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1411,148 +1411,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1567,52 +1567,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1886,9 +1886,9 @@
   <dimension ref="C3:AG59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="$A13:$XFD13"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5027,7 +5027,7 @@
         <v>10</v>
       </c>
       <c r="K41" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -275,7 +275,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-效果id,持续时间，叠加层数，百分比系数(100使用技能的系数)</t>
+效果id,持续时间，叠加层数，百分比系数(-1使用技能的系数)</t>
         </r>
       </text>
     </comment>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="131">
   <si>
     <t>_ID</t>
   </si>
@@ -753,7 +753,7 @@
     <t>Enemy</t>
   </si>
   <si>
-    <t>"106,-1,-1,100"</t>
+    <t>"106,-1,-1,-1"</t>
   </si>
   <si>
     <t>武力盾</t>
@@ -765,7 +765,7 @@
     <t>Square</t>
   </si>
   <si>
-    <t>"1301,-1,-1,10","4,-1,-1,100","5,-1,-1,100"</t>
+    <t>"1301,-1,-1,10","4,-1,-1,-1","5,-1,-1,-1"</t>
   </si>
   <si>
     <t>武力精通</t>
@@ -789,7 +789,10 @@
     <t>护体神盾</t>
   </si>
   <si>
-    <t>免疫控制,持续{4}秒. 本次战斗增加1%比例回血和10%物理伤害</t>
+    <t>免疫控制,持续{4}秒. 增加1%比例回血和10%物理伤害持续180秒可叠加3层</t>
+  </si>
+  <si>
+    <t>"6,90,3,0","9,180,3,10"</t>
   </si>
   <si>
     <t>小火球</t>
@@ -834,7 +837,10 @@
     <t>瞬息移动</t>
   </si>
   <si>
-    <t>随机到一个空位,本次战斗增加魔法伤害30%</t>
+    <t>随机到一个空位,魔法伤害50%持续180s可叠加3层</t>
+  </si>
+  <si>
+    <t>"2,90,3,0","10,180,3,30"</t>
   </si>
   <si>
     <t>治疗术</t>
@@ -855,7 +861,7 @@
     <t>对范围内{1}个敌人造成每秒{2}%道术+{3}点持续伤害</t>
   </si>
   <si>
-    <t>"104,5,1,100"</t>
+    <t>"104,5,1,-1"</t>
   </si>
   <si>
     <t>召唤骷髅</t>
@@ -882,7 +888,10 @@
     <t>隐身术</t>
   </si>
   <si>
-    <t>隐身持续{4}s,本次战斗增加宠物30%攻击</t>
+    <t>隐身持续{4}s,宠物30%伤害持续180s可叠加3层</t>
+  </si>
+  <si>
+    <t>"8,90,3,0","8,180,3,30"</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1885,10 +1894,10 @@
   <sheetPr/>
   <dimension ref="C3:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1901,7 +1910,7 @@
     <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="50.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="56.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.875" style="1" customWidth="1"/>
@@ -2776,7 +2785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="3:28">
+    <row r="13" s="2" customFormat="1" spans="3:29">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
@@ -2854,6 +2863,9 @@
       </c>
       <c r="AB13" s="2">
         <v>0</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="3:30">
@@ -2864,10 +2876,10 @@
         <v>2001</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2879,7 +2891,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2900,7 +2912,7 @@
         <v>73</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -2947,10 +2959,10 @@
         <v>2002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -2962,7 +2974,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -2983,7 +2995,7 @@
         <v>73</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3030,10 +3042,10 @@
         <v>2003</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>
@@ -3045,7 +3057,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" s="2">
         <v>10</v>
@@ -3113,10 +3125,10 @@
         <v>2004</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3128,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3196,10 +3208,10 @@
         <v>2005</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -3282,10 +3294,10 @@
         <v>2006</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G19" s="2">
         <v>6</v>
@@ -3297,7 +3309,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3365,10 +3377,10 @@
         <v>2007</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -3380,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20" s="2">
         <v>10</v>
@@ -3440,7 +3452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="3:28">
+    <row r="21" s="2" customFormat="1" spans="3:29">
       <c r="C21" s="2">
         <v>2008</v>
       </c>
@@ -3448,7 +3460,7 @@
         <v>2008</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>75</v>
@@ -3463,7 +3475,7 @@
         <v>200</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21" s="2">
         <v>30</v>
@@ -3487,7 +3499,7 @@
         <v>81</v>
       </c>
       <c r="R21" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -3518,6 +3530,9 @@
       </c>
       <c r="AB21" s="2">
         <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="3:30">
@@ -3528,10 +3543,10 @@
         <v>3001</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -3543,7 +3558,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K22" s="2">
         <v>4</v>
@@ -3611,10 +3626,10 @@
         <v>3002</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -3626,7 +3641,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -3647,7 +3662,7 @@
         <v>73</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -3694,10 +3709,10 @@
         <v>3003</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -3709,7 +3724,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K24" s="2">
         <v>10</v>
@@ -3730,7 +3745,7 @@
         <v>73</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -3766,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD24" s="2">
         <v>50</v>
@@ -3780,10 +3795,10 @@
         <v>3004</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
@@ -3795,7 +3810,7 @@
         <v>100</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K25" s="2">
         <v>15</v>
@@ -3863,10 +3878,10 @@
         <v>3005</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -3949,10 +3964,10 @@
         <v>3006</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
@@ -3964,7 +3979,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4032,10 +4047,10 @@
         <v>3007</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
@@ -4047,7 +4062,7 @@
         <v>100</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K28" s="2">
         <v>30</v>
@@ -4107,7 +4122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="3:28">
+    <row r="29" s="2" customFormat="1" spans="3:29">
       <c r="C29" s="2">
         <v>3008</v>
       </c>
@@ -4115,7 +4130,7 @@
         <v>3008</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>75</v>
@@ -4130,7 +4145,7 @@
         <v>200</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K29" s="2">
         <v>30</v>
@@ -4185,6 +4200,9 @@
       </c>
       <c r="AB29" s="2">
         <v>0</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="3:30">
@@ -4195,10 +4213,10 @@
         <v>9001</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
@@ -4228,7 +4246,7 @@
         <v>63</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R30" s="2">
         <v>0</v>
@@ -4275,10 +4293,10 @@
         <v>9002</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G31" s="2">
         <v>9</v>
@@ -4355,10 +4373,10 @@
         <v>10001</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4370,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -4391,7 +4409,7 @@
         <v>73</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
@@ -4438,10 +4456,10 @@
         <v>10002</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G33" s="1">
         <v>4</v>
@@ -4453,7 +4471,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -4522,11 +4540,11 @@
         <v>10003</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G34" s="1">
         <v>1</v>
       </c>
@@ -4537,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -4606,10 +4624,10 @@
         <v>10004</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G35" s="1">
         <v>4</v>
@@ -4621,7 +4639,7 @@
         <v>10</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -4639,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>77</v>
@@ -4689,7 +4707,7 @@
         <v>10005</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>61</v>
@@ -4704,7 +4722,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
@@ -5336,10 +5354,10 @@
         <v>2001</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5369,7 +5387,7 @@
         <v>73</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R45" s="2">
         <v>0</v>
@@ -5416,10 +5434,10 @@
         <v>2002</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5449,7 +5467,7 @@
         <v>73</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R46" s="2">
         <v>0</v>
@@ -5496,10 +5514,10 @@
         <v>2003</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G47" s="2">
         <v>3</v>
@@ -5576,10 +5594,10 @@
         <v>2004</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5656,10 +5674,10 @@
         <v>2005</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G49" s="2">
         <v>5</v>
@@ -5737,10 +5755,10 @@
         <v>2006</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G50" s="2">
         <v>6</v>
@@ -5817,10 +5835,10 @@
         <v>2007</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5897,10 +5915,10 @@
         <v>3001</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G52" s="2">
         <v>4</v>
@@ -5977,10 +5995,10 @@
         <v>3002</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -6010,7 +6028,7 @@
         <v>73</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
@@ -6057,10 +6075,10 @@
         <v>3003</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6090,7 +6108,7 @@
         <v>73</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
@@ -6137,10 +6155,10 @@
         <v>3004</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
@@ -6217,10 +6235,10 @@
         <v>3005</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G56" s="2">
         <v>5</v>
@@ -6298,10 +6316,10 @@
         <v>3006</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G57" s="2">
         <v>6</v>
@@ -6378,10 +6396,10 @@
         <v>3007</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G58" s="2">
         <v>2</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -792,7 +792,7 @@
     <t>免疫控制,持续{4}秒. 增加1%比例回血和10%物理伤害持续180秒可叠加3层</t>
   </si>
   <si>
-    <t>"6,90,3,0","9,180,3,10"</t>
+    <t>"7,5,0,0","6,90,3,1","9,180,3,10"</t>
   </si>
   <si>
     <t>小火球</t>
@@ -1894,10 +1894,10 @@
   <sheetPr/>
   <dimension ref="C3:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1100,12 +1100,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1892,12 +1892,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AG59"/>
+  <dimension ref="C3:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AC13" sqref="AC13"/>
+      <selection pane="bottomLeft" activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2785,7 +2785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="3:29">
+    <row r="13" s="2" customFormat="1" spans="3:30">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
@@ -2866,6 +2866,9 @@
       </c>
       <c r="AC13" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="3:30">
@@ -3452,7 +3455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="3:29">
+    <row r="21" s="2" customFormat="1" spans="3:30">
       <c r="C21" s="2">
         <v>2008</v>
       </c>
@@ -3533,6 +3536,9 @@
       </c>
       <c r="AC21" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="3:30">
@@ -4122,7 +4128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="3:29">
+    <row r="29" s="2" customFormat="1" spans="3:30">
       <c r="C29" s="2">
         <v>3008</v>
       </c>
@@ -4203,6 +4209,9 @@
       </c>
       <c r="AC29" s="2" t="s">
         <v>120</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="3:30">
@@ -4282,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="3:30">
@@ -4362,118 +4371,36 @@
         <v>0</v>
       </c>
       <c r="AD31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="3:30">
-      <c r="C32" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1"/>
+    <row r="33" s="2" customFormat="1" spans="3:30">
+      <c r="C33" s="2">
         <v>10001</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>10001</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>1</v>
-      </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2">
-        <v>3</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-      <c r="S32" s="2">
-        <v>1</v>
-      </c>
-      <c r="T32" s="2">
-        <v>0</v>
-      </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="2">
-        <v>150</v>
-      </c>
-      <c r="W32" s="2">
-        <v>0</v>
-      </c>
-      <c r="X32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:30">
-      <c r="C33" s="1">
-        <v>10002</v>
-      </c>
-      <c r="D33" s="1">
-        <v>10002</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="1">
-        <v>4</v>
+      <c r="G33" s="2">
+        <v>1</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" s="1">
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" s="2">
         <v>0</v>
       </c>
       <c r="L33" s="2">
@@ -4485,19 +4412,19 @@
       <c r="N33" s="2">
         <v>0</v>
       </c>
-      <c r="O33" s="1">
-        <v>0</v>
+      <c r="O33" s="2">
+        <v>3</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1">
+        <v>90</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
         <v>1</v>
       </c>
       <c r="T33" s="2">
@@ -4506,8 +4433,8 @@
       <c r="U33" s="2">
         <v>0</v>
       </c>
-      <c r="V33" s="1">
-        <v>100</v>
+      <c r="V33" s="2">
+        <v>150</v>
       </c>
       <c r="W33" s="2">
         <v>0</v>
@@ -4527,35 +4454,34 @@
       <c r="AB33" s="2">
         <v>0</v>
       </c>
-      <c r="AC33" s="2"/>
       <c r="AD33" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="3:30">
       <c r="C34" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="D34" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -4569,20 +4495,20 @@
       <c r="N34" s="2">
         <v>0</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R34" s="2">
-        <v>0</v>
-      </c>
-      <c r="S34" s="2">
-        <v>10</v>
+        <v>64</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -4590,7 +4516,7 @@
       <c r="U34" s="2">
         <v>0</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V34" s="1">
         <v>100</v>
       </c>
       <c r="W34" s="2">
@@ -4613,264 +4539,268 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="3:30">
       <c r="C35" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="D35" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>10</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>100</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="3:30">
+      <c r="C36" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10004</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="1">
         <v>4</v>
       </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
         <v>10</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1</v>
-      </c>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1">
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
         <v>3</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R35" s="1">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1">
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
         <v>4</v>
       </c>
-      <c r="T35" s="2">
-        <v>0</v>
-      </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1">
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
         <v>50</v>
       </c>
-      <c r="W35" s="1">
-        <v>0</v>
-      </c>
-      <c r="X35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="3:30">
-      <c r="C36" s="2">
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="3:30">
+      <c r="C37" s="2">
         <v>10005</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D37" s="2">
         <v>10005</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
         <v>10</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2">
-        <v>1</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
         <v>2</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R36" s="2">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2">
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
         <v>2</v>
       </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2">
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
         <v>150</v>
       </c>
-      <c r="W36" s="2">
-        <v>0</v>
-      </c>
-      <c r="X36" s="2">
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
         <v>20</v>
       </c>
-      <c r="Y36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="3:30">
-      <c r="C38" s="2">
-        <v>11001</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>10</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1</v>
-      </c>
-      <c r="N38" s="2">
-        <v>9999</v>
-      </c>
-      <c r="O38" s="2">
-        <v>1</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0</v>
-      </c>
-      <c r="S38" s="2">
-        <v>1</v>
-      </c>
-      <c r="T38" s="2">
-        <v>0</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2">
-        <v>120</v>
-      </c>
-      <c r="W38" s="2">
-        <v>0</v>
-      </c>
-      <c r="X38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2">
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="3:30">
       <c r="C39" s="2">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="D39" s="2">
-        <v>1002</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>65</v>
+        <v>1001</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>61</v>
@@ -4888,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" s="2">
         <v>1</v>
@@ -4897,7 +4827,7 @@
         <v>9999</v>
       </c>
       <c r="O39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>63</v>
@@ -4909,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
@@ -4918,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="V39" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W39" s="2">
         <v>0</v>
       </c>
       <c r="X39" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="2">
         <v>0</v>
@@ -4944,16 +4874,16 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="3:30">
       <c r="C40" s="2">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="D40" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4977,19 +4907,19 @@
         <v>9999</v>
       </c>
       <c r="O40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
@@ -4998,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="V40" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="W40" s="2">
         <v>0</v>
       </c>
       <c r="X40" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y40" s="2">
         <v>0</v>
@@ -5024,19 +4954,19 @@
     </row>
     <row r="41" s="2" customFormat="1" spans="3:30">
       <c r="C41" s="2">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="D41" s="2">
-        <v>1004</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>71</v>
+        <v>1003</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G41" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -5045,10 +4975,10 @@
         <v>10</v>
       </c>
       <c r="K41" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="2">
         <v>1</v>
@@ -5060,16 +4990,16 @@
         <v>1</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="R41" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
@@ -5078,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W41" s="2">
         <v>0</v>
@@ -5097,9 +5027,6 @@
       </c>
       <c r="AB41" s="2">
         <v>0</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="AD41" s="2">
         <v>50</v>
@@ -5107,28 +5034,28 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="3:30">
       <c r="C42" s="2">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="D42" s="2">
-        <v>1005</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>75</v>
+        <v>1004</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G42" s="2">
+        <v>9</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>10</v>
+      </c>
+      <c r="K42" s="2">
         <v>5</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>50</v>
-      </c>
-      <c r="K42" s="2">
-        <v>30</v>
       </c>
       <c r="L42" s="2">
         <v>1</v>
@@ -5140,19 +5067,19 @@
         <v>9999</v>
       </c>
       <c r="O42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="R42" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="S42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
@@ -5161,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="W42" s="2">
         <v>0</v>
@@ -5181,35 +5108,37 @@
       <c r="AB42" s="2">
         <v>0</v>
       </c>
-      <c r="AC42" s="4"/>
+      <c r="AC42" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AD42" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="3:30">
       <c r="C43" s="2">
-        <v>11006</v>
+        <v>11005</v>
       </c>
       <c r="D43" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G43" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K43" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
@@ -5227,10 +5156,10 @@
         <v>63</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R43" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S43" s="2">
         <v>0</v>
@@ -5242,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W43" s="2">
         <v>0</v>
@@ -5262,25 +5191,26 @@
       <c r="AB43" s="2">
         <v>0</v>
       </c>
+      <c r="AC43" s="4"/>
       <c r="AD43" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="3:30">
       <c r="C44" s="2">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="D44" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G44" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -5301,19 +5231,19 @@
         <v>9999</v>
       </c>
       <c r="O44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="R44" s="2">
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
@@ -5322,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="2">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="W44" s="2">
         <v>0</v>
@@ -5348,16 +5278,16 @@
     </row>
     <row r="45" s="2" customFormat="1" spans="3:30">
       <c r="C45" s="2">
-        <v>12001</v>
+        <v>11007</v>
       </c>
       <c r="D45" s="2">
-        <v>2001</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
+        <v>1007</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5375,19 +5305,19 @@
         <v>1</v>
       </c>
       <c r="M45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45" s="2">
         <v>9999</v>
       </c>
       <c r="O45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R45" s="2">
         <v>0</v>
@@ -5402,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="W45" s="2">
         <v>0</v>
@@ -5428,16 +5358,16 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="3:30">
       <c r="C46" s="2">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="D46" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>91</v>
+        <v>2001</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5461,7 +5391,7 @@
         <v>9999</v>
       </c>
       <c r="O46" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>73</v>
@@ -5482,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W46" s="2">
         <v>0</v>
@@ -5508,19 +5438,19 @@
     </row>
     <row r="47" s="2" customFormat="1" spans="3:30">
       <c r="C47" s="2">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="D47" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -5529,10 +5459,10 @@
         <v>10</v>
       </c>
       <c r="K47" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" s="2">
         <v>2</v>
@@ -5547,22 +5477,22 @@
         <v>73</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R47" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T47" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U47" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V47" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="W47" s="2">
         <v>0</v>
@@ -5588,19 +5518,19 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="3:30">
       <c r="C48" s="2">
-        <v>12004</v>
+        <v>12003</v>
       </c>
       <c r="D48" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G48" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -5609,7 +5539,7 @@
         <v>10</v>
       </c>
       <c r="K48" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L48" s="2">
         <v>2</v>
@@ -5624,16 +5554,16 @@
         <v>3</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>77</v>
       </c>
       <c r="R48" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S48" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" s="2">
         <v>2</v>
@@ -5642,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="V48" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="W48" s="2">
         <v>0</v>
@@ -5668,31 +5598,31 @@
     </row>
     <row r="49" s="2" customFormat="1" spans="3:30">
       <c r="C49" s="2">
-        <v>12005</v>
+        <v>12004</v>
       </c>
       <c r="D49" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G49" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K49" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" s="2">
         <v>2</v>
@@ -5701,7 +5631,7 @@
         <v>9999</v>
       </c>
       <c r="O49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>63</v>
@@ -5710,19 +5640,19 @@
         <v>77</v>
       </c>
       <c r="R49" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S49" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T49" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U49" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V49" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="W49" s="2">
         <v>0</v>
@@ -5742,35 +5672,34 @@
       <c r="AB49" s="2">
         <v>0</v>
       </c>
-      <c r="AC49" s="4"/>
       <c r="AD49" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="3:30">
       <c r="C50" s="2">
-        <v>12006</v>
+        <v>12005</v>
       </c>
       <c r="D50" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>97</v>
+        <v>2005</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G50" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K50" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L50" s="2">
         <v>1</v>
@@ -5788,10 +5717,10 @@
         <v>63</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R50" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S50" s="2">
         <v>0</v>
@@ -5803,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W50" s="2">
         <v>0</v>
@@ -5823,25 +5752,26 @@
       <c r="AB50" s="2">
         <v>0</v>
       </c>
+      <c r="AC50" s="4"/>
       <c r="AD50" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="3:30">
       <c r="C51" s="2">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="D51" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>99</v>
+        <v>2006</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G51" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -5853,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" s="2">
         <v>2</v>
@@ -5862,28 +5792,28 @@
         <v>9999</v>
       </c>
       <c r="O51" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
       </c>
       <c r="S51" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T51" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U51" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V51" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="W51" s="2">
         <v>0</v>
@@ -5909,43 +5839,43 @@
     </row>
     <row r="52" s="2" customFormat="1" spans="3:30">
       <c r="C52" s="2">
-        <v>13001</v>
+        <v>12007</v>
       </c>
       <c r="D52" s="2">
-        <v>3001</v>
+        <v>2007</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G52" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K52" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N52" s="2">
         <v>9999</v>
       </c>
       <c r="O52" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>77</v>
@@ -5954,16 +5884,16 @@
         <v>0</v>
       </c>
       <c r="S52" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T52" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U52" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V52" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="W52" s="2">
         <v>0</v>
@@ -5989,28 +5919,28 @@
     </row>
     <row r="53" s="2" customFormat="1" spans="3:30">
       <c r="C53" s="2">
-        <v>13002</v>
+        <v>13001</v>
       </c>
       <c r="D53" s="2">
-        <v>3002</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>106</v>
+        <v>3001</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="G53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K53" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L53" s="2">
         <v>1</v>
@@ -6022,19 +5952,19 @@
         <v>9999</v>
       </c>
       <c r="O53" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
       </c>
       <c r="S53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
@@ -6043,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="W53" s="2">
         <v>0</v>
@@ -6069,16 +5999,16 @@
     </row>
     <row r="54" s="2" customFormat="1" spans="3:30">
       <c r="C54" s="2">
-        <v>13003</v>
+        <v>13002</v>
       </c>
       <c r="D54" s="2">
-        <v>3003</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>108</v>
+        <v>3002</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6090,7 +6020,7 @@
         <v>10</v>
       </c>
       <c r="K54" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2">
         <v>1</v>
@@ -6102,7 +6032,7 @@
         <v>9999</v>
       </c>
       <c r="O54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>73</v>
@@ -6114,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
@@ -6123,13 +6053,13 @@
         <v>0</v>
       </c>
       <c r="V54" s="2">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="W54" s="2">
         <v>0</v>
       </c>
       <c r="X54" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="2">
         <v>0</v>
@@ -6149,28 +6079,28 @@
     </row>
     <row r="55" s="2" customFormat="1" spans="3:30">
       <c r="C55" s="2">
-        <v>13004</v>
+        <v>13003</v>
       </c>
       <c r="D55" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K55" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L55" s="2">
         <v>1</v>
@@ -6182,19 +6112,19 @@
         <v>9999</v>
       </c>
       <c r="O55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>
       </c>
       <c r="S55" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
@@ -6203,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="V55" s="2">
+        <v>35</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
         <v>100</v>
-      </c>
-      <c r="W55" s="2">
-        <v>0</v>
-      </c>
-      <c r="X55" s="2">
-        <v>0</v>
       </c>
       <c r="Y55" s="2">
         <v>0</v>
@@ -6229,28 +6159,28 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="3:30">
       <c r="C56" s="2">
-        <v>13005</v>
+        <v>13004</v>
       </c>
       <c r="D56" s="2">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G56" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K56" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L56" s="2">
         <v>1</v>
@@ -6268,13 +6198,13 @@
         <v>63</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R56" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="2">
         <v>0</v>
@@ -6283,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="W56" s="2">
         <v>0</v>
@@ -6303,35 +6233,34 @@
       <c r="AB56" s="2">
         <v>0</v>
       </c>
-      <c r="AC56" s="4"/>
       <c r="AD56" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="3:30">
       <c r="C57" s="2">
-        <v>13006</v>
+        <v>13005</v>
       </c>
       <c r="D57" s="2">
-        <v>3006</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>114</v>
+        <v>3005</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G57" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K57" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L57" s="2">
         <v>1</v>
@@ -6343,16 +6272,16 @@
         <v>9999</v>
       </c>
       <c r="O57" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R57" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S57" s="2">
         <v>0</v>
@@ -6364,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W57" s="2">
         <v>0</v>
@@ -6384,34 +6313,35 @@
       <c r="AB57" s="2">
         <v>0</v>
       </c>
+      <c r="AC57" s="4"/>
       <c r="AD57" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="3:30">
       <c r="C58" s="2">
-        <v>13007</v>
+        <v>13006</v>
       </c>
       <c r="D58" s="2">
-        <v>3007</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>116</v>
+        <v>3006</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="G58" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K58" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L58" s="2">
         <v>1</v>
@@ -6423,19 +6353,19 @@
         <v>9999</v>
       </c>
       <c r="O58" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R58" s="2">
         <v>0</v>
       </c>
       <c r="S58" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T58" s="2">
         <v>0</v>
@@ -6444,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="W58" s="2">
         <v>0</v>
@@ -6468,11 +6398,91 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="5:14">
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="N59" s="1"/>
+    <row r="59" s="2" customFormat="1" spans="3:30">
+      <c r="C59" s="2">
+        <v>13007</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3007</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>100</v>
+      </c>
+      <c r="K59" s="2">
+        <v>15</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>3</v>
+      </c>
+      <c r="N59" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O59" s="2">
+        <v>2</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <v>2</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2">
+        <v>120</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+      <c r="X59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="5:14">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="N60" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -792,7 +792,7 @@
     <t>免疫控制,持续{4}秒. 增加1%比例回血和10%物理伤害持续180秒可叠加3层</t>
   </si>
   <si>
-    <t>"7,5,0,0","6,90,3,1","9,180,3,10"</t>
+    <t>"7,5,0,0","6,180,3,1","9,180,3,10"</t>
   </si>
   <si>
     <t>小火球</t>
@@ -840,7 +840,7 @@
     <t>随机到一个空位,魔法伤害50%持续180s可叠加3层</t>
   </si>
   <si>
-    <t>"2,90,3,0","10,180,3,30"</t>
+    <t>"10,180,3,50"</t>
   </si>
   <si>
     <t>治疗术</t>
@@ -891,7 +891,7 @@
     <t>隐身持续{4}s,宠物30%伤害持续180s可叠加3层</t>
   </si>
   <si>
-    <t>"8,90,3,0","8,180,3,30"</t>
+    <t>"8,180,3,30"</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1100,12 +1100,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1894,10 +1894,10 @@
   <sheetPr/>
   <dimension ref="C3:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AF25" sqref="AF25"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -275,7 +275,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-效果id,持续时间，叠加层数，百分比系数(-1使用技能的系数)</t>
+效果id,持续时间，叠加层数，百分比系数</t>
         </r>
       </text>
     </comment>
@@ -753,7 +753,7 @@
     <t>Enemy</t>
   </si>
   <si>
-    <t>"106,-1,-1,-1"</t>
+    <t>"106,0,0,0"</t>
   </si>
   <si>
     <t>武力盾</t>
@@ -765,7 +765,7 @@
     <t>Square</t>
   </si>
   <si>
-    <t>"1301,-1,-1,10","4,-1,-1,-1","5,-1,-1,-1"</t>
+    <t>"1301,0,0,10","4,30,0,100","5,30,0,100"</t>
   </si>
   <si>
     <t>武力精通</t>
@@ -861,7 +861,7 @@
     <t>对范围内{1}个敌人造成每秒{2}%道术+{3}点持续伤害</t>
   </si>
   <si>
-    <t>"104,5,1,-1"</t>
+    <t>"104,5,0,35"</t>
   </si>
   <si>
     <t>召唤骷髅</t>
@@ -1894,10 +1894,10 @@
   <sheetPr/>
   <dimension ref="C3:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1894,10 +1894,10 @@
   <sheetPr/>
   <dimension ref="C3:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AC24" sqref="AC24"/>
+      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="2">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="2">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -765,7 +765,7 @@
     <t>Square</t>
   </si>
   <si>
-    <t>"1301,0,0,10","4,30,0,100","5,30,0,100"</t>
+    <t>"1301,0,0,10","4,0,0,100","5,0,0,100"</t>
   </si>
   <si>
     <t>武力精通</t>
@@ -1894,10 +1894,10 @@
   <sheetPr/>
   <dimension ref="C3:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomLeft" activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="130">
   <si>
     <t>_ID</t>
   </si>
@@ -733,9 +733,6 @@
   </si>
   <si>
     <t>半月弯刀</t>
-  </si>
-  <si>
-    <t>龙影剑法</t>
   </si>
   <si>
     <t>对周围的{1}个敌人造成{2}%物攻+{3}点伤害</t>
@@ -1894,10 +1891,10 @@
   <sheetPr/>
   <dimension ref="C3:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AC31" sqref="AC31"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2375,7 +2372,7 @@
         <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -2387,7 +2384,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="2">
         <v>5</v>
@@ -2408,7 +2405,7 @@
         <v>63</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -2455,10 +2452,10 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2">
         <v>9</v>
@@ -2470,7 +2467,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" s="2">
         <v>10</v>
@@ -2488,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>64</v>
@@ -2527,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD9" s="2">
         <v>50</v>
@@ -2541,10 +2538,10 @@
         <v>1005</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
@@ -2556,7 +2553,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="2">
         <v>55</v>
@@ -2577,7 +2574,7 @@
         <v>63</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R10" s="2">
         <v>30</v>
@@ -2613,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD10" s="2">
         <v>50</v>
@@ -2627,10 +2624,10 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
@@ -2642,7 +2639,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2663,7 +2660,7 @@
         <v>63</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2710,10 +2707,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -2725,7 +2722,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" s="2">
         <v>10</v>
@@ -2793,10 +2790,10 @@
         <v>1008</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2">
         <v>1008</v>
@@ -2808,7 +2805,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" s="2">
         <v>30</v>
@@ -2829,7 +2826,7 @@
         <v>63</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R13" s="2">
         <v>5</v>
@@ -2865,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD13" s="2">
         <v>50</v>
@@ -2879,10 +2876,10 @@
         <v>2001</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2894,7 +2891,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2912,10 +2909,10 @@
         <v>2</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -2962,10 +2959,10 @@
         <v>2002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -2977,7 +2974,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -2995,10 +2992,10 @@
         <v>3</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3045,10 +3042,10 @@
         <v>2003</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>
@@ -3060,7 +3057,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" s="2">
         <v>10</v>
@@ -3078,10 +3075,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R16" s="2">
         <v>5</v>
@@ -3128,10 +3125,10 @@
         <v>2004</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3143,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3164,7 +3161,7 @@
         <v>63</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -3211,10 +3208,10 @@
         <v>2005</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -3226,7 +3223,7 @@
         <v>50</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K18" s="2">
         <v>55</v>
@@ -3247,7 +3244,7 @@
         <v>63</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R18" s="2">
         <v>30</v>
@@ -3283,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD18" s="2">
         <v>50</v>
@@ -3297,10 +3294,10 @@
         <v>2006</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2">
         <v>6</v>
@@ -3312,7 +3309,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3333,7 +3330,7 @@
         <v>63</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -3380,10 +3377,10 @@
         <v>2007</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -3395,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K20" s="2">
         <v>10</v>
@@ -3413,10 +3410,10 @@
         <v>3</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -3463,10 +3460,10 @@
         <v>2008</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2">
         <v>2008</v>
@@ -3478,7 +3475,7 @@
         <v>200</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K21" s="2">
         <v>30</v>
@@ -3499,7 +3496,7 @@
         <v>63</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -3535,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD21" s="2">
         <v>50</v>
@@ -3549,10 +3546,10 @@
         <v>3001</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -3564,7 +3561,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22" s="2">
         <v>4</v>
@@ -3585,7 +3582,7 @@
         <v>63</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -3632,10 +3629,10 @@
         <v>3002</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -3647,7 +3644,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -3665,10 +3662,10 @@
         <v>3</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -3715,10 +3712,10 @@
         <v>3003</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -3730,7 +3727,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K24" s="2">
         <v>10</v>
@@ -3748,10 +3745,10 @@
         <v>2</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -3787,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD24" s="2">
         <v>50</v>
@@ -3801,10 +3798,10 @@
         <v>3004</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
@@ -3816,7 +3813,7 @@
         <v>100</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K25" s="2">
         <v>15</v>
@@ -3837,7 +3834,7 @@
         <v>63</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -3884,10 +3881,10 @@
         <v>3005</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -3899,7 +3896,7 @@
         <v>50</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K26" s="2">
         <v>55</v>
@@ -3920,7 +3917,7 @@
         <v>63</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R26" s="2">
         <v>30</v>
@@ -3956,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD26" s="2">
         <v>50</v>
@@ -3970,10 +3967,10 @@
         <v>3006</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
@@ -3985,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4006,7 +4003,7 @@
         <v>63</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
@@ -4053,10 +4050,10 @@
         <v>3007</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
@@ -4068,7 +4065,7 @@
         <v>100</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K28" s="2">
         <v>30</v>
@@ -4086,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -4136,10 +4133,10 @@
         <v>3008</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2">
         <v>3008</v>
@@ -4151,7 +4148,7 @@
         <v>200</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K29" s="2">
         <v>30</v>
@@ -4172,7 +4169,7 @@
         <v>63</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R29" s="2">
         <v>5</v>
@@ -4208,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD29" s="2">
         <v>50</v>
@@ -4222,10 +4219,10 @@
         <v>9001</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
@@ -4255,7 +4252,7 @@
         <v>63</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R30" s="2">
         <v>0</v>
@@ -4302,10 +4299,10 @@
         <v>9002</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G31" s="2">
         <v>9</v>
@@ -4383,11 +4380,11 @@
         <v>10001</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
@@ -4398,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -4416,10 +4413,10 @@
         <v>3</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
@@ -4466,10 +4463,10 @@
         <v>10002</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G34" s="1">
         <v>4</v>
@@ -4481,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -4550,10 +4547,10 @@
         <v>10003</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -4565,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -4583,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
@@ -4634,10 +4631,10 @@
         <v>10004</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G36" s="1">
         <v>4</v>
@@ -4649,7 +4646,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -4667,10 +4664,10 @@
         <v>3</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -4717,7 +4714,7 @@
         <v>10005</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>61</v>
@@ -4732,7 +4729,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -4963,7 +4960,7 @@
         <v>67</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4993,7 +4990,7 @@
         <v>63</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
@@ -5040,10 +5037,10 @@
         <v>1004</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" s="2">
         <v>9</v>
@@ -5070,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>64</v>
@@ -5109,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD42" s="2">
         <v>50</v>
@@ -5123,10 +5120,10 @@
         <v>1005</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G43" s="2">
         <v>5</v>
@@ -5156,7 +5153,7 @@
         <v>63</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R43" s="2">
         <v>30</v>
@@ -5204,10 +5201,10 @@
         <v>1006</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" s="2">
         <v>6</v>
@@ -5237,7 +5234,7 @@
         <v>63</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R44" s="2">
         <v>0</v>
@@ -5284,10 +5281,10 @@
         <v>1007</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5364,10 +5361,10 @@
         <v>2001</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5394,10 +5391,10 @@
         <v>2</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R46" s="2">
         <v>0</v>
@@ -5444,10 +5441,10 @@
         <v>2002</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5474,10 +5471,10 @@
         <v>3</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R47" s="2">
         <v>0</v>
@@ -5524,10 +5521,10 @@
         <v>2003</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="2">
         <v>3</v>
@@ -5554,10 +5551,10 @@
         <v>3</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R48" s="2">
         <v>5</v>
@@ -5604,10 +5601,10 @@
         <v>2004</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5637,7 +5634,7 @@
         <v>63</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -5684,10 +5681,10 @@
         <v>2005</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G50" s="2">
         <v>5</v>
@@ -5717,7 +5714,7 @@
         <v>63</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R50" s="2">
         <v>30</v>
@@ -5765,10 +5762,10 @@
         <v>2006</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
@@ -5798,7 +5795,7 @@
         <v>63</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
@@ -5845,10 +5842,10 @@
         <v>2007</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5875,10 +5872,10 @@
         <v>3</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
@@ -5925,10 +5922,10 @@
         <v>3001</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G53" s="2">
         <v>4</v>
@@ -5958,7 +5955,7 @@
         <v>63</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
@@ -6005,10 +6002,10 @@
         <v>3002</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6035,10 +6032,10 @@
         <v>3</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
@@ -6085,10 +6082,10 @@
         <v>3003</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6115,10 +6112,10 @@
         <v>2</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>
@@ -6165,10 +6162,10 @@
         <v>3004</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
@@ -6198,7 +6195,7 @@
         <v>63</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R56" s="2">
         <v>0</v>
@@ -6245,10 +6242,10 @@
         <v>3005</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
@@ -6278,7 +6275,7 @@
         <v>63</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R57" s="2">
         <v>30</v>
@@ -6326,10 +6323,10 @@
         <v>3006</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G58" s="2">
         <v>6</v>
@@ -6359,7 +6356,7 @@
         <v>63</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R58" s="2">
         <v>0</v>
@@ -6406,10 +6403,10 @@
         <v>3007</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G59" s="2">
         <v>2</v>
@@ -6436,10 +6433,10 @@
         <v>2</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R59" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -714,19 +714,19 @@
     <t>基础剑术</t>
   </si>
   <si>
+    <t>对{0}格内的{1}个敌人造成{2}%物攻+{3}点伤害</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>FrontRow</t>
+  </si>
+  <si>
+    <t>刺杀剑术</t>
+  </si>
+  <si>
     <t>刺杀</t>
-  </si>
-  <si>
-    <t>对{0}格内的{1}个敌人造成{2}%物攻+{3}点伤害</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>FrontRow</t>
-  </si>
-  <si>
-    <t>刺杀剑术</t>
   </si>
   <si>
     <t>对{0}格内的{1}个敌人造成{2}%物攻+{3}点伤害,忽视敌方50%防御</t>
@@ -1892,9 +1892,9 @@
   <dimension ref="C3:AG60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2205,8 +2205,8 @@
       <c r="E6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>61</v>
+      <c r="F6" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>1002</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -2319,10 +2319,10 @@
         <v>2</v>
       </c>
       <c r="P7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>69</v>
@@ -2488,7 +2488,7 @@
         <v>72</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R9" s="2">
         <v>2</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>76</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>80</v>
@@ -2740,10 +2740,10 @@
         <v>1</v>
       </c>
       <c r="P12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>80</v>
@@ -3158,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>76</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>76</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>80</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>80</v>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>76</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>80</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>76</v>
@@ -4000,7 +4000,7 @@
         <v>3</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>80</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>80</v>
@@ -4249,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>89</v>
@@ -4329,10 +4329,10 @@
         <v>2</v>
       </c>
       <c r="P31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
@@ -4496,10 +4496,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q34" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         <v>129</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4747,10 +4747,10 @@
         <v>2</v>
       </c>
       <c r="P37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R37" s="2">
         <v>0</v>
@@ -4799,8 +4799,8 @@
       <c r="E39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>61</v>
+      <c r="F39" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4827,10 +4827,10 @@
         <v>1</v>
       </c>
       <c r="P39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q39" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
@@ -4877,10 +4877,10 @@
         <v>1002</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4907,10 +4907,10 @@
         <v>2</v>
       </c>
       <c r="P40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q40" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>69</v>
@@ -5070,7 +5070,7 @@
         <v>72</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R42" s="2">
         <v>2</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>76</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>80</v>
@@ -5311,10 +5311,10 @@
         <v>1</v>
       </c>
       <c r="P45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q45" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R45" s="2">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>3</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>76</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>76</v>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>80</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>76</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>80</v>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>76</v>
@@ -6353,7 +6353,7 @@
         <v>3</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>80</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="W3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC3" authorId="0">
+    <comment ref="AD3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="132">
   <si>
     <t>_ID</t>
   </si>
@@ -567,6 +567,9 @@
     <t>技能等级</t>
   </si>
   <si>
+    <t>等级成长</t>
+  </si>
+  <si>
     <t>攻击距离</t>
   </si>
   <si>
@@ -652,6 +655,9 @@
   </si>
   <si>
     <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>LevelPercent</t>
   </si>
   <si>
     <t>Dis</t>
@@ -1889,12 +1895,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AG60"/>
+  <dimension ref="C3:AH60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1907,28 +1913,29 @@
     <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="56.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="55.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.50833333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.50833333333333" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5" style="1" customWidth="1"/>
-    <col min="19" max="21" width="7.625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="7.875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="1" customWidth="1"/>
-    <col min="25" max="26" width="7.875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" style="1" customWidth="1"/>
-    <col min="29" max="30" width="33.75" style="1" customWidth="1"/>
-    <col min="31" max="32" width="9" style="1"/>
-    <col min="33" max="33" width="19.25" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="1"/>
+    <col min="15" max="15" width="11.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.50833333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.25" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" style="1" customWidth="1"/>
+    <col min="20" max="22" width="7.625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="7.875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.625" style="1" customWidth="1"/>
+    <col min="26" max="27" width="7.875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.625" style="1" customWidth="1"/>
+    <col min="30" max="31" width="33.75" style="1" customWidth="1"/>
+    <col min="32" max="33" width="9" style="1"/>
+    <col min="34" max="34" width="19.25" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:33">
+    <row r="3" spans="3:34">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2013,189 +2020,198 @@
       <c r="AD3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="3:30">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="3:31">
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="3:30">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="3:31">
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="3:30">
+        <v>61</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="3:31">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
@@ -2203,10 +2219,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -2218,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -2230,35 +2246,35 @@
         <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>9999</v>
+        <v>400</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>62</v>
+      <c r="P6" s="2">
+        <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="S6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
         <v>120</v>
       </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
       <c r="X6" s="2">
         <v>0</v>
       </c>
@@ -2274,11 +2290,14 @@
       <c r="AB6" s="2">
         <v>0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="3:30">
+    <row r="7" s="2" customFormat="1" spans="3:31">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
@@ -2286,10 +2305,10 @@
         <v>1002</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -2301,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2313,41 +2332,41 @@
         <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>9999</v>
+        <v>350</v>
       </c>
       <c r="O7" s="2">
         <v>2</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>62</v>
+      <c r="P7" s="2">
+        <v>2</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
         <v>2</v>
       </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
         <v>150</v>
       </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
       <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
         <v>20</v>
       </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
       <c r="Z7" s="2">
         <v>0</v>
       </c>
@@ -2357,11 +2376,14 @@
       <c r="AB7" s="2">
         <v>0</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="3:30">
+    <row r="8" s="2" customFormat="1" spans="3:31">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
@@ -2369,10 +2391,10 @@
         <v>1003</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -2384,7 +2406,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K8" s="2">
         <v>5</v>
@@ -2396,35 +2418,35 @@
         <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>9999</v>
+        <v>300</v>
       </c>
       <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
         <v>5</v>
       </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
         <v>100</v>
       </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
       <c r="X8" s="2">
         <v>0</v>
       </c>
@@ -2440,11 +2462,14 @@
       <c r="AB8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="3:30">
+    <row r="9" s="2" customFormat="1" spans="3:31">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
@@ -2452,10 +2477,10 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2">
         <v>9</v>
@@ -2467,7 +2492,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K9" s="2">
         <v>10</v>
@@ -2479,35 +2504,35 @@
         <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>9999</v>
+        <v>250</v>
       </c>
       <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R9" s="2">
+        <v>74</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="2">
         <v>2</v>
       </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
       <c r="T9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
         <v>200</v>
       </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
       <c r="X9" s="2">
         <v>0</v>
       </c>
@@ -2523,14 +2548,17 @@
       <c r="AB9" s="2">
         <v>0</v>
       </c>
-      <c r="AC9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD9" s="2">
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="3:30">
+    <row r="10" s="2" customFormat="1" spans="3:31">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -2538,10 +2566,10 @@
         <v>1005</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
@@ -2553,7 +2581,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K10" s="2">
         <v>55</v>
@@ -2565,23 +2593,23 @@
         <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>9999</v>
+        <v>200</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R10" s="2">
+        <v>64</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="2">
         <v>30</v>
       </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
       <c r="T10" s="2">
         <v>0</v>
       </c>
@@ -2589,11 +2617,11 @@
         <v>0</v>
       </c>
       <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
         <v>100</v>
       </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
       <c r="X10" s="2">
         <v>0</v>
       </c>
@@ -2609,14 +2637,17 @@
       <c r="AB10" s="2">
         <v>0</v>
       </c>
-      <c r="AC10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD10" s="2">
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE10" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="3:30">
+    <row r="11" s="2" customFormat="1" spans="3:31">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
@@ -2624,10 +2655,10 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
@@ -2639,7 +2670,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2651,19 +2682,19 @@
         <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>9999</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
@@ -2675,11 +2706,11 @@
         <v>0</v>
       </c>
       <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
         <v>50</v>
       </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
       <c r="X11" s="2">
         <v>0</v>
       </c>
@@ -2695,11 +2726,14 @@
       <c r="AB11" s="2">
         <v>0</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="3:30">
+    <row r="12" s="2" customFormat="1" spans="3:31">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
@@ -2707,10 +2741,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -2722,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12" s="2">
         <v>10</v>
@@ -2734,35 +2768,35 @@
         <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="S12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
         <v>300</v>
       </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
       <c r="X12" s="2">
         <v>0</v>
       </c>
@@ -2778,11 +2812,14 @@
       <c r="AB12" s="2">
         <v>0</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="3:30">
+    <row r="13" s="2" customFormat="1" spans="3:31">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
@@ -2790,10 +2827,10 @@
         <v>1008</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2">
         <v>1008</v>
@@ -2805,7 +2842,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K13" s="2">
         <v>30</v>
@@ -2820,20 +2857,20 @@
         <v>10</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" s="2">
+        <v>64</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S13" s="2">
         <v>5</v>
       </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
@@ -2861,14 +2898,17 @@
       <c r="AB13" s="2">
         <v>0</v>
       </c>
-      <c r="AC13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD13" s="2">
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE13" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="3:30">
+    <row r="14" s="2" customFormat="1" spans="3:31">
       <c r="C14" s="2">
         <v>2001</v>
       </c>
@@ -2876,10 +2916,10 @@
         <v>2001</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2891,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2903,35 +2943,35 @@
         <v>2</v>
       </c>
       <c r="N14" s="2">
-        <v>9999</v>
+        <v>400</v>
       </c>
       <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
         <v>2</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="S14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
         <v>120</v>
       </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
       <c r="X14" s="2">
         <v>0</v>
       </c>
@@ -2947,11 +2987,14 @@
       <c r="AB14" s="2">
         <v>0</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="3:30">
+    <row r="15" s="2" customFormat="1" spans="3:31">
       <c r="C15" s="2">
         <v>2002</v>
       </c>
@@ -2959,10 +3002,10 @@
         <v>2002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -2974,7 +3017,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -2986,35 +3029,35 @@
         <v>2</v>
       </c>
       <c r="N15" s="2">
-        <v>9999</v>
+        <v>350</v>
       </c>
       <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2">
         <v>3</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="S15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
         <v>150</v>
       </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
       <c r="X15" s="2">
         <v>0</v>
       </c>
@@ -3030,11 +3073,14 @@
       <c r="AB15" s="2">
         <v>0</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="3:30">
+    <row r="16" s="2" customFormat="1" spans="3:31">
       <c r="C16" s="2">
         <v>2003</v>
       </c>
@@ -3042,10 +3088,10 @@
         <v>2003</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>
@@ -3057,7 +3103,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K16" s="2">
         <v>10</v>
@@ -3069,35 +3115,35 @@
         <v>2</v>
       </c>
       <c r="N16" s="2">
-        <v>9999</v>
+        <v>300</v>
       </c>
       <c r="O16" s="2">
         <v>3</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>72</v>
+      <c r="P16" s="2">
+        <v>3</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R16" s="2">
-        <v>5</v>
+        <v>74</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S16" s="2">
         <v>5</v>
       </c>
       <c r="T16" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U16" s="2">
         <v>2</v>
       </c>
       <c r="V16" s="2">
+        <v>2</v>
+      </c>
+      <c r="W16" s="2">
         <v>80</v>
       </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
       <c r="X16" s="2">
         <v>0</v>
       </c>
@@ -3113,11 +3159,14 @@
       <c r="AB16" s="2">
         <v>0</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="3:30">
+    <row r="17" s="2" customFormat="1" spans="3:31">
       <c r="C17" s="2">
         <v>2004</v>
       </c>
@@ -3125,10 +3174,10 @@
         <v>2004</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3140,7 +3189,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3152,35 +3201,35 @@
         <v>2</v>
       </c>
       <c r="N17" s="2">
-        <v>9999</v>
+        <v>250</v>
       </c>
       <c r="O17" s="2">
+        <v>4</v>
+      </c>
+      <c r="P17" s="2">
         <v>3</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Q17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
         <v>4</v>
-      </c>
-      <c r="T17" s="2">
-        <v>2</v>
       </c>
       <c r="U17" s="2">
         <v>2</v>
       </c>
       <c r="V17" s="2">
+        <v>2</v>
+      </c>
+      <c r="W17" s="2">
         <v>100</v>
       </c>
-      <c r="W17" s="2">
-        <v>0</v>
-      </c>
       <c r="X17" s="2">
         <v>0</v>
       </c>
@@ -3196,11 +3245,14 @@
       <c r="AB17" s="2">
         <v>0</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="3:30">
+    <row r="18" s="2" customFormat="1" spans="3:31">
       <c r="C18" s="2">
         <v>2005</v>
       </c>
@@ -3208,10 +3260,10 @@
         <v>2005</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -3223,7 +3275,7 @@
         <v>50</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K18" s="2">
         <v>55</v>
@@ -3235,23 +3287,23 @@
         <v>2</v>
       </c>
       <c r="N18" s="2">
-        <v>9999</v>
+        <v>200</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R18" s="2">
+        <v>64</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" s="2">
         <v>30</v>
       </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
       <c r="T18" s="2">
         <v>0</v>
       </c>
@@ -3259,11 +3311,11 @@
         <v>0</v>
       </c>
       <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
         <v>100</v>
       </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
       <c r="X18" s="2">
         <v>0</v>
       </c>
@@ -3279,14 +3331,17 @@
       <c r="AB18" s="2">
         <v>0</v>
       </c>
-      <c r="AC18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD18" s="2">
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE18" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="3:30">
+    <row r="19" s="2" customFormat="1" spans="3:31">
       <c r="C19" s="2">
         <v>2006</v>
       </c>
@@ -3294,10 +3349,10 @@
         <v>2006</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G19" s="2">
         <v>6</v>
@@ -3309,7 +3364,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3321,19 +3376,19 @@
         <v>2</v>
       </c>
       <c r="N19" s="2">
-        <v>9999</v>
+        <v>150</v>
       </c>
       <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
@@ -3345,11 +3400,11 @@
         <v>0</v>
       </c>
       <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
         <v>50</v>
       </c>
-      <c r="W19" s="2">
-        <v>0</v>
-      </c>
       <c r="X19" s="2">
         <v>0</v>
       </c>
@@ -3365,11 +3420,14 @@
       <c r="AB19" s="2">
         <v>0</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="3:30">
+    <row r="20" s="2" customFormat="1" spans="3:31">
       <c r="C20" s="2">
         <v>2007</v>
       </c>
@@ -3377,10 +3435,10 @@
         <v>2007</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -3392,7 +3450,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K20" s="2">
         <v>10</v>
@@ -3404,35 +3462,35 @@
         <v>2</v>
       </c>
       <c r="N20" s="2">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="O20" s="2">
         <v>3</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>72</v>
+      <c r="P20" s="2">
+        <v>3</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
         <v>5</v>
-      </c>
-      <c r="T20" s="2">
-        <v>3</v>
       </c>
       <c r="U20" s="2">
         <v>3</v>
       </c>
       <c r="V20" s="2">
+        <v>3</v>
+      </c>
+      <c r="W20" s="2">
         <v>150</v>
       </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
       <c r="X20" s="2">
         <v>0</v>
       </c>
@@ -3448,11 +3506,14 @@
       <c r="AB20" s="2">
         <v>0</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="3:30">
+    <row r="21" s="2" customFormat="1" spans="3:31">
       <c r="C21" s="2">
         <v>2008</v>
       </c>
@@ -3460,10 +3521,10 @@
         <v>2008</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2">
         <v>2008</v>
@@ -3475,7 +3536,7 @@
         <v>200</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K21" s="2">
         <v>30</v>
@@ -3490,16 +3551,16 @@
         <v>10</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -3531,14 +3592,17 @@
       <c r="AB21" s="2">
         <v>0</v>
       </c>
-      <c r="AC21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD21" s="2">
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE21" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="3:30">
+    <row r="22" s="2" customFormat="1" spans="3:31">
       <c r="C22" s="2">
         <v>3001</v>
       </c>
@@ -3546,10 +3610,10 @@
         <v>3001</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -3561,7 +3625,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K22" s="2">
         <v>4</v>
@@ -3573,19 +3637,19 @@
         <v>3</v>
       </c>
       <c r="N22" s="2">
-        <v>9999</v>
+        <v>400</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
@@ -3597,11 +3661,11 @@
         <v>0</v>
       </c>
       <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
         <v>50</v>
       </c>
-      <c r="W22" s="2">
-        <v>0</v>
-      </c>
       <c r="X22" s="2">
         <v>0</v>
       </c>
@@ -3617,11 +3681,14 @@
       <c r="AB22" s="2">
         <v>0</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="3:30">
+    <row r="23" s="2" customFormat="1" spans="3:31">
       <c r="C23" s="2">
         <v>3002</v>
       </c>
@@ -3629,10 +3696,10 @@
         <v>3002</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -3644,7 +3711,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -3656,35 +3723,35 @@
         <v>3</v>
       </c>
       <c r="N23" s="2">
-        <v>9999</v>
+        <v>350</v>
       </c>
       <c r="O23" s="2">
+        <v>2</v>
+      </c>
+      <c r="P23" s="2">
         <v>3</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="S23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
         <v>120</v>
       </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
       <c r="X23" s="2">
         <v>0</v>
       </c>
@@ -3700,11 +3767,14 @@
       <c r="AB23" s="2">
         <v>0</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="3:30">
+    <row r="24" s="2" customFormat="1" spans="3:31">
       <c r="C24" s="2">
         <v>3003</v>
       </c>
@@ -3712,10 +3782,10 @@
         <v>3003</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -3727,7 +3797,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K24" s="2">
         <v>10</v>
@@ -3739,41 +3809,41 @@
         <v>3</v>
       </c>
       <c r="N24" s="2">
-        <v>9999</v>
+        <v>300</v>
       </c>
       <c r="O24" s="2">
+        <v>3</v>
+      </c>
+      <c r="P24" s="2">
         <v>2</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
         <v>5</v>
       </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
         <v>35</v>
       </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
       <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
         <v>100</v>
       </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
       <c r="Z24" s="2">
         <v>0</v>
       </c>
@@ -3783,14 +3853,17 @@
       <c r="AB24" s="2">
         <v>0</v>
       </c>
-      <c r="AC24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD24" s="2">
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE24" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="3:30">
+    <row r="25" s="2" customFormat="1" spans="3:31">
       <c r="C25" s="2">
         <v>3004</v>
       </c>
@@ -3798,10 +3871,10 @@
         <v>3004</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
@@ -3813,7 +3886,7 @@
         <v>100</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K25" s="2">
         <v>15</v>
@@ -3825,35 +3898,35 @@
         <v>3</v>
       </c>
       <c r="N25" s="2">
-        <v>9999</v>
+        <v>250</v>
       </c>
       <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>62</v>
+        <v>4</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R25" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="S25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
         <v>100</v>
       </c>
-      <c r="W25" s="2">
-        <v>0</v>
-      </c>
       <c r="X25" s="2">
         <v>0</v>
       </c>
@@ -3869,11 +3942,14 @@
       <c r="AB25" s="2">
         <v>0</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="3:30">
+    <row r="26" s="2" customFormat="1" spans="3:31">
       <c r="C26" s="2">
         <v>3005</v>
       </c>
@@ -3881,10 +3957,10 @@
         <v>3005</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -3896,7 +3972,7 @@
         <v>50</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K26" s="2">
         <v>55</v>
@@ -3908,23 +3984,23 @@
         <v>3</v>
       </c>
       <c r="N26" s="2">
-        <v>9999</v>
+        <v>200</v>
       </c>
       <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" s="2">
+        <v>64</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S26" s="2">
         <v>30</v>
       </c>
-      <c r="S26" s="2">
-        <v>0</v>
-      </c>
       <c r="T26" s="2">
         <v>0</v>
       </c>
@@ -3932,11 +4008,11 @@
         <v>0</v>
       </c>
       <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
         <v>100</v>
       </c>
-      <c r="W26" s="2">
-        <v>0</v>
-      </c>
       <c r="X26" s="2">
         <v>0</v>
       </c>
@@ -3952,14 +4028,17 @@
       <c r="AB26" s="2">
         <v>0</v>
       </c>
-      <c r="AC26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD26" s="2">
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE26" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="3:30">
+    <row r="27" s="2" customFormat="1" spans="3:31">
       <c r="C27" s="2">
         <v>3006</v>
       </c>
@@ -3967,10 +4046,10 @@
         <v>3006</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
@@ -3982,7 +4061,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -3994,19 +4073,19 @@
         <v>3</v>
       </c>
       <c r="N27" s="2">
-        <v>9999</v>
+        <v>150</v>
       </c>
       <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
         <v>3</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Q27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
@@ -4018,11 +4097,11 @@
         <v>0</v>
       </c>
       <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
         <v>50</v>
       </c>
-      <c r="W27" s="2">
-        <v>0</v>
-      </c>
       <c r="X27" s="2">
         <v>0</v>
       </c>
@@ -4038,11 +4117,14 @@
       <c r="AB27" s="2">
         <v>0</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="3:30">
+    <row r="28" s="2" customFormat="1" spans="3:31">
       <c r="C28" s="2">
         <v>3007</v>
       </c>
@@ -4050,10 +4132,10 @@
         <v>3007</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
@@ -4065,7 +4147,7 @@
         <v>100</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K28" s="2">
         <v>30</v>
@@ -4077,35 +4159,35 @@
         <v>3</v>
       </c>
       <c r="N28" s="2">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="O28" s="2">
         <v>2</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>72</v>
+      <c r="P28" s="2">
+        <v>2</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R28" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
         <v>2</v>
       </c>
-      <c r="T28" s="2">
-        <v>0</v>
-      </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
         <v>120</v>
       </c>
-      <c r="W28" s="2">
-        <v>0</v>
-      </c>
       <c r="X28" s="2">
         <v>0</v>
       </c>
@@ -4121,11 +4203,14 @@
       <c r="AB28" s="2">
         <v>0</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="3:30">
+    <row r="29" s="2" customFormat="1" spans="3:31">
       <c r="C29" s="2">
         <v>3008</v>
       </c>
@@ -4133,10 +4218,10 @@
         <v>3008</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G29" s="2">
         <v>3008</v>
@@ -4148,7 +4233,7 @@
         <v>200</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K29" s="2">
         <v>30</v>
@@ -4163,20 +4248,20 @@
         <v>10</v>
       </c>
       <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R29" s="2">
+        <v>64</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S29" s="2">
         <v>5</v>
       </c>
-      <c r="S29" s="2">
-        <v>0</v>
-      </c>
       <c r="T29" s="2">
         <v>0</v>
       </c>
@@ -4204,14 +4289,17 @@
       <c r="AB29" s="2">
         <v>0</v>
       </c>
-      <c r="AC29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD29" s="2">
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE29" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="3:30">
+    <row r="30" s="2" customFormat="1" spans="3:31">
       <c r="C30" s="2">
         <v>9001</v>
       </c>
@@ -4219,10 +4307,10 @@
         <v>9001</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
@@ -4246,32 +4334,32 @@
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="S30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
         <v>100</v>
       </c>
-      <c r="W30" s="2">
-        <v>0</v>
-      </c>
       <c r="X30" s="2">
         <v>0</v>
       </c>
@@ -4287,11 +4375,14 @@
       <c r="AB30" s="2">
         <v>0</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="3:30">
+    <row r="31" s="2" customFormat="1" spans="3:31">
       <c r="C31" s="2">
         <v>9002</v>
       </c>
@@ -4299,10 +4390,10 @@
         <v>9002</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G31" s="2">
         <v>9</v>
@@ -4326,32 +4417,32 @@
         <v>0</v>
       </c>
       <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
         <v>2</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Q31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="S31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
         <v>100</v>
       </c>
-      <c r="W31" s="2">
-        <v>0</v>
-      </c>
       <c r="X31" s="2">
         <v>0</v>
       </c>
@@ -4367,12 +4458,15 @@
       <c r="AB31" s="2">
         <v>0</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1"/>
-    <row r="33" s="2" customFormat="1" spans="3:30">
+    <row r="33" s="2" customFormat="1" spans="3:31">
       <c r="C33" s="2">
         <v>10001</v>
       </c>
@@ -4380,10 +4474,10 @@
         <v>10001</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4395,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -4410,32 +4504,32 @@
         <v>0</v>
       </c>
       <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
         <v>3</v>
       </c>
-      <c r="P33" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="S33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
         <v>150</v>
       </c>
-      <c r="W33" s="2">
-        <v>0</v>
-      </c>
       <c r="X33" s="2">
         <v>0</v>
       </c>
@@ -4451,11 +4545,14 @@
       <c r="AB33" s="2">
         <v>0</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="3:30">
+    <row r="34" spans="3:31">
       <c r="C34" s="1">
         <v>10002</v>
       </c>
@@ -4463,10 +4560,10 @@
         <v>10002</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G34" s="1">
         <v>4</v>
@@ -4478,7 +4575,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -4492,33 +4589,33 @@
       <c r="N34" s="2">
         <v>0</v>
       </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>62</v>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R34" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="S34" s="1">
-        <v>1</v>
-      </c>
-      <c r="T34" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
         <v>100</v>
       </c>
-      <c r="W34" s="2">
-        <v>0</v>
-      </c>
       <c r="X34" s="2">
         <v>0</v>
       </c>
@@ -4534,12 +4631,15 @@
       <c r="AB34" s="2">
         <v>0</v>
       </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2">
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="3:30">
+    <row r="35" spans="3:31">
       <c r="C35" s="1">
         <v>10003</v>
       </c>
@@ -4547,10 +4647,10 @@
         <v>10003</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -4562,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -4579,30 +4679,30 @@
       <c r="O35" s="2">
         <v>0</v>
       </c>
-      <c r="P35" s="2" t="s">
-        <v>72</v>
+      <c r="P35" s="2">
+        <v>0</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
         <v>10</v>
       </c>
-      <c r="T35" s="2">
-        <v>0</v>
-      </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
         <v>100</v>
       </c>
-      <c r="W35" s="2">
-        <v>0</v>
-      </c>
       <c r="X35" s="2">
         <v>0</v>
       </c>
@@ -4618,12 +4718,15 @@
       <c r="AB35" s="2">
         <v>0</v>
       </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2">
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="3:30">
+    <row r="36" spans="3:31">
       <c r="C36" s="1">
         <v>10004</v>
       </c>
@@ -4631,10 +4734,10 @@
         <v>10004</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G36" s="1">
         <v>4</v>
@@ -4646,7 +4749,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -4660,37 +4763,37 @@
       <c r="N36" s="1">
         <v>0</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
         <v>3</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="Q36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
         <v>4</v>
       </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
       <c r="U36" s="2">
         <v>0</v>
       </c>
-      <c r="V36" s="1">
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
         <v>50</v>
       </c>
-      <c r="W36" s="1">
-        <v>0</v>
-      </c>
-      <c r="X36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1">
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
         <v>0</v>
       </c>
       <c r="Z36" s="1">
@@ -4699,14 +4802,17 @@
       <c r="AA36" s="1">
         <v>0</v>
       </c>
-      <c r="AB36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="2">
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="3:30">
+    <row r="37" s="2" customFormat="1" spans="3:31">
       <c r="C37" s="2">
         <v>10005</v>
       </c>
@@ -4714,10 +4820,10 @@
         <v>10005</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4729,7 +4835,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -4744,38 +4850,38 @@
         <v>0</v>
       </c>
       <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
         <v>2</v>
       </c>
-      <c r="P37" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Q37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
         <v>2</v>
       </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
         <v>150</v>
       </c>
-      <c r="W37" s="2">
-        <v>0</v>
-      </c>
       <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
         <v>20</v>
       </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
       <c r="Z37" s="2">
         <v>0</v>
       </c>
@@ -4785,11 +4891,14 @@
       <c r="AB37" s="2">
         <v>0</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="3:30">
+    <row r="39" s="2" customFormat="1" spans="3:31">
       <c r="C39" s="2">
         <v>11001</v>
       </c>
@@ -4797,10 +4906,10 @@
         <v>1001</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4824,32 +4933,32 @@
         <v>9999</v>
       </c>
       <c r="O39" s="2">
-        <v>1</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R39" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="S39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
         <v>120</v>
       </c>
-      <c r="W39" s="2">
-        <v>0</v>
-      </c>
       <c r="X39" s="2">
         <v>0</v>
       </c>
@@ -4865,11 +4974,14 @@
       <c r="AB39" s="2">
         <v>0</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="3:30">
+    <row r="40" s="2" customFormat="1" spans="3:31">
       <c r="C40" s="2">
         <v>11002</v>
       </c>
@@ -4877,10 +4989,10 @@
         <v>1002</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4904,38 +5016,38 @@
         <v>9999</v>
       </c>
       <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
         <v>2</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Q40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
         <v>2</v>
       </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
       <c r="U40" s="2">
         <v>0</v>
       </c>
       <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
         <v>150</v>
       </c>
-      <c r="W40" s="2">
-        <v>0</v>
-      </c>
       <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
         <v>20</v>
       </c>
-      <c r="Y40" s="2">
-        <v>0</v>
-      </c>
       <c r="Z40" s="2">
         <v>0</v>
       </c>
@@ -4945,11 +5057,14 @@
       <c r="AB40" s="2">
         <v>0</v>
       </c>
-      <c r="AD40" s="2">
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="3:30">
+    <row r="41" s="2" customFormat="1" spans="3:31">
       <c r="C41" s="2">
         <v>11003</v>
       </c>
@@ -4957,10 +5072,10 @@
         <v>1003</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4984,32 +5099,32 @@
         <v>9999</v>
       </c>
       <c r="O41" s="2">
-        <v>1</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
         <v>5</v>
       </c>
-      <c r="T41" s="2">
-        <v>0</v>
-      </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
         <v>100</v>
       </c>
-      <c r="W41" s="2">
-        <v>0</v>
-      </c>
       <c r="X41" s="2">
         <v>0</v>
       </c>
@@ -5025,11 +5140,14 @@
       <c r="AB41" s="2">
         <v>0</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="3:30">
+    <row r="42" s="2" customFormat="1" spans="3:31">
       <c r="C42" s="2">
         <v>11004</v>
       </c>
@@ -5037,10 +5155,10 @@
         <v>1004</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G42" s="2">
         <v>9</v>
@@ -5064,32 +5182,32 @@
         <v>9999</v>
       </c>
       <c r="O42" s="2">
-        <v>1</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R42" s="2">
+        <v>74</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S42" s="2">
         <v>2</v>
       </c>
-      <c r="S42" s="2">
-        <v>1</v>
-      </c>
       <c r="T42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
         <v>200</v>
       </c>
-      <c r="W42" s="2">
-        <v>0</v>
-      </c>
       <c r="X42" s="2">
         <v>0</v>
       </c>
@@ -5105,14 +5223,17 @@
       <c r="AB42" s="2">
         <v>0</v>
       </c>
-      <c r="AC42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD42" s="2">
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE42" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="3:30">
+    <row r="43" s="2" customFormat="1" spans="3:31">
       <c r="C43" s="2">
         <v>11005</v>
       </c>
@@ -5120,10 +5241,10 @@
         <v>1005</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G43" s="2">
         <v>5</v>
@@ -5149,18 +5270,18 @@
       <c r="O43" s="2">
         <v>0</v>
       </c>
-      <c r="P43" s="2" t="s">
-        <v>62</v>
+      <c r="P43" s="2">
+        <v>0</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R43" s="2">
+        <v>64</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S43" s="2">
         <v>30</v>
       </c>
-      <c r="S43" s="2">
-        <v>0</v>
-      </c>
       <c r="T43" s="2">
         <v>0</v>
       </c>
@@ -5168,11 +5289,11 @@
         <v>0</v>
       </c>
       <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
         <v>20</v>
       </c>
-      <c r="W43" s="2">
-        <v>0</v>
-      </c>
       <c r="X43" s="2">
         <v>0</v>
       </c>
@@ -5188,12 +5309,15 @@
       <c r="AB43" s="2">
         <v>0</v>
       </c>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="2">
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="3:30">
+    <row r="44" s="2" customFormat="1" spans="3:31">
       <c r="C44" s="2">
         <v>11006</v>
       </c>
@@ -5201,10 +5325,10 @@
         <v>1006</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G44" s="2">
         <v>6</v>
@@ -5230,14 +5354,14 @@
       <c r="O44" s="2">
         <v>0</v>
       </c>
-      <c r="P44" s="2" t="s">
-        <v>62</v>
+      <c r="P44" s="2">
+        <v>0</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="S44" s="2">
         <v>0</v>
@@ -5249,11 +5373,11 @@
         <v>0</v>
       </c>
       <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
         <v>50</v>
       </c>
-      <c r="W44" s="2">
-        <v>0</v>
-      </c>
       <c r="X44" s="2">
         <v>0</v>
       </c>
@@ -5269,11 +5393,14 @@
       <c r="AB44" s="2">
         <v>0</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AC44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="3:30">
+    <row r="45" s="2" customFormat="1" spans="3:31">
       <c r="C45" s="2">
         <v>11007</v>
       </c>
@@ -5281,10 +5408,10 @@
         <v>1007</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5308,32 +5435,32 @@
         <v>9999</v>
       </c>
       <c r="O45" s="2">
-        <v>1</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="S45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="2">
         <v>0</v>
       </c>
       <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
         <v>300</v>
       </c>
-      <c r="W45" s="2">
-        <v>0</v>
-      </c>
       <c r="X45" s="2">
         <v>0</v>
       </c>
@@ -5349,11 +5476,14 @@
       <c r="AB45" s="2">
         <v>0</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="3:30">
+    <row r="46" s="2" customFormat="1" spans="3:31">
       <c r="C46" s="2">
         <v>12001</v>
       </c>
@@ -5361,10 +5491,10 @@
         <v>2001</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5388,32 +5518,32 @@
         <v>9999</v>
       </c>
       <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
         <v>2</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R46" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="S46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
       </c>
       <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
         <v>120</v>
       </c>
-      <c r="W46" s="2">
-        <v>0</v>
-      </c>
       <c r="X46" s="2">
         <v>0</v>
       </c>
@@ -5429,11 +5559,14 @@
       <c r="AB46" s="2">
         <v>0</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AC46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="3:30">
+    <row r="47" s="2" customFormat="1" spans="3:31">
       <c r="C47" s="2">
         <v>12002</v>
       </c>
@@ -5441,10 +5574,10 @@
         <v>2002</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5468,32 +5601,32 @@
         <v>9999</v>
       </c>
       <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
         <v>3</v>
       </c>
-      <c r="P47" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="S47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
       <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
         <v>150</v>
       </c>
-      <c r="W47" s="2">
-        <v>0</v>
-      </c>
       <c r="X47" s="2">
         <v>0</v>
       </c>
@@ -5509,11 +5642,14 @@
       <c r="AB47" s="2">
         <v>0</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AC47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="3:30">
+    <row r="48" s="2" customFormat="1" spans="3:31">
       <c r="C48" s="2">
         <v>12003</v>
       </c>
@@ -5521,10 +5657,10 @@
         <v>2003</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G48" s="2">
         <v>3</v>
@@ -5548,32 +5684,32 @@
         <v>9999</v>
       </c>
       <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
         <v>3</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R48" s="2">
-        <v>5</v>
+        <v>74</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S48" s="2">
         <v>5</v>
       </c>
       <c r="T48" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U48" s="2">
         <v>2</v>
       </c>
       <c r="V48" s="2">
+        <v>2</v>
+      </c>
+      <c r="W48" s="2">
         <v>80</v>
       </c>
-      <c r="W48" s="2">
-        <v>0</v>
-      </c>
       <c r="X48" s="2">
         <v>0</v>
       </c>
@@ -5589,11 +5725,14 @@
       <c r="AB48" s="2">
         <v>0</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AC48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="3:30">
+    <row r="49" s="2" customFormat="1" spans="3:31">
       <c r="C49" s="2">
         <v>12004</v>
       </c>
@@ -5601,10 +5740,10 @@
         <v>2004</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5628,32 +5767,32 @@
         <v>9999</v>
       </c>
       <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
         <v>3</v>
       </c>
-      <c r="P49" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Q49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R49" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
         <v>4</v>
-      </c>
-      <c r="T49" s="2">
-        <v>2</v>
       </c>
       <c r="U49" s="2">
         <v>2</v>
       </c>
       <c r="V49" s="2">
+        <v>2</v>
+      </c>
+      <c r="W49" s="2">
         <v>100</v>
       </c>
-      <c r="W49" s="2">
-        <v>0</v>
-      </c>
       <c r="X49" s="2">
         <v>0</v>
       </c>
@@ -5669,11 +5808,14 @@
       <c r="AB49" s="2">
         <v>0</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AC49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="3:30">
+    <row r="50" s="2" customFormat="1" spans="3:31">
       <c r="C50" s="2">
         <v>12005</v>
       </c>
@@ -5681,10 +5823,10 @@
         <v>2005</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G50" s="2">
         <v>5</v>
@@ -5710,18 +5852,18 @@
       <c r="O50" s="2">
         <v>0</v>
       </c>
-      <c r="P50" s="2" t="s">
-        <v>62</v>
+      <c r="P50" s="2">
+        <v>0</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R50" s="2">
+        <v>64</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S50" s="2">
         <v>30</v>
       </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
       <c r="T50" s="2">
         <v>0</v>
       </c>
@@ -5729,11 +5871,11 @@
         <v>0</v>
       </c>
       <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
         <v>20</v>
       </c>
-      <c r="W50" s="2">
-        <v>0</v>
-      </c>
       <c r="X50" s="2">
         <v>0</v>
       </c>
@@ -5749,12 +5891,15 @@
       <c r="AB50" s="2">
         <v>0</v>
       </c>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="2">
+      <c r="AC50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="3:30">
+    <row r="51" s="2" customFormat="1" spans="3:31">
       <c r="C51" s="2">
         <v>12006</v>
       </c>
@@ -5762,10 +5907,10 @@
         <v>2006</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
@@ -5791,14 +5936,14 @@
       <c r="O51" s="2">
         <v>0</v>
       </c>
-      <c r="P51" s="2" t="s">
-        <v>62</v>
+      <c r="P51" s="2">
+        <v>0</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
@@ -5810,11 +5955,11 @@
         <v>0</v>
       </c>
       <c r="V51" s="2">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
         <v>50</v>
       </c>
-      <c r="W51" s="2">
-        <v>0</v>
-      </c>
       <c r="X51" s="2">
         <v>0</v>
       </c>
@@ -5830,11 +5975,14 @@
       <c r="AB51" s="2">
         <v>0</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AC51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="3:30">
+    <row r="52" s="2" customFormat="1" spans="3:31">
       <c r="C52" s="2">
         <v>12007</v>
       </c>
@@ -5842,10 +5990,10 @@
         <v>2007</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5869,32 +6017,32 @@
         <v>9999</v>
       </c>
       <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
         <v>3</v>
       </c>
-      <c r="P52" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q52" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R52" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
         <v>5</v>
-      </c>
-      <c r="T52" s="2">
-        <v>3</v>
       </c>
       <c r="U52" s="2">
         <v>3</v>
       </c>
       <c r="V52" s="2">
+        <v>3</v>
+      </c>
+      <c r="W52" s="2">
         <v>150</v>
       </c>
-      <c r="W52" s="2">
-        <v>0</v>
-      </c>
       <c r="X52" s="2">
         <v>0</v>
       </c>
@@ -5910,11 +6058,14 @@
       <c r="AB52" s="2">
         <v>0</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AC52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="3:30">
+    <row r="53" s="2" customFormat="1" spans="3:31">
       <c r="C53" s="2">
         <v>13001</v>
       </c>
@@ -5922,10 +6073,10 @@
         <v>3001</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G53" s="2">
         <v>4</v>
@@ -5951,14 +6102,14 @@
       <c r="O53" s="2">
         <v>0</v>
       </c>
-      <c r="P53" s="2" t="s">
-        <v>62</v>
+      <c r="P53" s="2">
+        <v>0</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R53" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
@@ -5970,11 +6121,11 @@
         <v>0</v>
       </c>
       <c r="V53" s="2">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
         <v>50</v>
       </c>
-      <c r="W53" s="2">
-        <v>0</v>
-      </c>
       <c r="X53" s="2">
         <v>0</v>
       </c>
@@ -5990,11 +6141,14 @@
       <c r="AB53" s="2">
         <v>0</v>
       </c>
-      <c r="AD53" s="2">
+      <c r="AC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="3:30">
+    <row r="54" s="2" customFormat="1" spans="3:31">
       <c r="C54" s="2">
         <v>13002</v>
       </c>
@@ -6002,10 +6156,10 @@
         <v>3002</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6029,32 +6183,32 @@
         <v>9999</v>
       </c>
       <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
         <v>3</v>
       </c>
-      <c r="P54" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R54" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="S54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="2">
         <v>0</v>
       </c>
       <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
         <v>120</v>
       </c>
-      <c r="W54" s="2">
-        <v>0</v>
-      </c>
       <c r="X54" s="2">
         <v>0</v>
       </c>
@@ -6070,11 +6224,14 @@
       <c r="AB54" s="2">
         <v>0</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AC54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="3:30">
+    <row r="55" s="2" customFormat="1" spans="3:31">
       <c r="C55" s="2">
         <v>13003</v>
       </c>
@@ -6082,10 +6239,10 @@
         <v>3003</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6109,38 +6266,38 @@
         <v>9999</v>
       </c>
       <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
         <v>2</v>
       </c>
-      <c r="P55" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R55" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
         <v>5</v>
       </c>
-      <c r="T55" s="2">
-        <v>0</v>
-      </c>
       <c r="U55" s="2">
         <v>0</v>
       </c>
       <c r="V55" s="2">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
         <v>35</v>
       </c>
-      <c r="W55" s="2">
-        <v>0</v>
-      </c>
       <c r="X55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2">
         <v>100</v>
       </c>
-      <c r="Y55" s="2">
-        <v>0</v>
-      </c>
       <c r="Z55" s="2">
         <v>0</v>
       </c>
@@ -6150,11 +6307,14 @@
       <c r="AB55" s="2">
         <v>0</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AC55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="3:30">
+    <row r="56" s="2" customFormat="1" spans="3:31">
       <c r="C56" s="2">
         <v>13004</v>
       </c>
@@ -6162,10 +6322,10 @@
         <v>3004</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
@@ -6191,30 +6351,30 @@
       <c r="O56" s="2">
         <v>0</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>62</v>
+      <c r="P56" s="2">
+        <v>0</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R56" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="S56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="2">
         <v>0</v>
       </c>
       <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
         <v>100</v>
       </c>
-      <c r="W56" s="2">
-        <v>0</v>
-      </c>
       <c r="X56" s="2">
         <v>0</v>
       </c>
@@ -6230,11 +6390,14 @@
       <c r="AB56" s="2">
         <v>0</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="3:30">
+    <row r="57" s="2" customFormat="1" spans="3:31">
       <c r="C57" s="2">
         <v>13005</v>
       </c>
@@ -6242,10 +6405,10 @@
         <v>3005</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
@@ -6271,18 +6434,18 @@
       <c r="O57" s="2">
         <v>0</v>
       </c>
-      <c r="P57" s="2" t="s">
-        <v>62</v>
+      <c r="P57" s="2">
+        <v>0</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R57" s="2">
+        <v>64</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S57" s="2">
         <v>30</v>
       </c>
-      <c r="S57" s="2">
-        <v>0</v>
-      </c>
       <c r="T57" s="2">
         <v>0</v>
       </c>
@@ -6290,11 +6453,11 @@
         <v>0</v>
       </c>
       <c r="V57" s="2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
         <v>20</v>
       </c>
-      <c r="W57" s="2">
-        <v>0</v>
-      </c>
       <c r="X57" s="2">
         <v>0</v>
       </c>
@@ -6310,12 +6473,15 @@
       <c r="AB57" s="2">
         <v>0</v>
       </c>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="2">
+      <c r="AC57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="3:30">
+    <row r="58" s="2" customFormat="1" spans="3:31">
       <c r="C58" s="2">
         <v>13006</v>
       </c>
@@ -6323,10 +6489,10 @@
         <v>3006</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G58" s="2">
         <v>6</v>
@@ -6350,16 +6516,16 @@
         <v>9999</v>
       </c>
       <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
         <v>3</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Q58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R58" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="S58" s="2">
         <v>0</v>
@@ -6371,11 +6537,11 @@
         <v>0</v>
       </c>
       <c r="V58" s="2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
         <v>50</v>
       </c>
-      <c r="W58" s="2">
-        <v>0</v>
-      </c>
       <c r="X58" s="2">
         <v>0</v>
       </c>
@@ -6391,11 +6557,14 @@
       <c r="AB58" s="2">
         <v>0</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="3:30">
+    <row r="59" s="2" customFormat="1" spans="3:31">
       <c r="C59" s="2">
         <v>13007</v>
       </c>
@@ -6403,10 +6572,10 @@
         <v>3007</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G59" s="2">
         <v>2</v>
@@ -6430,32 +6599,32 @@
         <v>9999</v>
       </c>
       <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
         <v>2</v>
       </c>
-      <c r="P59" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q59" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R59" s="2">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
         <v>2</v>
       </c>
-      <c r="T59" s="2">
-        <v>0</v>
-      </c>
       <c r="U59" s="2">
         <v>0</v>
       </c>
       <c r="V59" s="2">
+        <v>0</v>
+      </c>
+      <c r="W59" s="2">
         <v>120</v>
       </c>
-      <c r="W59" s="2">
-        <v>0</v>
-      </c>
       <c r="X59" s="2">
         <v>0</v>
       </c>
@@ -6471,15 +6640,19 @@
       <c r="AB59" s="2">
         <v>0</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AC59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="5:14">
+    <row r="60" s="2" customFormat="1" spans="5:15">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="J60" s="1"/>
       <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6568,218 +6741,218 @@
         <v>11</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:28">
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:28">
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="6:6">

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1900,7 +1900,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="O7" s="2">
         <v>2</v>
@@ -2421,7 +2421,7 @@
         <v>300</v>
       </c>
       <c r="O8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="O9" s="2">
         <v>4</v>
@@ -2593,10 +2593,10 @@
         <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="O10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -2768,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O12" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
@@ -2943,10 +2943,10 @@
         <v>2</v>
       </c>
       <c r="N14" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="2">
         <v>2</v>
@@ -3029,10 +3029,10 @@
         <v>2</v>
       </c>
       <c r="N15" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="O15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" s="2">
         <v>3</v>
@@ -3118,7 +3118,7 @@
         <v>300</v>
       </c>
       <c r="O16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" s="2">
         <v>3</v>
@@ -3201,10 +3201,10 @@
         <v>2</v>
       </c>
       <c r="N17" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="O17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P17" s="2">
         <v>3</v>
@@ -3287,10 +3287,10 @@
         <v>2</v>
       </c>
       <c r="N18" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="O18" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O19" s="2">
         <v>1</v>
@@ -3462,10 +3462,10 @@
         <v>2</v>
       </c>
       <c r="N20" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P20" s="2">
         <v>3</v>
@@ -3551,7 +3551,7 @@
         <v>10</v>
       </c>
       <c r="O21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P21" s="2">
         <v>0</v>
@@ -3637,10 +3637,10 @@
         <v>3</v>
       </c>
       <c r="N22" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="O23" s="2">
         <v>2</v>
@@ -3812,7 +3812,7 @@
         <v>300</v>
       </c>
       <c r="O24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24" s="2">
         <v>2</v>
@@ -3898,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="N25" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="O25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
@@ -3984,10 +3984,10 @@
         <v>3</v>
       </c>
       <c r="N26" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="O26" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O27" s="2">
         <v>1</v>
@@ -4159,10 +4159,10 @@
         <v>3</v>
       </c>
       <c r="N28" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P28" s="2">
         <v>2</v>
@@ -4248,7 +4248,7 @@
         <v>10</v>
       </c>
       <c r="O29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
     <t>武力盾</t>
   </si>
   <si>
-    <t>生命和防御提升{2}%+{3}点,额外10%减伤,持续{4}秒</t>
+    <t>生命和防御提升{2}%,额外10%减伤,持续{4}秒</t>
   </si>
   <si>
     <t>Square</t>
@@ -774,7 +774,7 @@
     <t>武力精通</t>
   </si>
   <si>
-    <t>战士技能增加{2}%技能系数+{3}技能基础值</t>
+    <t>战士技能增加{2}%技能系数</t>
   </si>
   <si>
     <t>FullBox</t>
@@ -792,7 +792,7 @@
     <t>护体神盾</t>
   </si>
   <si>
-    <t>免疫控制,持续{4}秒. 增加1%比例回血和10%物理伤害持续180秒可叠加3层</t>
+    <t>免疫{4}秒控制,增加1%回血可叠3层</t>
   </si>
   <si>
     <t>"7,5,0,0","6,180,3,1","9,180,3,10"</t>
@@ -828,7 +828,7 @@
     <t>法术精通</t>
   </si>
   <si>
-    <t>法师技能增加{2}%技能系数+{3}技能基础值</t>
+    <t>法师技能增加{2}%技能系数</t>
   </si>
   <si>
     <t>冰咆哮</t>
@@ -840,7 +840,7 @@
     <t>瞬息移动</t>
   </si>
   <si>
-    <t>随机到一个空位,魔法伤害50%持续180s可叠加3层</t>
+    <t>随机到一个空位</t>
   </si>
   <si>
     <t>"10,180,3,50"</t>
@@ -870,7 +870,7 @@
     <t>召唤骷髅</t>
   </si>
   <si>
-    <t>召唤{1}只骷髅战斗</t>
+    <t>召唤{1}只骷髅战斗，额外继承{2}%人物属性</t>
   </si>
   <si>
     <t>道力盾</t>
@@ -879,19 +879,19 @@
     <t>道力精通</t>
   </si>
   <si>
-    <t>道士技能增加{2}%技能系数+{3}技能基础值</t>
+    <t>道士技能增加{2}%技能系数</t>
   </si>
   <si>
     <t>召唤神兽</t>
   </si>
   <si>
-    <t>召唤{1}只神兽战斗</t>
+    <t>召唤{1}只神兽战斗，额外继承{2}%人物属性</t>
   </si>
   <si>
     <t>隐身术</t>
   </si>
   <si>
-    <t>隐身持续{4}s,宠物30%伤害持续180s可叠加3层</t>
+    <t>隐身持续{4}s</t>
   </si>
   <si>
     <t>"8,180,3,30"</t>
@@ -1900,7 +1900,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3524,7 +3524,7 @@
         <v>102</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="G21" s="2">
         <v>2008</v>
@@ -4221,7 +4221,7 @@
         <v>119</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="G29" s="2">
         <v>3008</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
     <t>施毒术</t>
   </si>
   <si>
-    <t>对范围内{1}个敌人造成每秒{2}%道术+{3}点持续伤害</t>
+    <t>对范围内{1}个敌人造成每秒{2}%道术+{3}点持续伤害，无视60%防御</t>
   </si>
   <si>
     <t>"104,5,0,35"</t>
@@ -1897,10 +1897,10 @@
   <sheetPr/>
   <dimension ref="C3:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Z24" s="2">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="Z55" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="134">
   <si>
     <t>_ID</t>
   </si>
@@ -789,6 +789,9 @@
     <t>对{0}格内的{1}个敌人造成{2}%攻击+{3}点伤害</t>
   </si>
   <si>
+    <t>"103,4,0,25"</t>
+  </si>
+  <si>
     <t>护体神盾</t>
   </si>
   <si>
@@ -835,6 +838,9 @@
   </si>
   <si>
     <t>对范围内敌人造成{2}%魔法+{3}点伤害</t>
+  </si>
+  <si>
+    <t>"105,2,1,0"</t>
   </si>
   <si>
     <t>瞬息移动</t>
@@ -1114,7 +1120,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,6 +1130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,7 +1456,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1468,16 +1480,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1486,89 +1498,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1576,6 +1588,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1897,13 +1911,13 @@
   <sheetPr/>
   <dimension ref="C3:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y56" sqref="Y56"/>
+      <selection pane="bottomLeft" activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
@@ -1935,7 +1949,7 @@
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:34">
+    <row r="3" ht="13.5" spans="3:34">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="3:31">
+    <row r="4" ht="13.5" spans="3:31">
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -2122,7 +2136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="3:31">
+    <row r="5" ht="13.5" spans="3:31">
       <c r="C5" s="3" t="s">
         <v>59</v>
       </c>
@@ -2322,43 +2336,43 @@
       <c r="J7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
         <v>2</v>
       </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
         <v>300</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="5">
         <v>2</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="5">
         <v>2</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
         <v>2</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
         <v>150</v>
       </c>
       <c r="X7" s="2">
@@ -2758,20 +2772,20 @@
       <c r="J12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="6">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>300</v>
+      </c>
+      <c r="O12" s="6">
         <v>10</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
-        <v>200</v>
-      </c>
-      <c r="O12" s="2">
-        <v>6</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
@@ -2794,8 +2808,8 @@
       <c r="V12" s="2">
         <v>0</v>
       </c>
-      <c r="W12" s="2">
-        <v>300</v>
+      <c r="W12" s="6">
+        <v>500</v>
       </c>
       <c r="X12" s="2">
         <v>0</v>
@@ -2814,6 +2828,9 @@
       </c>
       <c r="AC12" s="2">
         <v>0</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="AE12" s="2">
         <v>50</v>
@@ -2827,7 +2844,7 @@
         <v>1008</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -2842,7 +2859,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="2">
         <v>30</v>
@@ -2902,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE13" s="2">
         <v>50</v>
@@ -2916,10 +2933,10 @@
         <v>2001</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2931,7 +2948,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2955,7 +2972,7 @@
         <v>74</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -3002,10 +3019,10 @@
         <v>2002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -3017,45 +3034,45 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
+        <v>91</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
         <v>2</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="5">
         <v>300</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="5">
         <v>3</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="5">
         <v>3</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
+      <c r="R15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>1</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
         <v>150</v>
       </c>
       <c r="X15" s="2">
@@ -3088,10 +3105,10 @@
         <v>2003</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>
@@ -3103,7 +3120,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="2">
         <v>10</v>
@@ -3174,10 +3191,10 @@
         <v>2004</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3189,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3260,10 +3277,10 @@
         <v>2005</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -3349,10 +3366,10 @@
         <v>2006</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G19" s="2">
         <v>6</v>
@@ -3364,7 +3381,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3435,10 +3452,10 @@
         <v>2007</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -3450,10 +3467,10 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="2">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="K20" s="6">
+        <v>5</v>
       </c>
       <c r="L20" s="2">
         <v>2</v>
@@ -3461,11 +3478,11 @@
       <c r="M20" s="2">
         <v>2</v>
       </c>
-      <c r="N20" s="2">
-        <v>200</v>
-      </c>
-      <c r="O20" s="2">
-        <v>4</v>
+      <c r="N20" s="6">
+        <v>300</v>
+      </c>
+      <c r="O20" s="6">
+        <v>6</v>
       </c>
       <c r="P20" s="2">
         <v>3</v>
@@ -3488,8 +3505,8 @@
       <c r="V20" s="2">
         <v>3</v>
       </c>
-      <c r="W20" s="2">
-        <v>150</v>
+      <c r="W20" s="6">
+        <v>300</v>
       </c>
       <c r="X20" s="2">
         <v>0</v>
@@ -3508,6 +3525,9 @@
       </c>
       <c r="AC20" s="2">
         <v>0</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="AE20" s="2">
         <v>50</v>
@@ -3521,10 +3541,10 @@
         <v>2008</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G21" s="2">
         <v>2008</v>
@@ -3536,7 +3556,7 @@
         <v>200</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K21" s="2">
         <v>30</v>
@@ -3596,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE21" s="2">
         <v>50</v>
@@ -3610,10 +3630,10 @@
         <v>3001</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -3625,7 +3645,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K22" s="2">
         <v>4</v>
@@ -3696,10 +3716,10 @@
         <v>3002</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -3711,7 +3731,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -3735,7 +3755,7 @@
         <v>74</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -3782,10 +3802,10 @@
         <v>3003</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -3797,7 +3817,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K24" s="2">
         <v>10</v>
@@ -3821,7 +3841,7 @@
         <v>74</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
@@ -3857,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE24" s="2">
         <v>50</v>
@@ -3871,10 +3891,10 @@
         <v>3004</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
@@ -3886,7 +3906,7 @@
         <v>100</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K25" s="2">
         <v>15</v>
@@ -3957,10 +3977,10 @@
         <v>3005</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -4046,10 +4066,10 @@
         <v>3006</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
@@ -4061,7 +4081,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4132,10 +4152,10 @@
         <v>3007</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
@@ -4147,7 +4167,7 @@
         <v>100</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K28" s="2">
         <v>30</v>
@@ -4218,10 +4238,10 @@
         <v>3008</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G29" s="2">
         <v>3008</v>
@@ -4233,7 +4253,7 @@
         <v>200</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K29" s="2">
         <v>30</v>
@@ -4293,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AE29" s="2">
         <v>50</v>
@@ -4307,10 +4327,10 @@
         <v>9001</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
@@ -4343,7 +4363,7 @@
         <v>64</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
@@ -4390,10 +4410,10 @@
         <v>9002</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G31" s="2">
         <v>9</v>
@@ -4474,10 +4494,10 @@
         <v>10001</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4489,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -4513,7 +4533,7 @@
         <v>74</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S33" s="2">
         <v>0</v>
@@ -4560,10 +4580,10 @@
         <v>10002</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1">
         <v>4</v>
@@ -4575,7 +4595,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -4647,10 +4667,10 @@
         <v>10003</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -4662,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -4734,10 +4754,10 @@
         <v>10004</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G36" s="1">
         <v>4</v>
@@ -4749,7 +4769,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -4770,7 +4790,7 @@
         <v>3</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>78</v>
@@ -4820,7 +4840,7 @@
         <v>10005</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>67</v>
@@ -4835,7 +4855,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -5491,10 +5511,10 @@
         <v>2001</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5527,7 +5547,7 @@
         <v>74</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S46" s="2">
         <v>0</v>
@@ -5574,10 +5594,10 @@
         <v>2002</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5610,7 +5630,7 @@
         <v>74</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S47" s="2">
         <v>0</v>
@@ -5657,10 +5677,10 @@
         <v>2003</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G48" s="2">
         <v>3</v>
@@ -5740,10 +5760,10 @@
         <v>2004</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5823,10 +5843,10 @@
         <v>2005</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G50" s="2">
         <v>5</v>
@@ -5907,10 +5927,10 @@
         <v>2006</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
@@ -5990,10 +6010,10 @@
         <v>2007</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -6073,10 +6093,10 @@
         <v>3001</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G53" s="2">
         <v>4</v>
@@ -6156,10 +6176,10 @@
         <v>3002</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6192,7 +6212,7 @@
         <v>74</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S54" s="2">
         <v>0</v>
@@ -6239,10 +6259,10 @@
         <v>3003</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6275,7 +6295,7 @@
         <v>74</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S55" s="2">
         <v>0</v>
@@ -6322,10 +6342,10 @@
         <v>3004</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
@@ -6405,10 +6425,10 @@
         <v>3005</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
@@ -6489,10 +6509,10 @@
         <v>3006</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G58" s="2">
         <v>6</v>
@@ -6572,10 +6592,10 @@
         <v>3007</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G59" s="2">
         <v>2</v>
@@ -6676,7 +6696,7 @@
       <selection activeCell="AB1" sqref="AB$1:AB$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
@@ -6706,7 +6726,7 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:31">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="3:31">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -6795,7 +6815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:28">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="3:28">
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -6875,7 +6895,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:28">
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="3:28">
       <c r="C5" s="3" t="s">
         <v>59</v>
       </c>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1580,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1588,7 +1588,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1912,12 +1911,12 @@
   <dimension ref="C3:AH60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AB20" sqref="AB20"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
@@ -1949,7 +1948,7 @@
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:34">
+    <row r="3" spans="3:34">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="3:31">
+    <row r="4" spans="3:31">
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -2136,7 +2135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:31">
+    <row r="5" spans="3:31">
       <c r="C5" s="3" t="s">
         <v>59</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -2336,43 +2335,43 @@
       <c r="J7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <v>2</v>
       </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
-        <v>300</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>350</v>
+      </c>
+      <c r="O7" s="2">
         <v>2</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="2">
         <v>2</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
         <v>2</v>
       </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
         <v>150</v>
       </c>
       <c r="X7" s="2">
@@ -2432,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -2518,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O9" s="2">
         <v>4</v>
@@ -2607,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
@@ -2696,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -2772,7 +2771,7 @@
       <c r="J12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>5</v>
       </c>
       <c r="L12" s="2">
@@ -2781,10 +2780,10 @@
       <c r="M12" s="2">
         <v>1</v>
       </c>
-      <c r="N12" s="6">
-        <v>300</v>
-      </c>
-      <c r="O12" s="6">
+      <c r="N12" s="2">
+        <v>350</v>
+      </c>
+      <c r="O12" s="5">
         <v>10</v>
       </c>
       <c r="P12" s="2">
@@ -2808,7 +2807,7 @@
       <c r="V12" s="2">
         <v>0</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="5">
         <v>500</v>
       </c>
       <c r="X12" s="2">
@@ -2829,7 +2828,7 @@
       <c r="AC12" s="2">
         <v>0</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AD12" s="5" t="s">
         <v>86</v>
       </c>
       <c r="AE12" s="2">
@@ -2871,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O13" s="2">
         <v>1</v>
@@ -2960,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="N14" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O14" s="2">
         <v>2</v>
@@ -3036,43 +3035,43 @@
       <c r="J15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
         <v>2</v>
       </c>
-      <c r="N15" s="5">
-        <v>300</v>
-      </c>
-      <c r="O15" s="5">
+      <c r="N15" s="2">
+        <v>350</v>
+      </c>
+      <c r="O15" s="2">
         <v>3</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="2">
         <v>3</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="S15" s="5">
-        <v>0</v>
-      </c>
-      <c r="T15" s="5">
-        <v>1</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
-      <c r="V15" s="5">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5">
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
         <v>150</v>
       </c>
       <c r="X15" s="2">
@@ -3132,7 +3131,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O16" s="2">
         <v>2</v>
@@ -3218,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O17" s="2">
         <v>2</v>
@@ -3304,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O18" s="2">
         <v>1</v>
@@ -3393,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O19" s="2">
         <v>1</v>
@@ -3469,7 +3468,7 @@
       <c r="J20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>5</v>
       </c>
       <c r="L20" s="2">
@@ -3478,10 +3477,10 @@
       <c r="M20" s="2">
         <v>2</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>300</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>6</v>
       </c>
       <c r="P20" s="2">
@@ -3505,7 +3504,7 @@
       <c r="V20" s="2">
         <v>3</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="5">
         <v>300</v>
       </c>
       <c r="X20" s="2">
@@ -3526,7 +3525,7 @@
       <c r="AC20" s="2">
         <v>0</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AD20" s="5" t="s">
         <v>103</v>
       </c>
       <c r="AE20" s="2">
@@ -3568,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O21" s="2">
         <v>1</v>
@@ -3657,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="N22" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O22" s="2">
         <v>3</v>
@@ -3743,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O23" s="2">
         <v>2</v>
@@ -3829,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O24" s="2">
         <v>2</v>
@@ -3918,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="O25" s="2">
         <v>2</v>
@@ -4004,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O26" s="2">
         <v>1</v>
@@ -4093,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O27" s="2">
         <v>1</v>
@@ -4179,7 +4178,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O28" s="2">
         <v>3</v>
@@ -4265,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O29" s="2">
         <v>1</v>
@@ -6696,7 +6695,7 @@
       <selection activeCell="AB1" sqref="AB$1:AB$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
@@ -6726,7 +6725,7 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="3:31">
+    <row r="3" s="1" customFormat="1" spans="3:31">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="3:28">
+    <row r="4" s="1" customFormat="1" spans="3:28">
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -6895,7 +6894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="3:28">
+    <row r="5" s="1" customFormat="1" spans="3:28">
       <c r="C5" s="3" t="s">
         <v>59</v>
       </c>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1911,9 +1911,9 @@
   <dimension ref="C3:AH60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3223,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>64</v>
@@ -3484,7 +3484,7 @@
         <v>6</v>
       </c>
       <c r="P20" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>74</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>64</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>74</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="135">
   <si>
     <t>_ID</t>
   </si>
@@ -789,7 +789,7 @@
     <t>对{0}格内的{1}个敌人造成{2}%攻击+{3}点伤害</t>
   </si>
   <si>
-    <t>"103,4,0,25"</t>
+    <t>"103,4,0,25","101,0,0,10"</t>
   </si>
   <si>
     <t>护体神盾</t>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t>怪物刺杀</t>
+  </si>
+  <si>
+    <t>"101,0,0,20"</t>
   </si>
 </sst>
 </file>
@@ -1908,12 +1911,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AH60"/>
+  <dimension ref="C3:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6672,6 +6675,92 @@
       <c r="J60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="3:31">
+      <c r="C61" s="2">
+        <v>21002</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1002</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>10</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>2</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1</v>
+      </c>
+      <c r="N61" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0</v>
+      </c>
+      <c r="T61" s="2">
+        <v>2</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0</v>
+      </c>
+      <c r="V61" s="2">
+        <v>0</v>
+      </c>
+      <c r="W61" s="2">
+        <v>150</v>
+      </c>
+      <c r="X61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="134">
   <si>
     <t>_ID</t>
   </si>
@@ -720,7 +720,7 @@
     <t>基础剑术</t>
   </si>
   <si>
-    <t>对{0}格内的{1}个敌人造成{2}%物攻+{3}点伤害</t>
+    <t>对{0}个敌人造成{1}%物攻伤害</t>
   </si>
   <si>
     <t>Self</t>
@@ -735,13 +735,13 @@
     <t>刺杀</t>
   </si>
   <si>
-    <t>对{0}格内的{1}个敌人造成{2}%物攻+{3}点伤害,忽视敌方50%防御</t>
+    <t>对直线内的敌人造成{1}%物攻伤害,忽视敌方50%防御</t>
   </si>
   <si>
     <t>半月弯刀</t>
   </si>
   <si>
-    <t>对周围的{1}个敌人造成{2}%物攻+{3}点伤害</t>
+    <t>对周围的{0}个敌人造成{1}%物攻伤害</t>
   </si>
   <si>
     <t>Arc</t>
@@ -750,7 +750,7 @@
     <t>野蛮撞击</t>
   </si>
   <si>
-    <t>对敌人造成{2}%攻击+{3}点伤害，并且晕眩2秒</t>
+    <t>对{0}个敌人造成{1}%物攻伤害，并且晕眩2秒</t>
   </si>
   <si>
     <t>Enemy</t>
@@ -762,7 +762,7 @@
     <t>武力盾</t>
   </si>
   <si>
-    <t>生命和防御提升{2}%,额外10%减伤,持续{4}秒</t>
+    <t>生命和防御提升{1}%,额外10%减伤,持续{2}秒</t>
   </si>
   <si>
     <t>Square</t>
@@ -774,7 +774,7 @@
     <t>武力精通</t>
   </si>
   <si>
-    <t>战士技能增加{2}%技能系数</t>
+    <t>战士技能增加{1}%技能系数</t>
   </si>
   <si>
     <t>FullBox</t>
@@ -786,16 +786,13 @@
     <t>烈火</t>
   </si>
   <si>
-    <t>对{0}格内的{1}个敌人造成{2}%攻击+{3}点伤害</t>
-  </si>
-  <si>
     <t>"103,4,0,25","101,0,0,10"</t>
   </si>
   <si>
     <t>护体神盾</t>
   </si>
   <si>
-    <t>免疫{4}秒控制,增加1%回血可叠3层</t>
+    <t>免疫{2}秒控制</t>
   </si>
   <si>
     <t>"7,5,0,0","6,180,3,1","9,180,3,10"</t>
@@ -804,7 +801,7 @@
     <t>小火球</t>
   </si>
   <si>
-    <t>对敌人造成{2}%魔法+{3}点伤害</t>
+    <t>对{0}个敌人敌人造成{1}%魔法伤害</t>
   </si>
   <si>
     <t>Circle</t>
@@ -816,7 +813,7 @@
     <t>火墙</t>
   </si>
   <si>
-    <t>施展一片持续5s的火墙，会踏入的敌人造成每秒{2}%魔法+{3}点伤害</t>
+    <t>施展{3}*{4}范围的火墙，持续{2}s，对其内的敌人每秒造成{1}%魔法伤害</t>
   </si>
   <si>
     <t>爆裂火焰</t>
@@ -825,21 +822,21 @@
     <t>抗拒火环</t>
   </si>
   <si>
+    <t>对{3}*{4}范围内的敌人造成{1}%魔法伤害</t>
+  </si>
+  <si>
     <t>魔法盾</t>
   </si>
   <si>
     <t>法术精通</t>
   </si>
   <si>
-    <t>法师技能增加{2}%技能系数</t>
+    <t>法师技能增加{1}%技能系数</t>
   </si>
   <si>
     <t>冰咆哮</t>
   </si>
   <si>
-    <t>对范围内敌人造成{2}%魔法+{3}点伤害</t>
-  </si>
-  <si>
     <t>"105,2,1,0"</t>
   </si>
   <si>
@@ -855,19 +852,19 @@
     <t>治疗术</t>
   </si>
   <si>
-    <t>回复自己{2}%道术+{3}点生命</t>
+    <t>回复自己{1}%道术的生命</t>
   </si>
   <si>
     <t>火符术</t>
   </si>
   <si>
-    <t>对敌人造成{2}%道术+{3}点伤害</t>
+    <t>对{0}个敌人造成{1}%道术伤害</t>
   </si>
   <si>
     <t>施毒术</t>
   </si>
   <si>
-    <t>对范围内{1}个敌人造成每秒{2}%道术+{3}点持续伤害，无视60%防御</t>
+    <t>对{0}个敌人造成每秒{1}%道术持续伤害，无视60%防御</t>
   </si>
   <si>
     <t>"104,5,0,35"</t>
@@ -876,7 +873,7 @@
     <t>召唤骷髅</t>
   </si>
   <si>
-    <t>召唤{1}只骷髅战斗，额外继承{2}%人物属性</t>
+    <t>召唤{0}只骷髅战斗，额外继承{1}%人物属性</t>
   </si>
   <si>
     <t>道力盾</t>
@@ -885,19 +882,19 @@
     <t>道力精通</t>
   </si>
   <si>
-    <t>道士技能增加{2}%技能系数</t>
+    <t>道士技能增加{1}%技能系数</t>
   </si>
   <si>
     <t>召唤神兽</t>
   </si>
   <si>
-    <t>召唤{1}只神兽战斗，额外继承{2}%人物属性</t>
+    <t>召唤{0}只神兽战斗，额外继承{1}%人物属性</t>
   </si>
   <si>
     <t>隐身术</t>
   </si>
   <si>
-    <t>隐身持续{4}s</t>
+    <t>隐身持续{2}s</t>
   </si>
   <si>
     <t>"8,180,3,30"</t>
@@ -1913,10 +1910,10 @@
   <sheetPr/>
   <dimension ref="C3:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AD13" sqref="AD13"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2526,7 +2523,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>74</v>
@@ -2772,7 +2769,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="K12" s="5">
         <v>5</v>
@@ -2832,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE12" s="2">
         <v>50</v>
@@ -2846,7 +2843,7 @@
         <v>1008</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -2861,7 +2858,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13" s="2">
         <v>30</v>
@@ -2921,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE13" s="2">
         <v>50</v>
@@ -2935,10 +2932,10 @@
         <v>2001</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2950,7 +2947,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2974,7 +2971,7 @@
         <v>74</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -3021,10 +3018,10 @@
         <v>2002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -3036,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3060,7 +3057,7 @@
         <v>74</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
@@ -3107,10 +3104,10 @@
         <v>2003</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>
@@ -3122,7 +3119,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="2">
         <v>10</v>
@@ -3149,7 +3146,7 @@
         <v>78</v>
       </c>
       <c r="S16" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" s="2">
         <v>5</v>
@@ -3193,10 +3190,10 @@
         <v>2004</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3208,7 +3205,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3469,7 +3466,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K20" s="5">
         <v>5</v>
@@ -3529,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE20" s="2">
         <v>50</v>
@@ -3543,10 +3540,10 @@
         <v>2008</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" s="2">
         <v>2008</v>
@@ -3558,7 +3555,7 @@
         <v>200</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" s="2">
         <v>30</v>
@@ -3618,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE21" s="2">
         <v>50</v>
@@ -3632,10 +3629,10 @@
         <v>3001</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -3647,7 +3644,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K22" s="2">
         <v>4</v>
@@ -3718,10 +3715,10 @@
         <v>3002</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -3733,7 +3730,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -3757,7 +3754,7 @@
         <v>74</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -3804,10 +3801,10 @@
         <v>3003</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -3819,7 +3816,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K24" s="2">
         <v>10</v>
@@ -3843,7 +3840,7 @@
         <v>74</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
@@ -3879,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE24" s="2">
         <v>50</v>
@@ -3893,10 +3890,10 @@
         <v>3004</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
@@ -3908,7 +3905,7 @@
         <v>100</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K25" s="2">
         <v>15</v>
@@ -3979,10 +3976,10 @@
         <v>3005</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -4068,10 +4065,10 @@
         <v>3006</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
@@ -4083,7 +4080,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4154,10 +4151,10 @@
         <v>3007</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
@@ -4169,7 +4166,7 @@
         <v>100</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K28" s="2">
         <v>30</v>
@@ -4240,10 +4237,10 @@
         <v>3008</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G29" s="2">
         <v>3008</v>
@@ -4255,7 +4252,7 @@
         <v>200</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K29" s="2">
         <v>30</v>
@@ -4315,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE29" s="2">
         <v>50</v>
@@ -4329,10 +4326,10 @@
         <v>9001</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
@@ -4365,7 +4362,7 @@
         <v>64</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
@@ -4412,10 +4409,10 @@
         <v>9002</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G31" s="2">
         <v>9</v>
@@ -4496,11 +4493,11 @@
         <v>10001</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
@@ -4511,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -4535,7 +4532,7 @@
         <v>74</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S33" s="2">
         <v>0</v>
@@ -4582,10 +4579,10 @@
         <v>10002</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" s="1">
         <v>4</v>
@@ -4597,7 +4594,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -4669,10 +4666,10 @@
         <v>10003</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -4684,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -4756,10 +4753,10 @@
         <v>10004</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" s="1">
         <v>4</v>
@@ -4771,7 +4768,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -4792,7 +4789,7 @@
         <v>3</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>78</v>
@@ -4842,7 +4839,7 @@
         <v>10005</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>67</v>
@@ -4857,7 +4854,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -5513,10 +5510,10 @@
         <v>2001</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5549,7 +5546,7 @@
         <v>74</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="2">
         <v>0</v>
@@ -5596,10 +5593,10 @@
         <v>2002</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5632,7 +5629,7 @@
         <v>74</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="2">
         <v>0</v>
@@ -5679,10 +5676,10 @@
         <v>2003</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G48" s="2">
         <v>3</v>
@@ -5762,10 +5759,10 @@
         <v>2004</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -6095,10 +6092,10 @@
         <v>3001</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G53" s="2">
         <v>4</v>
@@ -6178,10 +6175,10 @@
         <v>3002</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6214,7 +6211,7 @@
         <v>74</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S54" s="2">
         <v>0</v>
@@ -6261,10 +6258,10 @@
         <v>3003</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6297,7 +6294,7 @@
         <v>74</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S55" s="2">
         <v>0</v>
@@ -6344,10 +6341,10 @@
         <v>3004</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
@@ -6427,10 +6424,10 @@
         <v>3005</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
@@ -6511,10 +6508,10 @@
         <v>3006</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G58" s="2">
         <v>6</v>
@@ -6594,10 +6591,10 @@
         <v>3007</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G59" s="2">
         <v>2</v>
@@ -6756,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE61" s="2">
         <v>50</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1913,7 +1913,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O18" s="2">
         <v>1</v>
@@ -3392,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O19" s="2">
         <v>1</v>
@@ -4003,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O26" s="2">
         <v>1</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O27" s="2">
         <v>1</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="137">
   <si>
     <t>_ID</t>
   </si>
@@ -747,6 +747,9 @@
     <t>Arc</t>
   </si>
   <si>
+    <t>"14,60,3,10"</t>
+  </si>
+  <si>
     <t>野蛮撞击</t>
   </si>
   <si>
@@ -756,7 +759,7 @@
     <t>Enemy</t>
   </si>
   <si>
-    <t>"106,0,0,0"</t>
+    <t>"306,2,0,0"</t>
   </si>
   <si>
     <t>武力盾</t>
@@ -768,7 +771,7 @@
     <t>Square</t>
   </si>
   <si>
-    <t>"1301,0,0,10","4,0,0,100","5,0,0,100"</t>
+    <t>"14,0,0,10","4,0,0,100","5,0,0,100"</t>
   </si>
   <si>
     <t>武力精通</t>
@@ -795,7 +798,7 @@
     <t>免疫{2}秒控制</t>
   </si>
   <si>
-    <t>"7,5,0,0","6,180,3,1","9,180,3,10"</t>
+    <t>"401,5,0,0","6,180,3,1","9,180,3,10"</t>
   </si>
   <si>
     <t>小火球</t>
@@ -810,6 +813,9 @@
     <t>雷电术</t>
   </si>
   <si>
+    <t>对{0}个敌人敌人造成{1}%魔法伤害,忽视敌方50%防御</t>
+  </si>
+  <si>
     <t>火墙</t>
   </si>
   <si>
@@ -825,6 +831,9 @@
     <t>对{3}*{4}范围内的敌人造成{1}%魔法伤害</t>
   </si>
   <si>
+    <t>"12,60,3,10"</t>
+  </si>
+  <si>
     <t>魔法盾</t>
   </si>
   <si>
@@ -837,7 +846,7 @@
     <t>冰咆哮</t>
   </si>
   <si>
-    <t>"105,2,1,0"</t>
+    <t>"305,2,1,0"</t>
   </si>
   <si>
     <t>瞬息移动</t>
@@ -1910,10 +1919,10 @@
   <sheetPr/>
   <dimension ref="C3:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomLeft" activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2378,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Z7" s="2">
         <v>0</v>
@@ -2478,6 +2487,9 @@
       <c r="AC8" s="2">
         <v>0</v>
       </c>
+      <c r="AD8" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="AE8" s="2">
         <v>50</v>
       </c>
@@ -2490,10 +2502,10 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
         <v>9</v>
@@ -2505,7 +2517,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2">
         <v>10</v>
@@ -2526,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>65</v>
@@ -2565,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" s="2">
         <v>50</v>
@@ -2579,10 +2591,10 @@
         <v>1005</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
@@ -2594,7 +2606,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="2">
         <v>55</v>
@@ -2618,7 +2630,7 @@
         <v>64</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S10" s="2">
         <v>30</v>
@@ -2654,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" s="2">
         <v>50</v>
@@ -2668,10 +2680,10 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
@@ -2683,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2707,7 +2719,7 @@
         <v>64</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
@@ -2754,10 +2766,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -2829,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE12" s="2">
         <v>50</v>
@@ -2843,10 +2855,10 @@
         <v>1008</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" s="2">
         <v>1008</v>
@@ -2858,7 +2870,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="2">
         <v>30</v>
@@ -2882,7 +2894,7 @@
         <v>64</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S13" s="2">
         <v>5</v>
@@ -2918,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE13" s="2">
         <v>50</v>
@@ -2932,10 +2944,10 @@
         <v>2001</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2947,7 +2959,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2968,10 +2980,10 @@
         <v>2</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -3018,10 +3030,10 @@
         <v>2002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -3033,7 +3045,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3054,10 +3066,10 @@
         <v>3</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
@@ -3078,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z15" s="2">
         <v>0</v>
@@ -3104,10 +3116,10 @@
         <v>2003</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>
@@ -3119,7 +3131,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K16" s="2">
         <v>10</v>
@@ -3140,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S16" s="2">
         <v>10</v>
@@ -3190,10 +3202,10 @@
         <v>2004</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3205,7 +3217,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3229,7 +3241,7 @@
         <v>64</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
@@ -3263,6 +3275,9 @@
       </c>
       <c r="AC17" s="2">
         <v>0</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="AE17" s="2">
         <v>50</v>
@@ -3276,10 +3291,10 @@
         <v>2005</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -3291,7 +3306,7 @@
         <v>50</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" s="2">
         <v>55</v>
@@ -3315,7 +3330,7 @@
         <v>64</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S18" s="2">
         <v>30</v>
@@ -3351,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE18" s="2">
         <v>50</v>
@@ -3365,10 +3380,10 @@
         <v>2006</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G19" s="2">
         <v>6</v>
@@ -3380,7 +3395,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3404,7 +3419,7 @@
         <v>64</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
@@ -3451,10 +3466,10 @@
         <v>2007</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -3466,7 +3481,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K20" s="5">
         <v>5</v>
@@ -3487,10 +3502,10 @@
         <v>5</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
@@ -3526,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AE20" s="2">
         <v>50</v>
@@ -3540,10 +3555,10 @@
         <v>2008</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G21" s="2">
         <v>2008</v>
@@ -3555,7 +3570,7 @@
         <v>200</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K21" s="2">
         <v>30</v>
@@ -3579,7 +3594,7 @@
         <v>64</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -3615,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AE21" s="2">
         <v>50</v>
@@ -3629,10 +3644,10 @@
         <v>3001</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -3644,7 +3659,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K22" s="2">
         <v>4</v>
@@ -3668,7 +3683,7 @@
         <v>64</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
@@ -3715,10 +3730,10 @@
         <v>3002</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -3730,7 +3745,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -3751,10 +3766,10 @@
         <v>3</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -3801,10 +3816,10 @@
         <v>3003</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -3816,7 +3831,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K24" s="2">
         <v>10</v>
@@ -3837,10 +3852,10 @@
         <v>2</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
@@ -3876,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AE24" s="2">
         <v>50</v>
@@ -3890,10 +3905,10 @@
         <v>3004</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
@@ -3905,7 +3920,7 @@
         <v>100</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K25" s="2">
         <v>15</v>
@@ -3929,7 +3944,7 @@
         <v>64</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S25" s="2">
         <v>0</v>
@@ -3976,10 +3991,10 @@
         <v>3005</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -3991,7 +4006,7 @@
         <v>50</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26" s="2">
         <v>55</v>
@@ -4015,7 +4030,7 @@
         <v>64</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S26" s="2">
         <v>30</v>
@@ -4051,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE26" s="2">
         <v>50</v>
@@ -4065,10 +4080,10 @@
         <v>3006</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
@@ -4080,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4104,7 +4119,7 @@
         <v>64</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
@@ -4151,10 +4166,10 @@
         <v>3007</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
@@ -4166,7 +4181,7 @@
         <v>100</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K28" s="2">
         <v>30</v>
@@ -4187,10 +4202,10 @@
         <v>2</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
@@ -4237,10 +4252,10 @@
         <v>3008</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G29" s="2">
         <v>3008</v>
@@ -4252,7 +4267,7 @@
         <v>200</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K29" s="2">
         <v>30</v>
@@ -4276,7 +4291,7 @@
         <v>64</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S29" s="2">
         <v>5</v>
@@ -4312,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE29" s="2">
         <v>50</v>
@@ -4326,10 +4341,10 @@
         <v>9001</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
@@ -4362,7 +4377,7 @@
         <v>64</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
@@ -4409,10 +4424,10 @@
         <v>9002</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G31" s="2">
         <v>9</v>
@@ -4493,10 +4508,10 @@
         <v>10001</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4508,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -4529,10 +4544,10 @@
         <v>3</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S33" s="2">
         <v>0</v>
@@ -4579,10 +4594,10 @@
         <v>10002</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G34" s="1">
         <v>4</v>
@@ -4594,7 +4609,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -4666,11 +4681,11 @@
         <v>10003</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G35" s="1">
         <v>1</v>
       </c>
@@ -4681,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -4702,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S35" s="2">
         <v>0</v>
@@ -4753,10 +4768,10 @@
         <v>10004</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G36" s="1">
         <v>4</v>
@@ -4768,7 +4783,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -4789,10 +4804,10 @@
         <v>3</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -4839,7 +4854,7 @@
         <v>10005</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>67</v>
@@ -4854,7 +4869,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -5174,10 +5189,10 @@
         <v>1004</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G42" s="2">
         <v>9</v>
@@ -5207,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>65</v>
@@ -5246,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE42" s="2">
         <v>50</v>
@@ -5260,10 +5275,10 @@
         <v>1005</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" s="2">
         <v>5</v>
@@ -5296,7 +5311,7 @@
         <v>64</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S43" s="2">
         <v>30</v>
@@ -5344,10 +5359,10 @@
         <v>1006</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G44" s="2">
         <v>6</v>
@@ -5380,7 +5395,7 @@
         <v>64</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S44" s="2">
         <v>0</v>
@@ -5427,10 +5442,10 @@
         <v>1007</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5510,10 +5525,10 @@
         <v>2001</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5543,10 +5558,10 @@
         <v>2</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S46" s="2">
         <v>0</v>
@@ -5593,10 +5608,10 @@
         <v>2002</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5626,10 +5641,10 @@
         <v>3</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S47" s="2">
         <v>0</v>
@@ -5676,10 +5691,10 @@
         <v>2003</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G48" s="2">
         <v>3</v>
@@ -5709,10 +5724,10 @@
         <v>3</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S48" s="2">
         <v>5</v>
@@ -5759,10 +5774,10 @@
         <v>2004</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5795,7 +5810,7 @@
         <v>64</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S49" s="2">
         <v>0</v>
@@ -5842,10 +5857,10 @@
         <v>2005</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G50" s="2">
         <v>5</v>
@@ -5878,7 +5893,7 @@
         <v>64</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S50" s="2">
         <v>30</v>
@@ -5926,10 +5941,10 @@
         <v>2006</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
@@ -5962,7 +5977,7 @@
         <v>64</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
@@ -6009,10 +6024,10 @@
         <v>2007</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -6042,10 +6057,10 @@
         <v>5</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -6092,10 +6107,10 @@
         <v>3001</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G53" s="2">
         <v>4</v>
@@ -6128,7 +6143,7 @@
         <v>64</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
@@ -6175,10 +6190,10 @@
         <v>3002</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6208,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S54" s="2">
         <v>0</v>
@@ -6258,10 +6273,10 @@
         <v>3003</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6291,10 +6306,10 @@
         <v>2</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S55" s="2">
         <v>0</v>
@@ -6341,10 +6356,10 @@
         <v>3004</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
@@ -6377,7 +6392,7 @@
         <v>64</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S56" s="2">
         <v>0</v>
@@ -6424,10 +6439,10 @@
         <v>3005</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
@@ -6460,7 +6475,7 @@
         <v>64</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S57" s="2">
         <v>30</v>
@@ -6508,10 +6523,10 @@
         <v>3006</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G58" s="2">
         <v>6</v>
@@ -6544,7 +6559,7 @@
         <v>64</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S58" s="2">
         <v>0</v>
@@ -6591,10 +6606,10 @@
         <v>3007</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G59" s="2">
         <v>2</v>
@@ -6624,10 +6639,10 @@
         <v>2</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S59" s="2">
         <v>0</v>
@@ -6753,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AE61" s="2">
         <v>50</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1919,10 +1919,10 @@
   <sheetPr/>
   <dimension ref="C3:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AD9" sqref="AD9"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="138">
   <si>
     <t>_ID</t>
   </si>
@@ -798,7 +798,7 @@
     <t>免疫{2}秒控制</t>
   </si>
   <si>
-    <t>"401,5,0,0","6,180,3,1","9,180,3,10"</t>
+    <t>"401,5,0,0","6,360,3,1","9,360,3,10"</t>
   </si>
   <si>
     <t>小火球</t>
@@ -855,7 +855,7 @@
     <t>随机到一个空位</t>
   </si>
   <si>
-    <t>"10,180,3,50"</t>
+    <t>"10,360,3,50"</t>
   </si>
   <si>
     <t>治疗术</t>
@@ -906,7 +906,7 @@
     <t>隐身持续{2}s</t>
   </si>
   <si>
-    <t>"8,180,3,30"</t>
+    <t>"8,360,3,30"</t>
   </si>
   <si>
     <t>普攻</t>
@@ -937,6 +937,9 @@
   </si>
   <si>
     <t>怪物刺杀</t>
+  </si>
+  <si>
+    <t>"306,1,0,0"</t>
   </si>
   <si>
     <t>"101,0,0,20"</t>
@@ -1118,12 +1121,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1919,10 +1922,10 @@
   <sheetPr/>
   <dimension ref="C3:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5261,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AE42" s="2">
         <v>50</v>
@@ -6768,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE61" s="2">
         <v>50</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1121,12 +1121,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1922,10 +1922,10 @@
   <sheetPr/>
   <dimension ref="C3:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AD35" sqref="AD35"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O7" s="2">
         <v>2</v>
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O9" s="2">
         <v>4</v>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O12" s="5">
         <v>10</v>
@@ -2885,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O13" s="2">
         <v>1</v>
@@ -2974,7 +2974,7 @@
         <v>2</v>
       </c>
       <c r="N14" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O14" s="2">
         <v>2</v>
@@ -3060,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="N15" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O15" s="2">
         <v>3</v>
@@ -3146,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O16" s="2">
         <v>2</v>
@@ -3232,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O17" s="2">
         <v>2</v>
@@ -3321,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O18" s="2">
         <v>1</v>
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O19" s="2">
         <v>1</v>
@@ -3495,8 +3495,8 @@
       <c r="M20" s="2">
         <v>2</v>
       </c>
-      <c r="N20" s="5">
-        <v>300</v>
+      <c r="N20" s="2">
+        <v>400</v>
       </c>
       <c r="O20" s="5">
         <v>6</v>
@@ -3585,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O21" s="2">
         <v>1</v>
@@ -3674,7 +3674,7 @@
         <v>3</v>
       </c>
       <c r="N22" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O22" s="2">
         <v>3</v>
@@ -3760,7 +3760,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O23" s="2">
         <v>2</v>
@@ -3846,7 +3846,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O24" s="2">
         <v>2</v>
@@ -3935,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="O25" s="2">
         <v>2</v>
@@ -4021,7 +4021,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O26" s="2">
         <v>1</v>
@@ -4110,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O27" s="2">
         <v>1</v>
@@ -4196,7 +4196,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="2">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="O28" s="2">
         <v>3</v>
@@ -4282,7 +4282,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O29" s="2">
         <v>1</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1925,7 +1925,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,7 @@
     <t>武力盾</t>
   </si>
   <si>
-    <t>生命和防御提升{1}%,额外10%减伤,持续{2}秒</t>
+    <t>持续{2}秒</t>
   </si>
   <si>
     <t>Square</t>
@@ -1925,7 +1925,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="143">
   <si>
     <t>_ID</t>
   </si>
@@ -789,6 +789,9 @@
     <t>烈火</t>
   </si>
   <si>
+    <t>对{0}个敌人造成{1}%物攻伤害,忽视敌方50%防御</t>
+  </si>
+  <si>
     <t>"103,4,0,25","101,0,0,10"</t>
   </si>
   <si>
@@ -801,6 +804,9 @@
     <t>"401,5,0,0","6,360,3,1","9,360,3,10"</t>
   </si>
   <si>
+    <t>开天斩</t>
+  </si>
+  <si>
     <t>小火球</t>
   </si>
   <si>
@@ -858,6 +864,9 @@
     <t>"10,360,3,50"</t>
   </si>
   <si>
+    <t>流星火雨</t>
+  </si>
+  <si>
     <t>治疗术</t>
   </si>
   <si>
@@ -907,6 +916,12 @@
   </si>
   <si>
     <t>"8,360,3,30"</t>
+  </si>
+  <si>
+    <t>召唤月灵</t>
+  </si>
+  <si>
+    <t>召唤{0}只月灵战斗，额外继承{1}%人物属性</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1920,12 +1935,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AH61"/>
+  <dimension ref="C3:AH67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2784,7 +2799,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="K12" s="5">
         <v>5</v>
@@ -2829,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z12" s="2">
         <v>0</v>
@@ -2844,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE12" s="2">
         <v>50</v>
@@ -2858,7 +2873,7 @@
         <v>1008</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>77</v>
@@ -2873,7 +2888,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="2">
         <v>30</v>
@@ -2933,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE13" s="2">
         <v>50</v>
@@ -2941,16 +2956,16 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="3:31">
       <c r="C14" s="2">
-        <v>2001</v>
+        <v>1009</v>
       </c>
       <c r="D14" s="2">
-        <v>2001</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>90</v>
+        <v>1009</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2962,16 +2977,16 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <v>400</v>
@@ -2983,16 +2998,16 @@
         <v>2</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -3001,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X14" s="2">
         <v>0</v>
       </c>
       <c r="Y14" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z14" s="2">
         <v>0</v>
@@ -3025,107 +3040,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="3:31">
-      <c r="C15" s="2">
-        <v>2002</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>2</v>
-      </c>
-      <c r="N15" s="2">
-        <v>400</v>
-      </c>
-      <c r="O15" s="2">
-        <v>3</v>
-      </c>
-      <c r="P15" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>150</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>30</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>50</v>
-      </c>
+    <row r="15" s="2" customFormat="1" spans="5:6">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="3:31">
       <c r="C16" s="2">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D16" s="2">
-        <v>2003</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>95</v>
+        <v>2001</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -3134,13 +3067,13 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K16" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>2</v>
@@ -3152,28 +3085,28 @@
         <v>2</v>
       </c>
       <c r="P16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="S16" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T16" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="X16" s="2">
         <v>0</v>
@@ -3199,16 +3132,16 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="3:31">
       <c r="C17" s="2">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D17" s="2">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3220,13 +3153,13 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>2</v>
@@ -3235,37 +3168,37 @@
         <v>400</v>
       </c>
       <c r="O17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="X17" s="2">
         <v>0</v>
       </c>
       <c r="Y17" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z17" s="2">
         <v>0</v>
@@ -3278,9 +3211,6 @@
       </c>
       <c r="AC17" s="2">
         <v>0</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="AE17" s="2">
         <v>50</v>
@@ -3288,67 +3218,67 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="3:31">
       <c r="C18" s="2">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D18" s="2">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="K18" s="2">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="2">
         <v>2</v>
       </c>
       <c r="N18" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="O18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S18" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T18" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W18" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X18" s="2">
         <v>0</v>
@@ -3367,9 +3297,6 @@
       </c>
       <c r="AC18" s="2">
         <v>0</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="AE18" s="2">
         <v>50</v>
@@ -3377,19 +3304,19 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="3:31">
       <c r="C19" s="2">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D19" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>102</v>
+        <v>2004</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="G19" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -3398,46 +3325,46 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="2">
         <v>2</v>
       </c>
       <c r="N19" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="O19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="X19" s="2">
         <v>0</v>
@@ -3456,6 +3383,9 @@
       </c>
       <c r="AC19" s="2">
         <v>0</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="AE19" s="2">
         <v>50</v>
@@ -3463,67 +3393,67 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="3:31">
       <c r="C20" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D20" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="5">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="K20" s="2">
+        <v>55</v>
       </c>
       <c r="L20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>2</v>
       </c>
       <c r="N20" s="2">
-        <v>400</v>
-      </c>
-      <c r="O20" s="5">
-        <v>6</v>
+        <v>150</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
       </c>
       <c r="P20" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T20" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U20" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V20" s="2">
-        <v>3</v>
-      </c>
-      <c r="W20" s="5">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
       </c>
       <c r="X20" s="2">
         <v>0</v>
@@ -3543,8 +3473,8 @@
       <c r="AC20" s="2">
         <v>0</v>
       </c>
-      <c r="AD20" s="5" t="s">
-        <v>105</v>
+      <c r="AD20" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="AE20" s="2">
         <v>50</v>
@@ -3552,31 +3482,31 @@
     </row>
     <row r="21" s="2" customFormat="1" spans="3:31">
       <c r="C21" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D21" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>106</v>
+        <v>2006</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G21" s="2">
-        <v>2008</v>
+        <v>6</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K21" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -3585,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="O21" s="2">
         <v>1</v>
@@ -3612,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X21" s="2">
         <v>0</v>
@@ -3631,9 +3561,6 @@
       </c>
       <c r="AC21" s="2">
         <v>0</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AE21" s="2">
         <v>50</v>
@@ -3641,49 +3568,49 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="3:31">
       <c r="C22" s="2">
-        <v>3001</v>
+        <v>2007</v>
       </c>
       <c r="D22" s="2">
-        <v>3001</v>
+        <v>2007</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="2">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="K22" s="5">
+        <v>5</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" s="2">
         <v>400</v>
       </c>
-      <c r="O22" s="2">
-        <v>3</v>
+      <c r="O22" s="5">
+        <v>6</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>79</v>
@@ -3692,16 +3619,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="W22" s="5">
+        <v>300</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>
@@ -3720,6 +3647,9 @@
       </c>
       <c r="AC22" s="2">
         <v>0</v>
+      </c>
+      <c r="AD22" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="AE22" s="2">
         <v>50</v>
@@ -3727,58 +3657,58 @@
     </row>
     <row r="23" s="2" customFormat="1" spans="3:31">
       <c r="C23" s="2">
-        <v>3002</v>
+        <v>2008</v>
       </c>
       <c r="D23" s="2">
-        <v>3002</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>111</v>
+        <v>2008</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" s="2">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="O23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
       </c>
       <c r="T23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
@@ -3787,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2">
         <v>0</v>
@@ -3806,6 +3736,9 @@
       </c>
       <c r="AC23" s="2">
         <v>0</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="AE23" s="2">
         <v>50</v>
@@ -3813,19 +3746,19 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="3:31">
       <c r="C24" s="2">
-        <v>3003</v>
+        <v>2009</v>
       </c>
       <c r="D24" s="2">
-        <v>3003</v>
+        <v>2009</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -3834,16 +3767,16 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="K24" s="2">
         <v>10</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" s="2">
         <v>400</v>
@@ -3852,34 +3785,34 @@
         <v>2</v>
       </c>
       <c r="P24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T24" s="2">
         <v>5</v>
       </c>
       <c r="U24" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W24" s="2">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
       </c>
       <c r="Y24" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="2">
         <v>0</v>
@@ -3893,126 +3826,41 @@
       <c r="AC24" s="2">
         <v>0</v>
       </c>
-      <c r="AD24" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="AE24" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="3:31">
-      <c r="C25" s="2">
-        <v>3004</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3004</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>100</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="2">
-        <v>15</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
-        <v>3</v>
-      </c>
-      <c r="N25" s="2">
-        <v>400</v>
-      </c>
-      <c r="O25" s="2">
-        <v>2</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S25" s="2">
-        <v>0</v>
-      </c>
-      <c r="T25" s="2">
-        <v>1</v>
-      </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2">
-        <v>100</v>
-      </c>
-      <c r="X25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="2">
-        <v>50</v>
-      </c>
+    <row r="25" s="2" customFormat="1" spans="5:6">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="3:31">
       <c r="C26" s="2">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="D26" s="2">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="K26" s="2">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -4021,10 +3869,10 @@
         <v>3</v>
       </c>
       <c r="N26" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="O26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
@@ -4036,7 +3884,7 @@
         <v>79</v>
       </c>
       <c r="S26" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
@@ -4048,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
@@ -4067,9 +3915,6 @@
       </c>
       <c r="AC26" s="2">
         <v>0</v>
-      </c>
-      <c r="AD26" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="AE26" s="2">
         <v>50</v>
@@ -4077,19 +3922,19 @@
     </row>
     <row r="27" s="2" customFormat="1" spans="3:31">
       <c r="C27" s="2">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="D27" s="2">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G27" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -4098,7 +3943,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4110,25 +3955,25 @@
         <v>3</v>
       </c>
       <c r="N27" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="O27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" s="2">
         <v>3</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
@@ -4137,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="2">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -4163,31 +4008,31 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="3:31">
       <c r="C28" s="2">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="D28" s="2">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K28" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -4199,7 +4044,7 @@
         <v>400</v>
       </c>
       <c r="O28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P28" s="2">
         <v>2</v>
@@ -4208,13 +4053,13 @@
         <v>75</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
       </c>
       <c r="T28" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
@@ -4223,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="W28" s="2">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="X28" s="2">
         <v>0</v>
       </c>
       <c r="Y28" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z28" s="2">
         <v>0</v>
@@ -4242,6 +4087,9 @@
       </c>
       <c r="AC28" s="2">
         <v>0</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="AE28" s="2">
         <v>50</v>
@@ -4249,31 +4097,31 @@
     </row>
     <row r="29" s="2" customFormat="1" spans="3:31">
       <c r="C29" s="2">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="D29" s="2">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G29" s="2">
-        <v>3008</v>
+        <v>2</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K29" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -4282,10 +4130,10 @@
         <v>3</v>
       </c>
       <c r="N29" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="O29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" s="2">
         <v>0</v>
@@ -4297,10 +4145,10 @@
         <v>83</v>
       </c>
       <c r="S29" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
@@ -4309,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X29" s="2">
         <v>0</v>
@@ -4328,9 +4176,6 @@
       </c>
       <c r="AC29" s="2">
         <v>0</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="AE29" s="2">
         <v>50</v>
@@ -4338,55 +4183,58 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="3:31">
       <c r="C30" s="2">
-        <v>9001</v>
+        <v>3005</v>
       </c>
       <c r="D30" s="2">
-        <v>9001</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>126</v>
+        <v>3005</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G30" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="K30" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S30" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
@@ -4395,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2">
         <v>0</v>
@@ -4414,6 +4262,9 @@
       </c>
       <c r="AC30" s="2">
         <v>0</v>
+      </c>
+      <c r="AD30" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="AE30" s="2">
         <v>50</v>
@@ -4421,25 +4272,28 @@
     </row>
     <row r="31" s="2" customFormat="1" spans="3:31">
       <c r="C31" s="2">
-        <v>9002</v>
+        <v>3006</v>
       </c>
       <c r="D31" s="2">
-        <v>9002</v>
+        <v>3006</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G31" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -4448,28 +4302,28 @@
         <v>1</v>
       </c>
       <c r="M31" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="S31" s="2">
         <v>0</v>
       </c>
       <c r="T31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
@@ -4478,368 +4332,369 @@
         <v>0</v>
       </c>
       <c r="W31" s="2">
+        <v>50</v>
+      </c>
+      <c r="X31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="3:31">
+      <c r="C32" s="2">
+        <v>3007</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3007</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
         <v>100</v>
       </c>
-      <c r="X31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1"/>
+      <c r="J32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="2">
+        <v>30</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3</v>
+      </c>
+      <c r="N32" s="2">
+        <v>400</v>
+      </c>
+      <c r="O32" s="2">
+        <v>3</v>
+      </c>
+      <c r="P32" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <v>2</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>120</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>50</v>
+      </c>
+    </row>
     <row r="33" s="2" customFormat="1" spans="3:31">
       <c r="C33" s="2">
-        <v>10001</v>
+        <v>3008</v>
       </c>
       <c r="D33" s="2">
-        <v>10001</v>
-      </c>
-      <c r="E33" s="2" t="s">
+        <v>3008</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3008</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>200</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="2">
+        <v>30</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>3</v>
+      </c>
+      <c r="N33" s="2">
+        <v>20</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S33" s="2">
+        <v>5</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="AE33" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="3:31">
+      <c r="C34" s="2">
+        <v>3009</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3009</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2">
-        <v>1</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S33" s="2">
-        <v>0</v>
-      </c>
-      <c r="T33" s="2">
-        <v>1</v>
-      </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2">
-        <v>150</v>
-      </c>
-      <c r="X33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="3:31">
-      <c r="C34" s="1">
-        <v>10002</v>
-      </c>
-      <c r="D34" s="1">
-        <v>10002</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G34" s="1">
-        <v>4</v>
+      <c r="G34" s="2">
+        <v>2</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="I34" s="2">
+        <v>100</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" s="2">
+        <v>30</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>3</v>
+      </c>
+      <c r="N34" s="2">
+        <v>400</v>
+      </c>
+      <c r="O34" s="2">
+        <v>3</v>
+      </c>
+      <c r="P34" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>3</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>200</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="5:6">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="3:31">
+      <c r="C36" s="2">
+        <v>9001</v>
+      </c>
+      <c r="D36" s="2">
+        <v>9001</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2" t="s">
+      <c r="F36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="2">
+        <v>9</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S34" s="1">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1">
-        <v>1</v>
-      </c>
-      <c r="U34" s="2">
-        <v>0</v>
-      </c>
-      <c r="V34" s="2">
-        <v>0</v>
-      </c>
-      <c r="W34" s="1">
+      <c r="R36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
         <v>100</v>
       </c>
-      <c r="X34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="3:31">
-      <c r="C35" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D35" s="1">
-        <v>10003</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2">
-        <v>1</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S35" s="2">
-        <v>0</v>
-      </c>
-      <c r="T35" s="2">
-        <v>10</v>
-      </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2">
-        <v>100</v>
-      </c>
-      <c r="X35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="3:31">
-      <c r="C36" s="1">
-        <v>10004</v>
-      </c>
-      <c r="D36" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="1">
-        <v>4</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1</v>
-      </c>
-      <c r="M36" s="1">
-        <v>1</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1">
-        <v>4</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2">
-        <v>0</v>
-      </c>
-      <c r="W36" s="1">
-        <v>50</v>
-      </c>
-      <c r="X36" s="1">
+      <c r="X36" s="2">
         <v>0</v>
       </c>
       <c r="Y36" s="2">
         <v>0</v>
       </c>
-      <c r="Z36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="1">
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2">
         <v>0</v>
       </c>
       <c r="AC36" s="2">
@@ -4851,28 +4706,25 @@
     </row>
     <row r="37" s="2" customFormat="1" spans="3:31">
       <c r="C37" s="2">
-        <v>10005</v>
+        <v>9002</v>
       </c>
       <c r="D37" s="2">
-        <v>10005</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>67</v>
+        <v>9002</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>10</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -4883,7 +4735,7 @@
       <c r="M37" s="2">
         <v>1</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="2">
         <v>0</v>
       </c>
       <c r="O37" s="2">
@@ -4902,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
@@ -4911,13 +4763,13 @@
         <v>0</v>
       </c>
       <c r="W37" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="X37" s="2">
         <v>0</v>
       </c>
       <c r="Y37" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="2">
         <v>0</v>
@@ -4935,18 +4787,19 @@
         <v>50</v>
       </c>
     </row>
+    <row r="38" s="2" customFormat="1"/>
     <row r="39" s="2" customFormat="1" spans="3:31">
       <c r="C39" s="2">
-        <v>11001</v>
+        <v>10001</v>
       </c>
       <c r="D39" s="2">
-        <v>1001</v>
+        <v>10001</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>62</v>
+        <v>133</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4955,108 +4808,114 @@
         <v>0</v>
       </c>
       <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>1</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>150</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="3:31">
+      <c r="C40" s="1">
+        <v>10002</v>
+      </c>
+      <c r="D40" s="1">
+        <v>10002</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
         <v>10</v>
       </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1</v>
-      </c>
-      <c r="N39" s="2">
-        <v>9999</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
-      <c r="T39" s="2">
-        <v>1</v>
-      </c>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0</v>
-      </c>
-      <c r="W39" s="2">
-        <v>120</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="3:31">
-      <c r="C40" s="2">
-        <v>11002</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1002</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>10</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="J40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K40" s="1">
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
       </c>
       <c r="N40" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
       </c>
-      <c r="P40" s="2">
-        <v>2</v>
+      <c r="P40" s="1">
+        <v>0</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>64</v>
@@ -5064,11 +4923,11 @@
       <c r="R40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>2</v>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1</v>
       </c>
       <c r="U40" s="2">
         <v>0</v>
@@ -5076,14 +4935,14 @@
       <c r="V40" s="2">
         <v>0</v>
       </c>
-      <c r="W40" s="2">
-        <v>150</v>
+      <c r="W40" s="1">
+        <v>100</v>
       </c>
       <c r="X40" s="2">
         <v>0</v>
       </c>
       <c r="Y40" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="2">
         <v>0</v>
@@ -5097,61 +4956,65 @@
       <c r="AC40" s="2">
         <v>0</v>
       </c>
+      <c r="AD40" s="2"/>
       <c r="AE40" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="3:31">
-      <c r="C41" s="2">
-        <v>11003</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1003</v>
+    <row r="41" spans="3:31">
+      <c r="C41" s="1">
+        <v>10003</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10003</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="2">
+        <v>134</v>
+      </c>
+      <c r="G41" s="1">
         <v>1</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
         <v>10</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
-        <v>2</v>
-      </c>
-      <c r="M41" s="2">
-        <v>1</v>
-      </c>
-      <c r="N41" s="2">
-        <v>9999</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
-      <c r="T41" s="2">
-        <v>5</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
@@ -5180,61 +5043,65 @@
       <c r="AC41" s="2">
         <v>0</v>
       </c>
+      <c r="AD41" s="2"/>
       <c r="AE41" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="3:31">
-      <c r="C42" s="2">
-        <v>11004</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1004</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="2">
-        <v>9</v>
+    <row r="42" spans="3:31">
+      <c r="C42" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D42" s="1">
+        <v>10004</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>10</v>
       </c>
-      <c r="K42" s="2">
-        <v>5</v>
+      <c r="J42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
       </c>
       <c r="L42" s="2">
         <v>1</v>
       </c>
-      <c r="M42" s="2">
-        <v>1</v>
-      </c>
-      <c r="N42" s="2">
-        <v>9999</v>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
       </c>
-      <c r="P42" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S42" s="2">
-        <v>2</v>
-      </c>
-      <c r="T42" s="2">
-        <v>1</v>
+      <c r="P42" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>4</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
@@ -5242,29 +5109,26 @@
       <c r="V42" s="2">
         <v>0</v>
       </c>
-      <c r="W42" s="2">
-        <v>200</v>
-      </c>
-      <c r="X42" s="2">
+      <c r="W42" s="1">
+        <v>50</v>
+      </c>
+      <c r="X42" s="1">
         <v>0</v>
       </c>
       <c r="Y42" s="2">
         <v>0</v>
       </c>
-      <c r="Z42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="2">
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
         <v>0</v>
       </c>
       <c r="AC42" s="2">
         <v>0</v>
-      </c>
-      <c r="AD42" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="AE42" s="2">
         <v>50</v>
@@ -5272,28 +5136,31 @@
     </row>
     <row r="43" s="2" customFormat="1" spans="3:31">
       <c r="C43" s="2">
-        <v>11005</v>
+        <v>10005</v>
       </c>
       <c r="D43" s="2">
-        <v>1005</v>
+        <v>10005</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G43" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="K43" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
@@ -5301,26 +5168,26 @@
       <c r="M43" s="2">
         <v>1</v>
       </c>
-      <c r="N43" s="2">
-        <v>9999</v>
+      <c r="N43" s="1">
+        <v>0</v>
       </c>
       <c r="O43" s="2">
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="S43" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T43" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
@@ -5329,14 +5196,14 @@
         <v>0</v>
       </c>
       <c r="W43" s="2">
+        <v>150</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
         <v>20</v>
       </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
       <c r="Z43" s="2">
         <v>0</v>
       </c>
@@ -5349,106 +5216,22 @@
       <c r="AC43" s="2">
         <v>0</v>
       </c>
-      <c r="AD43" s="4"/>
       <c r="AE43" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="3:31">
-      <c r="C44" s="2">
-        <v>11006</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1006</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="2">
-        <v>6</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>10</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>1</v>
-      </c>
-      <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44" s="2">
-        <v>9999</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2">
-        <v>50</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="3:31">
       <c r="C45" s="2">
-        <v>11007</v>
+        <v>11001</v>
       </c>
       <c r="D45" s="2">
-        <v>1007</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>85</v>
+        <v>1001</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5496,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="2">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="X45" s="2">
         <v>0</v>
@@ -5522,16 +5305,16 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="3:31">
       <c r="C46" s="2">
-        <v>12001</v>
+        <v>11002</v>
       </c>
       <c r="D46" s="2">
-        <v>2001</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>90</v>
+        <v>1002</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5546,10 +5329,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46" s="2">
         <v>9999</v>
@@ -5561,16 +5344,16 @@
         <v>2</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="S46" s="2">
         <v>0</v>
       </c>
       <c r="T46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
@@ -5579,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="W46" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X46" s="2">
         <v>0</v>
       </c>
       <c r="Y46" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z46" s="2">
         <v>0</v>
@@ -5605,16 +5388,16 @@
     </row>
     <row r="47" s="2" customFormat="1" spans="3:31">
       <c r="C47" s="2">
-        <v>12002</v>
+        <v>11003</v>
       </c>
       <c r="D47" s="2">
-        <v>2002</v>
+        <v>1003</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5629,10 +5412,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47" s="2">
         <v>9999</v>
@@ -5641,19 +5424,19 @@
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="S47" s="2">
         <v>0</v>
       </c>
       <c r="T47" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
@@ -5662,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
@@ -5688,19 +5471,19 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="3:31">
       <c r="C48" s="2">
-        <v>12003</v>
+        <v>11004</v>
       </c>
       <c r="D48" s="2">
-        <v>2003</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>95</v>
+        <v>1004</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G48" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -5712,10 +5495,10 @@
         <v>5</v>
       </c>
       <c r="L48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" s="2">
         <v>9999</v>
@@ -5724,28 +5507,28 @@
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="S48" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T48" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U48" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V48" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W48" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="X48" s="2">
         <v>0</v>
@@ -5764,6 +5547,9 @@
       </c>
       <c r="AC48" s="2">
         <v>0</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="AE48" s="2">
         <v>50</v>
@@ -5771,34 +5557,34 @@
     </row>
     <row r="49" s="2" customFormat="1" spans="3:31">
       <c r="C49" s="2">
-        <v>12004</v>
+        <v>11005</v>
       </c>
       <c r="D49" s="2">
-        <v>2004</v>
+        <v>1005</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G49" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K49" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" s="2">
         <v>9999</v>
@@ -5807,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>64</v>
@@ -5816,19 +5602,19 @@
         <v>79</v>
       </c>
       <c r="S49" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T49" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U49" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V49" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W49" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="X49" s="2">
         <v>0</v>
@@ -5848,40 +5634,41 @@
       <c r="AC49" s="2">
         <v>0</v>
       </c>
+      <c r="AD49" s="4"/>
       <c r="AE49" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="3:31">
       <c r="C50" s="2">
-        <v>12005</v>
+        <v>11006</v>
       </c>
       <c r="D50" s="2">
-        <v>2005</v>
+        <v>1006</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G50" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K50" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2">
         <v>1</v>
       </c>
       <c r="M50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50" s="2">
         <v>9999</v>
@@ -5896,10 +5683,10 @@
         <v>64</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S50" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T50" s="2">
         <v>0</v>
@@ -5911,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="X50" s="2">
         <v>0</v>
@@ -5931,26 +5718,25 @@
       <c r="AC50" s="2">
         <v>0</v>
       </c>
-      <c r="AD50" s="4"/>
       <c r="AE50" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="3:31">
       <c r="C51" s="2">
-        <v>12006</v>
+        <v>11007</v>
       </c>
       <c r="D51" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>102</v>
+        <v>1007</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G51" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -5965,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="M51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51" s="2">
         <v>9999</v>
@@ -5974,19 +5760,19 @@
         <v>0</v>
       </c>
       <c r="P51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
       </c>
       <c r="T51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
@@ -5995,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="2">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="X51" s="2">
         <v>0</v>
@@ -6021,16 +5807,16 @@
     </row>
     <row r="52" s="2" customFormat="1" spans="3:31">
       <c r="C52" s="2">
-        <v>12007</v>
+        <v>12001</v>
       </c>
       <c r="D52" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>104</v>
+        <v>2001</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -6045,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
         <v>2</v>
@@ -6057,28 +5843,28 @@
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
       </c>
       <c r="T52" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U52" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V52" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W52" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="X52" s="2">
         <v>0</v>
@@ -6104,34 +5890,34 @@
     </row>
     <row r="53" s="2" customFormat="1" spans="3:31">
       <c r="C53" s="2">
-        <v>13001</v>
+        <v>12002</v>
       </c>
       <c r="D53" s="2">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G53" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K53" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L53" s="2">
         <v>1</v>
       </c>
       <c r="M53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N53" s="2">
         <v>9999</v>
@@ -6140,19 +5926,19 @@
         <v>0</v>
       </c>
       <c r="P53" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
       </c>
       <c r="T53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
@@ -6161,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="X53" s="2">
         <v>0</v>
@@ -6187,19 +5973,19 @@
     </row>
     <row r="54" s="2" customFormat="1" spans="3:31">
       <c r="C54" s="2">
-        <v>13002</v>
+        <v>12003</v>
       </c>
       <c r="D54" s="2">
-        <v>3002</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>111</v>
+        <v>2003</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G54" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -6208,13 +5994,13 @@
         <v>10</v>
       </c>
       <c r="K54" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N54" s="2">
         <v>9999</v>
@@ -6229,22 +6015,22 @@
         <v>75</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S54" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T54" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U54" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V54" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W54" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="X54" s="2">
         <v>0</v>
@@ -6270,16 +6056,16 @@
     </row>
     <row r="55" s="2" customFormat="1" spans="3:31">
       <c r="C55" s="2">
-        <v>13003</v>
+        <v>12004</v>
       </c>
       <c r="D55" s="2">
-        <v>3003</v>
+        <v>2004</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6291,13 +6077,13 @@
         <v>10</v>
       </c>
       <c r="K55" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N55" s="2">
         <v>9999</v>
@@ -6306,34 +6092,34 @@
         <v>0</v>
       </c>
       <c r="P55" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="S55" s="2">
         <v>0</v>
       </c>
       <c r="T55" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W55" s="2">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="X55" s="2">
         <v>0</v>
       </c>
       <c r="Y55" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="2">
         <v>0</v>
@@ -6353,34 +6139,34 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="3:31">
       <c r="C56" s="2">
-        <v>13004</v>
+        <v>12005</v>
       </c>
       <c r="D56" s="2">
-        <v>3004</v>
+        <v>2005</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G56" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K56" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L56" s="2">
         <v>1</v>
       </c>
       <c r="M56" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N56" s="2">
         <v>9999</v>
@@ -6395,13 +6181,13 @@
         <v>64</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="S56" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="2">
         <v>0</v>
@@ -6410,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="X56" s="2">
         <v>0</v>
@@ -6430,40 +6216,41 @@
       <c r="AC56" s="2">
         <v>0</v>
       </c>
+      <c r="AD56" s="4"/>
       <c r="AE56" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="3:31">
       <c r="C57" s="2">
-        <v>13005</v>
+        <v>12006</v>
       </c>
       <c r="D57" s="2">
-        <v>3005</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>118</v>
+        <v>2006</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G57" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K57" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L57" s="2">
         <v>1</v>
       </c>
       <c r="M57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N57" s="2">
         <v>9999</v>
@@ -6478,10 +6265,10 @@
         <v>64</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S57" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
@@ -6493,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="X57" s="2">
         <v>0</v>
@@ -6513,26 +6300,25 @@
       <c r="AC57" s="2">
         <v>0</v>
       </c>
-      <c r="AD57" s="4"/>
       <c r="AE57" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="3:31">
       <c r="C58" s="2">
-        <v>13006</v>
+        <v>12007</v>
       </c>
       <c r="D58" s="2">
-        <v>3006</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>119</v>
+        <v>2007</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G58" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -6544,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N58" s="2">
         <v>9999</v>
@@ -6556,28 +6342,28 @@
         <v>0</v>
       </c>
       <c r="P58" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>5</v>
+      </c>
+      <c r="U58" s="2">
         <v>3</v>
       </c>
-      <c r="Q58" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S58" s="2">
-        <v>0</v>
-      </c>
-      <c r="T58" s="2">
-        <v>0</v>
-      </c>
-      <c r="U58" s="2">
-        <v>0</v>
-      </c>
       <c r="V58" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W58" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="X58" s="2">
         <v>0</v>
@@ -6603,28 +6389,28 @@
     </row>
     <row r="59" s="2" customFormat="1" spans="3:31">
       <c r="C59" s="2">
-        <v>13007</v>
+        <v>13001</v>
       </c>
       <c r="D59" s="2">
-        <v>3007</v>
+        <v>3001</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G59" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K59" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L59" s="2">
         <v>1</v>
@@ -6639,10 +6425,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>79</v>
@@ -6651,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U59" s="2">
         <v>0</v>
@@ -6660,49 +6446,125 @@
         <v>0</v>
       </c>
       <c r="W59" s="2">
+        <v>50</v>
+      </c>
+      <c r="X59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="3:31">
+      <c r="C60" s="2">
+        <v>13002</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3002</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>10</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>3</v>
+      </c>
+      <c r="N60" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
+        <v>1</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0</v>
+      </c>
+      <c r="V60" s="2">
+        <v>0</v>
+      </c>
+      <c r="W60" s="2">
         <v>120</v>
       </c>
-      <c r="X59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" s="2" customFormat="1" spans="5:15">
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
+      <c r="X60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="61" s="2" customFormat="1" spans="3:31">
       <c r="C61" s="2">
-        <v>21002</v>
+        <v>13003</v>
       </c>
       <c r="D61" s="2">
-        <v>1002</v>
+        <v>3003</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6714,13 +6576,13 @@
         <v>10</v>
       </c>
       <c r="K61" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N61" s="2">
         <v>9999</v>
@@ -6732,48 +6594,471 @@
         <v>2</v>
       </c>
       <c r="Q61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0</v>
+      </c>
+      <c r="T61" s="2">
+        <v>5</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0</v>
+      </c>
+      <c r="V61" s="2">
+        <v>0</v>
+      </c>
+      <c r="W61" s="2">
+        <v>35</v>
+      </c>
+      <c r="X61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>65</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" spans="3:31">
+      <c r="C62" s="2">
+        <v>13004</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3004</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>100</v>
+      </c>
+      <c r="K62" s="2">
+        <v>15</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>3</v>
+      </c>
+      <c r="N62" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="2" t="s">
+      <c r="R62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0</v>
+      </c>
+      <c r="T62" s="2">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0</v>
+      </c>
+      <c r="V62" s="2">
+        <v>0</v>
+      </c>
+      <c r="W62" s="2">
+        <v>100</v>
+      </c>
+      <c r="X62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" spans="3:31">
+      <c r="C63" s="2">
+        <v>13005</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3005</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>50</v>
+      </c>
+      <c r="K63" s="2">
+        <v>30</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2">
+        <v>3</v>
+      </c>
+      <c r="N63" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S63" s="2">
+        <v>30</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2">
+        <v>0</v>
+      </c>
+      <c r="W63" s="2">
+        <v>20</v>
+      </c>
+      <c r="X63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="3:31">
+      <c r="C64" s="2">
+        <v>13006</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3006</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="2">
+        <v>6</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>10</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2">
+        <v>3</v>
+      </c>
+      <c r="N64" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
+        <v>0</v>
+      </c>
+      <c r="W64" s="2">
+        <v>50</v>
+      </c>
+      <c r="X64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" spans="3:31">
+      <c r="C65" s="2">
+        <v>13007</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3007</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>100</v>
+      </c>
+      <c r="K65" s="2">
+        <v>15</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>3</v>
+      </c>
+      <c r="N65" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0</v>
+      </c>
+      <c r="T65" s="2">
+        <v>2</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0</v>
+      </c>
+      <c r="V65" s="2">
+        <v>0</v>
+      </c>
+      <c r="W65" s="2">
+        <v>120</v>
+      </c>
+      <c r="X65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="5:15">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="3:31">
+      <c r="C67" s="2">
+        <v>21002</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1002</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>10</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>2</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S61" s="2">
-        <v>0</v>
-      </c>
-      <c r="T61" s="2">
-        <v>2</v>
-      </c>
-      <c r="U61" s="2">
-        <v>0</v>
-      </c>
-      <c r="V61" s="2">
-        <v>0</v>
-      </c>
-      <c r="W61" s="2">
+      <c r="S67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2">
+        <v>2</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2">
         <v>150</v>
       </c>
-      <c r="X61" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="2">
+      <c r="X67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2">
         <v>20</v>
       </c>
-      <c r="Z61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE61" s="2">
+      <c r="Z67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE67" s="2">
         <v>50</v>
       </c>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="145">
   <si>
     <t>_ID</t>
   </si>
@@ -865,6 +865,12 @@
   </si>
   <si>
     <t>流星火雨</t>
+  </si>
+  <si>
+    <t>施展{3}*{4}范围的火雨，持续{2}s，对其内的敌人每秒造成{1}%魔法伤害</t>
+  </si>
+  <si>
+    <t>"103,5,1,100"</t>
   </si>
   <si>
     <t>治疗术</t>
@@ -1937,10 +1943,10 @@
   <sheetPr/>
   <dimension ref="C3:AH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2980,7 +2986,7 @@
         <v>68</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" s="2">
         <v>2</v>
@@ -2989,13 +2995,13 @@
         <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="O14" s="2">
         <v>2</v>
       </c>
       <c r="P14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>64</v>
@@ -3007,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -3016,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="X14" s="2">
         <v>0</v>
@@ -3767,7 +3773,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="K24" s="2">
         <v>10</v>
@@ -3779,10 +3785,10 @@
         <v>2</v>
       </c>
       <c r="N24" s="2">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="O24" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P24" s="2">
         <v>3</v>
@@ -3800,13 +3806,13 @@
         <v>5</v>
       </c>
       <c r="U24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W24" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
@@ -3825,6 +3831,9 @@
       </c>
       <c r="AC24" s="2">
         <v>0</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AE24" s="2">
         <v>50</v>
@@ -3842,10 +3851,10 @@
         <v>3001</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G26" s="2">
         <v>4</v>
@@ -3857,7 +3866,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K26" s="2">
         <v>4</v>
@@ -3928,10 +3937,10 @@
         <v>3002</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -3943,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4014,10 +4023,10 @@
         <v>3003</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4029,7 +4038,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K28" s="2">
         <v>10</v>
@@ -4089,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AE28" s="2">
         <v>50</v>
@@ -4103,10 +4112,10 @@
         <v>3004</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G29" s="2">
         <v>2</v>
@@ -4118,7 +4127,7 @@
         <v>100</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K29" s="2">
         <v>15</v>
@@ -4189,10 +4198,10 @@
         <v>3005</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G30" s="2">
         <v>5</v>
@@ -4278,10 +4287,10 @@
         <v>3006</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G31" s="2">
         <v>6</v>
@@ -4293,7 +4302,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -4364,10 +4373,10 @@
         <v>3007</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
@@ -4379,7 +4388,7 @@
         <v>100</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K32" s="2">
         <v>30</v>
@@ -4450,10 +4459,10 @@
         <v>3008</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G33" s="2">
         <v>3008</v>
@@ -4465,7 +4474,7 @@
         <v>200</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K33" s="2">
         <v>30</v>
@@ -4525,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AE33" s="2">
         <v>50</v>
@@ -4539,10 +4548,10 @@
         <v>3009</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
@@ -4554,7 +4563,7 @@
         <v>100</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K34" s="2">
         <v>30</v>
@@ -4566,10 +4575,10 @@
         <v>3</v>
       </c>
       <c r="N34" s="2">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="O34" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P34" s="2">
         <v>2</v>
@@ -4593,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X34" s="2">
         <v>0</v>
@@ -4629,10 +4638,10 @@
         <v>9001</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G36" s="2">
         <v>9</v>
@@ -4712,10 +4721,10 @@
         <v>9002</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G37" s="2">
         <v>9</v>
@@ -4796,10 +4805,10 @@
         <v>10001</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4811,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -4882,10 +4891,10 @@
         <v>10002</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G40" s="1">
         <v>4</v>
@@ -4897,7 +4906,7 @@
         <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
@@ -4969,10 +4978,10 @@
         <v>10003</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -4984,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -5056,10 +5065,10 @@
         <v>10004</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G42" s="1">
         <v>4</v>
@@ -5071,7 +5080,7 @@
         <v>10</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -5092,7 +5101,7 @@
         <v>3</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>79</v>
@@ -5142,7 +5151,7 @@
         <v>10005</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>67</v>
@@ -5157,7 +5166,7 @@
         <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -5549,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AE48" s="2">
         <v>50</v>
@@ -6395,10 +6404,10 @@
         <v>3001</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G59" s="2">
         <v>4</v>
@@ -6478,10 +6487,10 @@
         <v>3002</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -6561,10 +6570,10 @@
         <v>3003</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6644,10 +6653,10 @@
         <v>3004</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G62" s="2">
         <v>2</v>
@@ -6727,10 +6736,10 @@
         <v>3005</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G63" s="2">
         <v>5</v>
@@ -6811,10 +6820,10 @@
         <v>3006</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G64" s="2">
         <v>6</v>
@@ -6894,10 +6903,10 @@
         <v>3007</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G65" s="2">
         <v>2</v>
@@ -7056,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE67" s="2">
         <v>50</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="146">
   <si>
     <t>_ID</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t>开天斩</t>
+  </si>
+  <si>
+    <t>"109,0,0,5"</t>
   </si>
   <si>
     <t>小火球</t>
@@ -1943,10 +1946,10 @@
   <sheetPr/>
   <dimension ref="C3:AH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1956,12 +1959,12 @@
     <col min="3" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="55.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.50833333333333" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.25" style="1" customWidth="1"/>
@@ -3022,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="X14" s="2">
         <v>0</v>
@@ -3041,6 +3044,9 @@
       </c>
       <c r="AC14" s="2">
         <v>0</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AE14" s="2">
         <v>50</v>
@@ -3058,10 +3064,10 @@
         <v>2001</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -3073,7 +3079,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3097,7 +3103,7 @@
         <v>75</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
@@ -3144,10 +3150,10 @@
         <v>2002</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3159,7 +3165,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3183,7 +3189,7 @@
         <v>75</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
@@ -3230,10 +3236,10 @@
         <v>2003</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G18" s="2">
         <v>3</v>
@@ -3245,7 +3251,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K18" s="2">
         <v>10</v>
@@ -3316,10 +3322,10 @@
         <v>2004</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -3331,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3391,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE19" s="2">
         <v>50</v>
@@ -3405,10 +3411,10 @@
         <v>2005</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G20" s="2">
         <v>5</v>
@@ -3494,10 +3500,10 @@
         <v>2006</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G21" s="2">
         <v>6</v>
@@ -3509,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -3580,10 +3586,10 @@
         <v>2007</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -3595,7 +3601,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K22" s="5">
         <v>5</v>
@@ -3655,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE22" s="2">
         <v>50</v>
@@ -3669,10 +3675,10 @@
         <v>2008</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G23" s="2">
         <v>2008</v>
@@ -3684,7 +3690,7 @@
         <v>200</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K23" s="2">
         <v>30</v>
@@ -3744,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE23" s="2">
         <v>50</v>
@@ -3758,10 +3764,10 @@
         <v>2009</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
@@ -3773,7 +3779,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K24" s="2">
         <v>10</v>
@@ -3833,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AE24" s="2">
         <v>50</v>
@@ -3851,10 +3857,10 @@
         <v>3001</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G26" s="2">
         <v>4</v>
@@ -3866,7 +3872,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K26" s="2">
         <v>4</v>
@@ -3937,10 +3943,10 @@
         <v>3002</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -3952,7 +3958,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -3976,7 +3982,7 @@
         <v>75</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
@@ -4023,10 +4029,10 @@
         <v>3003</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4038,7 +4044,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K28" s="2">
         <v>10</v>
@@ -4062,7 +4068,7 @@
         <v>75</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
@@ -4098,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AE28" s="2">
         <v>50</v>
@@ -4112,10 +4118,10 @@
         <v>3004</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G29" s="2">
         <v>2</v>
@@ -4127,7 +4133,7 @@
         <v>100</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K29" s="2">
         <v>15</v>
@@ -4198,10 +4204,10 @@
         <v>3005</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" s="2">
         <v>5</v>
@@ -4287,10 +4293,10 @@
         <v>3006</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G31" s="2">
         <v>6</v>
@@ -4302,7 +4308,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -4373,22 +4379,22 @@
         <v>3007</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I32" s="2">
         <v>100</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K32" s="2">
         <v>30</v>
@@ -4459,10 +4465,10 @@
         <v>3008</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G33" s="2">
         <v>3008</v>
@@ -4474,7 +4480,7 @@
         <v>200</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K33" s="2">
         <v>30</v>
@@ -4534,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AE33" s="2">
         <v>50</v>
@@ -4548,22 +4554,22 @@
         <v>3009</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I34" s="2">
         <v>100</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K34" s="2">
         <v>30</v>
@@ -4638,10 +4644,10 @@
         <v>9001</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G36" s="2">
         <v>9</v>
@@ -4674,7 +4680,7 @@
         <v>64</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -4721,10 +4727,10 @@
         <v>9002</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G37" s="2">
         <v>9</v>
@@ -4805,22 +4811,22 @@
         <v>10001</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -4844,7 +4850,7 @@
         <v>75</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S39" s="2">
         <v>0</v>
@@ -4891,10 +4897,10 @@
         <v>10002</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="G40" s="1">
         <v>4</v>
@@ -4906,7 +4912,7 @@
         <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
@@ -4978,10 +4984,10 @@
         <v>10003</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -4993,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -5065,10 +5071,10 @@
         <v>10004</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G42" s="1">
         <v>4</v>
@@ -5080,7 +5086,7 @@
         <v>10</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -5101,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>79</v>
@@ -5151,7 +5157,7 @@
         <v>10005</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>67</v>
@@ -5166,7 +5172,7 @@
         <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -5558,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AE48" s="2">
         <v>50</v>
@@ -5822,10 +5828,10 @@
         <v>2001</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5858,7 +5864,7 @@
         <v>75</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -5905,10 +5911,10 @@
         <v>2002</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5941,7 +5947,7 @@
         <v>75</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
@@ -5988,10 +5994,10 @@
         <v>2003</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G54" s="2">
         <v>3</v>
@@ -6071,10 +6077,10 @@
         <v>2004</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6154,10 +6160,10 @@
         <v>2005</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G56" s="2">
         <v>5</v>
@@ -6238,10 +6244,10 @@
         <v>2006</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G57" s="2">
         <v>6</v>
@@ -6321,10 +6327,10 @@
         <v>2007</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -6404,10 +6410,10 @@
         <v>3001</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G59" s="2">
         <v>4</v>
@@ -6487,10 +6493,10 @@
         <v>3002</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -6523,7 +6529,7 @@
         <v>75</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S60" s="2">
         <v>0</v>
@@ -6570,10 +6576,10 @@
         <v>3003</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6606,7 +6612,7 @@
         <v>75</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S61" s="2">
         <v>0</v>
@@ -6653,10 +6659,10 @@
         <v>3004</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G62" s="2">
         <v>2</v>
@@ -6736,10 +6742,10 @@
         <v>3005</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G63" s="2">
         <v>5</v>
@@ -6820,10 +6826,10 @@
         <v>3006</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G64" s="2">
         <v>6</v>
@@ -6903,10 +6909,10 @@
         <v>3007</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G65" s="2">
         <v>2</v>
@@ -7065,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE67" s="2">
         <v>50</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1947,9 +1947,9 @@
   <dimension ref="C3:AH67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3001,7 +3001,7 @@
         <v>50</v>
       </c>
       <c r="O14" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P14" s="2">
         <v>4</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="X14" s="2">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>113</v>
       </c>
       <c r="K24" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L24" s="2">
         <v>2</v>
@@ -3812,13 +3812,13 @@
         <v>5</v>
       </c>
       <c r="U24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W24" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="147">
   <si>
     <t>_ID</t>
   </si>
@@ -757,6 +757,9 @@
   </si>
   <si>
     <t>Enemy</t>
+  </si>
+  <si>
+    <t>Chase</t>
   </si>
   <si>
     <t>"306,2,0,0"</t>
@@ -1947,9 +1950,9 @@
   <dimension ref="C3:AH67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="W32" sqref="W32"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2535,7 +2538,7 @@
         <v>73</v>
       </c>
       <c r="G9" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -2562,13 +2565,13 @@
         <v>4</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="S9" s="2">
         <v>2</v>
@@ -2604,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" s="2">
         <v>50</v>
@@ -2618,10 +2621,10 @@
         <v>1005</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
@@ -2633,7 +2636,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" s="2">
         <v>55</v>
@@ -2657,7 +2660,7 @@
         <v>64</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" s="2">
         <v>30</v>
@@ -2693,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE10" s="2">
         <v>50</v>
@@ -2707,10 +2710,10 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
@@ -2722,7 +2725,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2746,7 +2749,7 @@
         <v>64</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
@@ -2793,10 +2796,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -2808,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12" s="5">
         <v>5</v>
@@ -2868,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE12" s="2">
         <v>50</v>
@@ -2882,10 +2885,10 @@
         <v>1008</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2">
         <v>1008</v>
@@ -2897,7 +2900,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="2">
         <v>30</v>
@@ -2921,7 +2924,7 @@
         <v>64</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S13" s="2">
         <v>5</v>
@@ -2957,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE13" s="2">
         <v>50</v>
@@ -2971,10 +2974,10 @@
         <v>1009</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -3046,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE14" s="2">
         <v>50</v>
@@ -3064,10 +3067,10 @@
         <v>2001</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -3079,7 +3082,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3103,7 +3106,7 @@
         <v>75</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
@@ -3150,10 +3153,10 @@
         <v>2002</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3165,7 +3168,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3189,7 +3192,7 @@
         <v>75</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
@@ -3236,10 +3239,10 @@
         <v>2003</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" s="2">
         <v>3</v>
@@ -3251,7 +3254,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18" s="2">
         <v>10</v>
@@ -3275,7 +3278,7 @@
         <v>75</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S18" s="2">
         <v>10</v>
@@ -3322,10 +3325,10 @@
         <v>2004</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -3337,7 +3340,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3361,7 +3364,7 @@
         <v>64</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
@@ -3397,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE19" s="2">
         <v>50</v>
@@ -3411,10 +3414,10 @@
         <v>2005</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2">
         <v>5</v>
@@ -3426,7 +3429,7 @@
         <v>50</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K20" s="2">
         <v>55</v>
@@ -3450,7 +3453,7 @@
         <v>64</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S20" s="2">
         <v>30</v>
@@ -3486,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE20" s="2">
         <v>50</v>
@@ -3500,10 +3503,10 @@
         <v>2006</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21" s="2">
         <v>6</v>
@@ -3515,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -3539,7 +3542,7 @@
         <v>64</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -3586,10 +3589,10 @@
         <v>2007</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -3601,7 +3604,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22" s="5">
         <v>5</v>
@@ -3625,7 +3628,7 @@
         <v>75</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
@@ -3661,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE22" s="2">
         <v>50</v>
@@ -3675,10 +3678,10 @@
         <v>2008</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G23" s="2">
         <v>2008</v>
@@ -3690,7 +3693,7 @@
         <v>200</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23" s="2">
         <v>30</v>
@@ -3714,7 +3717,7 @@
         <v>64</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -3750,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE23" s="2">
         <v>50</v>
@@ -3764,10 +3767,10 @@
         <v>2009</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
@@ -3779,7 +3782,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K24" s="2">
         <v>15</v>
@@ -3803,7 +3806,7 @@
         <v>75</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S24" s="2">
         <v>10</v>
@@ -3839,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AE24" s="2">
         <v>50</v>
@@ -3857,10 +3860,10 @@
         <v>3001</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G26" s="2">
         <v>4</v>
@@ -3872,7 +3875,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K26" s="2">
         <v>4</v>
@@ -3896,7 +3899,7 @@
         <v>64</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S26" s="2">
         <v>0</v>
@@ -3943,10 +3946,10 @@
         <v>3002</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -3958,7 +3961,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -3982,7 +3985,7 @@
         <v>75</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
@@ -4029,10 +4032,10 @@
         <v>3003</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4044,7 +4047,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K28" s="2">
         <v>10</v>
@@ -4068,7 +4071,7 @@
         <v>75</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
@@ -4104,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE28" s="2">
         <v>50</v>
@@ -4118,10 +4121,10 @@
         <v>3004</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G29" s="2">
         <v>2</v>
@@ -4133,7 +4136,7 @@
         <v>100</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K29" s="2">
         <v>15</v>
@@ -4157,7 +4160,7 @@
         <v>64</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S29" s="2">
         <v>0</v>
@@ -4204,10 +4207,10 @@
         <v>3005</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G30" s="2">
         <v>5</v>
@@ -4219,7 +4222,7 @@
         <v>50</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K30" s="2">
         <v>55</v>
@@ -4243,7 +4246,7 @@
         <v>64</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S30" s="2">
         <v>30</v>
@@ -4279,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE30" s="2">
         <v>50</v>
@@ -4293,10 +4296,10 @@
         <v>3006</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G31" s="2">
         <v>6</v>
@@ -4308,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -4332,7 +4335,7 @@
         <v>64</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S31" s="2">
         <v>0</v>
@@ -4379,10 +4382,10 @@
         <v>3007</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
@@ -4394,7 +4397,7 @@
         <v>100</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K32" s="2">
         <v>30</v>
@@ -4418,7 +4421,7 @@
         <v>75</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
@@ -4465,10 +4468,10 @@
         <v>3008</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G33" s="2">
         <v>3008</v>
@@ -4480,7 +4483,7 @@
         <v>200</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K33" s="2">
         <v>30</v>
@@ -4504,7 +4507,7 @@
         <v>64</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S33" s="2">
         <v>5</v>
@@ -4540,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE33" s="2">
         <v>50</v>
@@ -4554,10 +4557,10 @@
         <v>3009</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
@@ -4569,7 +4572,7 @@
         <v>100</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K34" s="2">
         <v>30</v>
@@ -4593,7 +4596,7 @@
         <v>75</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S34" s="2">
         <v>0</v>
@@ -4644,10 +4647,10 @@
         <v>9001</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G36" s="2">
         <v>9</v>
@@ -4680,7 +4683,7 @@
         <v>64</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -4727,10 +4730,10 @@
         <v>9002</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G37" s="2">
         <v>9</v>
@@ -4811,22 +4814,22 @@
         <v>10001</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -4850,7 +4853,7 @@
         <v>75</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S39" s="2">
         <v>0</v>
@@ -4897,10 +4900,10 @@
         <v>10002</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="G40" s="1">
         <v>4</v>
@@ -4912,7 +4915,7 @@
         <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
@@ -4984,10 +4987,10 @@
         <v>10003</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -4999,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -5023,7 +5026,7 @@
         <v>75</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S41" s="2">
         <v>0</v>
@@ -5071,10 +5074,10 @@
         <v>10004</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G42" s="1">
         <v>4</v>
@@ -5086,7 +5089,7 @@
         <v>10</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -5107,10 +5110,10 @@
         <v>3</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S42" s="1">
         <v>0</v>
@@ -5157,7 +5160,7 @@
         <v>10005</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>67</v>
@@ -5172,7 +5175,7 @@
         <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -5498,7 +5501,7 @@
         <v>73</v>
       </c>
       <c r="G48" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -5522,13 +5525,13 @@
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="S48" s="2">
         <v>2</v>
@@ -5564,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE48" s="2">
         <v>50</v>
@@ -5578,10 +5581,10 @@
         <v>1005</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" s="2">
         <v>5</v>
@@ -5614,7 +5617,7 @@
         <v>64</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S49" s="2">
         <v>30</v>
@@ -5662,10 +5665,10 @@
         <v>1006</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G50" s="2">
         <v>6</v>
@@ -5698,7 +5701,7 @@
         <v>64</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S50" s="2">
         <v>0</v>
@@ -5745,10 +5748,10 @@
         <v>1007</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5828,10 +5831,10 @@
         <v>2001</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5864,7 +5867,7 @@
         <v>75</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -5911,10 +5914,10 @@
         <v>2002</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5947,7 +5950,7 @@
         <v>75</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
@@ -5994,10 +5997,10 @@
         <v>2003</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G54" s="2">
         <v>3</v>
@@ -6030,7 +6033,7 @@
         <v>75</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S54" s="2">
         <v>5</v>
@@ -6077,10 +6080,10 @@
         <v>2004</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6113,7 +6116,7 @@
         <v>64</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S55" s="2">
         <v>0</v>
@@ -6160,10 +6163,10 @@
         <v>2005</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G56" s="2">
         <v>5</v>
@@ -6196,7 +6199,7 @@
         <v>64</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S56" s="2">
         <v>30</v>
@@ -6244,10 +6247,10 @@
         <v>2006</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G57" s="2">
         <v>6</v>
@@ -6280,7 +6283,7 @@
         <v>64</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S57" s="2">
         <v>0</v>
@@ -6327,10 +6330,10 @@
         <v>2007</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -6363,7 +6366,7 @@
         <v>75</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S58" s="2">
         <v>0</v>
@@ -6410,10 +6413,10 @@
         <v>3001</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G59" s="2">
         <v>4</v>
@@ -6446,7 +6449,7 @@
         <v>64</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S59" s="2">
         <v>0</v>
@@ -6493,10 +6496,10 @@
         <v>3002</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -6529,7 +6532,7 @@
         <v>75</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S60" s="2">
         <v>0</v>
@@ -6576,10 +6579,10 @@
         <v>3003</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6612,7 +6615,7 @@
         <v>75</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S61" s="2">
         <v>0</v>
@@ -6659,10 +6662,10 @@
         <v>3004</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G62" s="2">
         <v>2</v>
@@ -6695,7 +6698,7 @@
         <v>64</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S62" s="2">
         <v>0</v>
@@ -6742,10 +6745,10 @@
         <v>3005</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G63" s="2">
         <v>5</v>
@@ -6778,7 +6781,7 @@
         <v>64</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S63" s="2">
         <v>30</v>
@@ -6826,10 +6829,10 @@
         <v>3006</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G64" s="2">
         <v>6</v>
@@ -6862,7 +6865,7 @@
         <v>64</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S64" s="2">
         <v>0</v>
@@ -6909,10 +6912,10 @@
         <v>3007</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G65" s="2">
         <v>2</v>
@@ -6945,7 +6948,7 @@
         <v>75</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S65" s="2">
         <v>0</v>
@@ -7071,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE67" s="2">
         <v>50</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -975,7 +988,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1148,12 +1161,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1950,9 +1963,9 @@
   <dimension ref="C3:AH67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2298,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -2384,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O7" s="2">
         <v>2</v>
@@ -2470,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -2559,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O9" s="2">
         <v>4</v>
@@ -2648,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O10" s="2">
         <v>1</v>
@@ -2737,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -2823,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O12" s="5">
         <v>10</v>
@@ -2912,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O13" s="2">
         <v>1</v>
@@ -3001,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="O14" s="2">
         <v>12</v>
@@ -3094,7 +3107,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O16" s="2">
         <v>2</v>
@@ -3180,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O17" s="2">
         <v>3</v>
@@ -3266,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O18" s="2">
         <v>2</v>
@@ -3352,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O19" s="2">
         <v>2</v>
@@ -3441,7 +3454,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O20" s="2">
         <v>1</v>
@@ -3530,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O21" s="2">
         <v>1</v>
@@ -3616,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O22" s="5">
         <v>6</v>
@@ -3705,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="N23" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O23" s="2">
         <v>1</v>
@@ -3794,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="N24" s="2">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="O24" s="2">
         <v>7</v>
@@ -3887,7 +3900,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O26" s="2">
         <v>3</v>
@@ -3973,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O27" s="2">
         <v>2</v>
@@ -4059,7 +4072,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O28" s="2">
         <v>2</v>
@@ -4148,7 +4161,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O29" s="2">
         <v>2</v>
@@ -4234,7 +4247,7 @@
         <v>3</v>
       </c>
       <c r="N30" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O30" s="2">
         <v>1</v>
@@ -4323,7 +4336,7 @@
         <v>3</v>
       </c>
       <c r="N31" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O31" s="2">
         <v>1</v>
@@ -4409,7 +4422,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O32" s="2">
         <v>3</v>
@@ -4495,7 +4508,7 @@
         <v>3</v>
       </c>
       <c r="N33" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O33" s="2">
         <v>1</v>
@@ -4584,7 +4597,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="O34" s="2">
         <v>4</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1161,12 +1161,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1963,9 +1963,9 @@
   <dimension ref="C3:AH67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="$A34:$XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1965,7 +1965,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="$A34:$XFD34"/>
+      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4597,7 +4597,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="2">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="O34" s="2">
         <v>4</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -542,7 +542,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="149">
   <si>
     <t>_ID</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>"109,0,0,5"</t>
+  </si>
+  <si>
+    <t>彻地钉</t>
+  </si>
+  <si>
+    <t>释放战士攻击技能后，有20%概率触发，造原技能伤害*20%*{1}%的真实伤害</t>
   </si>
   <si>
     <t>小火球</t>
@@ -1960,12 +1966,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AH67"/>
+  <dimension ref="C3:AH68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
+      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3068,108 +3074,109 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="5:6">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="3:31">
-      <c r="C16" s="2">
-        <v>2001</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2001</v>
-      </c>
-      <c r="E16" s="2" t="s">
+    <row r="15" s="2" customFormat="1" spans="3:31">
+      <c r="C15" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1010</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
         <v>10</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="K15" s="2">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2">
         <v>2</v>
       </c>
-      <c r="N16" s="2">
-        <v>600</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>100</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
         <v>2</v>
       </c>
-      <c r="P16" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>1</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>120</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2">
+      <c r="Q15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>100</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2">
         <v>50</v>
       </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="5:6">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="3:31">
       <c r="C17" s="2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D17" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>97</v>
+        <v>2001</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3181,7 +3188,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3196,16 +3203,16 @@
         <v>600</v>
       </c>
       <c r="O17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
@@ -3220,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="W17" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="X17" s="2">
         <v>0</v>
       </c>
       <c r="Y17" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="2">
         <v>0</v>
@@ -3246,10 +3253,10 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="3:31">
       <c r="C18" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D18" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>99</v>
@@ -3258,7 +3265,7 @@
         <v>99</v>
       </c>
       <c r="G18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -3270,10 +3277,10 @@
         <v>100</v>
       </c>
       <c r="K18" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>2</v>
@@ -3282,7 +3289,7 @@
         <v>600</v>
       </c>
       <c r="O18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" s="2">
         <v>3</v>
@@ -3291,28 +3298,28 @@
         <v>75</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="S18" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U18" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="X18" s="2">
         <v>0</v>
       </c>
       <c r="Y18" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z18" s="2">
         <v>0</v>
@@ -3332,19 +3339,19 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="3:31">
       <c r="C19" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D19" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -3353,10 +3360,10 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L19" s="2">
         <v>2</v>
@@ -3371,19 +3378,19 @@
         <v>2</v>
       </c>
       <c r="P19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U19" s="2">
         <v>2</v>
@@ -3392,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="W19" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="X19" s="2">
         <v>0</v>
@@ -3411,9 +3418,6 @@
       </c>
       <c r="AC19" s="2">
         <v>0</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="AE19" s="2">
         <v>50</v>
@@ -3421,46 +3425,46 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="3:31">
       <c r="C20" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D20" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>50</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="K20" s="2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="2">
         <v>2</v>
       </c>
       <c r="N20" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="O20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>64</v>
@@ -3469,19 +3473,19 @@
         <v>80</v>
       </c>
       <c r="S20" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T20" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="2">
         <v>0</v>
@@ -3501,8 +3505,8 @@
       <c r="AC20" s="2">
         <v>0</v>
       </c>
-      <c r="AD20" s="4" t="s">
-        <v>81</v>
+      <c r="AD20" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="AE20" s="2">
         <v>50</v>
@@ -3510,31 +3514,31 @@
     </row>
     <row r="21" s="2" customFormat="1" spans="3:31">
       <c r="C21" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D21" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>106</v>
+        <v>2005</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -3555,10 +3559,10 @@
         <v>64</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S21" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
@@ -3570,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2">
         <v>0</v>
@@ -3589,6 +3593,9 @@
       </c>
       <c r="AC21" s="2">
         <v>0</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="AE21" s="2">
         <v>50</v>
@@ -3596,19 +3603,19 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="3:31">
       <c r="C22" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D22" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E22" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -3617,46 +3624,46 @@
         <v>10</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="5">
-        <v>5</v>
+        <v>109</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>2</v>
       </c>
       <c r="N22" s="2">
-        <v>600</v>
-      </c>
-      <c r="O22" s="5">
-        <v>6</v>
+        <v>200</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
       </c>
       <c r="P22" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U22" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2">
-        <v>3</v>
-      </c>
-      <c r="W22" s="5">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>50</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>
@@ -3675,9 +3682,6 @@
       </c>
       <c r="AC22" s="2">
         <v>0</v>
-      </c>
-      <c r="AD22" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="AE22" s="2">
         <v>50</v>
@@ -3685,10 +3689,10 @@
     </row>
     <row r="23" s="2" customFormat="1" spans="3:31">
       <c r="C23" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D23" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>110</v>
@@ -3697,55 +3701,55 @@
         <v>110</v>
       </c>
       <c r="G23" s="2">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="2">
-        <v>30</v>
+        <v>105</v>
+      </c>
+      <c r="K23" s="5">
+        <v>5</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="2">
         <v>2</v>
       </c>
       <c r="N23" s="2">
-        <v>30</v>
-      </c>
-      <c r="O23" s="2">
-        <v>1</v>
+        <v>600</v>
+      </c>
+      <c r="O23" s="5">
+        <v>6</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
       </c>
       <c r="T23" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U23" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="W23" s="5">
+        <v>300</v>
       </c>
       <c r="X23" s="2">
         <v>0</v>
@@ -3765,8 +3769,8 @@
       <c r="AC23" s="2">
         <v>0</v>
       </c>
-      <c r="AD23" s="2" t="s">
-        <v>112</v>
+      <c r="AD23" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="AE23" s="2">
         <v>50</v>
@@ -3774,67 +3778,67 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="3:31">
       <c r="C24" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D24" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>200</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>10</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="K24" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>2</v>
       </c>
       <c r="N24" s="2">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="O24" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S24" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T24" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U24" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V24" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
@@ -3855,129 +3859,132 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AE24" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="5:6">
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="3:31">
-      <c r="C26" s="2">
-        <v>3001</v>
-      </c>
-      <c r="D26" s="2">
-        <v>3001</v>
-      </c>
-      <c r="E26" s="1" t="s">
+    <row r="25" s="2" customFormat="1" spans="3:31">
+      <c r="C25" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>10</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="K25" s="2">
+        <v>15</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2</v>
+      </c>
+      <c r="M25" s="2">
+        <v>2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>300</v>
+      </c>
+      <c r="O25" s="2">
+        <v>7</v>
+      </c>
+      <c r="P25" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25" s="2">
+        <v>10</v>
+      </c>
+      <c r="T25" s="2">
+        <v>5</v>
+      </c>
+      <c r="U25" s="2">
         <v>4</v>
       </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>20</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="V25" s="2">
+        <v>4</v>
+      </c>
+      <c r="W25" s="2">
+        <v>400</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K26" s="2">
-        <v>4</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2">
-        <v>3</v>
-      </c>
-      <c r="N26" s="2">
-        <v>600</v>
-      </c>
-      <c r="O26" s="2">
-        <v>3</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0</v>
-      </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2">
+      <c r="AE25" s="2">
         <v>50</v>
       </c>
-      <c r="X26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="2">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="5:6">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="3:31">
       <c r="C27" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D27" s="2">
-        <v>3002</v>
-      </c>
-      <c r="E27" s="2" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>119</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -3986,25 +3993,25 @@
         <v>3</v>
       </c>
       <c r="N27" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
@@ -4013,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -4039,15 +4046,15 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="3:31">
       <c r="C28" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D28" s="2">
-        <v>3003</v>
-      </c>
-      <c r="E28" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G28" s="2">
@@ -4063,7 +4070,7 @@
         <v>121</v>
       </c>
       <c r="K28" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -4072,25 +4079,25 @@
         <v>3</v>
       </c>
       <c r="N28" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O28" s="2">
         <v>2</v>
       </c>
       <c r="P28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
       </c>
       <c r="T28" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
@@ -4099,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="W28" s="2">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="X28" s="2">
         <v>0</v>
       </c>
       <c r="Y28" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="2">
         <v>0</v>
@@ -4118,9 +4125,6 @@
       </c>
       <c r="AC28" s="2">
         <v>0</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="AE28" s="2">
         <v>50</v>
@@ -4128,31 +4132,31 @@
     </row>
     <row r="29" s="2" customFormat="1" spans="3:31">
       <c r="C29" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D29" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>100</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="K29" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -4167,19 +4171,19 @@
         <v>2</v>
       </c>
       <c r="P29" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="S29" s="2">
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
@@ -4188,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="W29" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="X29" s="2">
         <v>0</v>
       </c>
       <c r="Y29" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z29" s="2">
         <v>0</v>
@@ -4207,6 +4211,9 @@
       </c>
       <c r="AC29" s="2">
         <v>0</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="AE29" s="2">
         <v>50</v>
@@ -4214,10 +4221,10 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="3:31">
       <c r="C30" s="2">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="D30" s="2">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>125</v>
@@ -4226,19 +4233,19 @@
         <v>125</v>
       </c>
       <c r="G30" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H30" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="K30" s="2">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -4247,10 +4254,10 @@
         <v>3</v>
       </c>
       <c r="N30" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
@@ -4259,13 +4266,13 @@
         <v>64</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S30" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
@@ -4274,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X30" s="2">
         <v>0</v>
@@ -4293,9 +4300,6 @@
       </c>
       <c r="AC30" s="2">
         <v>0</v>
-      </c>
-      <c r="AD30" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="AE30" s="2">
         <v>50</v>
@@ -4303,31 +4307,31 @@
     </row>
     <row r="31" s="2" customFormat="1" spans="3:31">
       <c r="C31" s="2">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="D31" s="2">
-        <v>3006</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>126</v>
+        <v>3005</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="G31" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="K31" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
@@ -4342,16 +4346,16 @@
         <v>1</v>
       </c>
       <c r="P31" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S31" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -4363,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2">
         <v>0</v>
@@ -4382,6 +4386,9 @@
       </c>
       <c r="AC31" s="2">
         <v>0</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="AE31" s="2">
         <v>50</v>
@@ -4389,31 +4396,31 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="3:31">
       <c r="C32" s="2">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="D32" s="2">
-        <v>3007</v>
-      </c>
-      <c r="E32" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>128</v>
       </c>
       <c r="G32" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>129</v>
       </c>
       <c r="K32" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -4422,25 +4429,25 @@
         <v>3</v>
       </c>
       <c r="N32" s="2">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
         <v>3</v>
       </c>
-      <c r="P32" s="2">
-        <v>2</v>
-      </c>
       <c r="Q32" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
       </c>
       <c r="T32" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
@@ -4449,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="X32" s="2">
         <v>0</v>
@@ -4475,10 +4482,10 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="3:31">
       <c r="C33" s="2">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="D33" s="2">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>130</v>
@@ -4487,13 +4494,13 @@
         <v>130</v>
       </c>
       <c r="G33" s="2">
-        <v>3008</v>
+        <v>2</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I33" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>131</v>
@@ -4508,25 +4515,25 @@
         <v>3</v>
       </c>
       <c r="N33" s="2">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="O33" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P33" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S33" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T33" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
@@ -4535,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="X33" s="2">
         <v>0</v>
@@ -4554,9 +4561,6 @@
       </c>
       <c r="AC33" s="2">
         <v>0</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="AE33" s="2">
         <v>50</v>
@@ -4564,28 +4568,28 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="3:31">
       <c r="C34" s="2">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="D34" s="2">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3008</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>200</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="2">
-        <v>2</v>
-      </c>
-      <c r="H34" s="2">
-        <v>6</v>
-      </c>
-      <c r="I34" s="2">
-        <v>100</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="K34" s="2">
         <v>30</v>
@@ -4597,25 +4601,25 @@
         <v>3</v>
       </c>
       <c r="N34" s="2">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="O34" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S34" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T34" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
@@ -4624,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2">
         <v>0</v>
@@ -4643,110 +4647,116 @@
       </c>
       <c r="AC34" s="2">
         <v>0</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="AE34" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="5:6">
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="3:31">
-      <c r="C36" s="2">
-        <v>9001</v>
-      </c>
-      <c r="D36" s="2">
-        <v>9001</v>
-      </c>
-      <c r="E36" s="2" t="s">
+    <row r="35" s="2" customFormat="1" spans="3:31">
+      <c r="C35" s="2">
+        <v>3009</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3009</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="2">
-        <v>9</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2">
-        <v>1</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2">
-        <v>1</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2">
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>6</v>
+      </c>
+      <c r="I35" s="2">
         <v>100</v>
       </c>
-      <c r="X36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="2">
+      <c r="J35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="2">
+        <v>30</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>3</v>
+      </c>
+      <c r="N35" s="2">
+        <v>300</v>
+      </c>
+      <c r="O35" s="2">
+        <v>4</v>
+      </c>
+      <c r="P35" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>3</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>300</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="2">
         <v>50</v>
       </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="5:6">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="3:31">
       <c r="C37" s="2">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="D37" s="2">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G37" s="2">
         <v>9</v>
@@ -4773,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="S37" s="2">
         <v>0</v>
@@ -4818,157 +4828,154 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1"/>
-    <row r="39" s="2" customFormat="1" spans="3:31">
-      <c r="C39" s="2">
+    <row r="38" s="2" customFormat="1" spans="3:31">
+      <c r="C38" s="2">
+        <v>9002</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9002</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="2">
+        <v>9</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>1</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <v>100</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1"/>
+    <row r="40" s="2" customFormat="1" spans="3:31">
+      <c r="C40" s="2">
         <v>10001</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D40" s="2">
         <v>10001</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
+      <c r="E40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
         <v>3</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
-      <c r="T39" s="2">
-        <v>1</v>
-      </c>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0</v>
-      </c>
-      <c r="W39" s="2">
+      <c r="R40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>1</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
         <v>150</v>
       </c>
-      <c r="X39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="3:31">
-      <c r="C40" s="1">
-        <v>10002</v>
-      </c>
-      <c r="D40" s="1">
-        <v>10002</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="1">
-        <v>4</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>10</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0</v>
-      </c>
-      <c r="T40" s="1">
-        <v>1</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2">
-        <v>0</v>
-      </c>
-      <c r="W40" s="1">
-        <v>100</v>
-      </c>
       <c r="X40" s="2">
         <v>0</v>
       </c>
@@ -4987,35 +4994,34 @@
       <c r="AC40" s="2">
         <v>0</v>
       </c>
-      <c r="AD40" s="2"/>
       <c r="AE40" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="3:31">
       <c r="C41" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="D41" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -5032,20 +5038,20 @@
       <c r="O41" s="2">
         <v>0</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="1">
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
-      <c r="T41" s="2">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
@@ -5053,7 +5059,7 @@
       <c r="V41" s="2">
         <v>0</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41" s="1">
         <v>100</v>
       </c>
       <c r="X41" s="2">
@@ -5081,122 +5087,123 @@
     </row>
     <row r="42" spans="3:31">
       <c r="C42" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="D42" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G42" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
         <v>10</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S42" s="1">
-        <v>0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>4</v>
-      </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" s="2">
         <v>0</v>
       </c>
-      <c r="W42" s="1">
-        <v>50</v>
-      </c>
-      <c r="X42" s="1">
+      <c r="W42" s="2">
+        <v>100</v>
+      </c>
+      <c r="X42" s="2">
         <v>0</v>
       </c>
       <c r="Y42" s="2">
         <v>0</v>
       </c>
-      <c r="Z42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="1">
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
         <v>0</v>
       </c>
       <c r="AC42" s="2">
         <v>0</v>
       </c>
+      <c r="AD42" s="2"/>
       <c r="AE42" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="3:31">
-      <c r="C43" s="2">
-        <v>10005</v>
-      </c>
-      <c r="D43" s="2">
-        <v>10005</v>
+    <row r="43" spans="3:31">
+      <c r="C43" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10004</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>0</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="1">
         <v>1</v>
       </c>
       <c r="N43" s="1">
@@ -5205,20 +5212,20 @@
       <c r="O43" s="2">
         <v>0</v>
       </c>
-      <c r="P43" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S43" s="2">
-        <v>0</v>
-      </c>
-      <c r="T43" s="2">
-        <v>2</v>
+      <c r="P43" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>4</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
@@ -5226,22 +5233,22 @@
       <c r="V43" s="2">
         <v>0</v>
       </c>
-      <c r="W43" s="2">
-        <v>150</v>
-      </c>
-      <c r="X43" s="2">
+      <c r="W43" s="1">
+        <v>50</v>
+      </c>
+      <c r="X43" s="1">
         <v>0</v>
       </c>
       <c r="Y43" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
         <v>0</v>
       </c>
       <c r="AC43" s="2">
@@ -5251,101 +5258,104 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="3:31">
-      <c r="C45" s="2">
-        <v>11001</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
+    <row r="44" s="2" customFormat="1" spans="3:31">
+      <c r="C44" s="2">
+        <v>10005</v>
+      </c>
+      <c r="D44" s="2">
+        <v>10005</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
         <v>10</v>
       </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>1</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
-      <c r="N45" s="2">
-        <v>9999</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="2" t="s">
+      <c r="J44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="R44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2">
-        <v>1</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2">
-        <v>120</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="2">
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>2</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>150</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="3:31">
       <c r="C46" s="2">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="D46" s="2">
-        <v>1002</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>67</v>
+        <v>1001</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5360,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
         <v>1</v>
@@ -5372,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>64</v>
@@ -5384,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
@@ -5393,13 +5403,13 @@
         <v>0</v>
       </c>
       <c r="W46" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="X46" s="2">
         <v>0</v>
       </c>
       <c r="Y46" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="2">
         <v>0</v>
@@ -5419,16 +5429,16 @@
     </row>
     <row r="47" s="2" customFormat="1" spans="3:31">
       <c r="C47" s="2">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="D47" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5455,19 +5465,19 @@
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="S47" s="2">
         <v>0</v>
       </c>
       <c r="T47" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
@@ -5476,13 +5486,13 @@
         <v>0</v>
       </c>
       <c r="W47" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
       </c>
       <c r="Y47" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z47" s="2">
         <v>0</v>
@@ -5502,19 +5512,19 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="3:31">
       <c r="C48" s="2">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="D48" s="2">
-        <v>1004</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>73</v>
+        <v>1003</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G48" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -5523,10 +5533,10 @@
         <v>10</v>
       </c>
       <c r="K48" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" s="2">
         <v>1</v>
@@ -5538,19 +5548,19 @@
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S48" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T48" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
@@ -5559,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X48" s="2">
         <v>0</v>
@@ -5578,9 +5588,6 @@
       </c>
       <c r="AC48" s="2">
         <v>0</v>
-      </c>
-      <c r="AD48" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="AE48" s="2">
         <v>50</v>
@@ -5588,28 +5595,28 @@
     </row>
     <row r="49" s="2" customFormat="1" spans="3:31">
       <c r="C49" s="2">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="D49" s="2">
-        <v>1005</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>78</v>
+        <v>1004</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G49" s="2">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>10</v>
+      </c>
+      <c r="K49" s="2">
         <v>5</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>50</v>
-      </c>
-      <c r="K49" s="2">
-        <v>30</v>
       </c>
       <c r="L49" s="2">
         <v>1</v>
@@ -5624,19 +5631,19 @@
         <v>0</v>
       </c>
       <c r="P49" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S49" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="T49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="2">
         <v>0</v>
@@ -5645,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="X49" s="2">
         <v>0</v>
@@ -5665,35 +5672,37 @@
       <c r="AC49" s="2">
         <v>0</v>
       </c>
-      <c r="AD49" s="4"/>
+      <c r="AD49" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="AE49" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="3:31">
       <c r="C50" s="2">
-        <v>11006</v>
+        <v>11005</v>
       </c>
       <c r="D50" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G50" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K50" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L50" s="2">
         <v>1</v>
@@ -5714,10 +5723,10 @@
         <v>64</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S50" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T50" s="2">
         <v>0</v>
@@ -5729,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="X50" s="2">
         <v>0</v>
@@ -5749,25 +5758,26 @@
       <c r="AC50" s="2">
         <v>0</v>
       </c>
+      <c r="AD50" s="4"/>
       <c r="AE50" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="3:31">
       <c r="C51" s="2">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="D51" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G51" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -5791,19 +5801,19 @@
         <v>0</v>
       </c>
       <c r="P51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
       </c>
       <c r="T51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
@@ -5812,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="2">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="X51" s="2">
         <v>0</v>
@@ -5838,16 +5848,16 @@
     </row>
     <row r="52" s="2" customFormat="1" spans="3:31">
       <c r="C52" s="2">
-        <v>12001</v>
+        <v>11007</v>
       </c>
       <c r="D52" s="2">
-        <v>2001</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>94</v>
+        <v>1007</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5865,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" s="2">
         <v>9999</v>
@@ -5874,13 +5884,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -5895,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="X52" s="2">
         <v>0</v>
@@ -5921,16 +5931,16 @@
     </row>
     <row r="53" s="2" customFormat="1" spans="3:31">
       <c r="C53" s="2">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="D53" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>97</v>
+        <v>2001</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5957,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="P53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
@@ -5978,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="X53" s="2">
         <v>0</v>
@@ -6004,10 +6014,10 @@
     </row>
     <row r="54" s="2" customFormat="1" spans="3:31">
       <c r="C54" s="2">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="D54" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>99</v>
@@ -6016,7 +6026,7 @@
         <v>99</v>
       </c>
       <c r="G54" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -6025,10 +6035,10 @@
         <v>10</v>
       </c>
       <c r="K54" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" s="2">
         <v>2</v>
@@ -6046,22 +6056,22 @@
         <v>75</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="S54" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T54" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U54" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V54" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W54" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="X54" s="2">
         <v>0</v>
@@ -6087,19 +6097,19 @@
     </row>
     <row r="55" s="2" customFormat="1" spans="3:31">
       <c r="C55" s="2">
-        <v>12004</v>
+        <v>12003</v>
       </c>
       <c r="D55" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G55" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -6108,7 +6118,7 @@
         <v>10</v>
       </c>
       <c r="K55" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L55" s="2">
         <v>2</v>
@@ -6123,19 +6133,19 @@
         <v>0</v>
       </c>
       <c r="P55" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>80</v>
       </c>
       <c r="S55" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T55" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U55" s="2">
         <v>2</v>
@@ -6144,7 +6154,7 @@
         <v>2</v>
       </c>
       <c r="W55" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="X55" s="2">
         <v>0</v>
@@ -6170,31 +6180,31 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="3:31">
       <c r="C56" s="2">
-        <v>12005</v>
+        <v>12004</v>
       </c>
       <c r="D56" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G56" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K56" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56" s="2">
         <v>2</v>
@@ -6206,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>64</v>
@@ -6215,19 +6225,19 @@
         <v>80</v>
       </c>
       <c r="S56" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T56" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U56" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V56" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W56" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="X56" s="2">
         <v>0</v>
@@ -6247,35 +6257,34 @@
       <c r="AC56" s="2">
         <v>0</v>
       </c>
-      <c r="AD56" s="4"/>
       <c r="AE56" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="3:31">
       <c r="C57" s="2">
-        <v>12006</v>
+        <v>12005</v>
       </c>
       <c r="D57" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>106</v>
+        <v>2005</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G57" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K57" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L57" s="2">
         <v>1</v>
@@ -6296,10 +6305,10 @@
         <v>64</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S57" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
@@ -6311,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="X57" s="2">
         <v>0</v>
@@ -6331,25 +6340,26 @@
       <c r="AC57" s="2">
         <v>0</v>
       </c>
+      <c r="AD57" s="4"/>
       <c r="AE57" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="3:31">
       <c r="C58" s="2">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="D58" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E58" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G58" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -6361,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" s="2">
         <v>2</v>
@@ -6373,28 +6383,28 @@
         <v>0</v>
       </c>
       <c r="P58" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S58" s="2">
         <v>0</v>
       </c>
       <c r="T58" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U58" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V58" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W58" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="X58" s="2">
         <v>0</v>
@@ -6420,34 +6430,34 @@
     </row>
     <row r="59" s="2" customFormat="1" spans="3:31">
       <c r="C59" s="2">
-        <v>13001</v>
+        <v>12007</v>
       </c>
       <c r="D59" s="2">
-        <v>3001</v>
+        <v>2007</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G59" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K59" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N59" s="2">
         <v>9999</v>
@@ -6456,10 +6466,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>80</v>
@@ -6468,16 +6478,16 @@
         <v>0</v>
       </c>
       <c r="T59" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U59" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V59" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W59" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="X59" s="2">
         <v>0</v>
@@ -6503,28 +6513,28 @@
     </row>
     <row r="60" s="2" customFormat="1" spans="3:31">
       <c r="C60" s="2">
-        <v>13002</v>
+        <v>13001</v>
       </c>
       <c r="D60" s="2">
-        <v>3002</v>
-      </c>
-      <c r="E60" s="2" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G60" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K60" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L60" s="2">
         <v>1</v>
@@ -6539,19 +6549,19 @@
         <v>0</v>
       </c>
       <c r="P60" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="S60" s="2">
         <v>0</v>
       </c>
       <c r="T60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" s="2">
         <v>0</v>
@@ -6560,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="X60" s="2">
         <v>0</v>
@@ -6586,15 +6596,15 @@
     </row>
     <row r="61" s="2" customFormat="1" spans="3:31">
       <c r="C61" s="2">
-        <v>13003</v>
+        <v>13002</v>
       </c>
       <c r="D61" s="2">
-        <v>3003</v>
-      </c>
-      <c r="E61" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G61" s="2">
@@ -6607,7 +6617,7 @@
         <v>10</v>
       </c>
       <c r="K61" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L61" s="2">
         <v>1</v>
@@ -6622,19 +6632,19 @@
         <v>0</v>
       </c>
       <c r="P61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S61" s="2">
         <v>0</v>
       </c>
       <c r="T61" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U61" s="2">
         <v>0</v>
@@ -6643,13 +6653,13 @@
         <v>0</v>
       </c>
       <c r="W61" s="2">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="X61" s="2">
         <v>0</v>
       </c>
       <c r="Y61" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="2">
         <v>0</v>
@@ -6669,28 +6679,28 @@
     </row>
     <row r="62" s="2" customFormat="1" spans="3:31">
       <c r="C62" s="2">
-        <v>13004</v>
+        <v>13003</v>
       </c>
       <c r="D62" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K62" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L62" s="2">
         <v>1</v>
@@ -6705,19 +6715,19 @@
         <v>0</v>
       </c>
       <c r="P62" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="S62" s="2">
         <v>0</v>
       </c>
       <c r="T62" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U62" s="2">
         <v>0</v>
@@ -6726,13 +6736,13 @@
         <v>0</v>
       </c>
       <c r="W62" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="X62" s="2">
         <v>0</v>
       </c>
       <c r="Y62" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z62" s="2">
         <v>0</v>
@@ -6752,10 +6762,10 @@
     </row>
     <row r="63" s="2" customFormat="1" spans="3:31">
       <c r="C63" s="2">
-        <v>13005</v>
+        <v>13004</v>
       </c>
       <c r="D63" s="2">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>125</v>
@@ -6764,16 +6774,16 @@
         <v>125</v>
       </c>
       <c r="G63" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K63" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L63" s="2">
         <v>1</v>
@@ -6794,13 +6804,13 @@
         <v>64</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S63" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" s="2">
         <v>0</v>
@@ -6809,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="X63" s="2">
         <v>0</v>
@@ -6829,35 +6839,34 @@
       <c r="AC63" s="2">
         <v>0</v>
       </c>
-      <c r="AD63" s="4"/>
       <c r="AE63" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" spans="3:31">
       <c r="C64" s="2">
-        <v>13006</v>
+        <v>13005</v>
       </c>
       <c r="D64" s="2">
-        <v>3006</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>126</v>
+        <v>3005</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="G64" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K64" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L64" s="2">
         <v>1</v>
@@ -6872,16 +6881,16 @@
         <v>0</v>
       </c>
       <c r="P64" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S64" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T64" s="2">
         <v>0</v>
@@ -6893,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="X64" s="2">
         <v>0</v>
@@ -6913,34 +6922,35 @@
       <c r="AC64" s="2">
         <v>0</v>
       </c>
+      <c r="AD64" s="4"/>
       <c r="AE64" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" spans="3:31">
       <c r="C65" s="2">
-        <v>13007</v>
+        <v>13006</v>
       </c>
       <c r="D65" s="2">
-        <v>3007</v>
-      </c>
-      <c r="E65" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>128</v>
       </c>
       <c r="G65" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K65" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L65" s="2">
         <v>1</v>
@@ -6955,19 +6965,19 @@
         <v>0</v>
       </c>
       <c r="P65" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S65" s="2">
         <v>0</v>
       </c>
       <c r="T65" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U65" s="2">
         <v>0</v>
@@ -6976,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="W65" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="X65" s="2">
         <v>0</v>
@@ -7000,96 +7010,179 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" spans="5:15">
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-    </row>
-    <row r="67" s="2" customFormat="1" spans="3:31">
-      <c r="C67" s="2">
+    <row r="66" s="2" customFormat="1" spans="3:31">
+      <c r="C66" s="2">
+        <v>13007</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3007</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" s="2">
+        <v>2</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>100</v>
+      </c>
+      <c r="K66" s="2">
+        <v>15</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2">
+        <v>3</v>
+      </c>
+      <c r="N66" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S66" s="2">
+        <v>0</v>
+      </c>
+      <c r="T66" s="2">
+        <v>2</v>
+      </c>
+      <c r="U66" s="2">
+        <v>0</v>
+      </c>
+      <c r="V66" s="2">
+        <v>0</v>
+      </c>
+      <c r="W66" s="2">
+        <v>120</v>
+      </c>
+      <c r="X66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="5:15">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" s="2" customFormat="1" spans="3:31">
+      <c r="C68" s="2">
         <v>21002</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D68" s="2">
         <v>1002</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G67" s="2">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2">
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
         <v>10</v>
       </c>
-      <c r="K67" s="2">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2">
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
         <v>2</v>
       </c>
-      <c r="M67" s="2">
-        <v>1</v>
-      </c>
-      <c r="N67" s="2">
+      <c r="M68" s="2">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2">
         <v>9999</v>
       </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-      <c r="P67" s="2">
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
         <v>2</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="Q68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R67" s="2" t="s">
+      <c r="R68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S67" s="2">
-        <v>0</v>
-      </c>
-      <c r="T67" s="2">
+      <c r="S68" s="2">
+        <v>0</v>
+      </c>
+      <c r="T68" s="2">
         <v>2</v>
       </c>
-      <c r="U67" s="2">
-        <v>0</v>
-      </c>
-      <c r="V67" s="2">
-        <v>0</v>
-      </c>
-      <c r="W67" s="2">
+      <c r="U68" s="2">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2">
+        <v>0</v>
+      </c>
+      <c r="W68" s="2">
         <v>150</v>
       </c>
-      <c r="X67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="2">
+      <c r="X68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2">
         <v>20</v>
       </c>
-      <c r="Z67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE67" s="2">
+      <c r="Z68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE68" s="2">
         <v>50</v>
       </c>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -542,7 +542,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="151">
   <si>
     <t>_ID</t>
   </si>
@@ -829,7 +829,10 @@
     <t>彻地钉</t>
   </si>
   <si>
-    <t>释放战士攻击技能后，有20%概率触发，造原技能伤害*20%*{1}%的真实伤害</t>
+    <t>释放战士攻击技能后，有20%概率触发，对周围2格范围内，造原技能伤害*20%*{1}%的真实伤害</t>
+  </si>
+  <si>
+    <t>Circle</t>
   </si>
   <si>
     <t>小火球</t>
@@ -838,9 +841,6 @@
     <t>对{0}个敌人敌人造成{1}%魔法伤害</t>
   </si>
   <si>
-    <t>Circle</t>
-  </si>
-  <si>
     <t>雷电术</t>
   </si>
   <si>
@@ -898,6 +898,9 @@
     <t>"103,5,1,100"</t>
   </si>
   <si>
+    <t>分身术</t>
+  </si>
+  <si>
     <t>治疗术</t>
   </si>
   <si>
@@ -953,6 +956,9 @@
   </si>
   <si>
     <t>召唤{0}只月灵战斗，额外继承{1}%人物属性</t>
+  </si>
+  <si>
+    <t>飓风破</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1966,12 +1972,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AH68"/>
+  <dimension ref="C3:AH70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3121,7 +3127,7 @@
         <v>64</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
@@ -3156,7 +3162,6 @@
       <c r="AC15" s="2">
         <v>0</v>
       </c>
-      <c r="AD15" s="2"/>
       <c r="AE15" s="2">
         <v>50</v>
       </c>
@@ -3173,10 +3178,10 @@
         <v>2001</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3188,7 +3193,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3212,7 +3217,7 @@
         <v>75</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
@@ -3298,7 +3303,7 @@
         <v>75</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
@@ -3954,123 +3959,126 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="5:6">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="3:31">
-      <c r="C27" s="2">
-        <v>3001</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3001</v>
-      </c>
-      <c r="E27" s="1" t="s">
+    <row r="26" s="2" customFormat="1" spans="3:31">
+      <c r="C26" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G26" s="2">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="2">
+        <v>15</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>300</v>
+      </c>
+      <c r="O26" s="2">
+        <v>7</v>
+      </c>
+      <c r="P26" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26" s="2">
+        <v>10</v>
+      </c>
+      <c r="T26" s="2">
+        <v>5</v>
+      </c>
+      <c r="U26" s="2">
         <v>4</v>
       </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>20</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" s="2">
+      <c r="V26" s="2">
         <v>4</v>
       </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2">
-        <v>3</v>
-      </c>
-      <c r="N27" s="2">
-        <v>600</v>
-      </c>
-      <c r="O27" s="2">
-        <v>3</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0</v>
-      </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" s="2">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2">
-        <v>50</v>
-      </c>
-      <c r="X27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="2">
-        <v>50</v>
-      </c>
+      <c r="W26" s="2">
+        <v>400</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="5:6">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="3:31">
       <c r="C28" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D28" s="2">
-        <v>3002</v>
-      </c>
-      <c r="E28" s="2" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>20</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>10</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -4079,25 +4087,25 @@
         <v>3</v>
       </c>
       <c r="N28" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P28" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
       </c>
       <c r="T28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
@@ -4106,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="X28" s="2">
         <v>0</v>
@@ -4132,16 +4140,16 @@
     </row>
     <row r="29" s="2" customFormat="1" spans="3:31">
       <c r="C29" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D29" s="2">
-        <v>3003</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>122</v>
+        <v>3002</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4153,10 +4161,10 @@
         <v>10</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K29" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -4165,25 +4173,25 @@
         <v>3</v>
       </c>
       <c r="N29" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O29" s="2">
         <v>2</v>
       </c>
       <c r="P29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S29" s="2">
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
@@ -4192,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="W29" s="2">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="X29" s="2">
         <v>0</v>
       </c>
       <c r="Y29" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="2">
         <v>0</v>
@@ -4211,9 +4219,6 @@
       </c>
       <c r="AC29" s="2">
         <v>0</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="AE29" s="2">
         <v>50</v>
@@ -4221,31 +4226,31 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="3:31">
       <c r="C30" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D30" s="2">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K30" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -4260,19 +4265,19 @@
         <v>2</v>
       </c>
       <c r="P30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
       </c>
       <c r="T30" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
@@ -4281,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="W30" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="X30" s="2">
         <v>0</v>
       </c>
       <c r="Y30" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z30" s="2">
         <v>0</v>
@@ -4300,6 +4305,9 @@
       </c>
       <c r="AC30" s="2">
         <v>0</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="AE30" s="2">
         <v>50</v>
@@ -4307,31 +4315,31 @@
     </row>
     <row r="31" s="2" customFormat="1" spans="3:31">
       <c r="C31" s="2">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="D31" s="2">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6</v>
+      </c>
+      <c r="I31" s="2">
+        <v>100</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2">
-        <v>5</v>
-      </c>
-      <c r="I31" s="2">
-        <v>50</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="K31" s="2">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
@@ -4340,10 +4348,10 @@
         <v>3</v>
       </c>
       <c r="N31" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="O31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>
@@ -4352,13 +4360,13 @@
         <v>64</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S31" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
@@ -4367,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X31" s="2">
         <v>0</v>
@@ -4386,9 +4394,6 @@
       </c>
       <c r="AC31" s="2">
         <v>0</v>
-      </c>
-      <c r="AD31" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="AE31" s="2">
         <v>50</v>
@@ -4396,31 +4401,31 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="3:31">
       <c r="C32" s="2">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="D32" s="2">
-        <v>3006</v>
-      </c>
-      <c r="E32" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>128</v>
       </c>
       <c r="G32" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I32" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="K32" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -4435,16 +4440,16 @@
         <v>1</v>
       </c>
       <c r="P32" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S32" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
@@ -4456,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2">
         <v>0</v>
@@ -4475,6 +4480,9 @@
       </c>
       <c r="AC32" s="2">
         <v>0</v>
+      </c>
+      <c r="AD32" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="AE32" s="2">
         <v>50</v>
@@ -4482,31 +4490,31 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="3:31">
       <c r="C33" s="2">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="D33" s="2">
-        <v>3007</v>
-      </c>
-      <c r="E33" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="2">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="2">
-        <v>2</v>
-      </c>
-      <c r="H33" s="2">
-        <v>6</v>
-      </c>
-      <c r="I33" s="2">
-        <v>100</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="K33" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
@@ -4515,25 +4523,25 @@
         <v>3</v>
       </c>
       <c r="N33" s="2">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
         <v>3</v>
       </c>
-      <c r="P33" s="2">
-        <v>2</v>
-      </c>
       <c r="Q33" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S33" s="2">
         <v>0</v>
       </c>
       <c r="T33" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
@@ -4542,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="X33" s="2">
         <v>0</v>
@@ -4568,28 +4576,28 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="3:31">
       <c r="C34" s="2">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="D34" s="2">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>6</v>
+      </c>
+      <c r="I34" s="2">
+        <v>100</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="2">
-        <v>3008</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>200</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="K34" s="2">
         <v>30</v>
@@ -4601,25 +4609,25 @@
         <v>3</v>
       </c>
       <c r="N34" s="2">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="O34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P34" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S34" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T34" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
@@ -4628,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="X34" s="2">
         <v>0</v>
@@ -4647,9 +4655,6 @@
       </c>
       <c r="AC34" s="2">
         <v>0</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="AE34" s="2">
         <v>50</v>
@@ -4657,28 +4662,28 @@
     </row>
     <row r="35" s="2" customFormat="1" spans="3:31">
       <c r="C35" s="2">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="D35" s="2">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G35" s="2">
-        <v>2</v>
+        <v>3008</v>
       </c>
       <c r="H35" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K35" s="2">
         <v>30</v>
@@ -4690,455 +4695,457 @@
         <v>3</v>
       </c>
       <c r="N35" s="2">
+        <v>30</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S35" s="2">
+        <v>5</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="3:31">
+      <c r="C36" s="2">
+        <v>3009</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3009</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>6</v>
+      </c>
+      <c r="I36" s="2">
+        <v>100</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="2">
+        <v>30</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>3</v>
+      </c>
+      <c r="N36" s="2">
         <v>300</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O36" s="2">
         <v>4</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P36" s="2">
         <v>2</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="R36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S35" s="2">
-        <v>0</v>
-      </c>
-      <c r="T35" s="2">
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
         <v>3</v>
       </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2">
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
         <v>300</v>
       </c>
-      <c r="X35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="5:6">
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="3:31">
       <c r="C37" s="2">
+        <v>3010</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3010</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>6</v>
+      </c>
+      <c r="I37" s="2">
+        <v>100</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" s="2">
+        <v>30</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>3</v>
+      </c>
+      <c r="N37" s="2">
+        <v>300</v>
+      </c>
+      <c r="O37" s="2">
+        <v>4</v>
+      </c>
+      <c r="P37" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>3</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>300</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="5:6">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="3:31">
+      <c r="C39" s="2">
         <v>9001</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D39" s="2">
         <v>9001</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="E39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="2">
         <v>9</v>
       </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2">
-        <v>1</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="2" t="s">
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>1</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
+      <c r="R39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>1</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
         <v>100</v>
       </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="3:31">
-      <c r="C38" s="2">
-        <v>9002</v>
-      </c>
-      <c r="D38" s="2">
-        <v>9002</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="2">
-        <v>9</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S38" s="2">
-        <v>0</v>
-      </c>
-      <c r="T38" s="2">
-        <v>1</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2">
-        <v>0</v>
-      </c>
-      <c r="W38" s="2">
-        <v>100</v>
-      </c>
-      <c r="X38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1"/>
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>50</v>
+      </c>
+    </row>
     <row r="40" s="2" customFormat="1" spans="3:31">
       <c r="C40" s="2">
+        <v>9002</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9002</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="2">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>1</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>100</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1"/>
+    <row r="42" s="2" customFormat="1" spans="3:31">
+      <c r="C42" s="2">
         <v>10001</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D42" s="2">
         <v>10001</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
+      <c r="E42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
         <v>3</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>1</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2">
-        <v>0</v>
-      </c>
-      <c r="W40" s="2">
-        <v>150</v>
-      </c>
-      <c r="X40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="3:31">
-      <c r="C41" s="1">
-        <v>10002</v>
-      </c>
-      <c r="D41" s="1">
-        <v>10002</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="1">
-        <v>4</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>10</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2">
-        <v>1</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>1</v>
-      </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0</v>
-      </c>
-      <c r="W41" s="1">
-        <v>100</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="3:31">
-      <c r="C42" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D42" s="1">
-        <v>10003</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2">
-        <v>1</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S42" s="2">
         <v>0</v>
       </c>
       <c r="T42" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
@@ -5147,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="X42" s="2">
         <v>0</v>
@@ -5167,23 +5174,22 @@
       <c r="AC42" s="2">
         <v>0</v>
       </c>
-      <c r="AD42" s="2"/>
       <c r="AE42" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="3:31">
       <c r="C43" s="1">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="D43" s="1">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G43" s="1">
         <v>4</v>
@@ -5203,159 +5209,247 @@
       <c r="L43" s="2">
         <v>1</v>
       </c>
-      <c r="M43" s="1">
-        <v>1</v>
-      </c>
-      <c r="N43" s="1">
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2">
         <v>0</v>
       </c>
       <c r="O43" s="2">
         <v>0</v>
       </c>
       <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>100</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="3:31">
+      <c r="C44" s="1">
+        <v>10003</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10003</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>10</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>100</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="3:31">
+      <c r="C45" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D45" s="1">
+        <v>10004</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>10</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
         <v>3</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="R43" s="1" t="s">
+      <c r="Q45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S43" s="1">
-        <v>0</v>
-      </c>
-      <c r="T43" s="1">
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
         <v>4</v>
       </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0</v>
-      </c>
-      <c r="W43" s="1">
-        <v>50</v>
-      </c>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="3:31">
-      <c r="C44" s="2">
-        <v>10005</v>
-      </c>
-      <c r="D44" s="2">
-        <v>10005</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>10</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>1</v>
-      </c>
-      <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>2</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2">
-        <v>150</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="2">
+      <c r="U45" s="2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>50</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="3:31">
       <c r="C46" s="2">
-        <v>11001</v>
+        <v>10005</v>
       </c>
       <c r="D46" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>62</v>
+        <v>10005</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5366,6 +5460,9 @@
       <c r="I46" s="2">
         <v>10</v>
       </c>
+      <c r="J46" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="K46" s="2">
         <v>0</v>
       </c>
@@ -5375,14 +5472,14 @@
       <c r="M46" s="2">
         <v>1</v>
       </c>
-      <c r="N46" s="2">
-        <v>9999</v>
+      <c r="N46" s="1">
+        <v>0</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>64</v>
@@ -5394,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
@@ -5403,13 +5500,13 @@
         <v>0</v>
       </c>
       <c r="W46" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X46" s="2">
         <v>0</v>
       </c>
       <c r="Y46" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z46" s="2">
         <v>0</v>
@@ -5424,104 +5521,21 @@
         <v>0</v>
       </c>
       <c r="AE46" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" s="2" customFormat="1" spans="3:31">
-      <c r="C47" s="2">
-        <v>11002</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1002</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>10</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <v>2</v>
-      </c>
-      <c r="M47" s="2">
-        <v>1</v>
-      </c>
-      <c r="N47" s="2">
-        <v>9999</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2">
-        <v>2</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2">
-        <v>150</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="3:31">
       <c r="C48" s="2">
-        <v>11003</v>
+        <v>11001</v>
       </c>
       <c r="D48" s="2">
-        <v>1003</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>69</v>
+        <v>1001</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5536,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="2">
         <v>1</v>
@@ -5554,13 +5568,13 @@
         <v>64</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="S48" s="2">
         <v>0</v>
       </c>
       <c r="T48" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
@@ -5569,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="X48" s="2">
         <v>0</v>
@@ -5595,19 +5609,19 @@
     </row>
     <row r="49" s="2" customFormat="1" spans="3:31">
       <c r="C49" s="2">
-        <v>11004</v>
+        <v>11002</v>
       </c>
       <c r="D49" s="2">
-        <v>1004</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>73</v>
+        <v>1002</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G49" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -5616,10 +5630,10 @@
         <v>10</v>
       </c>
       <c r="K49" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" s="2">
         <v>1</v>
@@ -5631,20 +5645,20 @@
         <v>0</v>
       </c>
       <c r="P49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
         <v>2</v>
       </c>
-      <c r="T49" s="2">
-        <v>1</v>
-      </c>
       <c r="U49" s="2">
         <v>0</v>
       </c>
@@ -5652,13 +5666,13 @@
         <v>0</v>
       </c>
       <c r="W49" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="X49" s="2">
         <v>0</v>
       </c>
       <c r="Y49" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z49" s="2">
         <v>0</v>
@@ -5671,9 +5685,6 @@
       </c>
       <c r="AC49" s="2">
         <v>0</v>
-      </c>
-      <c r="AD49" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="AE49" s="2">
         <v>50</v>
@@ -5681,31 +5692,31 @@
     </row>
     <row r="50" s="2" customFormat="1" spans="3:31">
       <c r="C50" s="2">
-        <v>11005</v>
+        <v>11003</v>
       </c>
       <c r="D50" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G50" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K50" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
@@ -5717,19 +5728,19 @@
         <v>0</v>
       </c>
       <c r="P50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="S50" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T50" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U50" s="2">
         <v>0</v>
@@ -5738,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="X50" s="2">
         <v>0</v>
@@ -5758,26 +5769,25 @@
       <c r="AC50" s="2">
         <v>0</v>
       </c>
-      <c r="AD50" s="4"/>
       <c r="AE50" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="3:31">
       <c r="C51" s="2">
-        <v>11006</v>
+        <v>11004</v>
       </c>
       <c r="D51" s="2">
-        <v>1006</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>82</v>
+        <v>1004</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G51" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -5786,7 +5796,7 @@
         <v>10</v>
       </c>
       <c r="K51" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L51" s="2">
         <v>1</v>
@@ -5801,19 +5811,19 @@
         <v>0</v>
       </c>
       <c r="P51" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="S51" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
@@ -5822,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="X51" s="2">
         <v>0</v>
@@ -5841,6 +5851,9 @@
       </c>
       <c r="AC51" s="2">
         <v>0</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="AE51" s="2">
         <v>50</v>
@@ -5848,28 +5861,28 @@
     </row>
     <row r="52" s="2" customFormat="1" spans="3:31">
       <c r="C52" s="2">
-        <v>11007</v>
+        <v>11005</v>
       </c>
       <c r="D52" s="2">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K52" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L52" s="2">
         <v>1</v>
@@ -5884,19 +5897,19 @@
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="S52" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
@@ -5905,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="2">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="X52" s="2">
         <v>0</v>
@@ -5925,25 +5938,26 @@
       <c r="AC52" s="2">
         <v>0</v>
       </c>
+      <c r="AD52" s="4"/>
       <c r="AE52" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" spans="3:31">
       <c r="C53" s="2">
-        <v>12001</v>
+        <v>11006</v>
       </c>
       <c r="D53" s="2">
-        <v>2001</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>96</v>
+        <v>1006</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="G53" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -5958,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N53" s="2">
         <v>9999</v>
@@ -5967,19 +5981,19 @@
         <v>0</v>
       </c>
       <c r="P53" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
       </c>
       <c r="T53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
@@ -5988,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="X53" s="2">
         <v>0</v>
@@ -6014,16 +6028,16 @@
     </row>
     <row r="54" s="2" customFormat="1" spans="3:31">
       <c r="C54" s="2">
-        <v>12002</v>
+        <v>11007</v>
       </c>
       <c r="D54" s="2">
-        <v>2002</v>
+        <v>1007</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6041,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54" s="2">
         <v>9999</v>
@@ -6050,13 +6064,13 @@
         <v>0</v>
       </c>
       <c r="P54" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="S54" s="2">
         <v>0</v>
@@ -6071,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="X54" s="2">
         <v>0</v>
@@ -6097,19 +6111,19 @@
     </row>
     <row r="55" s="2" customFormat="1" spans="3:31">
       <c r="C55" s="2">
-        <v>12003</v>
+        <v>12001</v>
       </c>
       <c r="D55" s="2">
-        <v>2003</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>101</v>
+        <v>2001</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G55" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -6118,10 +6132,10 @@
         <v>10</v>
       </c>
       <c r="K55" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" s="2">
         <v>2</v>
@@ -6133,28 +6147,28 @@
         <v>0</v>
       </c>
       <c r="P55" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="S55" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T55" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U55" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V55" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W55" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="X55" s="2">
         <v>0</v>
@@ -6180,16 +6194,16 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="3:31">
       <c r="C56" s="2">
-        <v>12004</v>
+        <v>12002</v>
       </c>
       <c r="D56" s="2">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -6204,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" s="2">
         <v>2</v>
@@ -6216,28 +6230,28 @@
         <v>0</v>
       </c>
       <c r="P56" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="S56" s="2">
         <v>0</v>
       </c>
       <c r="T56" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U56" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V56" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W56" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="X56" s="2">
         <v>0</v>
@@ -6263,31 +6277,31 @@
     </row>
     <row r="57" s="2" customFormat="1" spans="3:31">
       <c r="C57" s="2">
-        <v>12005</v>
+        <v>12003</v>
       </c>
       <c r="D57" s="2">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G57" s="2">
+        <v>3</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>10</v>
+      </c>
+      <c r="K57" s="2">
         <v>5</v>
       </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
-        <v>50</v>
-      </c>
-      <c r="K57" s="2">
-        <v>30</v>
-      </c>
       <c r="L57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57" s="2">
         <v>2</v>
@@ -6299,28 +6313,28 @@
         <v>0</v>
       </c>
       <c r="P57" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>80</v>
       </c>
       <c r="S57" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="T57" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U57" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V57" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W57" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="X57" s="2">
         <v>0</v>
@@ -6340,26 +6354,25 @@
       <c r="AC57" s="2">
         <v>0</v>
       </c>
-      <c r="AD57" s="4"/>
       <c r="AE57" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="3:31">
       <c r="C58" s="2">
-        <v>12006</v>
+        <v>12004</v>
       </c>
       <c r="D58" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>108</v>
+        <v>2004</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="G58" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -6371,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" s="2">
         <v>2</v>
@@ -6383,28 +6396,28 @@
         <v>0</v>
       </c>
       <c r="P58" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S58" s="2">
         <v>0</v>
       </c>
       <c r="T58" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U58" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V58" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W58" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="X58" s="2">
         <v>0</v>
@@ -6430,31 +6443,31 @@
     </row>
     <row r="59" s="2" customFormat="1" spans="3:31">
       <c r="C59" s="2">
-        <v>12007</v>
+        <v>12005</v>
       </c>
       <c r="D59" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G59" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K59" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L59" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59" s="2">
         <v>2</v>
@@ -6466,28 +6479,28 @@
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="S59" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T59" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U59" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V59" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W59" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="X59" s="2">
         <v>0</v>
@@ -6507,40 +6520,41 @@
       <c r="AC59" s="2">
         <v>0</v>
       </c>
+      <c r="AD59" s="4"/>
       <c r="AE59" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" spans="3:31">
       <c r="C60" s="2">
-        <v>13001</v>
+        <v>12006</v>
       </c>
       <c r="D60" s="2">
-        <v>3001</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>118</v>
+        <v>2006</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G60" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K60" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L60" s="2">
         <v>1</v>
       </c>
       <c r="M60" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N60" s="2">
         <v>9999</v>
@@ -6555,7 +6569,7 @@
         <v>64</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S60" s="2">
         <v>0</v>
@@ -6596,16 +6610,16 @@
     </row>
     <row r="61" s="2" customFormat="1" spans="3:31">
       <c r="C61" s="2">
-        <v>13002</v>
+        <v>12007</v>
       </c>
       <c r="D61" s="2">
-        <v>3002</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>120</v>
+        <v>2007</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6620,10 +6634,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N61" s="2">
         <v>9999</v>
@@ -6632,28 +6646,28 @@
         <v>0</v>
       </c>
       <c r="P61" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="S61" s="2">
         <v>0</v>
       </c>
       <c r="T61" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U61" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V61" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W61" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X61" s="2">
         <v>0</v>
@@ -6679,28 +6693,28 @@
     </row>
     <row r="62" s="2" customFormat="1" spans="3:31">
       <c r="C62" s="2">
-        <v>13003</v>
+        <v>13001</v>
       </c>
       <c r="D62" s="2">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G62" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K62" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L62" s="2">
         <v>1</v>
@@ -6715,19 +6729,19 @@
         <v>0</v>
       </c>
       <c r="P62" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="S62" s="2">
         <v>0</v>
       </c>
       <c r="T62" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U62" s="2">
         <v>0</v>
@@ -6736,13 +6750,13 @@
         <v>0</v>
       </c>
       <c r="W62" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="X62" s="2">
         <v>0</v>
       </c>
       <c r="Y62" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="2">
         <v>0</v>
@@ -6762,28 +6776,28 @@
     </row>
     <row r="63" s="2" customFormat="1" spans="3:31">
       <c r="C63" s="2">
-        <v>13004</v>
+        <v>13002</v>
       </c>
       <c r="D63" s="2">
-        <v>3004</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>125</v>
+        <v>3002</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="G63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K63" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L63" s="2">
         <v>1</v>
@@ -6798,13 +6812,13 @@
         <v>0</v>
       </c>
       <c r="P63" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S63" s="2">
         <v>0</v>
@@ -6819,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="X63" s="2">
         <v>0</v>
@@ -6845,28 +6859,28 @@
     </row>
     <row r="64" s="2" customFormat="1" spans="3:31">
       <c r="C64" s="2">
-        <v>13005</v>
+        <v>13003</v>
       </c>
       <c r="D64" s="2">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>10</v>
+      </c>
+      <c r="K64" s="2">
         <v>5</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2">
-        <v>50</v>
-      </c>
-      <c r="K64" s="2">
-        <v>30</v>
       </c>
       <c r="L64" s="2">
         <v>1</v>
@@ -6881,19 +6895,19 @@
         <v>0</v>
       </c>
       <c r="P64" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="S64" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T64" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U64" s="2">
         <v>0</v>
@@ -6902,13 +6916,13 @@
         <v>0</v>
       </c>
       <c r="W64" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X64" s="2">
         <v>0</v>
       </c>
       <c r="Y64" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z64" s="2">
         <v>0</v>
@@ -6922,35 +6936,34 @@
       <c r="AC64" s="2">
         <v>0</v>
       </c>
-      <c r="AD64" s="4"/>
       <c r="AE64" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" spans="3:31">
       <c r="C65" s="2">
-        <v>13006</v>
+        <v>13004</v>
       </c>
       <c r="D65" s="2">
-        <v>3006</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>128</v>
+        <v>3004</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G65" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K65" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L65" s="2">
         <v>1</v>
@@ -6965,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>64</v>
@@ -6977,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="2">
         <v>0</v>
@@ -6986,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="W65" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="X65" s="2">
         <v>0</v>
@@ -7012,28 +7025,28 @@
     </row>
     <row r="66" s="2" customFormat="1" spans="3:31">
       <c r="C66" s="2">
-        <v>13007</v>
+        <v>13005</v>
       </c>
       <c r="D66" s="2">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K66" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L66" s="2">
         <v>1</v>
@@ -7048,19 +7061,19 @@
         <v>0</v>
       </c>
       <c r="P66" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R66" s="2" t="s">
         <v>80</v>
       </c>
       <c r="S66" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T66" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U66" s="2">
         <v>0</v>
@@ -7069,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="X66" s="2">
         <v>0</v>
@@ -7089,47 +7102,124 @@
       <c r="AC66" s="2">
         <v>0</v>
       </c>
+      <c r="AD66" s="4"/>
       <c r="AE66" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" spans="5:15">
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
+    <row r="67" s="2" customFormat="1" spans="3:31">
+      <c r="C67" s="2">
+        <v>13006</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3006</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="2">
+        <v>6</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>10</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>3</v>
+      </c>
+      <c r="N67" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2">
+        <v>50</v>
+      </c>
+      <c r="X67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="68" s="2" customFormat="1" spans="3:31">
       <c r="C68" s="2">
-        <v>21002</v>
+        <v>13007</v>
       </c>
       <c r="D68" s="2">
-        <v>1002</v>
+        <v>3007</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="G68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
       </c>
       <c r="I68" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K68" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N68" s="2">
         <v>9999</v>
@@ -7141,10 +7231,10 @@
         <v>2</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="S68" s="2">
         <v>0</v>
@@ -7159,30 +7249,120 @@
         <v>0</v>
       </c>
       <c r="W68" s="2">
+        <v>120</v>
+      </c>
+      <c r="X68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="5:15">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="3:31">
+      <c r="C70" s="2">
+        <v>21002</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1002</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>10</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>2</v>
+      </c>
+      <c r="M70" s="2">
+        <v>1</v>
+      </c>
+      <c r="N70" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0</v>
+      </c>
+      <c r="P70" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0</v>
+      </c>
+      <c r="T70" s="2">
+        <v>2</v>
+      </c>
+      <c r="U70" s="2">
+        <v>0</v>
+      </c>
+      <c r="V70" s="2">
+        <v>0</v>
+      </c>
+      <c r="W70" s="2">
         <v>150</v>
       </c>
-      <c r="X68" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="2">
+      <c r="X70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2">
         <v>20</v>
       </c>
-      <c r="Z68" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE68" s="2">
+      <c r="Z70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE70" s="2">
         <v>50</v>
       </c>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1173,12 +1173,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1977,7 +1977,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3973,7 +3973,7 @@
         <v>118</v>
       </c>
       <c r="G26" s="2">
-        <v>3</v>
+        <v>2010</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>138</v>
       </c>
       <c r="G37" s="2">
-        <v>2</v>
+        <v>3010</v>
       </c>
       <c r="H37" s="2">
         <v>6</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0">
+    <comment ref="X3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD3" authorId="0">
+    <comment ref="AE3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -542,7 +542,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="152">
   <si>
     <t>_ID</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>技能等级</t>
+  </si>
+  <si>
+    <t>RiseMaxLevel</t>
   </si>
   <si>
     <t>等级成长</t>
@@ -1173,12 +1176,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1972,12 +1975,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AH70"/>
+  <dimension ref="C3:AI70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1995,24 +1998,25 @@
     <col min="12" max="12" width="8.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.50833333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.50833333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" style="1" customWidth="1"/>
-    <col min="20" max="22" width="7.625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="7.875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.625" style="1" customWidth="1"/>
-    <col min="26" max="27" width="7.875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.625" style="1" customWidth="1"/>
-    <col min="30" max="31" width="33.75" style="1" customWidth="1"/>
-    <col min="32" max="33" width="9" style="1"/>
-    <col min="34" max="34" width="19.25" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="1"/>
+    <col min="15" max="15" width="12.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.50833333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" style="1" customWidth="1"/>
+    <col min="21" max="23" width="7.625" style="1" customWidth="1"/>
+    <col min="24" max="25" width="7.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="7.875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="33.75" style="1" customWidth="1"/>
+    <col min="33" max="34" width="9" style="1"/>
+    <col min="35" max="35" width="19.25" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:34">
+    <row r="3" spans="3:35">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2100,55 +2104,58 @@
       <c r="AE3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AF3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="3:31">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="3:32">
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>43</v>
@@ -2198,97 +2205,103 @@
       <c r="AE4" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="3:31">
+      <c r="AF4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="3:32">
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
       <c r="R5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="U5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="3:31">
+        <v>62</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="3:32">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
@@ -2296,10 +2309,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -2311,7 +2324,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -2326,35 +2339,35 @@
         <v>600</v>
       </c>
       <c r="O6" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>64</v>
+      <c r="Q6" s="2">
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="2">
-        <v>0</v>
+      <c r="S6" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
       </c>
       <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
         <v>120</v>
       </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
       <c r="Y6" s="2">
         <v>0</v>
       </c>
@@ -2370,11 +2383,14 @@
       <c r="AC6" s="2">
         <v>0</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="3:31">
+    <row r="7" s="2" customFormat="1" spans="3:32">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
@@ -2382,10 +2398,10 @@
         <v>1002</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -2397,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2412,41 +2428,41 @@
         <v>600</v>
       </c>
       <c r="O7" s="2">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="P7" s="2">
         <v>2</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>64</v>
+      <c r="Q7" s="2">
+        <v>2</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
+      <c r="S7" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
         <v>2</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
       <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
         <v>150</v>
       </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
       <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
         <v>50</v>
       </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
       <c r="AA7" s="2">
         <v>0</v>
       </c>
@@ -2456,11 +2472,14 @@
       <c r="AC7" s="2">
         <v>0</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="3:31">
+    <row r="8" s="2" customFormat="1" spans="3:32">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
@@ -2468,10 +2487,10 @@
         <v>1003</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -2483,7 +2502,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" s="2">
         <v>5</v>
@@ -2498,35 +2517,35 @@
         <v>600</v>
       </c>
       <c r="O8" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>64</v>
+      <c r="Q8" s="2">
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
         <v>5</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
       <c r="V8" s="2">
         <v>0</v>
       </c>
       <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
         <v>100</v>
       </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
       <c r="Y8" s="2">
         <v>0</v>
       </c>
@@ -2542,14 +2561,17 @@
       <c r="AC8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE8" s="2">
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="3:31">
+    <row r="9" s="2" customFormat="1" spans="3:32">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
@@ -2557,10 +2579,10 @@
         <v>1004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2">
         <v>7</v>
@@ -2572,7 +2594,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2">
         <v>10</v>
@@ -2587,35 +2609,35 @@
         <v>600</v>
       </c>
       <c r="O9" s="2">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="P9" s="2">
         <v>4</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>75</v>
+      <c r="Q9" s="2">
+        <v>4</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" s="2">
         <v>2</v>
       </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
         <v>200</v>
       </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
       <c r="Y9" s="2">
         <v>0</v>
       </c>
@@ -2631,14 +2653,17 @@
       <c r="AC9" s="2">
         <v>0</v>
       </c>
-      <c r="AD9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE9" s="2">
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF9" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="3:31">
+    <row r="10" s="2" customFormat="1" spans="3:32">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -2646,10 +2671,10 @@
         <v>1005</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
@@ -2661,7 +2686,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" s="2">
         <v>55</v>
@@ -2676,23 +2701,23 @@
         <v>200</v>
       </c>
       <c r="O10" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="2">
+        <v>65</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="2">
         <v>30</v>
       </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
@@ -2720,14 +2745,17 @@
       <c r="AC10" s="2">
         <v>0</v>
       </c>
-      <c r="AD10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE10" s="2">
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF10" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="3:31">
+    <row r="11" s="2" customFormat="1" spans="3:32">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
@@ -2735,10 +2763,10 @@
         <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
@@ -2750,7 +2778,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2765,19 +2793,19 @@
         <v>200</v>
       </c>
       <c r="O11" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
@@ -2789,11 +2817,11 @@
         <v>0</v>
       </c>
       <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
         <v>50</v>
       </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
       <c r="Y11" s="2">
         <v>0</v>
       </c>
@@ -2809,11 +2837,14 @@
       <c r="AC11" s="2">
         <v>0</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="3:31">
+    <row r="12" s="2" customFormat="1" spans="3:32">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
@@ -2821,10 +2852,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -2836,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" s="5">
         <v>5</v>
@@ -2850,42 +2881,42 @@
       <c r="N12" s="2">
         <v>600</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="2">
+        <v>60</v>
+      </c>
+      <c r="P12" s="5">
         <v>10</v>
       </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>64</v>
+      <c r="Q12" s="2">
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="2">
-        <v>0</v>
+      <c r="S12" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2">
         <v>0</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
         <v>500</v>
       </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
       <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
         <v>50</v>
       </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
       <c r="AA12" s="2">
         <v>0</v>
       </c>
@@ -2895,14 +2926,17 @@
       <c r="AC12" s="2">
         <v>0</v>
       </c>
-      <c r="AD12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE12" s="2">
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF12" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="3:31">
+    <row r="13" s="2" customFormat="1" spans="3:32">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
@@ -2910,10 +2944,10 @@
         <v>1008</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>1008</v>
@@ -2925,7 +2959,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="2">
         <v>30</v>
@@ -2940,23 +2974,23 @@
         <v>30</v>
       </c>
       <c r="O13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" s="2">
+        <v>65</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="2">
         <v>5</v>
       </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
@@ -2984,14 +3018,17 @@
       <c r="AC13" s="2">
         <v>0</v>
       </c>
-      <c r="AD13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE13" s="2">
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF13" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="3:31">
+    <row r="14" s="2" customFormat="1" spans="3:32">
       <c r="C14" s="2">
         <v>1009</v>
       </c>
@@ -2999,10 +3036,10 @@
         <v>1009</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -3014,7 +3051,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" s="2">
         <v>15</v>
@@ -3029,41 +3066,41 @@
         <v>300</v>
       </c>
       <c r="O14" s="2">
+        <v>30</v>
+      </c>
+      <c r="P14" s="2">
         <v>12</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>4</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="2">
-        <v>0</v>
+      <c r="S14" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
         <v>4</v>
       </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
       <c r="V14" s="2">
         <v>0</v>
       </c>
       <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
         <v>600</v>
       </c>
-      <c r="X14" s="2">
-        <v>0</v>
-      </c>
       <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
         <v>50</v>
       </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
       <c r="AA14" s="2">
         <v>0</v>
       </c>
@@ -3073,14 +3110,17 @@
       <c r="AC14" s="2">
         <v>0</v>
       </c>
-      <c r="AD14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE14" s="2">
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF14" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="3:31">
+    <row r="15" s="2" customFormat="1" spans="3:32">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
@@ -3088,10 +3128,10 @@
         <v>1010</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -3103,7 +3143,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" s="2">
         <v>15</v>
@@ -3118,19 +3158,19 @@
         <v>100</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
         <v>2</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="R15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
@@ -3142,11 +3182,11 @@
         <v>0</v>
       </c>
       <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
         <v>100</v>
       </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
       <c r="Y15" s="2">
         <v>0</v>
       </c>
@@ -3162,7 +3202,10 @@
       <c r="AC15" s="2">
         <v>0</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2">
         <v>50</v>
       </c>
     </row>
@@ -3170,7 +3213,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="3:31">
+    <row r="17" s="2" customFormat="1" spans="3:32">
       <c r="C17" s="2">
         <v>2001</v>
       </c>
@@ -3178,10 +3221,10 @@
         <v>2001</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3193,7 +3236,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3208,35 +3251,35 @@
         <v>600</v>
       </c>
       <c r="O17" s="2">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="P17" s="2">
         <v>2</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>75</v>
+      <c r="Q17" s="2">
+        <v>2</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="T17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="2">
         <v>0</v>
       </c>
       <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
         <v>120</v>
       </c>
-      <c r="X17" s="2">
-        <v>0</v>
-      </c>
       <c r="Y17" s="2">
         <v>0</v>
       </c>
@@ -3252,11 +3295,14 @@
       <c r="AC17" s="2">
         <v>0</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="3:31">
+    <row r="18" s="2" customFormat="1" spans="3:32">
       <c r="C18" s="2">
         <v>2002</v>
       </c>
@@ -3264,10 +3310,10 @@
         <v>2002</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -3279,7 +3325,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -3294,41 +3340,41 @@
         <v>600</v>
       </c>
       <c r="O18" s="2">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="P18" s="2">
         <v>3</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>75</v>
+      <c r="Q18" s="2">
+        <v>3</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="T18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="2">
         <v>0</v>
       </c>
       <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
         <v>150</v>
       </c>
-      <c r="X18" s="2">
-        <v>0</v>
-      </c>
       <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
         <v>30</v>
       </c>
-      <c r="Z18" s="2">
-        <v>0</v>
-      </c>
       <c r="AA18" s="2">
         <v>0</v>
       </c>
@@ -3338,11 +3384,14 @@
       <c r="AC18" s="2">
         <v>0</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="3:31">
+    <row r="19" s="2" customFormat="1" spans="3:32">
       <c r="C19" s="2">
         <v>2003</v>
       </c>
@@ -3350,10 +3399,10 @@
         <v>2003</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
@@ -3365,7 +3414,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19" s="2">
         <v>10</v>
@@ -3380,35 +3429,35 @@
         <v>600</v>
       </c>
       <c r="O19" s="2">
+        <v>60</v>
+      </c>
+      <c r="P19" s="2">
         <v>2</v>
       </c>
-      <c r="P19" s="2">
+      <c r="Q19" s="2">
         <v>3</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" s="2">
+        <v>76</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T19" s="2">
         <v>10</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="2">
         <v>5</v>
-      </c>
-      <c r="U19" s="2">
-        <v>2</v>
       </c>
       <c r="V19" s="2">
         <v>2</v>
       </c>
       <c r="W19" s="2">
+        <v>2</v>
+      </c>
+      <c r="X19" s="2">
         <v>80</v>
       </c>
-      <c r="X19" s="2">
-        <v>0</v>
-      </c>
       <c r="Y19" s="2">
         <v>0</v>
       </c>
@@ -3424,11 +3473,14 @@
       <c r="AC19" s="2">
         <v>0</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="3:31">
+    <row r="20" s="2" customFormat="1" spans="3:32">
       <c r="C20" s="2">
         <v>2004</v>
       </c>
@@ -3436,10 +3488,10 @@
         <v>2004</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -3451,7 +3503,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -3466,35 +3518,35 @@
         <v>600</v>
       </c>
       <c r="O20" s="2">
+        <v>60</v>
+      </c>
+      <c r="P20" s="2">
         <v>2</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q20" s="2">
         <v>4</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="R20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
         <v>4</v>
-      </c>
-      <c r="U20" s="2">
-        <v>2</v>
       </c>
       <c r="V20" s="2">
         <v>2</v>
       </c>
       <c r="W20" s="2">
+        <v>2</v>
+      </c>
+      <c r="X20" s="2">
         <v>100</v>
       </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
       <c r="Y20" s="2">
         <v>0</v>
       </c>
@@ -3510,14 +3562,17 @@
       <c r="AC20" s="2">
         <v>0</v>
       </c>
-      <c r="AD20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE20" s="2">
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF20" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="3:31">
+    <row r="21" s="2" customFormat="1" spans="3:32">
       <c r="C21" s="2">
         <v>2005</v>
       </c>
@@ -3525,10 +3580,10 @@
         <v>2005</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21" s="2">
         <v>5</v>
@@ -3540,7 +3595,7 @@
         <v>50</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K21" s="2">
         <v>55</v>
@@ -3555,23 +3610,23 @@
         <v>200</v>
       </c>
       <c r="O21" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S21" s="2">
+        <v>65</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" s="2">
         <v>30</v>
       </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
@@ -3599,14 +3654,17 @@
       <c r="AC21" s="2">
         <v>0</v>
       </c>
-      <c r="AD21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE21" s="2">
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF21" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="3:31">
+    <row r="22" s="2" customFormat="1" spans="3:32">
       <c r="C22" s="2">
         <v>2006</v>
       </c>
@@ -3614,10 +3672,10 @@
         <v>2006</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" s="2">
         <v>6</v>
@@ -3629,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -3644,19 +3702,19 @@
         <v>200</v>
       </c>
       <c r="O22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -3668,11 +3726,11 @@
         <v>0</v>
       </c>
       <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
         <v>50</v>
       </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
       <c r="Y22" s="2">
         <v>0</v>
       </c>
@@ -3688,11 +3746,14 @@
       <c r="AC22" s="2">
         <v>0</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="3:31">
+    <row r="23" s="2" customFormat="1" spans="3:32">
       <c r="C23" s="2">
         <v>2007</v>
       </c>
@@ -3700,10 +3761,10 @@
         <v>2007</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -3715,7 +3776,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23" s="5">
         <v>5</v>
@@ -3729,36 +3790,36 @@
       <c r="N23" s="2">
         <v>600</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="2">
+        <v>60</v>
+      </c>
+      <c r="P23" s="5">
         <v>6</v>
       </c>
-      <c r="P23" s="2">
+      <c r="Q23" s="2">
         <v>5</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
         <v>5</v>
-      </c>
-      <c r="U23" s="2">
-        <v>3</v>
       </c>
       <c r="V23" s="2">
         <v>3</v>
       </c>
-      <c r="W23" s="5">
+      <c r="W23" s="2">
+        <v>3</v>
+      </c>
+      <c r="X23" s="5">
         <v>300</v>
       </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
       <c r="Y23" s="2">
         <v>0</v>
       </c>
@@ -3774,14 +3835,17 @@
       <c r="AC23" s="2">
         <v>0</v>
       </c>
-      <c r="AD23" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE23" s="2">
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF23" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="3:31">
+    <row r="24" s="2" customFormat="1" spans="3:32">
       <c r="C24" s="2">
         <v>2008</v>
       </c>
@@ -3789,10 +3853,10 @@
         <v>2008</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2">
         <v>2008</v>
@@ -3804,7 +3868,7 @@
         <v>200</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K24" s="2">
         <v>30</v>
@@ -3819,19 +3883,19 @@
         <v>30</v>
       </c>
       <c r="O24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
@@ -3863,14 +3927,17 @@
       <c r="AC24" s="2">
         <v>0</v>
       </c>
-      <c r="AD24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE24" s="2">
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF24" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="3:31">
+    <row r="25" s="2" customFormat="1" spans="3:32">
       <c r="C25" s="2">
         <v>2009</v>
       </c>
@@ -3878,10 +3945,10 @@
         <v>2009</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2">
         <v>3</v>
@@ -3893,7 +3960,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K25" s="2">
         <v>15</v>
@@ -3908,35 +3975,35 @@
         <v>300</v>
       </c>
       <c r="O25" s="2">
+        <v>30</v>
+      </c>
+      <c r="P25" s="2">
         <v>7</v>
       </c>
-      <c r="P25" s="2">
+      <c r="Q25" s="2">
         <v>3</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S25" s="2">
+        <v>76</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T25" s="2">
         <v>10</v>
       </c>
-      <c r="T25" s="2">
+      <c r="U25" s="2">
         <v>5</v>
-      </c>
-      <c r="U25" s="2">
-        <v>4</v>
       </c>
       <c r="V25" s="2">
         <v>4</v>
       </c>
       <c r="W25" s="2">
+        <v>4</v>
+      </c>
+      <c r="X25" s="2">
         <v>400</v>
       </c>
-      <c r="X25" s="2">
-        <v>0</v>
-      </c>
       <c r="Y25" s="2">
         <v>0</v>
       </c>
@@ -3952,14 +4019,17 @@
       <c r="AC25" s="2">
         <v>0</v>
       </c>
-      <c r="AD25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE25" s="2">
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF25" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="3:31">
+    <row r="26" s="2" customFormat="1" spans="3:32">
       <c r="C26" s="2">
         <v>2010</v>
       </c>
@@ -3967,10 +4037,10 @@
         <v>2010</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G26" s="2">
         <v>2010</v>
@@ -3982,7 +4052,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K26" s="2">
         <v>15</v>
@@ -3994,38 +4064,38 @@
         <v>2</v>
       </c>
       <c r="N26" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O26" s="2">
+        <v>10</v>
+      </c>
+      <c r="P26" s="2">
         <v>7</v>
       </c>
-      <c r="P26" s="2">
+      <c r="Q26" s="2">
         <v>3</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S26" s="2">
+        <v>76</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T26" s="2">
         <v>10</v>
       </c>
-      <c r="T26" s="2">
+      <c r="U26" s="2">
         <v>5</v>
-      </c>
-      <c r="U26" s="2">
-        <v>4</v>
       </c>
       <c r="V26" s="2">
         <v>4</v>
       </c>
       <c r="W26" s="2">
+        <v>4</v>
+      </c>
+      <c r="X26" s="2">
         <v>400</v>
       </c>
-      <c r="X26" s="2">
-        <v>0</v>
-      </c>
       <c r="Y26" s="2">
         <v>0</v>
       </c>
@@ -4041,10 +4111,13 @@
       <c r="AC26" s="2">
         <v>0</v>
       </c>
-      <c r="AD26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE26" s="2">
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF26" s="2">
         <v>50</v>
       </c>
     </row>
@@ -4052,7 +4125,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="3:31">
+    <row r="28" s="2" customFormat="1" spans="3:32">
       <c r="C28" s="2">
         <v>3001</v>
       </c>
@@ -4060,10 +4133,10 @@
         <v>3001</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>
@@ -4075,7 +4148,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K28" s="2">
         <v>4</v>
@@ -4090,19 +4163,19 @@
         <v>600</v>
       </c>
       <c r="O28" s="2">
+        <v>60</v>
+      </c>
+      <c r="P28" s="2">
         <v>3</v>
       </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>64</v>
+      <c r="Q28" s="2">
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S28" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
@@ -4114,11 +4187,11 @@
         <v>0</v>
       </c>
       <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
         <v>50</v>
       </c>
-      <c r="X28" s="2">
-        <v>0</v>
-      </c>
       <c r="Y28" s="2">
         <v>0</v>
       </c>
@@ -4134,11 +4207,14 @@
       <c r="AC28" s="2">
         <v>0</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="3:31">
+    <row r="29" s="2" customFormat="1" spans="3:32">
       <c r="C29" s="2">
         <v>3002</v>
       </c>
@@ -4146,10 +4222,10 @@
         <v>3002</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4161,7 +4237,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -4176,35 +4252,35 @@
         <v>500</v>
       </c>
       <c r="O29" s="2">
+        <v>60</v>
+      </c>
+      <c r="P29" s="2">
         <v>2</v>
       </c>
-      <c r="P29" s="2">
+      <c r="Q29" s="2">
         <v>3</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S29" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="T29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
       </c>
       <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
         <v>120</v>
       </c>
-      <c r="X29" s="2">
-        <v>0</v>
-      </c>
       <c r="Y29" s="2">
         <v>0</v>
       </c>
@@ -4220,11 +4296,14 @@
       <c r="AC29" s="2">
         <v>0</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="3:31">
+    <row r="30" s="2" customFormat="1" spans="3:32">
       <c r="C30" s="2">
         <v>3003</v>
       </c>
@@ -4232,10 +4311,10 @@
         <v>3003</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4247,7 +4326,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K30" s="2">
         <v>10</v>
@@ -4262,41 +4341,41 @@
         <v>600</v>
       </c>
       <c r="O30" s="2">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="P30" s="2">
         <v>2</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>75</v>
+      <c r="Q30" s="2">
+        <v>2</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S30" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
         <v>5</v>
       </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
       <c r="V30" s="2">
         <v>0</v>
       </c>
       <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
         <v>35</v>
       </c>
-      <c r="X30" s="2">
-        <v>0</v>
-      </c>
       <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
         <v>60</v>
       </c>
-      <c r="Z30" s="2">
-        <v>0</v>
-      </c>
       <c r="AA30" s="2">
         <v>0</v>
       </c>
@@ -4306,14 +4385,17 @@
       <c r="AC30" s="2">
         <v>0</v>
       </c>
-      <c r="AD30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE30" s="2">
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF30" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="3:31">
+    <row r="31" s="2" customFormat="1" spans="3:32">
       <c r="C31" s="2">
         <v>3004</v>
       </c>
@@ -4321,10 +4403,10 @@
         <v>3004</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G31" s="2">
         <v>2</v>
@@ -4336,7 +4418,7 @@
         <v>100</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K31" s="2">
         <v>15</v>
@@ -4351,35 +4433,35 @@
         <v>600</v>
       </c>
       <c r="O31" s="2">
+        <v>60</v>
+      </c>
+      <c r="P31" s="2">
         <v>2</v>
       </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>64</v>
+      <c r="Q31" s="2">
+        <v>0</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S31" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="T31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="2">
         <v>0</v>
       </c>
       <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2">
         <v>100</v>
       </c>
-      <c r="X31" s="2">
-        <v>0</v>
-      </c>
       <c r="Y31" s="2">
         <v>0</v>
       </c>
@@ -4395,11 +4477,14 @@
       <c r="AC31" s="2">
         <v>0</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="3:31">
+    <row r="32" s="2" customFormat="1" spans="3:32">
       <c r="C32" s="2">
         <v>3005</v>
       </c>
@@ -4407,10 +4492,10 @@
         <v>3005</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G32" s="2">
         <v>5</v>
@@ -4422,7 +4507,7 @@
         <v>50</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K32" s="2">
         <v>55</v>
@@ -4437,23 +4522,23 @@
         <v>200</v>
       </c>
       <c r="O32" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S32" s="2">
+        <v>65</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T32" s="2">
         <v>30</v>
       </c>
-      <c r="T32" s="2">
-        <v>0</v>
-      </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
@@ -4481,14 +4566,17 @@
       <c r="AC32" s="2">
         <v>0</v>
       </c>
-      <c r="AD32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE32" s="2">
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF32" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="3:31">
+    <row r="33" s="2" customFormat="1" spans="3:32">
       <c r="C33" s="2">
         <v>3006</v>
       </c>
@@ -4496,10 +4584,10 @@
         <v>3006</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G33" s="2">
         <v>6</v>
@@ -4511,7 +4599,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -4526,19 +4614,19 @@
         <v>200</v>
       </c>
       <c r="O33" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
         <v>3</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="R33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S33" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
@@ -4550,11 +4638,11 @@
         <v>0</v>
       </c>
       <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
         <v>50</v>
       </c>
-      <c r="X33" s="2">
-        <v>0</v>
-      </c>
       <c r="Y33" s="2">
         <v>0</v>
       </c>
@@ -4570,11 +4658,14 @@
       <c r="AC33" s="2">
         <v>0</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AD33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="3:31">
+    <row r="34" s="2" customFormat="1" spans="3:32">
       <c r="C34" s="2">
         <v>3007</v>
       </c>
@@ -4582,10 +4673,10 @@
         <v>3007</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
@@ -4597,7 +4688,7 @@
         <v>100</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K34" s="2">
         <v>30</v>
@@ -4612,35 +4703,35 @@
         <v>600</v>
       </c>
       <c r="O34" s="2">
+        <v>60</v>
+      </c>
+      <c r="P34" s="2">
         <v>3</v>
       </c>
-      <c r="P34" s="2">
+      <c r="Q34" s="2">
         <v>2</v>
       </c>
-      <c r="Q34" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S34" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
         <v>2</v>
       </c>
-      <c r="U34" s="2">
-        <v>0</v>
-      </c>
       <c r="V34" s="2">
         <v>0</v>
       </c>
       <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
         <v>120</v>
       </c>
-      <c r="X34" s="2">
-        <v>0</v>
-      </c>
       <c r="Y34" s="2">
         <v>0</v>
       </c>
@@ -4656,11 +4747,14 @@
       <c r="AC34" s="2">
         <v>0</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AD34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="3:31">
+    <row r="35" s="2" customFormat="1" spans="3:32">
       <c r="C35" s="2">
         <v>3008</v>
       </c>
@@ -4668,10 +4762,10 @@
         <v>3008</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G35" s="2">
         <v>3008</v>
@@ -4683,7 +4777,7 @@
         <v>200</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K35" s="2">
         <v>30</v>
@@ -4698,23 +4792,23 @@
         <v>30</v>
       </c>
       <c r="O35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S35" s="2">
+        <v>65</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T35" s="2">
         <v>5</v>
       </c>
-      <c r="T35" s="2">
-        <v>0</v>
-      </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
@@ -4742,14 +4836,17 @@
       <c r="AC35" s="2">
         <v>0</v>
       </c>
-      <c r="AD35" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE35" s="2">
+      <c r="AD35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF35" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="3:31">
+    <row r="36" s="2" customFormat="1" spans="3:32">
       <c r="C36" s="2">
         <v>3009</v>
       </c>
@@ -4757,10 +4854,10 @@
         <v>3009</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
@@ -4772,7 +4869,7 @@
         <v>100</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K36" s="2">
         <v>30</v>
@@ -4787,35 +4884,35 @@
         <v>300</v>
       </c>
       <c r="O36" s="2">
+        <v>30</v>
+      </c>
+      <c r="P36" s="2">
         <v>4</v>
       </c>
-      <c r="P36" s="2">
+      <c r="Q36" s="2">
         <v>2</v>
       </c>
-      <c r="Q36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
         <v>3</v>
       </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
       <c r="V36" s="2">
         <v>0</v>
       </c>
       <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
         <v>300</v>
       </c>
-      <c r="X36" s="2">
-        <v>0</v>
-      </c>
       <c r="Y36" s="2">
         <v>0</v>
       </c>
@@ -4831,11 +4928,14 @@
       <c r="AC36" s="2">
         <v>0</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="3:31">
+    <row r="37" s="2" customFormat="1" spans="3:32">
       <c r="C37" s="2">
         <v>3010</v>
       </c>
@@ -4843,10 +4943,10 @@
         <v>3010</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G37" s="2">
         <v>3010</v>
@@ -4858,7 +4958,7 @@
         <v>100</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K37" s="2">
         <v>30</v>
@@ -4870,38 +4970,38 @@
         <v>3</v>
       </c>
       <c r="N37" s="2">
+        <v>100</v>
+      </c>
+      <c r="O37" s="2">
+        <v>10</v>
+      </c>
+      <c r="P37" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>2</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>3</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
         <v>300</v>
       </c>
-      <c r="O37" s="2">
-        <v>4</v>
-      </c>
-      <c r="P37" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>3</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
-        <v>300</v>
-      </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
       <c r="Y37" s="2">
         <v>0</v>
       </c>
@@ -4917,7 +5017,10 @@
       <c r="AC37" s="2">
         <v>0</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2">
         <v>50</v>
       </c>
     </row>
@@ -4925,7 +5028,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" s="2" customFormat="1" spans="3:31">
+    <row r="39" s="2" customFormat="1" spans="3:32">
       <c r="C39" s="2">
         <v>9001</v>
       </c>
@@ -4933,10 +5036,10 @@
         <v>9001</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G39" s="2">
         <v>9</v>
@@ -4963,32 +5066,32 @@
         <v>0</v>
       </c>
       <c r="P39" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S39" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="T39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="2">
         <v>0</v>
       </c>
       <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
         <v>100</v>
       </c>
-      <c r="X39" s="2">
-        <v>0</v>
-      </c>
       <c r="Y39" s="2">
         <v>0</v>
       </c>
@@ -5004,11 +5107,14 @@
       <c r="AC39" s="2">
         <v>0</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="3:31">
+    <row r="40" s="2" customFormat="1" spans="3:32">
       <c r="C40" s="2">
         <v>9002</v>
       </c>
@@ -5016,10 +5122,10 @@
         <v>9002</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G40" s="2">
         <v>9</v>
@@ -5046,32 +5152,32 @@
         <v>0</v>
       </c>
       <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
         <v>2</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S40" s="2">
-        <v>0</v>
+      <c r="S40" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="2">
         <v>0</v>
       </c>
       <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
         <v>100</v>
       </c>
-      <c r="X40" s="2">
-        <v>0</v>
-      </c>
       <c r="Y40" s="2">
         <v>0</v>
       </c>
@@ -5087,12 +5193,15 @@
       <c r="AC40" s="2">
         <v>0</v>
       </c>
-      <c r="AE40" s="2">
+      <c r="AD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1"/>
-    <row r="42" s="2" customFormat="1" spans="3:31">
+    <row r="42" s="2" customFormat="1" spans="3:32">
       <c r="C42" s="2">
         <v>10001</v>
       </c>
@@ -5100,23 +5209,23 @@
         <v>10001</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="K42" s="2">
         <v>0</v>
       </c>
@@ -5133,32 +5242,32 @@
         <v>0</v>
       </c>
       <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
         <v>3</v>
       </c>
-      <c r="Q42" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S42" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="T42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" s="2">
         <v>0</v>
       </c>
       <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
         <v>150</v>
       </c>
-      <c r="X42" s="2">
-        <v>0</v>
-      </c>
       <c r="Y42" s="2">
         <v>0</v>
       </c>
@@ -5174,11 +5283,14 @@
       <c r="AC42" s="2">
         <v>0</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AD42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="3:31">
+    <row r="43" spans="3:32">
       <c r="C43" s="1">
         <v>10002</v>
       </c>
@@ -5186,10 +5298,10 @@
         <v>10002</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G43" s="1">
         <v>4</v>
@@ -5201,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
@@ -5218,33 +5330,33 @@
       <c r="O43" s="2">
         <v>0</v>
       </c>
-      <c r="P43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>64</v>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S43" s="1">
-        <v>0</v>
+      <c r="S43" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T43" s="1">
-        <v>1</v>
-      </c>
-      <c r="U43" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
       </c>
       <c r="V43" s="2">
         <v>0</v>
       </c>
-      <c r="W43" s="1">
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
         <v>100</v>
       </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
       <c r="Y43" s="2">
         <v>0</v>
       </c>
@@ -5260,12 +5372,15 @@
       <c r="AC43" s="2">
         <v>0</v>
       </c>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2">
+      <c r="AD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="3:31">
+    <row r="44" spans="3:32">
       <c r="C44" s="1">
         <v>10003</v>
       </c>
@@ -5273,10 +5388,10 @@
         <v>10003</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -5288,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -5308,30 +5423,30 @@
       <c r="P44" s="2">
         <v>0</v>
       </c>
-      <c r="Q44" s="2" t="s">
-        <v>75</v>
+      <c r="Q44" s="2">
+        <v>0</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
         <v>10</v>
       </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
       <c r="V44" s="2">
         <v>0</v>
       </c>
       <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
         <v>100</v>
       </c>
-      <c r="X44" s="2">
-        <v>0</v>
-      </c>
       <c r="Y44" s="2">
         <v>0</v>
       </c>
@@ -5347,12 +5462,15 @@
       <c r="AC44" s="2">
         <v>0</v>
       </c>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2">
+      <c r="AD44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="3:31">
+    <row r="45" spans="3:32">
       <c r="C45" s="1">
         <v>10004</v>
       </c>
@@ -5360,10 +5478,10 @@
         <v>10004</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G45" s="1">
         <v>4</v>
@@ -5375,7 +5493,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -5392,37 +5510,37 @@
       <c r="O45" s="2">
         <v>0</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
         <v>3</v>
       </c>
-      <c r="Q45" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="R45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S45" s="1">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
         <v>4</v>
       </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
       <c r="V45" s="2">
         <v>0</v>
       </c>
-      <c r="W45" s="1">
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
         <v>50</v>
       </c>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="1">
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
         <v>0</v>
       </c>
       <c r="AA45" s="1">
@@ -5431,14 +5549,17 @@
       <c r="AB45" s="1">
         <v>0</v>
       </c>
-      <c r="AC45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="2">
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="3:31">
+    <row r="46" s="2" customFormat="1" spans="3:32">
       <c r="C46" s="2">
         <v>10005</v>
       </c>
@@ -5446,10 +5567,10 @@
         <v>10005</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5461,7 +5582,7 @@
         <v>10</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -5479,38 +5600,38 @@
         <v>0</v>
       </c>
       <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
         <v>2</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S46" s="2">
-        <v>0</v>
+      <c r="S46" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
         <v>2</v>
       </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
       <c r="V46" s="2">
         <v>0</v>
       </c>
       <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
         <v>150</v>
       </c>
-      <c r="X46" s="2">
-        <v>0</v>
-      </c>
       <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
         <v>20</v>
       </c>
-      <c r="Z46" s="2">
-        <v>0</v>
-      </c>
       <c r="AA46" s="2">
         <v>0</v>
       </c>
@@ -5520,11 +5641,14 @@
       <c r="AC46" s="2">
         <v>0</v>
       </c>
-      <c r="AE46" s="2">
+      <c r="AD46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="3:31">
+    <row r="48" s="2" customFormat="1" spans="3:32">
       <c r="C48" s="2">
         <v>11001</v>
       </c>
@@ -5532,10 +5656,10 @@
         <v>1001</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5562,32 +5686,32 @@
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S48" s="2">
-        <v>0</v>
+      <c r="S48" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="2">
         <v>0</v>
       </c>
       <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
         <v>120</v>
       </c>
-      <c r="X48" s="2">
-        <v>0</v>
-      </c>
       <c r="Y48" s="2">
         <v>0</v>
       </c>
@@ -5603,11 +5727,14 @@
       <c r="AC48" s="2">
         <v>0</v>
       </c>
-      <c r="AE48" s="2">
+      <c r="AD48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="3:31">
+    <row r="49" s="2" customFormat="1" spans="3:32">
       <c r="C49" s="2">
         <v>11002</v>
       </c>
@@ -5615,10 +5742,10 @@
         <v>1002</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5645,38 +5772,38 @@
         <v>0</v>
       </c>
       <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
         <v>2</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S49" s="2">
-        <v>0</v>
+      <c r="S49" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
         <v>2</v>
       </c>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
       <c r="V49" s="2">
         <v>0</v>
       </c>
       <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
         <v>150</v>
       </c>
-      <c r="X49" s="2">
-        <v>0</v>
-      </c>
       <c r="Y49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
         <v>20</v>
       </c>
-      <c r="Z49" s="2">
-        <v>0</v>
-      </c>
       <c r="AA49" s="2">
         <v>0</v>
       </c>
@@ -5686,11 +5813,14 @@
       <c r="AC49" s="2">
         <v>0</v>
       </c>
-      <c r="AE49" s="2">
+      <c r="AD49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="3:31">
+    <row r="50" s="2" customFormat="1" spans="3:32">
       <c r="C50" s="2">
         <v>11003</v>
       </c>
@@ -5698,10 +5828,10 @@
         <v>1003</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5728,32 +5858,32 @@
         <v>0</v>
       </c>
       <c r="P50" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
         <v>5</v>
       </c>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
       <c r="V50" s="2">
         <v>0</v>
       </c>
       <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
         <v>100</v>
       </c>
-      <c r="X50" s="2">
-        <v>0</v>
-      </c>
       <c r="Y50" s="2">
         <v>0</v>
       </c>
@@ -5769,11 +5899,14 @@
       <c r="AC50" s="2">
         <v>0</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AD50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="3:31">
+    <row r="51" s="2" customFormat="1" spans="3:32">
       <c r="C51" s="2">
         <v>11004</v>
       </c>
@@ -5781,10 +5914,10 @@
         <v>1004</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G51" s="2">
         <v>7</v>
@@ -5811,32 +5944,32 @@
         <v>0</v>
       </c>
       <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
         <v>4</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T51" s="2">
         <v>2</v>
       </c>
-      <c r="T51" s="2">
-        <v>1</v>
-      </c>
       <c r="U51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="2">
         <v>0</v>
       </c>
       <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2">
         <v>200</v>
       </c>
-      <c r="X51" s="2">
-        <v>0</v>
-      </c>
       <c r="Y51" s="2">
         <v>0</v>
       </c>
@@ -5852,14 +5985,17 @@
       <c r="AC51" s="2">
         <v>0</v>
       </c>
-      <c r="AD51" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE51" s="2">
+      <c r="AD51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF51" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="3:31">
+    <row r="52" s="2" customFormat="1" spans="3:32">
       <c r="C52" s="2">
         <v>11005</v>
       </c>
@@ -5867,10 +6003,10 @@
         <v>1005</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G52" s="2">
         <v>5</v>
@@ -5899,18 +6035,18 @@
       <c r="P52" s="2">
         <v>0</v>
       </c>
-      <c r="Q52" s="2" t="s">
-        <v>64</v>
+      <c r="Q52" s="2">
+        <v>0</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S52" s="2">
+        <v>65</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T52" s="2">
         <v>30</v>
       </c>
-      <c r="T52" s="2">
-        <v>0</v>
-      </c>
       <c r="U52" s="2">
         <v>0</v>
       </c>
@@ -5918,11 +6054,11 @@
         <v>0</v>
       </c>
       <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2">
         <v>20</v>
       </c>
-      <c r="X52" s="2">
-        <v>0</v>
-      </c>
       <c r="Y52" s="2">
         <v>0</v>
       </c>
@@ -5938,12 +6074,15 @@
       <c r="AC52" s="2">
         <v>0</v>
       </c>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="2">
+      <c r="AD52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="3:31">
+    <row r="53" s="2" customFormat="1" spans="3:32">
       <c r="C53" s="2">
         <v>11006</v>
       </c>
@@ -5951,10 +6090,10 @@
         <v>1006</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G53" s="2">
         <v>6</v>
@@ -5983,14 +6122,14 @@
       <c r="P53" s="2">
         <v>0</v>
       </c>
-      <c r="Q53" s="2" t="s">
-        <v>64</v>
+      <c r="Q53" s="2">
+        <v>0</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S53" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
@@ -6002,11 +6141,11 @@
         <v>0</v>
       </c>
       <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="X53" s="2">
         <v>50</v>
       </c>
-      <c r="X53" s="2">
-        <v>0</v>
-      </c>
       <c r="Y53" s="2">
         <v>0</v>
       </c>
@@ -6022,11 +6161,14 @@
       <c r="AC53" s="2">
         <v>0</v>
       </c>
-      <c r="AE53" s="2">
+      <c r="AD53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="3:31">
+    <row r="54" s="2" customFormat="1" spans="3:32">
       <c r="C54" s="2">
         <v>11007</v>
       </c>
@@ -6034,10 +6176,10 @@
         <v>1007</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6064,32 +6206,32 @@
         <v>0</v>
       </c>
       <c r="P54" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S54" s="2">
-        <v>0</v>
+      <c r="S54" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" s="2">
         <v>0</v>
       </c>
       <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="X54" s="2">
         <v>300</v>
       </c>
-      <c r="X54" s="2">
-        <v>0</v>
-      </c>
       <c r="Y54" s="2">
         <v>0</v>
       </c>
@@ -6105,11 +6247,14 @@
       <c r="AC54" s="2">
         <v>0</v>
       </c>
-      <c r="AE54" s="2">
+      <c r="AD54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="3:31">
+    <row r="55" s="2" customFormat="1" spans="3:32">
       <c r="C55" s="2">
         <v>12001</v>
       </c>
@@ -6117,10 +6262,10 @@
         <v>2001</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6147,32 +6292,32 @@
         <v>0</v>
       </c>
       <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
         <v>2</v>
       </c>
-      <c r="Q55" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="T55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" s="2">
         <v>0</v>
       </c>
       <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
         <v>120</v>
       </c>
-      <c r="X55" s="2">
-        <v>0</v>
-      </c>
       <c r="Y55" s="2">
         <v>0</v>
       </c>
@@ -6188,11 +6333,14 @@
       <c r="AC55" s="2">
         <v>0</v>
       </c>
-      <c r="AE55" s="2">
+      <c r="AD55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="3:31">
+    <row r="56" s="2" customFormat="1" spans="3:32">
       <c r="C56" s="2">
         <v>12002</v>
       </c>
@@ -6200,10 +6348,10 @@
         <v>2002</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -6230,32 +6378,32 @@
         <v>0</v>
       </c>
       <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
         <v>3</v>
       </c>
-      <c r="Q56" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R56" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="T56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" s="2">
         <v>0</v>
       </c>
       <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2">
         <v>150</v>
       </c>
-      <c r="X56" s="2">
-        <v>0</v>
-      </c>
       <c r="Y56" s="2">
         <v>0</v>
       </c>
@@ -6271,11 +6419,14 @@
       <c r="AC56" s="2">
         <v>0</v>
       </c>
-      <c r="AE56" s="2">
+      <c r="AD56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="3:31">
+    <row r="57" s="2" customFormat="1" spans="3:32">
       <c r="C57" s="2">
         <v>12003</v>
       </c>
@@ -6283,10 +6434,10 @@
         <v>2003</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G57" s="2">
         <v>3</v>
@@ -6313,32 +6464,32 @@
         <v>0</v>
       </c>
       <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
         <v>3</v>
       </c>
-      <c r="Q57" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S57" s="2">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="T57" s="2">
         <v>5</v>
       </c>
       <c r="U57" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V57" s="2">
         <v>2</v>
       </c>
       <c r="W57" s="2">
+        <v>2</v>
+      </c>
+      <c r="X57" s="2">
         <v>80</v>
       </c>
-      <c r="X57" s="2">
-        <v>0</v>
-      </c>
       <c r="Y57" s="2">
         <v>0</v>
       </c>
@@ -6354,11 +6505,14 @@
       <c r="AC57" s="2">
         <v>0</v>
       </c>
-      <c r="AE57" s="2">
+      <c r="AD57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="3:31">
+    <row r="58" s="2" customFormat="1" spans="3:32">
       <c r="C58" s="2">
         <v>12004</v>
       </c>
@@ -6366,10 +6520,10 @@
         <v>2004</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -6396,32 +6550,32 @@
         <v>0</v>
       </c>
       <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
         <v>4</v>
       </c>
-      <c r="Q58" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="R58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S58" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
         <v>4</v>
-      </c>
-      <c r="U58" s="2">
-        <v>2</v>
       </c>
       <c r="V58" s="2">
         <v>2</v>
       </c>
       <c r="W58" s="2">
+        <v>2</v>
+      </c>
+      <c r="X58" s="2">
         <v>100</v>
       </c>
-      <c r="X58" s="2">
-        <v>0</v>
-      </c>
       <c r="Y58" s="2">
         <v>0</v>
       </c>
@@ -6437,11 +6591,14 @@
       <c r="AC58" s="2">
         <v>0</v>
       </c>
-      <c r="AE58" s="2">
+      <c r="AD58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="3:31">
+    <row r="59" s="2" customFormat="1" spans="3:32">
       <c r="C59" s="2">
         <v>12005</v>
       </c>
@@ -6449,10 +6606,10 @@
         <v>2005</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G59" s="2">
         <v>5</v>
@@ -6481,18 +6638,18 @@
       <c r="P59" s="2">
         <v>0</v>
       </c>
-      <c r="Q59" s="2" t="s">
-        <v>64</v>
+      <c r="Q59" s="2">
+        <v>0</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S59" s="2">
+        <v>65</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T59" s="2">
         <v>30</v>
       </c>
-      <c r="T59" s="2">
-        <v>0</v>
-      </c>
       <c r="U59" s="2">
         <v>0</v>
       </c>
@@ -6500,11 +6657,11 @@
         <v>0</v>
       </c>
       <c r="W59" s="2">
+        <v>0</v>
+      </c>
+      <c r="X59" s="2">
         <v>20</v>
       </c>
-      <c r="X59" s="2">
-        <v>0</v>
-      </c>
       <c r="Y59" s="2">
         <v>0</v>
       </c>
@@ -6520,12 +6677,15 @@
       <c r="AC59" s="2">
         <v>0</v>
       </c>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="2">
+      <c r="AD59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="3:31">
+    <row r="60" s="2" customFormat="1" spans="3:32">
       <c r="C60" s="2">
         <v>12006</v>
       </c>
@@ -6533,10 +6693,10 @@
         <v>2006</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G60" s="2">
         <v>6</v>
@@ -6565,14 +6725,14 @@
       <c r="P60" s="2">
         <v>0</v>
       </c>
-      <c r="Q60" s="2" t="s">
-        <v>64</v>
+      <c r="Q60" s="2">
+        <v>0</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S60" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="T60" s="2">
         <v>0</v>
@@ -6584,11 +6744,11 @@
         <v>0</v>
       </c>
       <c r="W60" s="2">
+        <v>0</v>
+      </c>
+      <c r="X60" s="2">
         <v>50</v>
       </c>
-      <c r="X60" s="2">
-        <v>0</v>
-      </c>
       <c r="Y60" s="2">
         <v>0</v>
       </c>
@@ -6604,11 +6764,14 @@
       <c r="AC60" s="2">
         <v>0</v>
       </c>
-      <c r="AE60" s="2">
+      <c r="AD60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="3:31">
+    <row r="61" s="2" customFormat="1" spans="3:32">
       <c r="C61" s="2">
         <v>12007</v>
       </c>
@@ -6616,10 +6779,10 @@
         <v>2007</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6646,32 +6809,32 @@
         <v>0</v>
       </c>
       <c r="P61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
         <v>5</v>
       </c>
-      <c r="Q61" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S61" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="T61" s="2">
+        <v>0</v>
+      </c>
+      <c r="U61" s="2">
         <v>5</v>
-      </c>
-      <c r="U61" s="2">
-        <v>3</v>
       </c>
       <c r="V61" s="2">
         <v>3</v>
       </c>
       <c r="W61" s="2">
+        <v>3</v>
+      </c>
+      <c r="X61" s="2">
         <v>150</v>
       </c>
-      <c r="X61" s="2">
-        <v>0</v>
-      </c>
       <c r="Y61" s="2">
         <v>0</v>
       </c>
@@ -6687,11 +6850,14 @@
       <c r="AC61" s="2">
         <v>0</v>
       </c>
-      <c r="AE61" s="2">
+      <c r="AD61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="3:31">
+    <row r="62" s="2" customFormat="1" spans="3:32">
       <c r="C62" s="2">
         <v>13001</v>
       </c>
@@ -6699,10 +6865,10 @@
         <v>3001</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G62" s="2">
         <v>4</v>
@@ -6731,14 +6897,14 @@
       <c r="P62" s="2">
         <v>0</v>
       </c>
-      <c r="Q62" s="2" t="s">
-        <v>64</v>
+      <c r="Q62" s="2">
+        <v>0</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S62" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="T62" s="2">
         <v>0</v>
@@ -6750,11 +6916,11 @@
         <v>0</v>
       </c>
       <c r="W62" s="2">
+        <v>0</v>
+      </c>
+      <c r="X62" s="2">
         <v>50</v>
       </c>
-      <c r="X62" s="2">
-        <v>0</v>
-      </c>
       <c r="Y62" s="2">
         <v>0</v>
       </c>
@@ -6770,11 +6936,14 @@
       <c r="AC62" s="2">
         <v>0</v>
       </c>
-      <c r="AE62" s="2">
+      <c r="AD62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="3:31">
+    <row r="63" s="2" customFormat="1" spans="3:32">
       <c r="C63" s="2">
         <v>13002</v>
       </c>
@@ -6782,10 +6951,10 @@
         <v>3002</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -6812,32 +6981,32 @@
         <v>0</v>
       </c>
       <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
         <v>3</v>
       </c>
-      <c r="Q63" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S63" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="T63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" s="2">
         <v>0</v>
       </c>
       <c r="W63" s="2">
+        <v>0</v>
+      </c>
+      <c r="X63" s="2">
         <v>120</v>
       </c>
-      <c r="X63" s="2">
-        <v>0</v>
-      </c>
       <c r="Y63" s="2">
         <v>0</v>
       </c>
@@ -6853,11 +7022,14 @@
       <c r="AC63" s="2">
         <v>0</v>
       </c>
-      <c r="AE63" s="2">
+      <c r="AD63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" spans="3:31">
+    <row r="64" s="2" customFormat="1" spans="3:32">
       <c r="C64" s="2">
         <v>13003</v>
       </c>
@@ -6865,10 +7037,10 @@
         <v>3003</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -6895,38 +7067,38 @@
         <v>0</v>
       </c>
       <c r="P64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
         <v>2</v>
       </c>
-      <c r="Q64" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R64" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S64" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="T64" s="2">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
         <v>5</v>
       </c>
-      <c r="U64" s="2">
-        <v>0</v>
-      </c>
       <c r="V64" s="2">
         <v>0</v>
       </c>
       <c r="W64" s="2">
+        <v>0</v>
+      </c>
+      <c r="X64" s="2">
         <v>35</v>
       </c>
-      <c r="X64" s="2">
-        <v>0</v>
-      </c>
       <c r="Y64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
         <v>65</v>
       </c>
-      <c r="Z64" s="2">
-        <v>0</v>
-      </c>
       <c r="AA64" s="2">
         <v>0</v>
       </c>
@@ -6936,11 +7108,14 @@
       <c r="AC64" s="2">
         <v>0</v>
       </c>
-      <c r="AE64" s="2">
+      <c r="AD64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" spans="3:31">
+    <row r="65" s="2" customFormat="1" spans="3:32">
       <c r="C65" s="2">
         <v>13004</v>
       </c>
@@ -6948,10 +7123,10 @@
         <v>3004</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G65" s="2">
         <v>2</v>
@@ -6980,30 +7155,30 @@
       <c r="P65" s="2">
         <v>0</v>
       </c>
-      <c r="Q65" s="2" t="s">
-        <v>64</v>
+      <c r="Q65" s="2">
+        <v>0</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S65" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="T65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65" s="2">
         <v>0</v>
       </c>
       <c r="W65" s="2">
+        <v>0</v>
+      </c>
+      <c r="X65" s="2">
         <v>100</v>
       </c>
-      <c r="X65" s="2">
-        <v>0</v>
-      </c>
       <c r="Y65" s="2">
         <v>0</v>
       </c>
@@ -7019,11 +7194,14 @@
       <c r="AC65" s="2">
         <v>0</v>
       </c>
-      <c r="AE65" s="2">
+      <c r="AD65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" spans="3:31">
+    <row r="66" s="2" customFormat="1" spans="3:32">
       <c r="C66" s="2">
         <v>13005</v>
       </c>
@@ -7031,10 +7209,10 @@
         <v>3005</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G66" s="2">
         <v>5</v>
@@ -7063,18 +7241,18 @@
       <c r="P66" s="2">
         <v>0</v>
       </c>
-      <c r="Q66" s="2" t="s">
-        <v>64</v>
+      <c r="Q66" s="2">
+        <v>0</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S66" s="2">
+        <v>65</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T66" s="2">
         <v>30</v>
       </c>
-      <c r="T66" s="2">
-        <v>0</v>
-      </c>
       <c r="U66" s="2">
         <v>0</v>
       </c>
@@ -7082,11 +7260,11 @@
         <v>0</v>
       </c>
       <c r="W66" s="2">
+        <v>0</v>
+      </c>
+      <c r="X66" s="2">
         <v>20</v>
       </c>
-      <c r="X66" s="2">
-        <v>0</v>
-      </c>
       <c r="Y66" s="2">
         <v>0</v>
       </c>
@@ -7102,12 +7280,15 @@
       <c r="AC66" s="2">
         <v>0</v>
       </c>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="2">
+      <c r="AD66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" spans="3:31">
+    <row r="67" s="2" customFormat="1" spans="3:32">
       <c r="C67" s="2">
         <v>13006</v>
       </c>
@@ -7115,10 +7296,10 @@
         <v>3006</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G67" s="2">
         <v>6</v>
@@ -7145,16 +7326,16 @@
         <v>0</v>
       </c>
       <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
         <v>3</v>
       </c>
-      <c r="Q67" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="R67" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S67" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="T67" s="2">
         <v>0</v>
@@ -7166,11 +7347,11 @@
         <v>0</v>
       </c>
       <c r="W67" s="2">
+        <v>0</v>
+      </c>
+      <c r="X67" s="2">
         <v>50</v>
       </c>
-      <c r="X67" s="2">
-        <v>0</v>
-      </c>
       <c r="Y67" s="2">
         <v>0</v>
       </c>
@@ -7186,11 +7367,14 @@
       <c r="AC67" s="2">
         <v>0</v>
       </c>
-      <c r="AE67" s="2">
+      <c r="AD67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" spans="3:31">
+    <row r="68" s="2" customFormat="1" spans="3:32">
       <c r="C68" s="2">
         <v>13007</v>
       </c>
@@ -7198,10 +7382,10 @@
         <v>3007</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G68" s="2">
         <v>2</v>
@@ -7228,32 +7412,32 @@
         <v>0</v>
       </c>
       <c r="P68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2">
         <v>2</v>
       </c>
-      <c r="Q68" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="R68" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S68" s="2">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="T68" s="2">
+        <v>0</v>
+      </c>
+      <c r="U68" s="2">
         <v>2</v>
       </c>
-      <c r="U68" s="2">
-        <v>0</v>
-      </c>
       <c r="V68" s="2">
         <v>0</v>
       </c>
       <c r="W68" s="2">
+        <v>0</v>
+      </c>
+      <c r="X68" s="2">
         <v>120</v>
       </c>
-      <c r="X68" s="2">
-        <v>0</v>
-      </c>
       <c r="Y68" s="2">
         <v>0</v>
       </c>
@@ -7269,18 +7453,22 @@
       <c r="AC68" s="2">
         <v>0</v>
       </c>
-      <c r="AE68" s="2">
+      <c r="AD68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="5:15">
+    <row r="69" s="2" customFormat="1" spans="5:16">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="J69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-    </row>
-    <row r="70" s="2" customFormat="1" spans="3:31">
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="3:32">
       <c r="C70" s="2">
         <v>21002</v>
       </c>
@@ -7288,10 +7476,10 @@
         <v>1002</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -7318,38 +7506,38 @@
         <v>0</v>
       </c>
       <c r="P70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2">
         <v>2</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="R70" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S70" s="2">
-        <v>0</v>
+      <c r="S70" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T70" s="2">
+        <v>0</v>
+      </c>
+      <c r="U70" s="2">
         <v>2</v>
       </c>
-      <c r="U70" s="2">
-        <v>0</v>
-      </c>
       <c r="V70" s="2">
         <v>0</v>
       </c>
       <c r="W70" s="2">
+        <v>0</v>
+      </c>
+      <c r="X70" s="2">
         <v>150</v>
       </c>
-      <c r="X70" s="2">
-        <v>0</v>
-      </c>
       <c r="Y70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="2">
         <v>20</v>
       </c>
-      <c r="Z70" s="2">
-        <v>0</v>
-      </c>
       <c r="AA70" s="2">
         <v>0</v>
       </c>
@@ -7359,10 +7547,13 @@
       <c r="AC70" s="2">
         <v>0</v>
       </c>
-      <c r="AD70" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE70" s="2">
+      <c r="AD70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF70" s="2">
         <v>50</v>
       </c>
     </row>
@@ -7453,218 +7644,218 @@
         <v>11</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:28">
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:28">
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="I5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="S5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="6:6">

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="154">
   <si>
     <t>_ID</t>
   </si>
@@ -904,6 +904,9 @@
     <t>分身术</t>
   </si>
   <si>
+    <t>创造一个分身，继承其他技能(除此技能和召唤技能)，攻击为魔法*{1}%，其他属性比例为对应属性*{1}%</t>
+  </si>
+  <si>
     <t>治疗术</t>
   </si>
   <si>
@@ -961,7 +964,10 @@
     <t>召唤{0}只月灵战斗，额外继承{1}%人物属性</t>
   </si>
   <si>
-    <t>飓风破</t>
+    <t>无极道体</t>
+  </si>
+  <si>
+    <t>提高人物的{1}%特殊继承</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1978,9 +1984,9 @@
   <dimension ref="C3:AI70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1993,7 +1999,7 @@
     <col min="7" max="7" width="6.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="55.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="74.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.875" style="1" customWidth="1"/>
@@ -3146,7 +3152,7 @@
         <v>96</v>
       </c>
       <c r="K15" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>2</v>
@@ -3155,13 +3161,13 @@
         <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="2">
         <v>2</v>
@@ -3185,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y15" s="2">
         <v>0</v>
@@ -4052,10 +4058,10 @@
         <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K26" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L26" s="2">
         <v>2</v>
@@ -4064,13 +4070,13 @@
         <v>2</v>
       </c>
       <c r="N26" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O26" s="2">
         <v>10</v>
       </c>
       <c r="P26" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2">
         <v>3</v>
@@ -4082,7 +4088,7 @@
         <v>81</v>
       </c>
       <c r="T26" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U26" s="2">
         <v>5</v>
@@ -4094,7 +4100,7 @@
         <v>4</v>
       </c>
       <c r="X26" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y26" s="2">
         <v>0</v>
@@ -4113,9 +4119,6 @@
       </c>
       <c r="AD26" s="2">
         <v>0</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="AF26" s="2">
         <v>50</v>
@@ -4133,10 +4136,10 @@
         <v>3001</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>
@@ -4148,7 +4151,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K28" s="2">
         <v>4</v>
@@ -4222,10 +4225,10 @@
         <v>3002</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4237,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -4311,10 +4314,10 @@
         <v>3003</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4326,7 +4329,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K30" s="2">
         <v>10</v>
@@ -4389,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF30" s="2">
         <v>50</v>
@@ -4403,10 +4406,10 @@
         <v>3004</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G31" s="2">
         <v>2</v>
@@ -4418,7 +4421,7 @@
         <v>100</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K31" s="2">
         <v>15</v>
@@ -4492,10 +4495,10 @@
         <v>3005</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G32" s="2">
         <v>5</v>
@@ -4584,10 +4587,10 @@
         <v>3006</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G33" s="2">
         <v>6</v>
@@ -4599,7 +4602,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -4673,10 +4676,10 @@
         <v>3007</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
@@ -4688,7 +4691,7 @@
         <v>100</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K34" s="2">
         <v>30</v>
@@ -4762,10 +4765,10 @@
         <v>3008</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G35" s="2">
         <v>3008</v>
@@ -4777,7 +4780,7 @@
         <v>200</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K35" s="2">
         <v>30</v>
@@ -4840,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF35" s="2">
         <v>50</v>
@@ -4854,10 +4857,10 @@
         <v>3009</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
@@ -4869,7 +4872,7 @@
         <v>100</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K36" s="2">
         <v>30</v>
@@ -4943,25 +4946,25 @@
         <v>3010</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G37" s="2">
         <v>3010</v>
       </c>
       <c r="H37" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
         <v>100</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K37" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
@@ -4970,13 +4973,13 @@
         <v>3</v>
       </c>
       <c r="N37" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O37" s="2">
         <v>10</v>
       </c>
       <c r="P37" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="2">
         <v>2</v>
@@ -5000,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="2">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="Y37" s="2">
         <v>0</v>
@@ -5036,10 +5039,10 @@
         <v>9001</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G39" s="2">
         <v>9</v>
@@ -5122,10 +5125,10 @@
         <v>9002</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G40" s="2">
         <v>9</v>
@@ -5209,10 +5212,10 @@
         <v>10001</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5224,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -5298,10 +5301,10 @@
         <v>10002</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G43" s="1">
         <v>4</v>
@@ -5313,7 +5316,7 @@
         <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
@@ -5388,10 +5391,10 @@
         <v>10003</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -5403,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -5478,10 +5481,10 @@
         <v>10004</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G45" s="1">
         <v>4</v>
@@ -5493,7 +5496,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -5517,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>81</v>
@@ -5567,7 +5570,7 @@
         <v>10005</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>68</v>
@@ -5582,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -5989,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF51" s="2">
         <v>50</v>
@@ -6865,10 +6868,10 @@
         <v>3001</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G62" s="2">
         <v>4</v>
@@ -6951,10 +6954,10 @@
         <v>3002</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -7037,10 +7040,10 @@
         <v>3003</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -7123,10 +7126,10 @@
         <v>3004</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G65" s="2">
         <v>2</v>
@@ -7209,10 +7212,10 @@
         <v>3005</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G66" s="2">
         <v>5</v>
@@ -7296,10 +7299,10 @@
         <v>3006</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G67" s="2">
         <v>6</v>
@@ -7382,10 +7385,10 @@
         <v>3007</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G68" s="2">
         <v>2</v>
@@ -7551,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF70" s="2">
         <v>50</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -724,7 +724,7 @@
     <t>无极道体</t>
   </si>
   <si>
-    <t>提高人物的{1}%特殊继承</t>
+    <t>提高人物的{1}%特殊继承,{5}%高级继承</t>
   </si>
   <si>
     <t>普攻</t>
@@ -939,12 +939,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1740,10 +1740,10 @@
   <sheetPr/>
   <dimension ref="C3:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AG37" sqref="AG37"/>
+      <selection pane="bottomLeft" activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4855,10 +4855,10 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -724,7 +724,7 @@
     <t>无极道体</t>
   </si>
   <si>
-    <t>提高人物的{1}%特殊继承,{5}%高级继承</t>
+    <t>提高人物的{1}%特殊继承,召唤物{5}%的生命</t>
   </si>
   <si>
     <t>普攻</t>
@@ -939,12 +939,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1740,10 +1740,10 @@
   <sheetPr/>
   <dimension ref="C3:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y37" sqref="Y37"/>
+      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4858,7 +4858,7 @@
         <v>20</v>
       </c>
       <c r="Y37" s="1">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -724,7 +724,7 @@
     <t>无极道体</t>
   </si>
   <si>
-    <t>提高人物的{1}%特殊继承,召唤物{5}%的生命</t>
+    <t>提高人物的{1}%特殊继承,召唤物额外增加{5}%的生命</t>
   </si>
   <si>
     <t>普攻</t>
@@ -939,12 +939,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1740,10 +1740,10 @@
   <sheetPr/>
   <dimension ref="C3:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>121</v>
@@ -4858,7 +4858,7 @@
         <v>20</v>
       </c>
       <c r="Y37" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1741,9 +1741,9 @@
   <dimension ref="C3:AI70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2956,7 +2956,7 @@
         <v>10</v>
       </c>
       <c r="O15" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1">
         <v>10</v>
@@ -3895,7 +3895,7 @@
         <v>10</v>
       </c>
       <c r="O26" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P26" s="1">
         <v>1</v>
@@ -4828,7 +4828,7 @@
         <v>10</v>
       </c>
       <c r="O37" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P37" s="1">
         <v>1</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,9 @@
 3 场景技能
 4 回复技能
 5 盾类技能
-6 专精技能</t>
+6 专精技能
+7 野蛮
+8 被动</t>
         </r>
       </text>
     </comment>
@@ -1743,7 +1745,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="$A37:$XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4804,7 +4806,7 @@
         <v>141</v>
       </c>
       <c r="G37" s="1">
-        <v>3010</v>
+        <v>8</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -4834,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>77</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,7 @@
     <t>无极道体</t>
   </si>
   <si>
-    <t>提高人物的{1}%特殊继承,召唤物额外增加{5}%的生命</t>
+    <t>提高召唤物的{1}%特殊继承,并且额外增加{5}%的生命</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1743,9 +1743,9 @@
   <dimension ref="C3:AI70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="$A37:$XFD37"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="161">
   <si>
     <t>_ID</t>
   </si>
@@ -727,6 +727,24 @@
   </si>
   <si>
     <t>提高召唤物的{1}%特殊继承,并且额外增加{5}%的生命</t>
+  </si>
+  <si>
+    <t>麻痹神戒</t>
+  </si>
+  <si>
+    <t>麻痹敌人2S</t>
+  </si>
+  <si>
+    <t>护体神戒</t>
+  </si>
+  <si>
+    <t>附加一个盾</t>
+  </si>
+  <si>
+    <t>复活神戒</t>
+  </si>
+  <si>
+    <t>复活自己并且无敌1S</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1740,12 +1758,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AI70"/>
+  <dimension ref="C3:AI74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4888,21 +4906,21 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="3:33">
+    <row r="39" s="1" customFormat="1" spans="3:32">
       <c r="C39" s="1">
-        <v>9001</v>
+        <v>4001</v>
       </c>
       <c r="D39" s="1">
-        <v>9001</v>
-      </c>
-      <c r="E39" s="1" t="s">
+        <v>4001</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G39" s="1">
-        <v>9</v>
+        <v>4001</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -4910,14 +4928,17 @@
       <c r="I39" s="1">
         <v>0</v>
       </c>
+      <c r="J39" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
@@ -4929,19 +4950,19 @@
         <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="T39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="1">
         <v>0</v>
@@ -4950,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -4970,28 +4991,26 @@
       <c r="AD39" s="1">
         <v>0</v>
       </c>
+      <c r="AE39" s="5"/>
       <c r="AF39" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG39" s="1">
-        <v>50</v>
+        <v>99999</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="3:33">
+    <row r="40" s="1" customFormat="1" spans="3:32">
       <c r="C40" s="1">
-        <v>9002</v>
+        <v>4002</v>
       </c>
       <c r="D40" s="1">
-        <v>9002</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>144</v>
+        <v>4002</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="G40" s="1">
-        <v>9</v>
+        <v>4002</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -4999,14 +5018,17 @@
       <c r="I40" s="1">
         <v>0</v>
       </c>
+      <c r="J40" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
@@ -5015,22 +5037,22 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="T40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="1">
         <v>0</v>
@@ -5039,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y40" s="1">
         <v>0</v>
@@ -5059,132 +5081,128 @@
       <c r="AD40" s="1">
         <v>0</v>
       </c>
+      <c r="AE40" s="5"/>
       <c r="AF40" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG40" s="1">
-        <v>50</v>
+        <v>99999</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1" spans="3:33">
-      <c r="C42" s="1">
-        <v>10001</v>
-      </c>
-      <c r="D42" s="1">
-        <v>10001</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>1</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0</v>
-      </c>
-      <c r="O42" s="1">
-        <v>0</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>3</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T42" s="1">
-        <v>0</v>
-      </c>
-      <c r="U42" s="1">
-        <v>1</v>
-      </c>
-      <c r="V42" s="1">
-        <v>0</v>
-      </c>
-      <c r="W42" s="1">
-        <v>0</v>
-      </c>
-      <c r="X42" s="1">
-        <v>150</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>50</v>
+    <row r="41" s="1" customFormat="1" spans="3:32">
+      <c r="C41" s="1">
+        <v>4003</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4003</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4003</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="1">
+        <v>60</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T41" s="1">
+        <v>2</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="1">
+        <v>99999</v>
       </c>
     </row>
-    <row r="43" spans="3:33">
-      <c r="C43" s="2">
-        <v>10002</v>
-      </c>
-      <c r="D43" s="2">
-        <v>10002</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G43" s="2">
-        <v>4</v>
+    <row r="42" s="1" customFormat="1" spans="5:6">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="3:33">
+      <c r="C43" s="1">
+        <v>9001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9001</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="1">
+        <v>9</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
-      <c r="I43" s="2">
-        <v>10</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
         <v>0</v>
       </c>
       <c r="L43" s="1">
@@ -5202,113 +5220,109 @@
       <c r="P43" s="1">
         <v>0</v>
       </c>
-      <c r="Q43" s="2">
-        <v>0</v>
+      <c r="Q43" s="1">
+        <v>1</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="3:33">
+      <c r="C44" s="1">
+        <v>9002</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9002</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="1">
+        <v>9</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>2</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T43" s="2">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2">
-        <v>1</v>
-      </c>
-      <c r="V43" s="1">
-        <v>0</v>
-      </c>
-      <c r="W43" s="1">
-        <v>0</v>
-      </c>
-      <c r="X43" s="2">
-        <v>100</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="3:33">
-      <c r="C44" s="2">
-        <v>10003</v>
-      </c>
-      <c r="D44" s="2">
-        <v>10003</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>1</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
-      <c r="M44" s="1">
-        <v>1</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>0</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="T44" s="1">
         <v>0</v>
       </c>
       <c r="U44" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V44" s="1">
         <v>0</v>
@@ -5337,7 +5351,6 @@
       <c r="AD44" s="1">
         <v>0</v>
       </c>
-      <c r="AE44" s="1"/>
       <c r="AF44" s="1">
         <v>50</v>
       </c>
@@ -5345,111 +5358,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="3:33">
-      <c r="C45" s="2">
-        <v>10004</v>
-      </c>
-      <c r="D45" s="2">
-        <v>10004</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="2">
-        <v>4</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>10</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>1</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>3</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2">
-        <v>4</v>
-      </c>
-      <c r="V45" s="1">
-        <v>0</v>
-      </c>
-      <c r="W45" s="1">
-        <v>0</v>
-      </c>
-      <c r="X45" s="2">
-        <v>50</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG45" s="1">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="45" s="1" customFormat="1"/>
     <row r="46" s="1" customFormat="1" spans="3:33">
       <c r="C46" s="1">
-        <v>10005</v>
+        <v>10001</v>
       </c>
       <c r="D46" s="1">
-        <v>10005</v>
-      </c>
-      <c r="E46" s="2" t="s">
+        <v>10001</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G46" s="1">
         <v>1</v>
       </c>
@@ -5457,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>10</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>152</v>
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -5471,7 +5393,7 @@
       <c r="M46" s="1">
         <v>1</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="1">
         <v>0</v>
       </c>
       <c r="O46" s="1">
@@ -5481,19 +5403,19 @@
         <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="T46" s="1">
         <v>0</v>
       </c>
       <c r="U46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V46" s="1">
         <v>0</v>
@@ -5508,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="1">
         <v>0</v>
@@ -5529,61 +5451,157 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="3:33">
-      <c r="C48" s="1">
-        <v>11001</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1001</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="1">
+    <row r="47" spans="3:33">
+      <c r="C47" s="2">
+        <v>10002</v>
+      </c>
+      <c r="D47" s="2">
+        <v>10002</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="2">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>10</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>1</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
+        <v>100</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="3:33">
+      <c r="C48" s="2">
+        <v>10003</v>
+      </c>
+      <c r="D48" s="2">
+        <v>10003</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="2">
         <v>1</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
         <v>10</v>
       </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="1">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1">
-        <v>9999</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>1</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T48" s="1">
-        <v>0</v>
-      </c>
-      <c r="U48" s="1">
-        <v>1</v>
-      </c>
       <c r="V48" s="1">
         <v>0</v>
       </c>
@@ -5591,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="1">
         <v>0</v>
@@ -5611,6 +5629,7 @@
       <c r="AD48" s="1">
         <v>0</v>
       </c>
+      <c r="AE48" s="1"/>
       <c r="AF48" s="1">
         <v>50</v>
       </c>
@@ -5618,39 +5637,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="3:33">
-      <c r="C49" s="1">
-        <v>11002</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1002</v>
+    <row r="49" spans="3:33">
+      <c r="C49" s="2">
+        <v>10004</v>
+      </c>
+      <c r="D49" s="2">
+        <v>10004</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="G49" s="2">
+        <v>4</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="2">
         <v>10</v>
       </c>
-      <c r="K49" s="1">
+      <c r="J49" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K49" s="2">
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <v>2</v>
-      </c>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1">
-        <v>9999</v>
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
       </c>
       <c r="O49" s="1">
         <v>0</v>
@@ -5658,20 +5680,20 @@
       <c r="P49" s="1">
         <v>0</v>
       </c>
-      <c r="Q49" s="1">
-        <v>2</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T49" s="1">
-        <v>0</v>
-      </c>
-      <c r="U49" s="1">
-        <v>2</v>
+      <c r="Q49" s="2">
+        <v>3</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>4</v>
       </c>
       <c r="V49" s="1">
         <v>0</v>
@@ -5679,22 +5701,22 @@
       <c r="W49" s="1">
         <v>0</v>
       </c>
-      <c r="X49" s="1">
-        <v>150</v>
-      </c>
-      <c r="Y49" s="1">
+      <c r="X49" s="2">
+        <v>50</v>
+      </c>
+      <c r="Y49" s="2">
         <v>0</v>
       </c>
       <c r="Z49" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2">
         <v>0</v>
       </c>
       <c r="AD49" s="1">
@@ -5709,16 +5731,16 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="3:33">
       <c r="C50" s="1">
-        <v>11003</v>
+        <v>10005</v>
       </c>
       <c r="D50" s="1">
-        <v>1003</v>
+        <v>10005</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -5729,38 +5751,41 @@
       <c r="I50" s="1">
         <v>10</v>
       </c>
+      <c r="J50" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="K50" s="1">
         <v>0</v>
       </c>
       <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
         <v>2</v>
-      </c>
-      <c r="M50" s="1">
-        <v>1</v>
-      </c>
-      <c r="N50" s="1">
-        <v>9999</v>
-      </c>
-      <c r="O50" s="1">
-        <v>0</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>1</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T50" s="1">
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V50" s="1">
         <v>0</v>
@@ -5769,13 +5794,13 @@
         <v>0</v>
       </c>
       <c r="X50" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
       <c r="Z50" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA50" s="1">
         <v>0</v>
@@ -5793,125 +5818,33 @@
         <v>50</v>
       </c>
       <c r="AG50" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="3:33">
-      <c r="C51" s="1">
-        <v>11004</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1004</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="1">
-        <v>7</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>10</v>
-      </c>
-      <c r="K51" s="1">
-        <v>5</v>
-      </c>
-      <c r="L51" s="1">
-        <v>1</v>
-      </c>
-      <c r="M51" s="1">
-        <v>1</v>
-      </c>
-      <c r="N51" s="1">
-        <v>9999</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>4</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T51" s="1">
-        <v>2</v>
-      </c>
-      <c r="U51" s="1">
-        <v>1</v>
-      </c>
-      <c r="V51" s="1">
-        <v>0</v>
-      </c>
-      <c r="W51" s="1">
-        <v>0</v>
-      </c>
-      <c r="X51" s="1">
-        <v>200</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG51" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="3:33">
       <c r="C52" s="1">
-        <v>11005</v>
+        <v>11001</v>
       </c>
       <c r="D52" s="1">
-        <v>1005</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>80</v>
+        <v>1001</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="G52" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K52" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -5929,19 +5862,19 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="T52" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1">
         <v>0</v>
@@ -5950,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="1">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="Y52" s="1">
         <v>0</v>
@@ -5970,7 +5903,6 @@
       <c r="AD52" s="1">
         <v>0</v>
       </c>
-      <c r="AE52" s="5"/>
       <c r="AF52" s="1">
         <v>50</v>
       </c>
@@ -5980,19 +5912,19 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="3:33">
       <c r="C53" s="1">
-        <v>11006</v>
+        <v>11002</v>
       </c>
       <c r="D53" s="1">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G53" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -6004,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53" s="1">
         <v>1</v>
@@ -6019,19 +5951,19 @@
         <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="T53" s="1">
         <v>0</v>
       </c>
       <c r="U53" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V53" s="1">
         <v>0</v>
@@ -6040,13 +5972,13 @@
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
       </c>
       <c r="Z53" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA53" s="1">
         <v>0</v>
@@ -6069,16 +6001,16 @@
     </row>
     <row r="54" s="1" customFormat="1" spans="3:33">
       <c r="C54" s="1">
-        <v>11007</v>
+        <v>11003</v>
       </c>
       <c r="D54" s="1">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -6093,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" s="1">
         <v>1</v>
@@ -6114,13 +6046,13 @@
         <v>66</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="T54" s="1">
         <v>0</v>
       </c>
       <c r="U54" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V54" s="1">
         <v>0</v>
@@ -6129,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -6158,19 +6090,19 @@
     </row>
     <row r="55" s="1" customFormat="1" spans="3:33">
       <c r="C55" s="1">
-        <v>12001</v>
+        <v>11004</v>
       </c>
       <c r="D55" s="1">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G55" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -6179,13 +6111,13 @@
         <v>10</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
       </c>
       <c r="M55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55" s="1">
         <v>9999</v>
@@ -6197,16 +6129,16 @@
         <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>77</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="T55" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U55" s="1">
         <v>1</v>
@@ -6218,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
@@ -6237,6 +6169,9 @@
       </c>
       <c r="AD55" s="1">
         <v>0</v>
+      </c>
+      <c r="AE55" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="AF55" s="1">
         <v>50</v>
@@ -6247,34 +6182,34 @@
     </row>
     <row r="56" s="1" customFormat="1" spans="3:33">
       <c r="C56" s="1">
-        <v>12002</v>
+        <v>11005</v>
       </c>
       <c r="D56" s="1">
-        <v>2002</v>
+        <v>1005</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L56" s="1">
         <v>1</v>
       </c>
       <c r="M56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56" s="1">
         <v>9999</v>
@@ -6286,19 +6221,19 @@
         <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="T56" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56" s="1">
         <v>0</v>
@@ -6307,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -6327,6 +6262,7 @@
       <c r="AD56" s="1">
         <v>0</v>
       </c>
+      <c r="AE56" s="5"/>
       <c r="AF56" s="1">
         <v>50</v>
       </c>
@@ -6336,19 +6272,19 @@
     </row>
     <row r="57" s="1" customFormat="1" spans="3:33">
       <c r="C57" s="1">
-        <v>12003</v>
+        <v>11006</v>
       </c>
       <c r="D57" s="1">
-        <v>2003</v>
+        <v>1006</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G57" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -6357,13 +6293,13 @@
         <v>10</v>
       </c>
       <c r="K57" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57" s="1">
         <v>9999</v>
@@ -6375,28 +6311,28 @@
         <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T57" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U57" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V57" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W57" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
@@ -6425,16 +6361,16 @@
     </row>
     <row r="58" s="1" customFormat="1" spans="3:33">
       <c r="C58" s="1">
-        <v>12004</v>
+        <v>11007</v>
       </c>
       <c r="D58" s="1">
-        <v>2004</v>
+        <v>1007</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -6449,10 +6385,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58" s="1">
         <v>9999</v>
@@ -6464,28 +6400,28 @@
         <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="T58" s="1">
         <v>0</v>
       </c>
       <c r="U58" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V58" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W58" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -6514,28 +6450,28 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="3:33">
       <c r="C59" s="1">
-        <v>12005</v>
+        <v>12001</v>
       </c>
       <c r="D59" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>109</v>
+        <v>2001</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="G59" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K59" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1">
         <v>1</v>
@@ -6553,19 +6489,19 @@
         <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="T59" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59" s="1">
         <v>0</v>
@@ -6574,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="Y59" s="1">
         <v>0</v>
@@ -6594,7 +6530,6 @@
       <c r="AD59" s="1">
         <v>0</v>
       </c>
-      <c r="AE59" s="5"/>
       <c r="AF59" s="1">
         <v>50</v>
       </c>
@@ -6604,19 +6539,19 @@
     </row>
     <row r="60" s="1" customFormat="1" spans="3:33">
       <c r="C60" s="1">
-        <v>12006</v>
+        <v>12002</v>
       </c>
       <c r="D60" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>110</v>
+        <v>2002</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G60" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -6643,19 +6578,19 @@
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
       </c>
       <c r="U60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60" s="1">
         <v>0</v>
@@ -6664,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="Y60" s="1">
         <v>0</v>
@@ -6693,19 +6628,19 @@
     </row>
     <row r="61" s="1" customFormat="1" spans="3:33">
       <c r="C61" s="1">
-        <v>12007</v>
+        <v>12003</v>
       </c>
       <c r="D61" s="1">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -6714,7 +6649,7 @@
         <v>10</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L61" s="1">
         <v>2</v>
@@ -6732,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>77</v>
@@ -6741,19 +6676,19 @@
         <v>82</v>
       </c>
       <c r="T61" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U61" s="1">
         <v>5</v>
       </c>
       <c r="V61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X61" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="Y61" s="1">
         <v>0</v>
@@ -6782,34 +6717,34 @@
     </row>
     <row r="62" s="1" customFormat="1" spans="3:33">
       <c r="C62" s="1">
-        <v>13001</v>
+        <v>12004</v>
       </c>
       <c r="D62" s="1">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G62" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K62" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N62" s="1">
         <v>9999</v>
@@ -6821,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>66</v>
@@ -6833,16 +6768,16 @@
         <v>0</v>
       </c>
       <c r="U62" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V62" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W62" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X62" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y62" s="1">
         <v>0</v>
@@ -6871,34 +6806,34 @@
     </row>
     <row r="63" s="1" customFormat="1" spans="3:33">
       <c r="C63" s="1">
-        <v>13002</v>
+        <v>12005</v>
       </c>
       <c r="D63" s="1">
-        <v>3002</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>124</v>
+        <v>2005</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="G63" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L63" s="1">
         <v>1</v>
       </c>
       <c r="M63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N63" s="1">
         <v>9999</v>
@@ -6910,19 +6845,19 @@
         <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="T63" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" s="1">
         <v>0</v>
@@ -6931,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="Y63" s="1">
         <v>0</v>
@@ -6951,6 +6886,7 @@
       <c r="AD63" s="1">
         <v>0</v>
       </c>
+      <c r="AE63" s="5"/>
       <c r="AF63" s="1">
         <v>50</v>
       </c>
@@ -6960,19 +6896,19 @@
     </row>
     <row r="64" s="1" customFormat="1" spans="3:33">
       <c r="C64" s="1">
-        <v>13003</v>
+        <v>12006</v>
       </c>
       <c r="D64" s="1">
-        <v>3003</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>126</v>
+        <v>2006</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G64" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -6981,13 +6917,13 @@
         <v>10</v>
       </c>
       <c r="K64" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1">
         <v>1</v>
       </c>
       <c r="M64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N64" s="1">
         <v>9999</v>
@@ -6999,19 +6935,19 @@
         <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
       </c>
       <c r="U64" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V64" s="1">
         <v>0</v>
@@ -7020,13 +6956,13 @@
         <v>0</v>
       </c>
       <c r="X64" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
       <c r="Z64" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="1">
         <v>0</v>
@@ -7049,34 +6985,34 @@
     </row>
     <row r="65" s="1" customFormat="1" spans="3:33">
       <c r="C65" s="1">
-        <v>13004</v>
+        <v>12007</v>
       </c>
       <c r="D65" s="1">
-        <v>3004</v>
+        <v>2007</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>10</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
         <v>2</v>
       </c>
-      <c r="H65" s="1">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>100</v>
-      </c>
-      <c r="K65" s="1">
-        <v>15</v>
-      </c>
-      <c r="L65" s="1">
-        <v>1</v>
-      </c>
       <c r="M65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N65" s="1">
         <v>9999</v>
@@ -7088,28 +7024,28 @@
         <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
       </c>
       <c r="U65" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V65" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W65" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X65" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Y65" s="1">
         <v>0</v>
@@ -7138,28 +7074,28 @@
     </row>
     <row r="66" s="1" customFormat="1" spans="3:33">
       <c r="C66" s="1">
-        <v>13005</v>
+        <v>13001</v>
       </c>
       <c r="D66" s="1">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G66" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K66" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L66" s="1">
         <v>1</v>
@@ -7186,7 +7122,7 @@
         <v>82</v>
       </c>
       <c r="T66" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U66" s="1">
         <v>0</v>
@@ -7198,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Y66" s="1">
         <v>0</v>
@@ -7218,7 +7154,6 @@
       <c r="AD66" s="1">
         <v>0</v>
       </c>
-      <c r="AE66" s="5"/>
       <c r="AF66" s="1">
         <v>50</v>
       </c>
@@ -7228,19 +7163,19 @@
     </row>
     <row r="67" s="1" customFormat="1" spans="3:33">
       <c r="C67" s="1">
-        <v>13006</v>
+        <v>13002</v>
       </c>
       <c r="D67" s="1">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G67" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -7270,16 +7205,16 @@
         <v>3</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="T67" s="1">
         <v>0</v>
       </c>
       <c r="U67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67" s="1">
         <v>0</v>
@@ -7288,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="Y67" s="1">
         <v>0</v>
@@ -7317,28 +7252,28 @@
     </row>
     <row r="68" s="1" customFormat="1" spans="3:33">
       <c r="C68" s="1">
-        <v>13007</v>
+        <v>13003</v>
       </c>
       <c r="D68" s="1">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K68" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L68" s="1">
         <v>1</v>
@@ -7362,86 +7297,167 @@
         <v>77</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
       </c>
       <c r="U68" s="1">
+        <v>5</v>
+      </c>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1">
+        <v>35</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>65</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="3:33">
+      <c r="C69" s="1">
+        <v>13004</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3004</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="1">
         <v>2</v>
       </c>
-      <c r="V68" s="1">
-        <v>0</v>
-      </c>
-      <c r="W68" s="1">
-        <v>0</v>
-      </c>
-      <c r="X68" s="1">
-        <v>120</v>
-      </c>
-      <c r="Y68" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG68" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="5:16">
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>100</v>
+      </c>
+      <c r="K69" s="1">
+        <v>15</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1">
+        <v>3</v>
+      </c>
+      <c r="N69" s="1">
+        <v>9999</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>1</v>
+      </c>
+      <c r="V69" s="1">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="3:33">
       <c r="C70" s="1">
-        <v>21002</v>
+        <v>13005</v>
       </c>
       <c r="D70" s="1">
-        <v>1002</v>
+        <v>3005</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="G70" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L70" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N70" s="1">
         <v>9999</v>
@@ -7453,54 +7469,330 @@
         <v>0</v>
       </c>
       <c r="Q70" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T70" s="1">
+        <v>30</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0</v>
+      </c>
+      <c r="V70" s="1">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="3:33">
+      <c r="C71" s="1">
+        <v>13006</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3006</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="1">
+        <v>6</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>10</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>3</v>
+      </c>
+      <c r="N71" s="1">
+        <v>9999</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>3</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+      <c r="U71" s="1">
+        <v>0</v>
+      </c>
+      <c r="V71" s="1">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="3:33">
+      <c r="C72" s="1">
+        <v>13007</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3007</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>100</v>
+      </c>
+      <c r="K72" s="1">
+        <v>15</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
+        <v>3</v>
+      </c>
+      <c r="N72" s="1">
+        <v>9999</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>2</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>2</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1">
+        <v>120</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="5:16">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="3:33">
+      <c r="C74" s="1">
+        <v>21002</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>10</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>2</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1">
+        <v>9999</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>2</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S74" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T70" s="1">
-        <v>0</v>
-      </c>
-      <c r="U70" s="1">
+      <c r="T74" s="1">
+        <v>0</v>
+      </c>
+      <c r="U74" s="1">
         <v>2</v>
       </c>
-      <c r="V70" s="1">
-        <v>0</v>
-      </c>
-      <c r="W70" s="1">
-        <v>0</v>
-      </c>
-      <c r="X70" s="1">
+      <c r="V74" s="1">
+        <v>0</v>
+      </c>
+      <c r="W74" s="1">
+        <v>0</v>
+      </c>
+      <c r="X74" s="1">
         <v>150</v>
       </c>
-      <c r="Y70" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="1">
+      <c r="Y74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="1">
         <v>20</v>
       </c>
-      <c r="AA70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG70" s="1">
+      <c r="AA74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG74" s="1">
         <v>50</v>
       </c>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="162">
   <si>
     <t>_ID</t>
   </si>
@@ -744,7 +744,10 @@
     <t>复活神戒</t>
   </si>
   <si>
-    <t>复活自己并且无敌1S</t>
+    <t>复活自己并且免疫所有伤害1S</t>
+  </si>
+  <si>
+    <t>"18,1,0,100"</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1761,9 +1764,9 @@
   <dimension ref="C3:AI74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5171,7 +5174,9 @@
       <c r="AD41" s="1">
         <v>0</v>
       </c>
-      <c r="AE41" s="5"/>
+      <c r="AE41" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="AF41" s="1">
         <v>99999</v>
       </c>
@@ -5188,10 +5193,10 @@
         <v>9001</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G43" s="1">
         <v>9</v>
@@ -5277,10 +5282,10 @@
         <v>9002</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G44" s="1">
         <v>9</v>
@@ -5367,22 +5372,22 @@
         <v>10001</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -5459,10 +5464,10 @@
         <v>10002</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G47" s="2">
         <v>4</v>
@@ -5474,7 +5479,7 @@
         <v>10</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -5552,10 +5557,10 @@
         <v>10003</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5567,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
@@ -5645,10 +5650,10 @@
         <v>10004</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G49" s="2">
         <v>4</v>
@@ -5660,7 +5665,7 @@
         <v>10</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
@@ -5684,7 +5689,7 @@
         <v>3</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>82</v>
@@ -5737,7 +5742,7 @@
         <v>10005</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>69</v>
@@ -5752,7 +5757,7 @@
         <v>10</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
@@ -6171,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF55" s="1">
         <v>50</v>
@@ -7787,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF74" s="1">
         <v>50</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,22 +732,22 @@
     <t>麻痹神戒</t>
   </si>
   <si>
-    <t>麻痹敌人2S</t>
+    <t>麻痹敌人{2}S，CD30S</t>
   </si>
   <si>
     <t>护体神戒</t>
   </si>
   <si>
-    <t>附加一个盾</t>
+    <t>附加一个生命*{1}%盾，CD30S</t>
   </si>
   <si>
     <t>复活神戒</t>
   </si>
   <si>
-    <t>复活自己并且免疫所有伤害1S</t>
-  </si>
-  <si>
-    <t>"18,1,0,100"</t>
+    <t>复活自己并且免疫3S所有伤害，CD30S</t>
+  </si>
+  <si>
+    <t>"18,4,0,100"</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1763,10 +1763,10 @@
   <sheetPr/>
   <dimension ref="C3:AI74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomLeft" activeCell="AE42" sqref="AE42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>144</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>146</v>
@@ -5052,7 +5052,7 @@
         <v>82</v>
       </c>
       <c r="T40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U40" s="1">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>148</v>
@@ -5142,7 +5142,7 @@
         <v>82</v>
       </c>
       <c r="T41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U41" s="1">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="163">
   <si>
     <t>_ID</t>
   </si>
@@ -735,16 +735,19 @@
     <t>麻痹敌人{2}S，CD30S</t>
   </si>
   <si>
+    <t>"307,2,0,0"</t>
+  </si>
+  <si>
     <t>护体神戒</t>
   </si>
   <si>
-    <t>附加一个生命*{1}%盾，CD30S</t>
+    <t>附加一个生命*{1}%盾，CD60S</t>
   </si>
   <si>
     <t>复活神戒</t>
   </si>
   <si>
-    <t>复活自己并且免疫3S所有伤害，CD30S</t>
+    <t>复活自己并且免疫3S所有伤害，CD60S</t>
   </si>
   <si>
     <t>"18,4,0,100"</t>
@@ -1763,10 +1766,10 @@
   <sheetPr/>
   <dimension ref="C3:AI74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AE42" sqref="AE42"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4929,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>144</v>
@@ -4994,7 +4997,9 @@
       <c r="AD39" s="1">
         <v>0</v>
       </c>
-      <c r="AE39" s="5"/>
+      <c r="AE39" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="AF39" s="1">
         <v>99999</v>
       </c>
@@ -5007,10 +5012,10 @@
         <v>4002</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G40" s="1">
         <v>4002</v>
@@ -5022,7 +5027,7 @@
         <v>200</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K40" s="1">
         <v>60</v>
@@ -5097,10 +5102,10 @@
         <v>4003</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G41" s="1">
         <v>4003</v>
@@ -5112,7 +5117,7 @@
         <v>-1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K41" s="1">
         <v>60</v>
@@ -5175,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF41" s="1">
         <v>99999</v>
@@ -5193,10 +5198,10 @@
         <v>9001</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G43" s="1">
         <v>9</v>
@@ -5282,10 +5287,10 @@
         <v>9002</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G44" s="1">
         <v>9</v>
@@ -5372,22 +5377,22 @@
         <v>10001</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -5464,10 +5469,10 @@
         <v>10002</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="G47" s="2">
         <v>4</v>
@@ -5479,7 +5484,7 @@
         <v>10</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -5557,10 +5562,10 @@
         <v>10003</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5572,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
@@ -5650,10 +5655,10 @@
         <v>10004</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G49" s="2">
         <v>4</v>
@@ -5665,7 +5670,7 @@
         <v>10</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
@@ -5689,7 +5694,7 @@
         <v>3</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>82</v>
@@ -5742,7 +5747,7 @@
         <v>10005</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>69</v>
@@ -5757,7 +5762,7 @@
         <v>10</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
@@ -6176,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF55" s="1">
         <v>50</v>
@@ -7792,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF74" s="1">
         <v>50</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -747,10 +747,10 @@
     <t>复活神戒</t>
   </si>
   <si>
-    <t>复活自己并且免疫3S所有伤害，CD60S</t>
-  </si>
-  <si>
-    <t>"18,4,0,100"</t>
+    <t>复活自己并且免疫2S所有伤害，CD60S</t>
+  </si>
+  <si>
+    <t>"18,3,0,100"</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1767,7 +1767,7 @@
   <dimension ref="C3:AI74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y40" s="1">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1766,10 +1766,10 @@
   <sheetPr/>
   <dimension ref="C3:AI74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
     <t>冰咆哮</t>
   </si>
   <si>
-    <t>"305,2,1,0"</t>
+    <t>"305,1,1,0"</t>
   </si>
   <si>
     <t>瞬息移动</t>
@@ -1766,10 +1766,10 @@
   <sheetPr/>
   <dimension ref="C3:AI74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomLeft" activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -663,7 +663,7 @@
     <t>分身术</t>
   </si>
   <si>
-    <t>创造一个分身，继承其他技能(除此技能和召唤技能)，攻击为魔法*{1}%，其他属性比例为对应属性*{1}%</t>
+    <t>创造一个分身，继承其他技能(除此技能和召唤技能)，魔攻为*{1}%，物攻道、攻为0，其他属性完全继承。</t>
   </si>
   <si>
     <t>治疗术</t>
@@ -1766,10 +1766,10 @@
   <sheetPr/>
   <dimension ref="C3:AI74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AE24" sqref="AE24"/>
+      <selection pane="bottomLeft" activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="1">
         <v>3</v>
@@ -3948,7 +3948,7 @@
         <v>4</v>
       </c>
       <c r="X26" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -663,7 +663,7 @@
     <t>分身术</t>
   </si>
   <si>
-    <t>创造一个分身，继承其他技能(除此技能和召唤技能)，魔攻为*{1}%，物攻道、攻为0，其他属性完全继承。</t>
+    <t>创造一个分身，继承其他技能(除此技能和召唤技能)，魔攻为*{1}%，物攻道攻为继承一半，其他属性完全继承。</t>
   </si>
   <si>
     <t>治疗术</t>
@@ -1767,9 +1767,9 @@
   <dimension ref="C3:AI74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X27" sqref="X27"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="169">
   <si>
     <t>_ID</t>
   </si>
@@ -597,6 +597,12 @@
     <t>Circle</t>
   </si>
   <si>
+    <t>战士之魂</t>
+  </si>
+  <si>
+    <t>上阵后，提高人物{1}%的生命和{2}%的绝对减伤（分身和宠物不享受）</t>
+  </si>
+  <si>
     <t>小火球</t>
   </si>
   <si>
@@ -666,6 +672,12 @@
     <t>创造一个分身，继承其他技能(除此技能和召唤技能)，魔攻为*{1}%，物攻道攻为继承一半，其他属性完全继承。</t>
   </si>
   <si>
+    <t>法师之魂</t>
+  </si>
+  <si>
+    <t>上阵后，提高人物{1}%的生命和{2}%的魔攻（分身和宠物不享受）</t>
+  </si>
+  <si>
     <t>治疗术</t>
   </si>
   <si>
@@ -727,6 +739,12 @@
   </si>
   <si>
     <t>提高召唤物的{1}%特殊继承,并且额外增加{5}%的生命</t>
+  </si>
+  <si>
+    <t>道士之魂</t>
+  </si>
+  <si>
+    <t>上阵后，提高人物{1}%的生命和{2}%的道攻（分身和宠物不享受）</t>
   </si>
   <si>
     <t>麻痹神戒</t>
@@ -1764,12 +1782,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AI74"/>
+  <dimension ref="A3:AI77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3036,113 +3054,119 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="5:6">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    <row r="16" s="1" customFormat="1" spans="1:33">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="1">
+        <v>30</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>10</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T16" s="1">
+        <v>15</v>
+      </c>
+      <c r="U16" s="1">
+        <v>5</v>
+      </c>
+      <c r="V16" s="1">
+        <v>4</v>
+      </c>
+      <c r="W16" s="1">
+        <v>4</v>
+      </c>
+      <c r="X16" s="1">
+        <v>500</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>80</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>4102</v>
+      </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:33">
-      <c r="C17" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2</v>
-      </c>
-      <c r="N17" s="1">
-        <v>600</v>
-      </c>
-      <c r="O17" s="1">
-        <v>60</v>
-      </c>
-      <c r="P17" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>2</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
-        <v>120</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>4006</v>
-      </c>
+    <row r="17" s="1" customFormat="1" spans="5:6">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="3:33">
       <c r="C18" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D18" s="1">
-        <v>2002</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G18" s="1">
@@ -3173,10 +3197,10 @@
         <v>60</v>
       </c>
       <c r="P18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>77</v>
@@ -3197,13 +3221,13 @@
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
         <v>0</v>
@@ -3226,10 +3250,10 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="3:33">
       <c r="C19" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D19" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>103</v>
@@ -3238,7 +3262,7 @@
         <v>103</v>
       </c>
       <c r="G19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -3250,10 +3274,10 @@
         <v>104</v>
       </c>
       <c r="K19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
         <v>2</v>
@@ -3265,7 +3289,7 @@
         <v>60</v>
       </c>
       <c r="P19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="1">
         <v>3</v>
@@ -3274,28 +3298,28 @@
         <v>77</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="T19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA19" s="1">
         <v>0</v>
@@ -3318,19 +3342,19 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="3:33">
       <c r="C20" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D20" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -3339,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" s="1">
         <v>2</v>
@@ -3360,19 +3384,19 @@
         <v>2</v>
       </c>
       <c r="Q20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>82</v>
       </c>
       <c r="T20" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" s="1">
         <v>2</v>
@@ -3381,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="X20" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3400,9 +3424,6 @@
       </c>
       <c r="AD20" s="1">
         <v>0</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="AF20" s="1">
         <v>50</v>
@@ -3413,49 +3434,49 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="3:33">
       <c r="C21" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D21" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5</v>
-      </c>
-      <c r="I21" s="1">
-        <v>50</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="K21" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1">
         <v>2</v>
       </c>
       <c r="N21" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="O21" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>66</v>
@@ -3464,19 +3485,19 @@
         <v>82</v>
       </c>
       <c r="T21" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="1">
         <v>0</v>
@@ -3496,8 +3517,8 @@
       <c r="AD21" s="1">
         <v>0</v>
       </c>
-      <c r="AE21" s="5" t="s">
-        <v>83</v>
+      <c r="AE21" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="AF21" s="1">
         <v>50</v>
@@ -3508,31 +3529,31 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="3:33">
       <c r="C22" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D22" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>110</v>
+        <v>2005</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -3556,10 +3577,10 @@
         <v>66</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T22" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U22" s="1">
         <v>0</v>
@@ -3571,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -3590,6 +3611,9 @@
       </c>
       <c r="AD22" s="1">
         <v>0</v>
+      </c>
+      <c r="AE22" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="AF22" s="1">
         <v>50</v>
@@ -3600,19 +3624,19 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="3:33">
       <c r="C23" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D23" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E23" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -3621,49 +3645,49 @@
         <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="4">
-        <v>5</v>
+        <v>113</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1">
         <v>2</v>
       </c>
       <c r="N23" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O23" s="1">
-        <v>60</v>
-      </c>
-      <c r="P23" s="4">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
-        <v>3</v>
-      </c>
-      <c r="X23" s="4">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>50</v>
       </c>
       <c r="Y23" s="1">
         <v>0</v>
@@ -3682,9 +3706,6 @@
       </c>
       <c r="AD23" s="1">
         <v>0</v>
-      </c>
-      <c r="AE23" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="AF23" s="1">
         <v>50</v>
@@ -3695,10 +3716,10 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="3:33">
       <c r="C24" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D24" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>114</v>
@@ -3707,58 +3728,58 @@
         <v>114</v>
       </c>
       <c r="G24" s="1">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" s="1">
-        <v>30</v>
+        <v>109</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1">
         <v>2</v>
       </c>
       <c r="N24" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="O24" s="1">
+        <v>60</v>
+      </c>
+      <c r="P24" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>5</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>5</v>
+      </c>
+      <c r="V24" s="1">
         <v>3</v>
       </c>
-      <c r="P24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
       <c r="W24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="X24" s="4">
+        <v>300</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -3778,8 +3799,8 @@
       <c r="AD24" s="1">
         <v>0</v>
       </c>
-      <c r="AE24" s="1" t="s">
-        <v>116</v>
+      <c r="AE24" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="AF24" s="1">
         <v>50</v>
@@ -3790,70 +3811,70 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="3:33">
       <c r="C25" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D25" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2008</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>200</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="1">
-        <v>3</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="K25" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1">
         <v>2</v>
       </c>
       <c r="N25" s="1">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="O25" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="P25" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T25" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -3874,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF25" s="1">
         <v>50</v>
@@ -3885,31 +3906,31 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="3:33">
       <c r="C26" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D26" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>200</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="K26" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L26" s="1">
         <v>2</v>
@@ -3918,13 +3939,13 @@
         <v>2</v>
       </c>
       <c r="N26" s="1">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="O26" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P26" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q26" s="1">
         <v>3</v>
@@ -3936,7 +3957,7 @@
         <v>82</v>
       </c>
       <c r="T26" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U26" s="1">
         <v>5</v>
@@ -3948,106 +3969,203 @@
         <v>4</v>
       </c>
       <c r="X26" s="1">
+        <v>400</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="3:33">
+      <c r="C27" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="1">
+        <v>30</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>10</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>3</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T27" s="1">
+        <v>15</v>
+      </c>
+      <c r="U27" s="1">
+        <v>5</v>
+      </c>
+      <c r="V27" s="1">
+        <v>4</v>
+      </c>
+      <c r="W27" s="1">
+        <v>4</v>
+      </c>
+      <c r="X27" s="1">
         <v>150</v>
       </c>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG26" s="1">
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG27" s="1">
         <v>4102</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="5:6">
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="3:33">
+    <row r="28" s="1" customFormat="1" spans="1:33">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C28" s="1">
-        <v>3001</v>
+        <v>2011</v>
       </c>
       <c r="D28" s="1">
-        <v>3001</v>
+        <v>2011</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G28" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I28" s="1">
-        <v>20</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="K28" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>10</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="1">
         <v>3</v>
       </c>
-      <c r="N28" s="1">
-        <v>600</v>
-      </c>
-      <c r="O28" s="1">
-        <v>60</v>
-      </c>
-      <c r="P28" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
       <c r="R28" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>82</v>
       </c>
       <c r="T28" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U28" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V28" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X28" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -4068,107 +4186,19 @@
         <v>50</v>
       </c>
       <c r="AG28" s="1">
-        <v>4006</v>
+        <v>4102</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="3:33">
-      <c r="C29" s="1">
-        <v>3002</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3002</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1">
-        <v>3</v>
-      </c>
-      <c r="N29" s="1">
-        <v>500</v>
-      </c>
-      <c r="O29" s="1">
-        <v>60</v>
-      </c>
-      <c r="P29" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>3</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1">
-        <v>1</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="1">
-        <v>0</v>
-      </c>
-      <c r="X29" s="1">
-        <v>120</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>4006</v>
-      </c>
+    <row r="29" s="1" customFormat="1" spans="5:6">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="3:33">
       <c r="C30" s="1">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D30" s="1">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>126</v>
@@ -4177,19 +4207,19 @@
         <v>126</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>127</v>
       </c>
       <c r="K30" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L30" s="1">
         <v>1</v>
@@ -4204,22 +4234,22 @@
         <v>60</v>
       </c>
       <c r="P30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="T30" s="1">
         <v>0</v>
       </c>
       <c r="U30" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V30" s="1">
         <v>0</v>
@@ -4228,13 +4258,13 @@
         <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
         <v>0</v>
@@ -4247,9 +4277,6 @@
       </c>
       <c r="AD30" s="1">
         <v>0</v>
-      </c>
-      <c r="AE30" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="AF30" s="1">
         <v>50</v>
@@ -4260,31 +4287,31 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="3:33">
       <c r="C31" s="1">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="D31" s="1">
-        <v>3004</v>
-      </c>
-      <c r="E31" s="2" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1">
-        <v>6</v>
-      </c>
-      <c r="I31" s="1">
-        <v>100</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="K31" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
@@ -4293,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="N31" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O31" s="1">
         <v>60</v>
@@ -4302,13 +4329,13 @@
         <v>2</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="T31" s="1">
         <v>0</v>
@@ -4323,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
@@ -4352,31 +4379,31 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="3:33">
       <c r="C32" s="1">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="D32" s="1">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="1">
-        <v>5</v>
-      </c>
-      <c r="H32" s="1">
-        <v>5</v>
-      </c>
-      <c r="I32" s="1">
-        <v>50</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="K32" s="1">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="L32" s="1">
         <v>1</v>
@@ -4385,28 +4412,28 @@
         <v>3</v>
       </c>
       <c r="N32" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="O32" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="T32" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V32" s="1">
         <v>0</v>
@@ -4415,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y32" s="1">
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA32" s="1">
         <v>0</v>
@@ -4435,8 +4462,8 @@
       <c r="AD32" s="1">
         <v>0</v>
       </c>
-      <c r="AE32" s="5" t="s">
-        <v>83</v>
+      <c r="AE32" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="AF32" s="1">
         <v>50</v>
@@ -4447,31 +4474,31 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="3:33">
       <c r="C33" s="1">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="D33" s="1">
-        <v>3006</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>132</v>
+        <v>3004</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
         <v>6</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
       <c r="I33" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L33" s="1">
         <v>1</v>
@@ -4480,16 +4507,16 @@
         <v>3</v>
       </c>
       <c r="N33" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="O33" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>66</v>
@@ -4501,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="1">
         <v>0</v>
@@ -4510,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -4539,31 +4566,31 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="3:33">
       <c r="C34" s="1">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="D34" s="1">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G34" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H34" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I34" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="K34" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="L34" s="1">
         <v>1</v>
@@ -4572,28 +4599,28 @@
         <v>3</v>
       </c>
       <c r="N34" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O34" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="P34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>82</v>
       </c>
       <c r="T34" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V34" s="1">
         <v>0</v>
@@ -4602,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -4621,6 +4648,9 @@
       </c>
       <c r="AD34" s="1">
         <v>0</v>
+      </c>
+      <c r="AE34" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="AF34" s="1">
         <v>50</v>
@@ -4631,31 +4661,31 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="3:33">
       <c r="C35" s="1">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="D35" s="1">
-        <v>3008</v>
-      </c>
-      <c r="E35" s="2" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G35" s="1">
-        <v>3008</v>
+        <v>6</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>137</v>
       </c>
       <c r="K35" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
         <v>1</v>
@@ -4664,16 +4694,16 @@
         <v>3</v>
       </c>
       <c r="N35" s="1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="O35" s="1">
+        <v>20</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
         <v>3</v>
-      </c>
-      <c r="P35" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>66</v>
@@ -4682,7 +4712,7 @@
         <v>86</v>
       </c>
       <c r="T35" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U35" s="1">
         <v>0</v>
@@ -4694,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -4713,9 +4743,6 @@
       </c>
       <c r="AD35" s="1">
         <v>0</v>
-      </c>
-      <c r="AE35" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="AF35" s="1">
         <v>50</v>
@@ -4726,16 +4753,16 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="3:33">
       <c r="C36" s="1">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="D36" s="1">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -4747,7 +4774,7 @@
         <v>100</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K36" s="1">
         <v>30</v>
@@ -4759,13 +4786,13 @@
         <v>3</v>
       </c>
       <c r="N36" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O36" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q36" s="1">
         <v>2</v>
@@ -4780,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V36" s="1">
         <v>0</v>
@@ -4789,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -4818,31 +4845,31 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="3:33">
       <c r="C37" s="1">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="D37" s="1">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3008</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>200</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="1">
-        <v>8</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>100</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
@@ -4851,228 +4878,325 @@
         <v>3</v>
       </c>
       <c r="N37" s="1">
+        <v>30</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T37" s="1">
+        <v>5</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="3:33">
+      <c r="C38" s="1">
+        <v>3009</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3009</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1">
+        <v>100</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" s="1">
+        <v>30</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>3</v>
+      </c>
+      <c r="N38" s="1">
+        <v>300</v>
+      </c>
+      <c r="O38" s="1">
+        <v>30</v>
+      </c>
+      <c r="P38" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>2</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>3</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="3:33">
+      <c r="C39" s="1">
+        <v>3010</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3010</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>100</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>3</v>
+      </c>
+      <c r="N39" s="1">
         <v>10</v>
       </c>
-      <c r="O37" s="1">
-        <v>1</v>
-      </c>
-      <c r="P37" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1" t="s">
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T37" s="1">
-        <v>0</v>
-      </c>
-      <c r="U37" s="1">
-        <v>3</v>
-      </c>
-      <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="1">
-        <v>0</v>
-      </c>
-      <c r="X37" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>400</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>4102</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="5:6">
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="3:32">
-      <c r="C39" s="1">
-        <v>4001</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4001</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="1">
-        <v>4001</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>-100</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K39" s="1">
-        <v>30</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>82</v>
       </c>
       <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>3</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>400</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:33">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3011</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3011</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="1">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1">
+        <v>11</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40" s="1">
+        <v>30</v>
+      </c>
+      <c r="L40" s="1">
         <v>2</v>
       </c>
-      <c r="U39" s="1">
-        <v>0</v>
-      </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="1">
-        <v>0</v>
-      </c>
-      <c r="X39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="3:32">
-      <c r="C40" s="1">
-        <v>4002</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4002</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="1">
-        <v>4002</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>200</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K40" s="1">
-        <v>60</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
       <c r="M40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N40" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>82</v>
       </c>
       <c r="T40" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V40" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W40" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X40" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Y40" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Z40" s="1">
         <v>0</v>
@@ -5089,137 +5213,142 @@
       <c r="AD40" s="1">
         <v>0</v>
       </c>
-      <c r="AE40" s="5"/>
       <c r="AF40" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="5:6">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="3:32">
+      <c r="C42" s="1">
+        <v>4001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4001</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4001</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" s="1">
+        <v>30</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T42" s="1">
+        <v>2</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF42" s="1">
         <v>99999</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="3:32">
-      <c r="C41" s="1">
-        <v>4003</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4003</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="1">
-        <v>4003</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K41" s="1">
+    <row r="43" s="1" customFormat="1" spans="3:32">
+      <c r="C43" s="1">
+        <v>4002</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4002</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4002</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>200</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K43" s="1">
         <v>60</v>
       </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0</v>
-      </c>
-      <c r="U41" s="1">
-        <v>0</v>
-      </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0</v>
-      </c>
-      <c r="X41" s="1">
-        <v>100</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="5:6">
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="3:33">
-      <c r="C43" s="1">
-        <v>9001</v>
-      </c>
-      <c r="D43" s="1">
-        <v>9001</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="1">
-        <v>9</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
       <c r="L43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="1">
         <v>0</v>
@@ -5228,22 +5357,22 @@
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="T43" s="1">
         <v>0</v>
       </c>
       <c r="U43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="1">
         <v>0</v>
@@ -5272,43 +5401,44 @@
       <c r="AD43" s="1">
         <v>0</v>
       </c>
+      <c r="AE43" s="5"/>
       <c r="AF43" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>50</v>
+        <v>99999</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="3:33">
+    <row r="44" s="1" customFormat="1" spans="3:32">
       <c r="C44" s="1">
-        <v>9002</v>
+        <v>4003</v>
       </c>
       <c r="D44" s="1">
-        <v>9002</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>152</v>
+        <v>4003</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="G44" s="1">
-        <v>9</v>
+        <v>4003</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
@@ -5320,19 +5450,19 @@
         <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="T44" s="1">
         <v>0</v>
       </c>
       <c r="U44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" s="1">
         <v>0</v>
@@ -5361,38 +5491,38 @@
       <c r="AD44" s="1">
         <v>0</v>
       </c>
+      <c r="AE44" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="AF44" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG44" s="1">
-        <v>50</v>
+        <v>99999</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1" spans="5:6">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
     <row r="46" s="1" customFormat="1" spans="3:33">
       <c r="C46" s="1">
-        <v>10001</v>
+        <v>9001</v>
       </c>
       <c r="D46" s="1">
-        <v>10001</v>
+        <v>9001</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -5413,10 +5543,10 @@
         <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>98</v>
@@ -5434,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="1">
         <v>0</v>
@@ -5461,32 +5591,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="3:33">
-      <c r="C47" s="2">
-        <v>10002</v>
-      </c>
-      <c r="D47" s="2">
-        <v>10002</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="2">
-        <v>4</v>
+    <row r="47" s="1" customFormat="1" spans="3:33">
+      <c r="C47" s="1">
+        <v>9002</v>
+      </c>
+      <c r="D47" s="1">
+        <v>9002</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="1">
+        <v>9</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
-      <c r="I47" s="2">
-        <v>10</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K47" s="2">
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
         <v>0</v>
       </c>
       <c r="L47" s="1">
@@ -5504,8 +5631,8 @@
       <c r="P47" s="1">
         <v>0</v>
       </c>
-      <c r="Q47" s="2">
-        <v>0</v>
+      <c r="Q47" s="1">
+        <v>2</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>66</v>
@@ -5513,10 +5640,10 @@
       <c r="S47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
         <v>1</v>
       </c>
       <c r="V47" s="1">
@@ -5525,7 +5652,7 @@
       <c r="W47" s="1">
         <v>0</v>
       </c>
-      <c r="X47" s="2">
+      <c r="X47" s="1">
         <v>100</v>
       </c>
       <c r="Y47" s="1">
@@ -5546,7 +5673,6 @@
       <c r="AD47" s="1">
         <v>0</v>
       </c>
-      <c r="AE47" s="1"/>
       <c r="AF47" s="1">
         <v>50</v>
       </c>
@@ -5554,217 +5680,125 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:33">
-      <c r="C48" s="2">
-        <v>10003</v>
-      </c>
-      <c r="D48" s="2">
-        <v>10003</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="1">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>0</v>
-      </c>
-      <c r="R48" s="1" t="s">
+    <row r="48" s="1" customFormat="1"/>
+    <row r="49" s="1" customFormat="1" spans="3:33">
+      <c r="C49" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10001</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>3</v>
+      </c>
+      <c r="R49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T48" s="1">
-        <v>0</v>
-      </c>
-      <c r="U48" s="1">
+      <c r="S49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>1</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>150</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33">
+      <c r="C50" s="2">
+        <v>10002</v>
+      </c>
+      <c r="D50" s="2">
+        <v>10002</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" s="2">
+        <v>4</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
         <v>10</v>
       </c>
-      <c r="V48" s="1">
-        <v>0</v>
-      </c>
-      <c r="W48" s="1">
-        <v>0</v>
-      </c>
-      <c r="X48" s="1">
-        <v>100</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG48" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="3:33">
-      <c r="C49" s="2">
-        <v>10004</v>
-      </c>
-      <c r="D49" s="2">
-        <v>10004</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" s="2">
-        <v>4</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>10</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2">
-        <v>1</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49" s="1">
-        <v>0</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>3</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T49" s="2">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2">
-        <v>4</v>
-      </c>
-      <c r="V49" s="1">
-        <v>0</v>
-      </c>
-      <c r="W49" s="1">
-        <v>0</v>
-      </c>
-      <c r="X49" s="2">
-        <v>50</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG49" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="3:33">
-      <c r="C50" s="1">
-        <v>10005</v>
-      </c>
-      <c r="D50" s="1">
-        <v>10005</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>10</v>
-      </c>
       <c r="J50" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K50" s="1">
+        <v>162</v>
+      </c>
+      <c r="K50" s="2">
         <v>0</v>
       </c>
       <c r="L50" s="1">
@@ -5773,7 +5807,7 @@
       <c r="M50" s="1">
         <v>1</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="1">
         <v>0</v>
       </c>
       <c r="O50" s="1">
@@ -5782,8 +5816,8 @@
       <c r="P50" s="1">
         <v>0</v>
       </c>
-      <c r="Q50" s="1">
-        <v>2</v>
+      <c r="Q50" s="2">
+        <v>0</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>66</v>
@@ -5791,11 +5825,11 @@
       <c r="S50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T50" s="1">
-        <v>0</v>
-      </c>
-      <c r="U50" s="1">
-        <v>2</v>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>1</v>
       </c>
       <c r="V50" s="1">
         <v>0</v>
@@ -5803,14 +5837,14 @@
       <c r="W50" s="1">
         <v>0</v>
       </c>
-      <c r="X50" s="1">
-        <v>150</v>
+      <c r="X50" s="2">
+        <v>100</v>
       </c>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
       <c r="Z50" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="1">
         <v>0</v>
@@ -5824,6 +5858,7 @@
       <c r="AD50" s="1">
         <v>0</v>
       </c>
+      <c r="AE50" s="1"/>
       <c r="AF50" s="1">
         <v>50</v>
       </c>
@@ -5831,39 +5866,135 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="3:33">
-      <c r="C52" s="1">
-        <v>11001</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1001</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
+    <row r="51" spans="3:33">
+      <c r="C51" s="2">
+        <v>10003</v>
+      </c>
+      <c r="D51" s="2">
+        <v>10003</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>10</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33">
+      <c r="C52" s="2">
+        <v>10004</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10004</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="2">
+        <v>4</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="2">
         <v>10</v>
       </c>
-      <c r="K52" s="1">
+      <c r="J52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K52" s="2">
         <v>0</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
       </c>
-      <c r="M52" s="1">
-        <v>1</v>
-      </c>
-      <c r="N52" s="1">
-        <v>9999</v>
+      <c r="M52" s="2">
+        <v>1</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0</v>
       </c>
       <c r="O52" s="1">
         <v>0</v>
@@ -5871,20 +6002,20 @@
       <c r="P52" s="1">
         <v>0</v>
       </c>
-      <c r="Q52" s="1">
-        <v>1</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T52" s="1">
-        <v>0</v>
-      </c>
-      <c r="U52" s="1">
-        <v>1</v>
+      <c r="Q52" s="2">
+        <v>3</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>4</v>
       </c>
       <c r="V52" s="1">
         <v>0</v>
@@ -5892,22 +6023,22 @@
       <c r="W52" s="1">
         <v>0</v>
       </c>
-      <c r="X52" s="1">
-        <v>120</v>
-      </c>
-      <c r="Y52" s="1">
+      <c r="X52" s="2">
+        <v>50</v>
+      </c>
+      <c r="Y52" s="2">
         <v>0</v>
       </c>
       <c r="Z52" s="1">
         <v>0</v>
       </c>
-      <c r="AA52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="1">
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="2">
         <v>0</v>
       </c>
       <c r="AD52" s="1">
@@ -5922,13 +6053,13 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="3:33">
       <c r="C53" s="1">
-        <v>11002</v>
+        <v>10005</v>
       </c>
       <c r="D53" s="1">
-        <v>1002</v>
+        <v>10005</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>69</v>
@@ -5942,17 +6073,20 @@
       <c r="I53" s="1">
         <v>10</v>
       </c>
+      <c r="J53" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="K53" s="1">
         <v>0</v>
       </c>
       <c r="L53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53" s="1">
         <v>1</v>
       </c>
-      <c r="N53" s="1">
-        <v>9999</v>
+      <c r="N53" s="2">
+        <v>0</v>
       </c>
       <c r="O53" s="1">
         <v>0</v>
@@ -6006,113 +6140,24 @@
         <v>50</v>
       </c>
       <c r="AG53" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="3:33">
-      <c r="C54" s="1">
-        <v>11003</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1003</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>10</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
-        <v>2</v>
-      </c>
-      <c r="M54" s="1">
-        <v>1</v>
-      </c>
-      <c r="N54" s="1">
-        <v>9999</v>
-      </c>
-      <c r="O54" s="1">
-        <v>0</v>
-      </c>
-      <c r="P54" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>1</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T54" s="1">
-        <v>0</v>
-      </c>
-      <c r="U54" s="1">
-        <v>5</v>
-      </c>
-      <c r="V54" s="1">
-        <v>0</v>
-      </c>
-      <c r="W54" s="1">
-        <v>0</v>
-      </c>
-      <c r="X54" s="1">
-        <v>100</v>
-      </c>
-      <c r="Y54" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG54" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="3:33">
       <c r="C55" s="1">
-        <v>11004</v>
+        <v>11001</v>
       </c>
       <c r="D55" s="1">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G55" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -6121,7 +6166,7 @@
         <v>10</v>
       </c>
       <c r="K55" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
@@ -6139,16 +6184,16 @@
         <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="T55" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U55" s="1">
         <v>1</v>
@@ -6160,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
@@ -6179,9 +6224,6 @@
       </c>
       <c r="AD55" s="1">
         <v>0</v>
-      </c>
-      <c r="AE55" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="AF55" s="1">
         <v>50</v>
@@ -6192,31 +6234,31 @@
     </row>
     <row r="56" s="1" customFormat="1" spans="3:33">
       <c r="C56" s="1">
-        <v>11005</v>
+        <v>11002</v>
       </c>
       <c r="D56" s="1">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G56" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K56" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56" s="1">
         <v>1</v>
@@ -6231,19 +6273,19 @@
         <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="T56" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U56" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V56" s="1">
         <v>0</v>
@@ -6252,14 +6294,14 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
+        <v>150</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1">
         <v>20</v>
       </c>
-      <c r="Y56" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>0</v>
-      </c>
       <c r="AA56" s="1">
         <v>0</v>
       </c>
@@ -6272,7 +6314,6 @@
       <c r="AD56" s="1">
         <v>0</v>
       </c>
-      <c r="AE56" s="5"/>
       <c r="AF56" s="1">
         <v>50</v>
       </c>
@@ -6282,19 +6323,19 @@
     </row>
     <row r="57" s="1" customFormat="1" spans="3:33">
       <c r="C57" s="1">
-        <v>11006</v>
+        <v>11003</v>
       </c>
       <c r="D57" s="1">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G57" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -6306,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57" s="1">
         <v>1</v>
@@ -6321,19 +6362,19 @@
         <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="T57" s="1">
         <v>0</v>
       </c>
       <c r="U57" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V57" s="1">
         <v>0</v>
@@ -6342,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
@@ -6371,19 +6412,19 @@
     </row>
     <row r="58" s="1" customFormat="1" spans="3:33">
       <c r="C58" s="1">
-        <v>11007</v>
+        <v>11004</v>
       </c>
       <c r="D58" s="1">
-        <v>1007</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>88</v>
+        <v>1004</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G58" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -6392,7 +6433,7 @@
         <v>10</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L58" s="1">
         <v>1</v>
@@ -6410,16 +6451,16 @@
         <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="T58" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U58" s="1">
         <v>1</v>
@@ -6431,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
@@ -6450,6 +6491,9 @@
       </c>
       <c r="AD58" s="1">
         <v>0</v>
+      </c>
+      <c r="AE58" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="AF58" s="1">
         <v>50</v>
@@ -6460,34 +6504,34 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="3:33">
       <c r="C59" s="1">
-        <v>12001</v>
+        <v>11005</v>
       </c>
       <c r="D59" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>99</v>
+        <v>1005</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="G59" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L59" s="1">
         <v>1</v>
       </c>
       <c r="M59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59" s="1">
         <v>9999</v>
@@ -6499,19 +6543,19 @@
         <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="T59" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59" s="1">
         <v>0</v>
@@ -6520,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="Y59" s="1">
         <v>0</v>
@@ -6540,6 +6584,7 @@
       <c r="AD59" s="1">
         <v>0</v>
       </c>
+      <c r="AE59" s="5"/>
       <c r="AF59" s="1">
         <v>50</v>
       </c>
@@ -6549,19 +6594,19 @@
     </row>
     <row r="60" s="1" customFormat="1" spans="3:33">
       <c r="C60" s="1">
-        <v>12002</v>
+        <v>11006</v>
       </c>
       <c r="D60" s="1">
-        <v>2002</v>
+        <v>1006</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G60" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -6576,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="M60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N60" s="1">
         <v>9999</v>
@@ -6588,19 +6633,19 @@
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
       </c>
       <c r="U60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" s="1">
         <v>0</v>
@@ -6609,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Y60" s="1">
         <v>0</v>
@@ -6638,19 +6683,19 @@
     </row>
     <row r="61" s="1" customFormat="1" spans="3:33">
       <c r="C61" s="1">
-        <v>12003</v>
+        <v>11007</v>
       </c>
       <c r="D61" s="1">
-        <v>2003</v>
+        <v>1007</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -6659,13 +6704,13 @@
         <v>10</v>
       </c>
       <c r="K61" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61" s="1">
         <v>9999</v>
@@ -6677,28 +6722,28 @@
         <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="T61" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U61" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V61" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W61" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X61" s="1">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="Y61" s="1">
         <v>0</v>
@@ -6727,16 +6772,16 @@
     </row>
     <row r="62" s="1" customFormat="1" spans="3:33">
       <c r="C62" s="1">
-        <v>12004</v>
+        <v>12001</v>
       </c>
       <c r="D62" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>106</v>
+        <v>2001</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -6751,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" s="1">
         <v>2</v>
@@ -6766,28 +6811,28 @@
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
       </c>
       <c r="U62" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V62" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W62" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X62" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y62" s="1">
         <v>0</v>
@@ -6816,28 +6861,28 @@
     </row>
     <row r="63" s="1" customFormat="1" spans="3:33">
       <c r="C63" s="1">
-        <v>12005</v>
+        <v>12002</v>
       </c>
       <c r="D63" s="1">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G63" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K63" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1">
         <v>1</v>
@@ -6855,19 +6900,19 @@
         <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="T63" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" s="1">
         <v>0</v>
@@ -6876,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="1">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="Y63" s="1">
         <v>0</v>
@@ -6896,7 +6941,6 @@
       <c r="AD63" s="1">
         <v>0</v>
       </c>
-      <c r="AE63" s="5"/>
       <c r="AF63" s="1">
         <v>50</v>
       </c>
@@ -6906,19 +6950,19 @@
     </row>
     <row r="64" s="1" customFormat="1" spans="3:33">
       <c r="C64" s="1">
-        <v>12006</v>
+        <v>12003</v>
       </c>
       <c r="D64" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>110</v>
+        <v>2003</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="G64" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -6927,10 +6971,10 @@
         <v>10</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64" s="1">
         <v>2</v>
@@ -6945,28 +6989,28 @@
         <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T64" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U64" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X64" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Y64" s="1">
         <v>0</v>
@@ -6995,16 +7039,16 @@
     </row>
     <row r="65" s="1" customFormat="1" spans="3:33">
       <c r="C65" s="1">
-        <v>12007</v>
+        <v>12004</v>
       </c>
       <c r="D65" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -7034,10 +7078,10 @@
         <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>82</v>
@@ -7046,16 +7090,16 @@
         <v>0</v>
       </c>
       <c r="U65" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X65" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Y65" s="1">
         <v>0</v>
@@ -7084,34 +7128,34 @@
     </row>
     <row r="66" s="1" customFormat="1" spans="3:33">
       <c r="C66" s="1">
-        <v>13001</v>
+        <v>12005</v>
       </c>
       <c r="D66" s="1">
-        <v>3001</v>
+        <v>2005</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G66" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K66" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L66" s="1">
         <v>1</v>
       </c>
       <c r="M66" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66" s="1">
         <v>9999</v>
@@ -7132,7 +7176,7 @@
         <v>82</v>
       </c>
       <c r="T66" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U66" s="1">
         <v>0</v>
@@ -7144,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="Y66" s="1">
         <v>0</v>
@@ -7164,6 +7208,7 @@
       <c r="AD66" s="1">
         <v>0</v>
       </c>
+      <c r="AE66" s="5"/>
       <c r="AF66" s="1">
         <v>50</v>
       </c>
@@ -7173,19 +7218,19 @@
     </row>
     <row r="67" s="1" customFormat="1" spans="3:33">
       <c r="C67" s="1">
-        <v>13002</v>
+        <v>12006</v>
       </c>
       <c r="D67" s="1">
-        <v>3002</v>
+        <v>2006</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G67" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -7200,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="M67" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N67" s="1">
         <v>9999</v>
@@ -7212,19 +7257,19 @@
         <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="T67" s="1">
         <v>0</v>
       </c>
       <c r="U67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67" s="1">
         <v>0</v>
@@ -7233,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="Y67" s="1">
         <v>0</v>
@@ -7262,16 +7307,16 @@
     </row>
     <row r="68" s="1" customFormat="1" spans="3:33">
       <c r="C68" s="1">
-        <v>13003</v>
+        <v>12007</v>
       </c>
       <c r="D68" s="1">
-        <v>3003</v>
+        <v>2007</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -7283,13 +7328,13 @@
         <v>10</v>
       </c>
       <c r="K68" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N68" s="1">
         <v>9999</v>
@@ -7301,13 +7346,13 @@
         <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>77</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
@@ -7316,19 +7361,19 @@
         <v>5</v>
       </c>
       <c r="V68" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W68" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X68" s="1">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
       <c r="Z68" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA68" s="1">
         <v>0</v>
@@ -7351,28 +7396,28 @@
     </row>
     <row r="69" s="1" customFormat="1" spans="3:33">
       <c r="C69" s="1">
-        <v>13004</v>
+        <v>13001</v>
       </c>
       <c r="D69" s="1">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G69" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K69" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L69" s="1">
         <v>1</v>
@@ -7396,13 +7441,13 @@
         <v>66</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
       </c>
       <c r="U69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69" s="1">
         <v>0</v>
@@ -7411,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -7440,28 +7485,28 @@
     </row>
     <row r="70" s="1" customFormat="1" spans="3:33">
       <c r="C70" s="1">
-        <v>13005</v>
+        <v>13002</v>
       </c>
       <c r="D70" s="1">
-        <v>3005</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>131</v>
+        <v>3002</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G70" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K70" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1">
         <v>1</v>
@@ -7479,19 +7524,19 @@
         <v>0</v>
       </c>
       <c r="Q70" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="T70" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70" s="1">
         <v>0</v>
@@ -7500,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="Y70" s="1">
         <v>0</v>
@@ -7520,7 +7565,6 @@
       <c r="AD70" s="1">
         <v>0</v>
       </c>
-      <c r="AE70" s="5"/>
       <c r="AF70" s="1">
         <v>50</v>
       </c>
@@ -7530,19 +7574,19 @@
     </row>
     <row r="71" s="1" customFormat="1" spans="3:33">
       <c r="C71" s="1">
-        <v>13006</v>
+        <v>13003</v>
       </c>
       <c r="D71" s="1">
-        <v>3006</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>132</v>
+        <v>3003</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="G71" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
@@ -7551,7 +7595,7 @@
         <v>10</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L71" s="1">
         <v>1</v>
@@ -7569,19 +7613,19 @@
         <v>0</v>
       </c>
       <c r="Q71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="T71" s="1">
         <v>0</v>
       </c>
       <c r="U71" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V71" s="1">
         <v>0</v>
@@ -7590,13 +7634,13 @@
         <v>0</v>
       </c>
       <c r="X71" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
       <c r="Z71" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA71" s="1">
         <v>0</v>
@@ -7619,16 +7663,16 @@
     </row>
     <row r="72" s="1" customFormat="1" spans="3:33">
       <c r="C72" s="1">
-        <v>13007</v>
+        <v>13004</v>
       </c>
       <c r="D72" s="1">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G72" s="1">
         <v>2</v>
@@ -7658,77 +7702,159 @@
         <v>0</v>
       </c>
       <c r="Q72" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>1</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="3:33">
+      <c r="C73" s="1">
+        <v>13005</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3005</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G73" s="1">
+        <v>5</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>50</v>
+      </c>
+      <c r="K73" s="1">
+        <v>30</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1">
+        <v>3</v>
+      </c>
+      <c r="N73" s="1">
+        <v>9999</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T72" s="1">
-        <v>0</v>
-      </c>
-      <c r="U72" s="1">
-        <v>2</v>
-      </c>
-      <c r="V72" s="1">
-        <v>0</v>
-      </c>
-      <c r="W72" s="1">
-        <v>0</v>
-      </c>
-      <c r="X72" s="1">
-        <v>120</v>
-      </c>
-      <c r="Y72" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG72" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="5:16">
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
+      <c r="T73" s="1">
+        <v>30</v>
+      </c>
+      <c r="U73" s="1">
+        <v>0</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73" s="1">
+        <v>0</v>
+      </c>
+      <c r="X73" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="3:33">
       <c r="C74" s="1">
-        <v>21002</v>
+        <v>13006</v>
       </c>
       <c r="D74" s="1">
-        <v>1002</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>69</v>
+        <v>3006</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="G74" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -7740,10 +7866,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M74" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N74" s="1">
         <v>9999</v>
@@ -7755,60 +7881,246 @@
         <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0</v>
+      </c>
+      <c r="U74" s="1">
+        <v>0</v>
+      </c>
+      <c r="V74" s="1">
+        <v>0</v>
+      </c>
+      <c r="W74" s="1">
+        <v>0</v>
+      </c>
+      <c r="X74" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="3:33">
+      <c r="C75" s="1">
+        <v>13007</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3007</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>100</v>
+      </c>
+      <c r="K75" s="1">
+        <v>15</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>3</v>
+      </c>
+      <c r="N75" s="1">
+        <v>9999</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>2</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1">
+        <v>2</v>
+      </c>
+      <c r="V75" s="1">
+        <v>0</v>
+      </c>
+      <c r="W75" s="1">
+        <v>0</v>
+      </c>
+      <c r="X75" s="1">
+        <v>120</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="5:16">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="3:33">
+      <c r="C77" s="1">
+        <v>21002</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>10</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>2</v>
+      </c>
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
+      <c r="N77" s="1">
+        <v>9999</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>2</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S77" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T74" s="1">
-        <v>0</v>
-      </c>
-      <c r="U74" s="1">
+      <c r="T77" s="1">
+        <v>0</v>
+      </c>
+      <c r="U77" s="1">
         <v>2</v>
       </c>
-      <c r="V74" s="1">
-        <v>0</v>
-      </c>
-      <c r="W74" s="1">
-        <v>0</v>
-      </c>
-      <c r="X74" s="1">
+      <c r="V77" s="1">
+        <v>0</v>
+      </c>
+      <c r="W77" s="1">
+        <v>0</v>
+      </c>
+      <c r="X77" s="1">
         <v>150</v>
       </c>
-      <c r="Y74" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="1">
+      <c r="Y77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="1">
         <v>20</v>
       </c>
-      <c r="AA74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE74" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF74" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG74" s="1">
+      <c r="AA77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG77" s="1">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 H3:H5 I3:I5 J3:J5 K3:K5 C3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:K5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="169">
   <si>
     <t>_ID</t>
   </si>
@@ -600,7 +600,7 @@
     <t>战士之魂</t>
   </si>
   <si>
-    <t>上阵后，提高人物{1}%的生命和{2}%的绝对减伤（分身和宠物不享受）</t>
+    <t>上阵后，提高人物{1}%的生命倍率和{2}%的物攻倍率（分身和宠物不享受）</t>
   </si>
   <si>
     <t>小火球</t>
@@ -675,7 +675,7 @@
     <t>法师之魂</t>
   </si>
   <si>
-    <t>上阵后，提高人物{1}%的生命和{2}%的魔攻（分身和宠物不享受）</t>
+    <t>上阵后，提高人物{1}%的生命倍率和{2}%的魔攻倍率（分身和宠物不享受）</t>
   </si>
   <si>
     <t>治疗术</t>
@@ -744,7 +744,7 @@
     <t>道士之魂</t>
   </si>
   <si>
-    <t>上阵后，提高人物{1}%的生命和{2}%的道攻（分身和宠物不享受）</t>
+    <t>上阵后，提高人物{1}%的生命倍率和{2}%的道攻倍率（分身和宠物不享受）</t>
   </si>
   <si>
     <t>麻痹神戒</t>
@@ -983,12 +983,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1782,12 +1782,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:AI77"/>
+  <dimension ref="C3:AI77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3054,13 +3054,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:33">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="16" s="1" customFormat="1" spans="3:33">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -3128,7 +3122,7 @@
         <v>500</v>
       </c>
       <c r="Y16" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Z16" s="1">
         <v>0</v>
@@ -3146,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AG16" s="1">
-        <v>4102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="5:6">
@@ -4091,13 +4085,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:33">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="28" s="1" customFormat="1" spans="3:33">
       <c r="C28" s="1">
         <v>2011</v>
       </c>
@@ -4165,28 +4153,28 @@
         <v>500</v>
       </c>
       <c r="Y28" s="1">
+        <v>100</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1">
         <v>500</v>
       </c>
-      <c r="Z28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>50</v>
-      </c>
       <c r="AG28" s="1">
-        <v>4102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="5:6">
@@ -5122,13 +5110,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:33">
-      <c r="A40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="40" s="1" customFormat="1" spans="3:33">
       <c r="C40" s="1">
         <v>3011</v>
       </c>
@@ -5196,28 +5178,28 @@
         <v>500</v>
       </c>
       <c r="Y40" s="1">
+        <v>100</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="1">
         <v>500</v>
       </c>
-      <c r="Z40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="1">
-        <v>50</v>
-      </c>
       <c r="AG40" s="1">
-        <v>4102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="5:6">

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="0">
+    <comment ref="Y3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0">
+    <comment ref="AF3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="170">
   <si>
     <t>_ID</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>LevelPercent</t>
+  </si>
+  <si>
+    <t>LevelDamage</t>
   </si>
   <si>
     <t>Dis</t>
@@ -1782,12 +1785,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AI77"/>
+  <dimension ref="C3:AJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="AG40" sqref="AG40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1806,26 +1809,26 @@
     <col min="13" max="13" width="5.875" style="2" customWidth="1"/>
     <col min="14" max="14" width="7.50833333333333" style="2" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.25" style="2" customWidth="1"/>
-    <col min="20" max="20" width="6.5" style="2" customWidth="1"/>
-    <col min="21" max="23" width="7.625" style="2" customWidth="1"/>
-    <col min="24" max="25" width="7.875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="9.625" style="2" customWidth="1"/>
-    <col min="27" max="28" width="7.875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="9.625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="23.25" style="2" customWidth="1"/>
-    <col min="32" max="32" width="17.875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="19.75" style="2" customWidth="1"/>
-    <col min="34" max="34" width="9" style="2"/>
-    <col min="35" max="35" width="19.25" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="2"/>
+    <col min="16" max="17" width="13.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="6.5" style="2" customWidth="1"/>
+    <col min="22" max="24" width="7.625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="7.875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9.625" style="2" customWidth="1"/>
+    <col min="28" max="29" width="7.875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="12.625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="9.625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="23.25" style="2" customWidth="1"/>
+    <col min="33" max="33" width="17.875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="19.75" style="2" customWidth="1"/>
+    <col min="35" max="35" width="9" style="2"/>
+    <col min="36" max="36" width="19.25" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:35">
+    <row r="3" spans="3:36">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1869,64 +1872,67 @@
         <v>13</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="AJ3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="3:33">
+    <row r="4" spans="3:34">
       <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2018,105 +2024,111 @@
         <v>60</v>
       </c>
       <c r="AG4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:33">
+    <row r="5" spans="3:34">
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>62</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="V5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:33">
+    <row r="6" s="1" customFormat="1" spans="3:34">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -2124,10 +2136,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -2139,7 +2151,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -2160,32 +2172,32 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T6" s="1">
-        <v>0</v>
+      <c r="T6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
         <v>0</v>
       </c>
       <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
         <v>120</v>
       </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
       <c r="Z6" s="1">
         <v>0</v>
       </c>
@@ -2201,14 +2213,17 @@
       <c r="AD6" s="1">
         <v>0</v>
       </c>
-      <c r="AF6" s="1">
-        <v>50</v>
+      <c r="AE6" s="1">
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:33">
+    <row r="7" s="1" customFormat="1" spans="3:34">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -2216,10 +2231,10 @@
         <v>1002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -2231,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -2252,37 +2267,37 @@
         <v>2</v>
       </c>
       <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
         <v>2</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T7" s="1">
-        <v>0</v>
+      <c r="T7" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
         <v>2</v>
       </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
       <c r="W7" s="1">
         <v>0</v>
       </c>
       <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
         <v>150</v>
       </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
       <c r="Z7" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -2293,14 +2308,17 @@
       <c r="AD7" s="1">
         <v>0</v>
       </c>
-      <c r="AF7" s="1">
-        <v>50</v>
+      <c r="AE7" s="1">
+        <v>0</v>
       </c>
       <c r="AG7" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH7" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:33">
+    <row r="8" s="1" customFormat="1" spans="3:34">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -2308,10 +2326,10 @@
         <v>1003</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -2323,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" s="1">
         <v>5</v>
@@ -2344,32 +2362,32 @@
         <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
         <v>5</v>
       </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
       <c r="W8" s="1">
         <v>0</v>
       </c>
       <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
         <v>100</v>
       </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
       <c r="Z8" s="1">
         <v>0</v>
       </c>
@@ -2385,17 +2403,20 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>50</v>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="AG8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH8" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:33">
+    <row r="9" s="1" customFormat="1" spans="3:34">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -2403,10 +2424,10 @@
         <v>1004</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1">
         <v>7</v>
@@ -2418,7 +2439,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" s="1">
         <v>10</v>
@@ -2439,32 +2460,32 @@
         <v>4</v>
       </c>
       <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
         <v>4</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" s="1">
         <v>2</v>
       </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
       </c>
       <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
         <v>200</v>
       </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
       <c r="Z9" s="1">
         <v>0</v>
       </c>
@@ -2480,17 +2501,20 @@
       <c r="AD9" s="1">
         <v>0</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>50</v>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="AG9" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH9" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:33">
+    <row r="10" s="1" customFormat="1" spans="3:34">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -2498,10 +2522,10 @@
         <v>1005</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -2513,7 +2537,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K10" s="1">
         <v>55</v>
@@ -2536,18 +2560,18 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>66</v>
+      <c r="R10" s="1">
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" s="1">
+        <v>67</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="1">
         <v>30</v>
       </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
       <c r="V10" s="1">
         <v>0</v>
       </c>
@@ -2575,17 +2599,20 @@
       <c r="AD10" s="1">
         <v>0</v>
       </c>
-      <c r="AE10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>50</v>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="AG10" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH10" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:33">
+    <row r="11" s="1" customFormat="1" spans="3:34">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -2593,10 +2620,10 @@
         <v>1006</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1">
         <v>6</v>
@@ -2608,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -2631,14 +2658,14 @@
       <c r="Q11" s="1">
         <v>0</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>66</v>
+      <c r="R11" s="1">
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -2650,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
@@ -2670,14 +2697,17 @@
       <c r="AD11" s="1">
         <v>0</v>
       </c>
-      <c r="AF11" s="1">
-        <v>50</v>
+      <c r="AE11" s="1">
+        <v>0</v>
       </c>
       <c r="AG11" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH11" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:33">
+    <row r="12" s="1" customFormat="1" spans="3:34">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -2685,10 +2715,10 @@
         <v>1007</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2700,7 +2730,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
@@ -2721,37 +2751,37 @@
         <v>10</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T12" s="1">
-        <v>0</v>
+      <c r="T12" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
         <v>500</v>
       </c>
-      <c r="Y12" s="1">
-        <v>0</v>
-      </c>
       <c r="Z12" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
@@ -2762,17 +2792,20 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-      <c r="AE12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>50</v>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="AG12" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH12" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:33">
+    <row r="13" s="1" customFormat="1" spans="3:34">
       <c r="C13" s="1">
         <v>1008</v>
       </c>
@@ -2780,10 +2813,10 @@
         <v>1008</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1">
         <v>1008</v>
@@ -2795,7 +2828,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="1">
         <v>30</v>
@@ -2818,18 +2851,18 @@
       <c r="Q13" s="1">
         <v>0</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>66</v>
+      <c r="R13" s="1">
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T13" s="1">
+        <v>67</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U13" s="1">
         <v>5</v>
       </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
       <c r="V13" s="1">
         <v>0</v>
       </c>
@@ -2857,17 +2890,20 @@
       <c r="AD13" s="1">
         <v>0</v>
       </c>
-      <c r="AE13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>50</v>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="AG13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH13" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:33">
+    <row r="14" s="1" customFormat="1" spans="3:34">
       <c r="C14" s="1">
         <v>1009</v>
       </c>
@@ -2875,10 +2911,10 @@
         <v>1009</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2890,7 +2926,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="1">
         <v>15</v>
@@ -2911,37 +2947,37 @@
         <v>12</v>
       </c>
       <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
         <v>4</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T14" s="1">
-        <v>0</v>
+      <c r="T14" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
         <v>4</v>
       </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
       <c r="W14" s="1">
         <v>0</v>
       </c>
       <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
         <v>600</v>
       </c>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
       <c r="Z14" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -2952,17 +2988,20 @@
       <c r="AD14" s="1">
         <v>0</v>
       </c>
-      <c r="AE14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>50</v>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="AG14" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH14" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:33">
+    <row r="15" s="1" customFormat="1" spans="3:34">
       <c r="C15" s="1">
         <v>1010</v>
       </c>
@@ -2970,10 +3009,10 @@
         <v>1010</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2985,7 +3024,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -3006,16 +3045,16 @@
         <v>10</v>
       </c>
       <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
         <v>2</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="S15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -3027,11 +3066,11 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
         <v>200</v>
       </c>
-      <c r="Y15" s="1">
-        <v>0</v>
-      </c>
       <c r="Z15" s="1">
         <v>0</v>
       </c>
@@ -3047,14 +3086,17 @@
       <c r="AD15" s="1">
         <v>0</v>
       </c>
-      <c r="AF15" s="1">
-        <v>50</v>
+      <c r="AE15" s="1">
+        <v>0</v>
       </c>
       <c r="AG15" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH15" s="1">
         <v>4102</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:33">
+    <row r="16" s="1" customFormat="1" spans="3:34">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -3062,10 +3104,10 @@
         <v>1011</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="1">
         <v>8</v>
@@ -3077,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="1">
         <v>30</v>
@@ -3095,38 +3137,38 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>10</v>
+      </c>
+      <c r="R16" s="1">
+        <v>3</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U16" s="1">
+        <v>15</v>
+      </c>
+      <c r="V16" s="1">
         <v>5</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>3</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T16" s="1">
-        <v>15</v>
-      </c>
-      <c r="U16" s="1">
-        <v>5</v>
-      </c>
-      <c r="V16" s="1">
-        <v>4</v>
       </c>
       <c r="W16" s="1">
         <v>4</v>
       </c>
       <c r="X16" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="1">
         <v>500</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>100</v>
       </c>
-      <c r="Z16" s="1">
-        <v>0</v>
-      </c>
       <c r="AA16" s="1">
         <v>0</v>
       </c>
@@ -3139,10 +3181,13 @@
       <c r="AD16" s="1">
         <v>0</v>
       </c>
-      <c r="AF16" s="1">
-        <v>500</v>
+      <c r="AE16" s="1">
+        <v>0</v>
       </c>
       <c r="AG16" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3150,7 +3195,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:33">
+    <row r="18" s="1" customFormat="1" spans="3:34">
       <c r="C18" s="1">
         <v>2001</v>
       </c>
@@ -3158,10 +3203,10 @@
         <v>2001</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -3173,7 +3218,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -3194,32 +3239,32 @@
         <v>2</v>
       </c>
       <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
         <v>2</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
       </c>
       <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
         <v>120</v>
       </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
       <c r="Z18" s="1">
         <v>0</v>
       </c>
@@ -3235,14 +3280,17 @@
       <c r="AD18" s="1">
         <v>0</v>
       </c>
-      <c r="AF18" s="1">
-        <v>50</v>
+      <c r="AE18" s="1">
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH18" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:33">
+    <row r="19" s="1" customFormat="1" spans="3:34">
       <c r="C19" s="1">
         <v>2002</v>
       </c>
@@ -3250,10 +3298,10 @@
         <v>2002</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -3265,7 +3313,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -3286,38 +3334,38 @@
         <v>3</v>
       </c>
       <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
         <v>3</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
       </c>
       <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
         <v>150</v>
       </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
       <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
         <v>30</v>
       </c>
-      <c r="AA19" s="1">
-        <v>0</v>
-      </c>
       <c r="AB19" s="1">
         <v>0</v>
       </c>
@@ -3327,14 +3375,17 @@
       <c r="AD19" s="1">
         <v>0</v>
       </c>
-      <c r="AF19" s="1">
-        <v>50</v>
+      <c r="AE19" s="1">
+        <v>0</v>
       </c>
       <c r="AG19" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH19" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:33">
+    <row r="20" s="1" customFormat="1" spans="3:34">
       <c r="C20" s="1">
         <v>2003</v>
       </c>
@@ -3342,10 +3393,10 @@
         <v>2003</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -3357,7 +3408,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K20" s="1">
         <v>10</v>
@@ -3378,32 +3429,32 @@
         <v>2</v>
       </c>
       <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
         <v>3</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T20" s="1">
+        <v>78</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U20" s="1">
         <v>10</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>5</v>
-      </c>
-      <c r="V20" s="1">
-        <v>2</v>
       </c>
       <c r="W20" s="1">
         <v>2</v>
       </c>
       <c r="X20" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="1">
         <v>80</v>
       </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
       <c r="Z20" s="1">
         <v>0</v>
       </c>
@@ -3419,14 +3470,17 @@
       <c r="AD20" s="1">
         <v>0</v>
       </c>
-      <c r="AF20" s="1">
-        <v>50</v>
+      <c r="AE20" s="1">
+        <v>0</v>
       </c>
       <c r="AG20" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH20" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:33">
+    <row r="21" s="1" customFormat="1" spans="3:34">
       <c r="C21" s="1">
         <v>2004</v>
       </c>
@@ -3434,10 +3488,10 @@
         <v>2004</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -3449,7 +3503,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -3470,32 +3524,32 @@
         <v>2</v>
       </c>
       <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
         <v>4</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="S21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
         <v>4</v>
-      </c>
-      <c r="V21" s="1">
-        <v>2</v>
       </c>
       <c r="W21" s="1">
         <v>2</v>
       </c>
       <c r="X21" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="1">
         <v>100</v>
       </c>
-      <c r="Y21" s="1">
-        <v>0</v>
-      </c>
       <c r="Z21" s="1">
         <v>0</v>
       </c>
@@ -3511,17 +3565,20 @@
       <c r="AD21" s="1">
         <v>0</v>
       </c>
-      <c r="AE21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>50</v>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="AG21" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH21" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:33">
+    <row r="22" s="1" customFormat="1" spans="3:34">
       <c r="C22" s="1">
         <v>2005</v>
       </c>
@@ -3529,10 +3586,10 @@
         <v>2005</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G22" s="1">
         <v>5</v>
@@ -3544,7 +3601,7 @@
         <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K22" s="1">
         <v>55</v>
@@ -3567,18 +3624,18 @@
       <c r="Q22" s="1">
         <v>0</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>66</v>
+      <c r="R22" s="1">
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T22" s="1">
+        <v>67</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" s="1">
         <v>30</v>
       </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
       <c r="V22" s="1">
         <v>0</v>
       </c>
@@ -3606,17 +3663,20 @@
       <c r="AD22" s="1">
         <v>0</v>
       </c>
-      <c r="AE22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>50</v>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="AG22" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH22" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:33">
+    <row r="23" s="1" customFormat="1" spans="3:34">
       <c r="C23" s="1">
         <v>2006</v>
       </c>
@@ -3624,10 +3684,10 @@
         <v>2006</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G23" s="1">
         <v>6</v>
@@ -3639,7 +3699,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -3662,14 +3722,14 @@
       <c r="Q23" s="1">
         <v>0</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>66</v>
+      <c r="R23" s="1">
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="U23" s="1">
         <v>0</v>
@@ -3681,10 +3741,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z23" s="1">
         <v>0</v>
@@ -3701,14 +3761,17 @@
       <c r="AD23" s="1">
         <v>0</v>
       </c>
-      <c r="AF23" s="1">
-        <v>50</v>
+      <c r="AE23" s="1">
+        <v>0</v>
       </c>
       <c r="AG23" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH23" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:33">
+    <row r="24" s="1" customFormat="1" spans="3:34">
       <c r="C24" s="1">
         <v>2007</v>
       </c>
@@ -3716,10 +3779,10 @@
         <v>2007</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -3731,7 +3794,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K24" s="4">
         <v>5</v>
@@ -3752,32 +3815,32 @@
         <v>6</v>
       </c>
       <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
         <v>5</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
         <v>5</v>
-      </c>
-      <c r="V24" s="1">
-        <v>3</v>
       </c>
       <c r="W24" s="1">
         <v>3</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X24" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="4">
         <v>300</v>
       </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
       <c r="Z24" s="1">
         <v>0</v>
       </c>
@@ -3793,17 +3856,20 @@
       <c r="AD24" s="1">
         <v>0</v>
       </c>
-      <c r="AE24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>50</v>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="AG24" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH24" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:33">
+    <row r="25" s="1" customFormat="1" spans="3:34">
       <c r="C25" s="1">
         <v>2008</v>
       </c>
@@ -3811,10 +3877,10 @@
         <v>2008</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G25" s="1">
         <v>2008</v>
@@ -3826,7 +3892,7 @@
         <v>200</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K25" s="1">
         <v>30</v>
@@ -3849,14 +3915,14 @@
       <c r="Q25" s="1">
         <v>0</v>
       </c>
-      <c r="R25" s="1" t="s">
-        <v>66</v>
+      <c r="R25" s="1">
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="U25" s="1">
         <v>0</v>
@@ -3888,17 +3954,20 @@
       <c r="AD25" s="1">
         <v>0</v>
       </c>
-      <c r="AE25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>50</v>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="AG25" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH25" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:33">
+    <row r="26" s="1" customFormat="1" spans="3:34">
       <c r="C26" s="1">
         <v>2009</v>
       </c>
@@ -3906,10 +3975,10 @@
         <v>2009</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -3921,7 +3990,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K26" s="1">
         <v>15</v>
@@ -3942,32 +4011,32 @@
         <v>7</v>
       </c>
       <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
         <v>3</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T26" s="1">
+        <v>78</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U26" s="1">
         <v>10</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>5</v>
-      </c>
-      <c r="V26" s="1">
-        <v>4</v>
       </c>
       <c r="W26" s="1">
         <v>4</v>
       </c>
       <c r="X26" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="1">
         <v>400</v>
       </c>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
       <c r="Z26" s="1">
         <v>0</v>
       </c>
@@ -3983,17 +4052,20 @@
       <c r="AD26" s="1">
         <v>0</v>
       </c>
-      <c r="AE26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>50</v>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="AG26" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH26" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:33">
+    <row r="27" s="1" customFormat="1" spans="3:34">
       <c r="C27" s="1">
         <v>2010</v>
       </c>
@@ -4001,10 +4073,10 @@
         <v>2010</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G27" s="1">
         <v>2010</v>
@@ -4016,7 +4088,7 @@
         <v>100</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K27" s="1">
         <v>30</v>
@@ -4037,32 +4109,32 @@
         <v>5</v>
       </c>
       <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
         <v>3</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T27" s="1">
+        <v>78</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U27" s="1">
         <v>15</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>5</v>
-      </c>
-      <c r="V27" s="1">
-        <v>4</v>
       </c>
       <c r="W27" s="1">
         <v>4</v>
       </c>
       <c r="X27" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="1">
         <v>150</v>
       </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
       <c r="Z27" s="1">
         <v>0</v>
       </c>
@@ -4078,14 +4150,17 @@
       <c r="AD27" s="1">
         <v>0</v>
       </c>
-      <c r="AF27" s="1">
-        <v>50</v>
+      <c r="AE27" s="1">
+        <v>0</v>
       </c>
       <c r="AG27" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH27" s="1">
         <v>4102</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="3:33">
+    <row r="28" s="1" customFormat="1" spans="3:34">
       <c r="C28" s="1">
         <v>2011</v>
       </c>
@@ -4093,10 +4168,10 @@
         <v>2011</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" s="1">
         <v>8</v>
@@ -4108,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K28" s="1">
         <v>30</v>
@@ -4126,38 +4201,38 @@
         <v>1</v>
       </c>
       <c r="P28" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>10</v>
+      </c>
+      <c r="R28" s="1">
+        <v>3</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28" s="1">
+        <v>15</v>
+      </c>
+      <c r="V28" s="1">
         <v>5</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>3</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T28" s="1">
-        <v>15</v>
-      </c>
-      <c r="U28" s="1">
-        <v>5</v>
-      </c>
-      <c r="V28" s="1">
-        <v>4</v>
       </c>
       <c r="W28" s="1">
         <v>4</v>
       </c>
       <c r="X28" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="1">
         <v>500</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1">
         <v>100</v>
       </c>
-      <c r="Z28" s="1">
-        <v>0</v>
-      </c>
       <c r="AA28" s="1">
         <v>0</v>
       </c>
@@ -4170,10 +4245,13 @@
       <c r="AD28" s="1">
         <v>0</v>
       </c>
-      <c r="AF28" s="1">
-        <v>500</v>
+      <c r="AE28" s="1">
+        <v>0</v>
       </c>
       <c r="AG28" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4181,7 +4259,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="3:33">
+    <row r="30" s="1" customFormat="1" spans="3:34">
       <c r="C30" s="1">
         <v>3001</v>
       </c>
@@ -4189,10 +4267,10 @@
         <v>3001</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G30" s="1">
         <v>4</v>
@@ -4204,7 +4282,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K30" s="1">
         <v>4</v>
@@ -4227,14 +4305,14 @@
       <c r="Q30" s="1">
         <v>0</v>
       </c>
-      <c r="R30" s="1" t="s">
-        <v>66</v>
+      <c r="R30" s="1">
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -4246,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -4266,14 +4344,17 @@
       <c r="AD30" s="1">
         <v>0</v>
       </c>
-      <c r="AF30" s="1">
-        <v>50</v>
+      <c r="AE30" s="1">
+        <v>0</v>
       </c>
       <c r="AG30" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH30" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="3:33">
+    <row r="31" s="1" customFormat="1" spans="3:34">
       <c r="C31" s="1">
         <v>3002</v>
       </c>
@@ -4281,10 +4362,10 @@
         <v>3002</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -4296,7 +4377,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -4317,32 +4398,32 @@
         <v>2</v>
       </c>
       <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
         <v>3</v>
       </c>
-      <c r="R31" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T31" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="U31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="1">
         <v>0</v>
       </c>
       <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
         <v>120</v>
       </c>
-      <c r="Y31" s="1">
-        <v>0</v>
-      </c>
       <c r="Z31" s="1">
         <v>0</v>
       </c>
@@ -4358,14 +4439,17 @@
       <c r="AD31" s="1">
         <v>0</v>
       </c>
-      <c r="AF31" s="1">
-        <v>50</v>
+      <c r="AE31" s="1">
+        <v>0</v>
       </c>
       <c r="AG31" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH31" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="3:33">
+    <row r="32" s="1" customFormat="1" spans="3:34">
       <c r="C32" s="1">
         <v>3003</v>
       </c>
@@ -4373,10 +4457,10 @@
         <v>3003</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -4388,7 +4472,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K32" s="1">
         <v>10</v>
@@ -4409,38 +4493,38 @@
         <v>2</v>
       </c>
       <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
         <v>2</v>
       </c>
-      <c r="R32" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T32" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
         <v>5</v>
       </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
       <c r="W32" s="1">
         <v>0</v>
       </c>
       <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
         <v>35</v>
       </c>
-      <c r="Y32" s="1">
-        <v>0</v>
-      </c>
       <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
         <v>60</v>
       </c>
-      <c r="AA32" s="1">
-        <v>0</v>
-      </c>
       <c r="AB32" s="1">
         <v>0</v>
       </c>
@@ -4450,17 +4534,20 @@
       <c r="AD32" s="1">
         <v>0</v>
       </c>
-      <c r="AE32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>50</v>
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="AG32" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH32" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="3:33">
+    <row r="33" s="1" customFormat="1" spans="3:34">
       <c r="C33" s="1">
         <v>3004</v>
       </c>
@@ -4468,10 +4555,10 @@
         <v>3004</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G33" s="1">
         <v>2</v>
@@ -4483,7 +4570,7 @@
         <v>100</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K33" s="1">
         <v>15</v>
@@ -4506,30 +4593,30 @@
       <c r="Q33" s="1">
         <v>0</v>
       </c>
-      <c r="R33" s="1" t="s">
-        <v>66</v>
+      <c r="R33" s="1">
+        <v>0</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T33" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="U33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
       </c>
       <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
         <v>100</v>
       </c>
-      <c r="Y33" s="1">
-        <v>0</v>
-      </c>
       <c r="Z33" s="1">
         <v>0</v>
       </c>
@@ -4545,14 +4632,17 @@
       <c r="AD33" s="1">
         <v>0</v>
       </c>
-      <c r="AF33" s="1">
-        <v>50</v>
+      <c r="AE33" s="1">
+        <v>0</v>
       </c>
       <c r="AG33" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH33" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="3:33">
+    <row r="34" s="1" customFormat="1" spans="3:34">
       <c r="C34" s="1">
         <v>3005</v>
       </c>
@@ -4560,10 +4650,10 @@
         <v>3005</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G34" s="1">
         <v>5</v>
@@ -4575,7 +4665,7 @@
         <v>50</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K34" s="1">
         <v>55</v>
@@ -4598,18 +4688,18 @@
       <c r="Q34" s="1">
         <v>0</v>
       </c>
-      <c r="R34" s="1" t="s">
-        <v>66</v>
+      <c r="R34" s="1">
+        <v>0</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T34" s="1">
+        <v>67</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U34" s="1">
         <v>30</v>
       </c>
-      <c r="U34" s="1">
-        <v>0</v>
-      </c>
       <c r="V34" s="1">
         <v>0</v>
       </c>
@@ -4637,17 +4727,20 @@
       <c r="AD34" s="1">
         <v>0</v>
       </c>
-      <c r="AE34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>50</v>
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="AG34" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH34" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="3:33">
+    <row r="35" s="1" customFormat="1" spans="3:34">
       <c r="C35" s="1">
         <v>3006</v>
       </c>
@@ -4655,10 +4748,10 @@
         <v>3006</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G35" s="1">
         <v>6</v>
@@ -4670,7 +4763,7 @@
         <v>10</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -4691,16 +4784,16 @@
         <v>1</v>
       </c>
       <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
         <v>3</v>
       </c>
-      <c r="R35" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="S35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T35" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="U35" s="1">
         <v>0</v>
@@ -4712,10 +4805,10 @@
         <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z35" s="1">
         <v>0</v>
@@ -4732,14 +4825,17 @@
       <c r="AD35" s="1">
         <v>0</v>
       </c>
-      <c r="AF35" s="1">
-        <v>50</v>
+      <c r="AE35" s="1">
+        <v>0</v>
       </c>
       <c r="AG35" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH35" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="3:33">
+    <row r="36" s="1" customFormat="1" spans="3:34">
       <c r="C36" s="1">
         <v>3007</v>
       </c>
@@ -4747,10 +4843,10 @@
         <v>3007</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -4762,7 +4858,7 @@
         <v>100</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K36" s="1">
         <v>30</v>
@@ -4783,32 +4879,32 @@
         <v>3</v>
       </c>
       <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
         <v>2</v>
       </c>
-      <c r="R36" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T36" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
         <v>2</v>
       </c>
-      <c r="V36" s="1">
-        <v>0</v>
-      </c>
       <c r="W36" s="1">
         <v>0</v>
       </c>
       <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
         <v>120</v>
       </c>
-      <c r="Y36" s="1">
-        <v>0</v>
-      </c>
       <c r="Z36" s="1">
         <v>0</v>
       </c>
@@ -4824,14 +4920,17 @@
       <c r="AD36" s="1">
         <v>0</v>
       </c>
-      <c r="AF36" s="1">
-        <v>50</v>
+      <c r="AE36" s="1">
+        <v>0</v>
       </c>
       <c r="AG36" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH36" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="3:33">
+    <row r="37" s="1" customFormat="1" spans="3:34">
       <c r="C37" s="1">
         <v>3008</v>
       </c>
@@ -4839,10 +4938,10 @@
         <v>3008</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G37" s="1">
         <v>3008</v>
@@ -4854,7 +4953,7 @@
         <v>200</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K37" s="1">
         <v>30</v>
@@ -4877,18 +4976,18 @@
       <c r="Q37" s="1">
         <v>0</v>
       </c>
-      <c r="R37" s="1" t="s">
-        <v>66</v>
+      <c r="R37" s="1">
+        <v>0</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T37" s="1">
+        <v>67</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U37" s="1">
         <v>5</v>
       </c>
-      <c r="U37" s="1">
-        <v>0</v>
-      </c>
       <c r="V37" s="1">
         <v>0</v>
       </c>
@@ -4916,17 +5015,20 @@
       <c r="AD37" s="1">
         <v>0</v>
       </c>
-      <c r="AE37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>50</v>
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="AG37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH37" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="3:33">
+    <row r="38" s="1" customFormat="1" spans="3:34">
       <c r="C38" s="1">
         <v>3009</v>
       </c>
@@ -4934,10 +5036,10 @@
         <v>3009</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
@@ -4949,7 +5051,7 @@
         <v>100</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K38" s="1">
         <v>30</v>
@@ -4970,32 +5072,32 @@
         <v>4</v>
       </c>
       <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
         <v>2</v>
       </c>
-      <c r="R38" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
         <v>3</v>
       </c>
-      <c r="V38" s="1">
-        <v>0</v>
-      </c>
       <c r="W38" s="1">
         <v>0</v>
       </c>
       <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
         <v>300</v>
       </c>
-      <c r="Y38" s="1">
-        <v>0</v>
-      </c>
       <c r="Z38" s="1">
         <v>0</v>
       </c>
@@ -5011,14 +5113,17 @@
       <c r="AD38" s="1">
         <v>0</v>
       </c>
-      <c r="AF38" s="1">
-        <v>50</v>
+      <c r="AE38" s="1">
+        <v>0</v>
       </c>
       <c r="AG38" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH38" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="3:33">
+    <row r="39" s="1" customFormat="1" spans="3:34">
       <c r="C39" s="1">
         <v>3010</v>
       </c>
@@ -5026,10 +5131,10 @@
         <v>3010</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G39" s="1">
         <v>8</v>
@@ -5041,7 +5146,7 @@
         <v>100</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
@@ -5064,33 +5169,33 @@
       <c r="Q39" s="1">
         <v>0</v>
       </c>
-      <c r="R39" s="1" t="s">
-        <v>77</v>
+      <c r="R39" s="1">
+        <v>0</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
         <v>3</v>
       </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
       <c r="W39" s="1">
         <v>0</v>
       </c>
       <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
         <v>20</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Z39" s="1">
         <v>400</v>
       </c>
-      <c r="Z39" s="1">
-        <v>0</v>
-      </c>
       <c r="AA39" s="1">
         <v>0</v>
       </c>
@@ -5103,14 +5208,17 @@
       <c r="AD39" s="1">
         <v>0</v>
       </c>
-      <c r="AF39" s="1">
-        <v>50</v>
+      <c r="AE39" s="1">
+        <v>0</v>
       </c>
       <c r="AG39" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH39" s="1">
         <v>4102</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="3:33">
+    <row r="40" s="1" customFormat="1" spans="3:34">
       <c r="C40" s="1">
         <v>3011</v>
       </c>
@@ -5118,10 +5226,10 @@
         <v>3011</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G40" s="1">
         <v>8</v>
@@ -5133,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K40" s="1">
         <v>30</v>
@@ -5151,38 +5259,38 @@
         <v>1</v>
       </c>
       <c r="P40" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>10</v>
+      </c>
+      <c r="R40" s="1">
+        <v>3</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U40" s="1">
+        <v>15</v>
+      </c>
+      <c r="V40" s="1">
         <v>5</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>3</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T40" s="1">
-        <v>15</v>
-      </c>
-      <c r="U40" s="1">
-        <v>5</v>
-      </c>
-      <c r="V40" s="1">
-        <v>4</v>
       </c>
       <c r="W40" s="1">
         <v>4</v>
       </c>
       <c r="X40" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="1">
         <v>500</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Z40" s="1">
         <v>100</v>
       </c>
-      <c r="Z40" s="1">
-        <v>0</v>
-      </c>
       <c r="AA40" s="1">
         <v>0</v>
       </c>
@@ -5195,10 +5303,13 @@
       <c r="AD40" s="1">
         <v>0</v>
       </c>
-      <c r="AF40" s="1">
-        <v>500</v>
+      <c r="AE40" s="1">
+        <v>0</v>
       </c>
       <c r="AG40" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5206,7 +5317,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="3:32">
+    <row r="42" s="1" customFormat="1" spans="3:33">
       <c r="C42" s="1">
         <v>4001</v>
       </c>
@@ -5214,10 +5325,10 @@
         <v>4001</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G42" s="1">
         <v>4001</v>
@@ -5229,7 +5340,7 @@
         <v>-100</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K42" s="1">
         <v>30</v>
@@ -5252,18 +5363,18 @@
       <c r="Q42" s="1">
         <v>0</v>
       </c>
-      <c r="R42" s="1" t="s">
-        <v>66</v>
+      <c r="R42" s="1">
+        <v>0</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T42" s="1">
+        <v>67</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U42" s="1">
         <v>2</v>
       </c>
-      <c r="U42" s="1">
-        <v>0</v>
-      </c>
       <c r="V42" s="1">
         <v>0</v>
       </c>
@@ -5291,14 +5402,17 @@
       <c r="AD42" s="1">
         <v>0</v>
       </c>
-      <c r="AE42" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF42" s="1">
+      <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG42" s="1">
         <v>99999</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="3:32">
+    <row r="43" s="1" customFormat="1" spans="3:33">
       <c r="C43" s="1">
         <v>4002</v>
       </c>
@@ -5306,10 +5420,10 @@
         <v>4002</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G43" s="1">
         <v>4002</v>
@@ -5321,7 +5435,7 @@
         <v>200</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43" s="1">
         <v>60</v>
@@ -5344,14 +5458,14 @@
       <c r="Q43" s="1">
         <v>0</v>
       </c>
-      <c r="R43" s="1" t="s">
-        <v>66</v>
+      <c r="R43" s="1">
+        <v>0</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T43" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
@@ -5363,11 +5477,11 @@
         <v>0</v>
       </c>
       <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
         <v>100</v>
       </c>
-      <c r="Y43" s="1">
-        <v>0</v>
-      </c>
       <c r="Z43" s="1">
         <v>0</v>
       </c>
@@ -5383,12 +5497,15 @@
       <c r="AD43" s="1">
         <v>0</v>
       </c>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="1">
+      <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="1">
         <v>99999</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="3:32">
+    <row r="44" s="1" customFormat="1" spans="3:33">
       <c r="C44" s="1">
         <v>4003</v>
       </c>
@@ -5396,10 +5513,10 @@
         <v>4003</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G44" s="1">
         <v>4003</v>
@@ -5411,7 +5528,7 @@
         <v>-1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K44" s="1">
         <v>60</v>
@@ -5434,14 +5551,14 @@
       <c r="Q44" s="1">
         <v>0</v>
       </c>
-      <c r="R44" s="1" t="s">
-        <v>66</v>
+      <c r="R44" s="1">
+        <v>0</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T44" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U44" s="1">
         <v>0</v>
@@ -5453,11 +5570,11 @@
         <v>0</v>
       </c>
       <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
         <v>100</v>
       </c>
-      <c r="Y44" s="1">
-        <v>0</v>
-      </c>
       <c r="Z44" s="1">
         <v>0</v>
       </c>
@@ -5473,10 +5590,13 @@
       <c r="AD44" s="1">
         <v>0</v>
       </c>
-      <c r="AE44" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF44" s="1">
+      <c r="AE44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG44" s="1">
         <v>99999</v>
       </c>
     </row>
@@ -5484,7 +5604,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="3:33">
+    <row r="46" s="1" customFormat="1" spans="3:34">
       <c r="C46" s="1">
         <v>9001</v>
       </c>
@@ -5492,10 +5612,10 @@
         <v>9001</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G46" s="1">
         <v>9</v>
@@ -5524,33 +5644,30 @@
       <c r="P46" s="1">
         <v>0</v>
       </c>
-      <c r="Q46" s="1">
-        <v>1</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>66</v>
+      <c r="R46" s="1">
+        <v>1</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T46" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="U46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46" s="1">
         <v>0</v>
       </c>
       <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
         <v>100</v>
       </c>
-      <c r="Y46" s="1">
-        <v>0</v>
-      </c>
       <c r="Z46" s="1">
         <v>0</v>
       </c>
@@ -5566,14 +5683,17 @@
       <c r="AD46" s="1">
         <v>0</v>
       </c>
-      <c r="AF46" s="1">
-        <v>50</v>
+      <c r="AE46" s="1">
+        <v>0</v>
       </c>
       <c r="AG46" s="1">
         <v>50</v>
       </c>
+      <c r="AH46" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="3:33">
+    <row r="47" s="1" customFormat="1" spans="3:34">
       <c r="C47" s="1">
         <v>9002</v>
       </c>
@@ -5581,10 +5701,10 @@
         <v>9002</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G47" s="1">
         <v>9</v>
@@ -5613,33 +5733,30 @@
       <c r="P47" s="1">
         <v>0</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="R47" s="1">
         <v>2</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T47" s="1">
-        <v>0</v>
+      <c r="T47" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47" s="1">
         <v>0</v>
       </c>
       <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
         <v>100</v>
       </c>
-      <c r="Y47" s="1">
-        <v>0</v>
-      </c>
       <c r="Z47" s="1">
         <v>0</v>
       </c>
@@ -5655,15 +5772,18 @@
       <c r="AD47" s="1">
         <v>0</v>
       </c>
-      <c r="AF47" s="1">
-        <v>50</v>
+      <c r="AE47" s="1">
+        <v>0</v>
       </c>
       <c r="AG47" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH47" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1" spans="3:33">
+    <row r="49" s="1" customFormat="1" spans="3:34">
       <c r="C49" s="1">
         <v>10001</v>
       </c>
@@ -5671,23 +5791,23 @@
         <v>10001</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="K49" s="1">
         <v>0</v>
       </c>
@@ -5706,33 +5826,30 @@
       <c r="P49" s="1">
         <v>0</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="R49" s="1">
         <v>3</v>
       </c>
-      <c r="R49" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T49" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="U49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
       </c>
       <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
         <v>150</v>
       </c>
-      <c r="Y49" s="1">
-        <v>0</v>
-      </c>
       <c r="Z49" s="1">
         <v>0</v>
       </c>
@@ -5748,14 +5865,17 @@
       <c r="AD49" s="1">
         <v>0</v>
       </c>
-      <c r="AF49" s="1">
-        <v>50</v>
+      <c r="AE49" s="1">
+        <v>0</v>
       </c>
       <c r="AG49" s="1">
         <v>50</v>
       </c>
+      <c r="AH49" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="50" spans="3:33">
+    <row r="50" spans="3:34">
       <c r="C50" s="2">
         <v>10002</v>
       </c>
@@ -5763,10 +5883,10 @@
         <v>10002</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="G50" s="2">
         <v>4</v>
@@ -5778,7 +5898,7 @@
         <v>10</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
@@ -5798,33 +5918,31 @@
       <c r="P50" s="1">
         <v>0</v>
       </c>
-      <c r="Q50" s="2">
-        <v>0</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>66</v>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2">
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T50" s="2">
-        <v>0</v>
+      <c r="T50" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U50" s="2">
-        <v>1</v>
-      </c>
-      <c r="V50" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
       </c>
-      <c r="X50" s="2">
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2">
         <v>100</v>
       </c>
-      <c r="Y50" s="1">
-        <v>0</v>
-      </c>
       <c r="Z50" s="1">
         <v>0</v>
       </c>
@@ -5840,15 +5958,18 @@
       <c r="AD50" s="1">
         <v>0</v>
       </c>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1">
-        <v>50</v>
-      </c>
+      <c r="AE50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="1">
         <v>50</v>
       </c>
+      <c r="AH50" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="51" spans="3:33">
+    <row r="51" spans="3:34">
       <c r="C51" s="2">
         <v>10003</v>
       </c>
@@ -5856,10 +5977,10 @@
         <v>10003</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5871,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
@@ -5891,33 +6012,31 @@
       <c r="P51" s="1">
         <v>0</v>
       </c>
-      <c r="Q51" s="1">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>77</v>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1">
+        <v>0</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T51" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
         <v>10</v>
       </c>
-      <c r="V51" s="1">
-        <v>0</v>
-      </c>
       <c r="W51" s="1">
         <v>0</v>
       </c>
       <c r="X51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1">
         <v>100</v>
       </c>
-      <c r="Y51" s="1">
-        <v>0</v>
-      </c>
       <c r="Z51" s="1">
         <v>0</v>
       </c>
@@ -5933,15 +6052,18 @@
       <c r="AD51" s="1">
         <v>0</v>
       </c>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1">
-        <v>50</v>
-      </c>
+      <c r="AE51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="1">
         <v>50</v>
       </c>
+      <c r="AH51" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="52" spans="3:33">
+    <row r="52" spans="3:34">
       <c r="C52" s="2">
         <v>10004</v>
       </c>
@@ -5949,10 +6071,10 @@
         <v>10004</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G52" s="2">
         <v>4</v>
@@ -5964,7 +6086,7 @@
         <v>10</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
@@ -5984,37 +6106,35 @@
       <c r="P52" s="1">
         <v>0</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2">
         <v>3</v>
       </c>
-      <c r="R52" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="S52" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T52" s="2">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="U52" s="2">
+        <v>0</v>
+      </c>
+      <c r="V52" s="2">
         <v>4</v>
       </c>
-      <c r="V52" s="1">
-        <v>0</v>
-      </c>
       <c r="W52" s="1">
         <v>0</v>
       </c>
-      <c r="X52" s="2">
-        <v>50</v>
+      <c r="X52" s="1">
+        <v>0</v>
       </c>
       <c r="Y52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="1">
         <v>0</v>
       </c>
       <c r="AB52" s="2">
@@ -6023,17 +6143,20 @@
       <c r="AC52" s="2">
         <v>0</v>
       </c>
-      <c r="AD52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="1">
-        <v>50</v>
+      <c r="AD52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>0</v>
       </c>
       <c r="AG52" s="1">
         <v>50</v>
       </c>
+      <c r="AH52" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="3:33">
+    <row r="53" s="1" customFormat="1" spans="3:34">
       <c r="C53" s="1">
         <v>10005</v>
       </c>
@@ -6041,10 +6164,10 @@
         <v>10005</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -6056,7 +6179,7 @@
         <v>10</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K53" s="1">
         <v>0</v>
@@ -6076,39 +6199,36 @@
       <c r="P53" s="1">
         <v>0</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="R53" s="1">
         <v>2</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T53" s="1">
-        <v>0</v>
+      <c r="T53" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
         <v>2</v>
       </c>
-      <c r="V53" s="1">
-        <v>0</v>
-      </c>
       <c r="W53" s="1">
         <v>0</v>
       </c>
       <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
         <v>150</v>
       </c>
-      <c r="Y53" s="1">
-        <v>0</v>
-      </c>
       <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1">
         <v>20</v>
       </c>
-      <c r="AA53" s="1">
-        <v>0</v>
-      </c>
       <c r="AB53" s="1">
         <v>0</v>
       </c>
@@ -6118,14 +6238,17 @@
       <c r="AD53" s="1">
         <v>0</v>
       </c>
-      <c r="AF53" s="1">
-        <v>50</v>
+      <c r="AE53" s="1">
+        <v>0</v>
       </c>
       <c r="AG53" s="1">
         <v>50</v>
       </c>
+      <c r="AH53" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="3:33">
+    <row r="55" s="1" customFormat="1" spans="3:34">
       <c r="C55" s="1">
         <v>11001</v>
       </c>
@@ -6133,10 +6256,10 @@
         <v>1001</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -6165,33 +6288,30 @@
       <c r="P55" s="1">
         <v>0</v>
       </c>
-      <c r="Q55" s="1">
-        <v>1</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>66</v>
+      <c r="R55" s="1">
+        <v>1</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T55" s="1">
-        <v>0</v>
+      <c r="T55" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55" s="1">
         <v>0</v>
       </c>
       <c r="X55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1">
         <v>120</v>
       </c>
-      <c r="Y55" s="1">
-        <v>0</v>
-      </c>
       <c r="Z55" s="1">
         <v>0</v>
       </c>
@@ -6207,14 +6327,17 @@
       <c r="AD55" s="1">
         <v>0</v>
       </c>
-      <c r="AF55" s="1">
-        <v>50</v>
+      <c r="AE55" s="1">
+        <v>0</v>
       </c>
       <c r="AG55" s="1">
         <v>50</v>
       </c>
+      <c r="AH55" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="3:33">
+    <row r="56" s="1" customFormat="1" spans="3:34">
       <c r="C56" s="1">
         <v>11002</v>
       </c>
@@ -6222,10 +6345,10 @@
         <v>1002</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -6254,39 +6377,36 @@
       <c r="P56" s="1">
         <v>0</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="R56" s="1">
         <v>2</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T56" s="1">
-        <v>0</v>
+      <c r="T56" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
         <v>2</v>
       </c>
-      <c r="V56" s="1">
-        <v>0</v>
-      </c>
       <c r="W56" s="1">
         <v>0</v>
       </c>
       <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
         <v>150</v>
       </c>
-      <c r="Y56" s="1">
-        <v>0</v>
-      </c>
       <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="1">
         <v>20</v>
       </c>
-      <c r="AA56" s="1">
-        <v>0</v>
-      </c>
       <c r="AB56" s="1">
         <v>0</v>
       </c>
@@ -6296,14 +6416,17 @@
       <c r="AD56" s="1">
         <v>0</v>
       </c>
-      <c r="AF56" s="1">
-        <v>50</v>
+      <c r="AE56" s="1">
+        <v>0</v>
       </c>
       <c r="AG56" s="1">
         <v>50</v>
       </c>
+      <c r="AH56" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="3:33">
+    <row r="57" s="1" customFormat="1" spans="3:34">
       <c r="C57" s="1">
         <v>11003</v>
       </c>
@@ -6311,10 +6434,10 @@
         <v>1003</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -6343,33 +6466,30 @@
       <c r="P57" s="1">
         <v>0</v>
       </c>
-      <c r="Q57" s="1">
-        <v>1</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>66</v>
+      <c r="R57" s="1">
+        <v>1</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T57" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="U57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57" s="1">
         <v>5</v>
       </c>
-      <c r="V57" s="1">
-        <v>0</v>
-      </c>
       <c r="W57" s="1">
         <v>0</v>
       </c>
       <c r="X57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="1">
         <v>100</v>
       </c>
-      <c r="Y57" s="1">
-        <v>0</v>
-      </c>
       <c r="Z57" s="1">
         <v>0</v>
       </c>
@@ -6385,14 +6505,17 @@
       <c r="AD57" s="1">
         <v>0</v>
       </c>
-      <c r="AF57" s="1">
-        <v>50</v>
+      <c r="AE57" s="1">
+        <v>0</v>
       </c>
       <c r="AG57" s="1">
         <v>50</v>
       </c>
+      <c r="AH57" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="3:33">
+    <row r="58" s="1" customFormat="1" spans="3:34">
       <c r="C58" s="1">
         <v>11004</v>
       </c>
@@ -6400,10 +6523,10 @@
         <v>1004</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G58" s="1">
         <v>7</v>
@@ -6432,33 +6555,30 @@
       <c r="P58" s="1">
         <v>0</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="R58" s="1">
         <v>4</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T58" s="1">
+      <c r="T58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U58" s="1">
         <v>2</v>
       </c>
-      <c r="U58" s="1">
-        <v>1</v>
-      </c>
       <c r="V58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58" s="1">
         <v>0</v>
       </c>
       <c r="X58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1">
         <v>200</v>
       </c>
-      <c r="Y58" s="1">
-        <v>0</v>
-      </c>
       <c r="Z58" s="1">
         <v>0</v>
       </c>
@@ -6474,17 +6594,20 @@
       <c r="AD58" s="1">
         <v>0</v>
       </c>
-      <c r="AE58" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>50</v>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="AG58" s="1">
         <v>50</v>
       </c>
+      <c r="AH58" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="3:33">
+    <row r="59" s="1" customFormat="1" spans="3:34">
       <c r="C59" s="1">
         <v>11005</v>
       </c>
@@ -6492,10 +6615,10 @@
         <v>1005</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" s="1">
         <v>5</v>
@@ -6524,21 +6647,18 @@
       <c r="P59" s="1">
         <v>0</v>
       </c>
-      <c r="Q59" s="1">
-        <v>0</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>66</v>
+      <c r="R59" s="1">
+        <v>0</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T59" s="1">
+        <v>67</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U59" s="1">
         <v>30</v>
       </c>
-      <c r="U59" s="1">
-        <v>0</v>
-      </c>
       <c r="V59" s="1">
         <v>0</v>
       </c>
@@ -6546,11 +6666,11 @@
         <v>0</v>
       </c>
       <c r="X59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
         <v>20</v>
       </c>
-      <c r="Y59" s="1">
-        <v>0</v>
-      </c>
       <c r="Z59" s="1">
         <v>0</v>
       </c>
@@ -6566,15 +6686,18 @@
       <c r="AD59" s="1">
         <v>0</v>
       </c>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="1">
-        <v>50</v>
-      </c>
+      <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="5"/>
       <c r="AG59" s="1">
         <v>50</v>
       </c>
+      <c r="AH59" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="60" s="1" customFormat="1" spans="3:33">
+    <row r="60" s="1" customFormat="1" spans="3:34">
       <c r="C60" s="1">
         <v>11006</v>
       </c>
@@ -6582,10 +6705,10 @@
         <v>1006</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G60" s="1">
         <v>6</v>
@@ -6614,17 +6737,14 @@
       <c r="P60" s="1">
         <v>0</v>
       </c>
-      <c r="Q60" s="1">
-        <v>0</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>66</v>
+      <c r="R60" s="1">
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T60" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="U60" s="1">
         <v>0</v>
@@ -6636,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="X60" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z60" s="1">
         <v>0</v>
@@ -6656,14 +6776,17 @@
       <c r="AD60" s="1">
         <v>0</v>
       </c>
-      <c r="AF60" s="1">
-        <v>50</v>
+      <c r="AE60" s="1">
+        <v>0</v>
       </c>
       <c r="AG60" s="1">
         <v>50</v>
       </c>
+      <c r="AH60" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="3:33">
+    <row r="61" s="1" customFormat="1" spans="3:34">
       <c r="C61" s="1">
         <v>11007</v>
       </c>
@@ -6671,10 +6794,10 @@
         <v>1007</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -6703,33 +6826,30 @@
       <c r="P61" s="1">
         <v>0</v>
       </c>
-      <c r="Q61" s="1">
-        <v>1</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>66</v>
+      <c r="R61" s="1">
+        <v>1</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T61" s="1">
-        <v>0</v>
+      <c r="T61" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61" s="1">
         <v>0</v>
       </c>
       <c r="X61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="1">
         <v>300</v>
       </c>
-      <c r="Y61" s="1">
-        <v>0</v>
-      </c>
       <c r="Z61" s="1">
         <v>0</v>
       </c>
@@ -6745,14 +6865,17 @@
       <c r="AD61" s="1">
         <v>0</v>
       </c>
-      <c r="AF61" s="1">
-        <v>50</v>
+      <c r="AE61" s="1">
+        <v>0</v>
       </c>
       <c r="AG61" s="1">
         <v>50</v>
       </c>
+      <c r="AH61" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="62" s="1" customFormat="1" spans="3:33">
+    <row r="62" s="1" customFormat="1" spans="3:34">
       <c r="C62" s="1">
         <v>12001</v>
       </c>
@@ -6760,10 +6883,10 @@
         <v>2001</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -6792,33 +6915,30 @@
       <c r="P62" s="1">
         <v>0</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="R62" s="1">
         <v>2</v>
       </c>
-      <c r="R62" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S62" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T62" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="U62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W62" s="1">
         <v>0</v>
       </c>
       <c r="X62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1">
         <v>120</v>
       </c>
-      <c r="Y62" s="1">
-        <v>0</v>
-      </c>
       <c r="Z62" s="1">
         <v>0</v>
       </c>
@@ -6834,14 +6954,17 @@
       <c r="AD62" s="1">
         <v>0</v>
       </c>
-      <c r="AF62" s="1">
-        <v>50</v>
+      <c r="AE62" s="1">
+        <v>0</v>
       </c>
       <c r="AG62" s="1">
         <v>50</v>
       </c>
+      <c r="AH62" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="3:33">
+    <row r="63" s="1" customFormat="1" spans="3:34">
       <c r="C63" s="1">
         <v>12002</v>
       </c>
@@ -6849,10 +6972,10 @@
         <v>2002</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -6881,33 +7004,30 @@
       <c r="P63" s="1">
         <v>0</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="R63" s="1">
         <v>3</v>
       </c>
-      <c r="R63" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T63" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="U63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63" s="1">
         <v>0</v>
       </c>
       <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
         <v>150</v>
       </c>
-      <c r="Y63" s="1">
-        <v>0</v>
-      </c>
       <c r="Z63" s="1">
         <v>0</v>
       </c>
@@ -6923,14 +7043,17 @@
       <c r="AD63" s="1">
         <v>0</v>
       </c>
-      <c r="AF63" s="1">
-        <v>50</v>
+      <c r="AE63" s="1">
+        <v>0</v>
       </c>
       <c r="AG63" s="1">
         <v>50</v>
       </c>
+      <c r="AH63" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="3:33">
+    <row r="64" s="1" customFormat="1" spans="3:34">
       <c r="C64" s="1">
         <v>12003</v>
       </c>
@@ -6938,10 +7061,10 @@
         <v>2003</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G64" s="1">
         <v>3</v>
@@ -6970,33 +7093,30 @@
       <c r="P64" s="1">
         <v>0</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="R64" s="1">
         <v>3</v>
       </c>
-      <c r="R64" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T64" s="1">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U64" s="1">
         <v>5</v>
       </c>
       <c r="V64" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W64" s="1">
         <v>2</v>
       </c>
       <c r="X64" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y64" s="1">
         <v>80</v>
       </c>
-      <c r="Y64" s="1">
-        <v>0</v>
-      </c>
       <c r="Z64" s="1">
         <v>0</v>
       </c>
@@ -7012,14 +7132,17 @@
       <c r="AD64" s="1">
         <v>0</v>
       </c>
-      <c r="AF64" s="1">
-        <v>50</v>
+      <c r="AE64" s="1">
+        <v>0</v>
       </c>
       <c r="AG64" s="1">
         <v>50</v>
       </c>
+      <c r="AH64" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="65" s="1" customFormat="1" spans="3:33">
+    <row r="65" s="1" customFormat="1" spans="3:34">
       <c r="C65" s="1">
         <v>12004</v>
       </c>
@@ -7027,10 +7150,10 @@
         <v>2004</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -7059,33 +7182,30 @@
       <c r="P65" s="1">
         <v>0</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="R65" s="1">
         <v>4</v>
       </c>
-      <c r="R65" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="S65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T65" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
         <v>4</v>
-      </c>
-      <c r="V65" s="1">
-        <v>2</v>
       </c>
       <c r="W65" s="1">
         <v>2</v>
       </c>
       <c r="X65" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y65" s="1">
         <v>100</v>
       </c>
-      <c r="Y65" s="1">
-        <v>0</v>
-      </c>
       <c r="Z65" s="1">
         <v>0</v>
       </c>
@@ -7101,14 +7221,17 @@
       <c r="AD65" s="1">
         <v>0</v>
       </c>
-      <c r="AF65" s="1">
-        <v>50</v>
+      <c r="AE65" s="1">
+        <v>0</v>
       </c>
       <c r="AG65" s="1">
         <v>50</v>
       </c>
+      <c r="AH65" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="66" s="1" customFormat="1" spans="3:33">
+    <row r="66" s="1" customFormat="1" spans="3:34">
       <c r="C66" s="1">
         <v>12005</v>
       </c>
@@ -7116,10 +7239,10 @@
         <v>2005</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G66" s="1">
         <v>5</v>
@@ -7148,21 +7271,18 @@
       <c r="P66" s="1">
         <v>0</v>
       </c>
-      <c r="Q66" s="1">
-        <v>0</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>66</v>
+      <c r="R66" s="1">
+        <v>0</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T66" s="1">
+        <v>67</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U66" s="1">
         <v>30</v>
       </c>
-      <c r="U66" s="1">
-        <v>0</v>
-      </c>
       <c r="V66" s="1">
         <v>0</v>
       </c>
@@ -7170,11 +7290,11 @@
         <v>0</v>
       </c>
       <c r="X66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1">
         <v>20</v>
       </c>
-      <c r="Y66" s="1">
-        <v>0</v>
-      </c>
       <c r="Z66" s="1">
         <v>0</v>
       </c>
@@ -7190,15 +7310,18 @@
       <c r="AD66" s="1">
         <v>0</v>
       </c>
-      <c r="AE66" s="5"/>
-      <c r="AF66" s="1">
-        <v>50</v>
-      </c>
+      <c r="AE66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="5"/>
       <c r="AG66" s="1">
         <v>50</v>
       </c>
+      <c r="AH66" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="67" s="1" customFormat="1" spans="3:33">
+    <row r="67" s="1" customFormat="1" spans="3:34">
       <c r="C67" s="1">
         <v>12006</v>
       </c>
@@ -7206,10 +7329,10 @@
         <v>2006</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G67" s="1">
         <v>6</v>
@@ -7238,17 +7361,14 @@
       <c r="P67" s="1">
         <v>0</v>
       </c>
-      <c r="Q67" s="1">
-        <v>0</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>66</v>
+      <c r="R67" s="1">
+        <v>0</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T67" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="U67" s="1">
         <v>0</v>
@@ -7260,10 +7380,10 @@
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z67" s="1">
         <v>0</v>
@@ -7280,14 +7400,17 @@
       <c r="AD67" s="1">
         <v>0</v>
       </c>
-      <c r="AF67" s="1">
-        <v>50</v>
+      <c r="AE67" s="1">
+        <v>0</v>
       </c>
       <c r="AG67" s="1">
         <v>50</v>
       </c>
+      <c r="AH67" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="68" s="1" customFormat="1" spans="3:33">
+    <row r="68" s="1" customFormat="1" spans="3:34">
       <c r="C68" s="1">
         <v>12007</v>
       </c>
@@ -7295,10 +7418,10 @@
         <v>2007</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -7327,33 +7450,30 @@
       <c r="P68" s="1">
         <v>0</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="R68" s="1">
         <v>5</v>
       </c>
-      <c r="R68" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T68" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1">
         <v>5</v>
-      </c>
-      <c r="V68" s="1">
-        <v>3</v>
       </c>
       <c r="W68" s="1">
         <v>3</v>
       </c>
       <c r="X68" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y68" s="1">
         <v>150</v>
       </c>
-      <c r="Y68" s="1">
-        <v>0</v>
-      </c>
       <c r="Z68" s="1">
         <v>0</v>
       </c>
@@ -7369,14 +7489,17 @@
       <c r="AD68" s="1">
         <v>0</v>
       </c>
-      <c r="AF68" s="1">
-        <v>50</v>
+      <c r="AE68" s="1">
+        <v>0</v>
       </c>
       <c r="AG68" s="1">
         <v>50</v>
       </c>
+      <c r="AH68" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="69" s="1" customFormat="1" spans="3:33">
+    <row r="69" s="1" customFormat="1" spans="3:34">
       <c r="C69" s="1">
         <v>13001</v>
       </c>
@@ -7384,10 +7507,10 @@
         <v>3001</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G69" s="1">
         <v>4</v>
@@ -7416,17 +7539,14 @@
       <c r="P69" s="1">
         <v>0</v>
       </c>
-      <c r="Q69" s="1">
-        <v>0</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>66</v>
+      <c r="R69" s="1">
+        <v>0</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T69" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U69" s="1">
         <v>0</v>
@@ -7438,10 +7558,10 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z69" s="1">
         <v>0</v>
@@ -7458,14 +7578,17 @@
       <c r="AD69" s="1">
         <v>0</v>
       </c>
-      <c r="AF69" s="1">
-        <v>50</v>
+      <c r="AE69" s="1">
+        <v>0</v>
       </c>
       <c r="AG69" s="1">
         <v>50</v>
       </c>
+      <c r="AH69" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="70" s="1" customFormat="1" spans="3:33">
+    <row r="70" s="1" customFormat="1" spans="3:34">
       <c r="C70" s="1">
         <v>13002</v>
       </c>
@@ -7473,10 +7596,10 @@
         <v>3002</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -7505,33 +7628,30 @@
       <c r="P70" s="1">
         <v>0</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="R70" s="1">
         <v>3</v>
       </c>
-      <c r="R70" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T70" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="U70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70" s="1">
         <v>0</v>
       </c>
       <c r="X70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="1">
         <v>120</v>
       </c>
-      <c r="Y70" s="1">
-        <v>0</v>
-      </c>
       <c r="Z70" s="1">
         <v>0</v>
       </c>
@@ -7547,14 +7667,17 @@
       <c r="AD70" s="1">
         <v>0</v>
       </c>
-      <c r="AF70" s="1">
-        <v>50</v>
+      <c r="AE70" s="1">
+        <v>0</v>
       </c>
       <c r="AG70" s="1">
         <v>50</v>
       </c>
+      <c r="AH70" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="71" s="1" customFormat="1" spans="3:33">
+    <row r="71" s="1" customFormat="1" spans="3:34">
       <c r="C71" s="1">
         <v>13003</v>
       </c>
@@ -7562,10 +7685,10 @@
         <v>3003</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -7594,39 +7717,36 @@
       <c r="P71" s="1">
         <v>0</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="R71" s="1">
         <v>2</v>
       </c>
-      <c r="R71" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S71" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T71" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="U71" s="1">
+        <v>0</v>
+      </c>
+      <c r="V71" s="1">
         <v>5</v>
       </c>
-      <c r="V71" s="1">
-        <v>0</v>
-      </c>
       <c r="W71" s="1">
         <v>0</v>
       </c>
       <c r="X71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="1">
         <v>35</v>
       </c>
-      <c r="Y71" s="1">
-        <v>0</v>
-      </c>
       <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="1">
         <v>65</v>
       </c>
-      <c r="AA71" s="1">
-        <v>0</v>
-      </c>
       <c r="AB71" s="1">
         <v>0</v>
       </c>
@@ -7636,14 +7756,17 @@
       <c r="AD71" s="1">
         <v>0</v>
       </c>
-      <c r="AF71" s="1">
-        <v>50</v>
+      <c r="AE71" s="1">
+        <v>0</v>
       </c>
       <c r="AG71" s="1">
         <v>50</v>
       </c>
+      <c r="AH71" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="72" s="1" customFormat="1" spans="3:33">
+    <row r="72" s="1" customFormat="1" spans="3:34">
       <c r="C72" s="1">
         <v>13004</v>
       </c>
@@ -7651,10 +7774,10 @@
         <v>3004</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G72" s="1">
         <v>2</v>
@@ -7683,33 +7806,30 @@
       <c r="P72" s="1">
         <v>0</v>
       </c>
-      <c r="Q72" s="1">
-        <v>0</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>66</v>
+      <c r="R72" s="1">
+        <v>0</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T72" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="U72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W72" s="1">
         <v>0</v>
       </c>
       <c r="X72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="1">
         <v>100</v>
       </c>
-      <c r="Y72" s="1">
-        <v>0</v>
-      </c>
       <c r="Z72" s="1">
         <v>0</v>
       </c>
@@ -7725,14 +7845,17 @@
       <c r="AD72" s="1">
         <v>0</v>
       </c>
-      <c r="AF72" s="1">
-        <v>50</v>
+      <c r="AE72" s="1">
+        <v>0</v>
       </c>
       <c r="AG72" s="1">
         <v>50</v>
       </c>
+      <c r="AH72" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="73" s="1" customFormat="1" spans="3:33">
+    <row r="73" s="1" customFormat="1" spans="3:34">
       <c r="C73" s="1">
         <v>13005</v>
       </c>
@@ -7740,10 +7863,10 @@
         <v>3005</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G73" s="1">
         <v>5</v>
@@ -7772,21 +7895,18 @@
       <c r="P73" s="1">
         <v>0</v>
       </c>
-      <c r="Q73" s="1">
-        <v>0</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>66</v>
+      <c r="R73" s="1">
+        <v>0</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T73" s="1">
+        <v>67</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U73" s="1">
         <v>30</v>
       </c>
-      <c r="U73" s="1">
-        <v>0</v>
-      </c>
       <c r="V73" s="1">
         <v>0</v>
       </c>
@@ -7794,11 +7914,11 @@
         <v>0</v>
       </c>
       <c r="X73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1">
         <v>20</v>
       </c>
-      <c r="Y73" s="1">
-        <v>0</v>
-      </c>
       <c r="Z73" s="1">
         <v>0</v>
       </c>
@@ -7814,15 +7934,18 @@
       <c r="AD73" s="1">
         <v>0</v>
       </c>
-      <c r="AE73" s="5"/>
-      <c r="AF73" s="1">
-        <v>50</v>
-      </c>
+      <c r="AE73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="5"/>
       <c r="AG73" s="1">
         <v>50</v>
       </c>
+      <c r="AH73" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="74" s="1" customFormat="1" spans="3:33">
+    <row r="74" s="1" customFormat="1" spans="3:34">
       <c r="C74" s="1">
         <v>13006</v>
       </c>
@@ -7830,10 +7953,10 @@
         <v>3006</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G74" s="1">
         <v>6</v>
@@ -7862,17 +7985,14 @@
       <c r="P74" s="1">
         <v>0</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="R74" s="1">
         <v>3</v>
       </c>
-      <c r="R74" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="S74" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T74" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="U74" s="1">
         <v>0</v>
@@ -7884,10 +8004,10 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z74" s="1">
         <v>0</v>
@@ -7904,14 +8024,17 @@
       <c r="AD74" s="1">
         <v>0</v>
       </c>
-      <c r="AF74" s="1">
-        <v>50</v>
+      <c r="AE74" s="1">
+        <v>0</v>
       </c>
       <c r="AG74" s="1">
         <v>50</v>
       </c>
+      <c r="AH74" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="75" s="1" customFormat="1" spans="3:33">
+    <row r="75" s="1" customFormat="1" spans="3:34">
       <c r="C75" s="1">
         <v>13007</v>
       </c>
@@ -7919,10 +8042,10 @@
         <v>3007</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G75" s="1">
         <v>2</v>
@@ -7951,33 +8074,30 @@
       <c r="P75" s="1">
         <v>0</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="R75" s="1">
         <v>2</v>
       </c>
-      <c r="R75" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="S75" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T75" s="1">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="U75" s="1">
+        <v>0</v>
+      </c>
+      <c r="V75" s="1">
         <v>2</v>
       </c>
-      <c r="V75" s="1">
-        <v>0</v>
-      </c>
       <c r="W75" s="1">
         <v>0</v>
       </c>
       <c r="X75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="1">
         <v>120</v>
       </c>
-      <c r="Y75" s="1">
-        <v>0</v>
-      </c>
       <c r="Z75" s="1">
         <v>0</v>
       </c>
@@ -7993,22 +8113,26 @@
       <c r="AD75" s="1">
         <v>0</v>
       </c>
-      <c r="AF75" s="1">
-        <v>50</v>
+      <c r="AE75" s="1">
+        <v>0</v>
       </c>
       <c r="AG75" s="1">
         <v>50</v>
       </c>
+      <c r="AH75" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="76" s="1" customFormat="1" spans="5:16">
+    <row r="76" s="1" customFormat="1" spans="5:17">
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="J76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
     </row>
-    <row r="77" s="1" customFormat="1" spans="3:33">
+    <row r="77" s="1" customFormat="1" spans="3:34">
       <c r="C77" s="1">
         <v>21002</v>
       </c>
@@ -8016,10 +8140,10 @@
         <v>1002</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G77" s="1">
         <v>1</v>
@@ -8048,39 +8172,36 @@
       <c r="P77" s="1">
         <v>0</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="R77" s="1">
         <v>2</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="S77" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T77" s="1">
-        <v>0</v>
+      <c r="T77" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U77" s="1">
+        <v>0</v>
+      </c>
+      <c r="V77" s="1">
         <v>2</v>
       </c>
-      <c r="V77" s="1">
-        <v>0</v>
-      </c>
       <c r="W77" s="1">
         <v>0</v>
       </c>
       <c r="X77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="1">
         <v>150</v>
       </c>
-      <c r="Y77" s="1">
-        <v>0</v>
-      </c>
       <c r="Z77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="1">
         <v>20</v>
       </c>
-      <c r="AA77" s="1">
-        <v>0</v>
-      </c>
       <c r="AB77" s="1">
         <v>0</v>
       </c>
@@ -8090,13 +8211,16 @@
       <c r="AD77" s="1">
         <v>0</v>
       </c>
-      <c r="AE77" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF77" s="1">
-        <v>50</v>
+      <c r="AE77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="AG77" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH77" s="1">
         <v>50</v>
       </c>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -986,12 +986,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1787,10 +1787,10 @@
   <sheetPr/>
   <dimension ref="C3:AJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AG40" sqref="AG40"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="M16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
         <v>10</v>
@@ -5250,7 +5250,7 @@
         <v>2</v>
       </c>
       <c r="M40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" s="1">
         <v>10</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -603,7 +603,7 @@
     <t>战士之魂</t>
   </si>
   <si>
-    <t>上阵后，提高人物{1}%的生命倍率和{2}%的物攻倍率（分身和宠物不享受）</t>
+    <t>上阵后，提高人物{1}%的生命倍率和{0}%的物攻倍率（分身和宠物不享受）</t>
   </si>
   <si>
     <t>小火球</t>
@@ -678,7 +678,7 @@
     <t>法师之魂</t>
   </si>
   <si>
-    <t>上阵后，提高人物{1}%的生命倍率和{2}%的魔攻倍率（分身和宠物不享受）</t>
+    <t>上阵后，提高人物{1}%的生命倍率和{0}%的魔攻倍率（分身和宠物不享受）</t>
   </si>
   <si>
     <t>治疗术</t>
@@ -747,7 +747,7 @@
     <t>道士之魂</t>
   </si>
   <si>
-    <t>上阵后，提高人物{1}%的生命倍率和{2}%的道攻倍率（分身和宠物不享受）</t>
+    <t>上阵后，提高人物{1}%的生命倍率和{0}%的道攻倍率（分身和宠物不享受）</t>
   </si>
   <si>
     <t>麻痹神戒</t>
@@ -1787,10 +1787,10 @@
   <sheetPr/>
   <dimension ref="C3:AJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1790,7 +1790,7 @@
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -603,7 +603,7 @@
     <t>战士之魂</t>
   </si>
   <si>
-    <t>上阵后，提高人物{1}%的生命倍率和{0}%的物攻倍率（分身和宠物不享受）</t>
+    <t>上阵后，提高人物{1}%的生命倍率和{5}%的物攻倍率（分身和宠物不享受）</t>
   </si>
   <si>
     <t>小火球</t>
@@ -678,7 +678,7 @@
     <t>法师之魂</t>
   </si>
   <si>
-    <t>上阵后，提高人物{1}%的生命倍率和{0}%的魔攻倍率（分身和宠物不享受）</t>
+    <t>上阵后，提高人物{1}%的生命倍率和{5}%的魔攻倍率（分身和宠物不享受）</t>
   </si>
   <si>
     <t>治疗术</t>
@@ -747,7 +747,7 @@
     <t>道士之魂</t>
   </si>
   <si>
-    <t>上阵后，提高人物{1}%的生命倍率和{0}%的道攻倍率（分身和宠物不享受）</t>
+    <t>上阵后，提高人物{1}%的生命倍率和{5}%的道攻倍率（分身和宠物不享受）</t>
   </si>
   <si>
     <t>麻痹神戒</t>
@@ -1790,7 +1790,7 @@
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomLeft" activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3164,7 +3164,7 @@
         <v>4</v>
       </c>
       <c r="Y16" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z16" s="1">
         <v>100</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -552,7 +552,7 @@
     <t>Square</t>
   </si>
   <si>
-    <t>"14,0,0,10","4,0,0,100","5,0,0,100"</t>
+    <t>"14,0,0,10","4,0,0,0","5,0,0,0"</t>
   </si>
   <si>
     <t>武力精通</t>
@@ -582,7 +582,7 @@
     <t>免疫{2}秒控制</t>
   </si>
   <si>
-    <t>"401,5,0,0","6,360,3,1","9,360,3,10"</t>
+    <t>"401,5,0,0","6,360,3,1","9,360,3,0"</t>
   </si>
   <si>
     <t>开天斩</t>
@@ -657,7 +657,7 @@
     <t>随机到一个空位</t>
   </si>
   <si>
-    <t>"10,360,3,50"</t>
+    <t>"10,360,3,0"</t>
   </si>
   <si>
     <t>流星火雨</t>
@@ -729,7 +729,7 @@
     <t>隐身持续{2}s</t>
   </si>
   <si>
-    <t>"8,360,3,30"</t>
+    <t>"8,360,3,0"</t>
   </si>
   <si>
     <t>召唤月灵</t>
@@ -986,12 +986,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1788,9 +1788,9 @@
   <dimension ref="C3:AJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X32" sqref="X32"/>
+      <selection pane="bottomLeft" activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="1">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z13" s="1">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="1">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z25" s="1">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z34" s="1">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -672,7 +672,7 @@
     <t>分身术</t>
   </si>
   <si>
-    <t>创造一个分身，继承其他技能(除此技能和召唤技能)，魔攻为*{1}%，物攻道攻为继承一半，其他属性完全继承。</t>
+    <t>创造一个{2}秒的分身，继承其他技能(除此技能和召唤技能)，魔攻为*{1}%，物攻道攻为继承一半，其他属性完全继承。</t>
   </si>
   <si>
     <t>法师之魂</t>
@@ -986,12 +986,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1787,10 +1787,10 @@
   <sheetPr/>
   <dimension ref="C3:AJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X20" sqref="X20"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1790,7 +1790,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3051,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>99</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1787,10 +1787,10 @@
   <sheetPr/>
   <dimension ref="C3:AJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AB19" s="1">
         <v>0</v>
